--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D25_R50_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D25_R50_Pentropia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ55"/>
+  <dimension ref="A1:Z48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,56 +564,6 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>maha_ok</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>maha_fallback</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>maha_traceS</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>maha_lam</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>maha_rank_Sreg</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>maha_cond_Sreg</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>maha_min</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>maha_med</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>maha_max</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>maha_mean</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -628,19 +578,19 @@
         <v>3</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>31.04883918409602</v>
+        <v>0.8433776256132939</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7219280948873623</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -648,95 +598,61 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0.8</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7219280948873623</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[121, 120, 150, 6, 31]</t>
+          <t>[121, 120, 137, 150, 142, 45, 6]</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[0.36870282705068963, 0.571254182457916, 0.7188030116408483, 0.8161088220553884, 0.8208680870948795]</t>
+          <t>[0.36870282705068963, 0.571254182457916, 0.8399570029762644, 0.7188030116408483, 0.915922586578981, 0.9643759308650648, 0.8161088220553884]</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>[121, 45, 139, 9, 102]</t>
+          <t>[121, 45, 139, 102, 9, 58, 143]</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.36870282705068963, 0.9643759308650648, 1.1263236539931059, 1.2196421966004263, 1.2241735099679416]</t>
+          <t>[0.36870282705068963, 0.9643759308650648, 1.1263236539931059, 1.2241735099679416, 1.2196421966004263, 1.470400260947273, 1.5570746533140791]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7188030116408483</v>
+        <v>0.6499969329634168</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.5580351081062411</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.692590</t>
-        </is>
-      </c>
-      <c r="AA2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.7518772093890281</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>8.354191215433646e-05</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>6674.112177447277</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>21.69317514775868</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>21.84085203781866</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>21.94498796632389</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>21.83517340540271</v>
+          <t>2025-10-12T23:47:52.998243</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -755,16 +671,16 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>31.04883918409602</v>
+        <v>0.8433776256132939</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7219280948873623</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -772,13 +688,13 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="b">
@@ -789,78 +705,48 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[76, 16, 74, 37, 111]</t>
+          <t>[76, 16, 37, 55, 143, 74, 124]</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[0.29108793636307856, 0.3007785898777099, 0.5765435063524058, 0.5837685871344127, 0.6010496075486401]</t>
+          <t>[0.29108793636307856, 0.3007785898777099, 0.5837685871344127, 0.6349888467834518, 0.6392179051246156, 0.5765435063524058, 0.6429941276074913]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>[143, 139, 102, 153, 121]</t>
+          <t>[143, 139, 102, 153, 121, 58, 7]</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[0.6392179051246156, 0.7289855999382798, 0.8478721364650169, 0.9712824467055972, 1.0848981146158845]</t>
+          <t>[0.6392179051246156, 0.7289855999382798, 0.8478721364650169, 0.9712824467055972, 1.0848981146158845, 1.3480260842400091, 1.2196421966004263]</t>
         </is>
       </c>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5765435063524058</v>
+        <v>0.6863314508098379</v>
       </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X3" t="n">
-        <v>0.4899508266739531</v>
+        <v>0.4148089303468181</v>
       </c>
       <c r="Y3" t="n">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.692590</t>
-        </is>
-      </c>
-      <c r="AA3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.7927260048270923</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>8.808066720301026e-05</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>5681.451385720607</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>20.12449026876282</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>20.17947419774037</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>20.33145954122188</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>20.20587163514571</v>
+          <t>2025-10-12T23:47:52.998781</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -879,16 +765,16 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>31.04883918409602</v>
+        <v>0.8433776256132939</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7219280948873623</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -896,13 +782,13 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="b">
@@ -913,78 +799,48 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[50, 159, 10, 13, 26]</t>
+          <t>[10, 13, 159, 26, 4, 163, 115]</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[1.5119735564044345, 1.518245731033573, 1.5354786819005746, 1.5763796645421633, 1.601565229324348]</t>
+          <t>[1.5354786819005746, 1.5763796645421633, 1.518245731033573, 1.601565229324348, 1.8141893925589672, 2.4762693355922436, 1.6455757268203273]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>[163, 169, 58, 45, 168]</t>
+          <t>[163, 168, 169, 21, 58, 45, 102]</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>[2.4762693355922436, 2.5544267277225856, 2.661673534050169, 2.6628466326195666, 2.9099357041697727]</t>
+          <t>[2.4762693355922436, 2.9099357041697727, 2.5544267277225856, 3.135508093288406, 2.661673534050169, 2.6628466326195666, 2.9838959810785206]</t>
         </is>
       </c>
       <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.7479138955814472</v>
+      </c>
+      <c r="W4" t="n">
         <v>3</v>
       </c>
-      <c r="V4" t="n">
-        <v>1.535478681900575</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1</v>
-      </c>
       <c r="X4" t="n">
-        <v>0.5966461771613576</v>
+        <v>0.5657475018303859</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.692590</t>
-        </is>
-      </c>
-      <c r="AA4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>5.175634130737933</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.0005750704589708815</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>5184.885743040358</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>19.50636018716012</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>19.73092781171657</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>20.14191174514351</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>19.76446639576766</v>
+          <t>2025-10-12T23:47:52.998781</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -1003,16 +859,16 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>31.04883918409602</v>
+        <v>0.8433776256132939</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7219280948873623</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -1020,13 +876,13 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0.8</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7219280948873623</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="b">
@@ -1037,74 +893,48 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[161, 167, 168, 123, 1]</t>
+          <t>[161, 167, 168, 1, 123, 130, 72]</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[0.46185233475496995, 0.46297917576952363, 0.7553792977804442, 0.8820956202336345, 0.8820956202336345]</t>
+          <t>[0.46185233475496995, 0.46297917576952363, 0.7553792977804442, 0.8820956202336345, 0.8820956202336345, 1.2559472641199887, 1.800462053004792]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>[168, 58, 7, 121, 45]</t>
+          <t>[168, 58, 15, 163, 45, 7, 121]</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>[0.7553792977804442, 2.353507723745344, 2.417296510745149, 2.481662343266953, 2.6655485707291344]</t>
+          <t>[0.7553792977804442, 2.353507723745344, 3.135508093288406, 3.852336164887893, 2.6655485707291344, 2.417296510745149, 2.481662343266953]</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7553792977804442</v>
+        <v>0.416807679815069</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.4517559963200034</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>161</v>
+      </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.692590</t>
-        </is>
-      </c>
-      <c r="AA5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1.77555365018603</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.0001972837389095589</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>6373.211375072866</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>40.12312237076743</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>40.21314560188513</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>40.30867970511051</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>40.20277609532434</v>
+          <t>2025-10-12T23:47:52.998781</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -1123,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>31.04883918409602</v>
+        <v>0.8433776256132939</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7219280948873623</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -1140,13 +970,13 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>0.6</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9709505944546688</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="b">
@@ -1157,34 +987,34 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>[77, 107, 7, 121, 29]</t>
+          <t>[107, 77, 121, 7, 29, 169, 36]</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 1, 0]</t>
+          <t>[0, 0, 1, 1, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>[0.9164440119967676, 0.9198494393336901, 0.9643759308650648, 1.015355534006097, 1.1352381971484793]</t>
+          <t>[0.9198494393336901, 0.9164440119967676, 1.015355534006097, 0.9643759308650648, 1.1352381971484793, 1.309078032215393, 1.2096121380822629]</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>[7, 121, 169, 139, 9]</t>
+          <t>[7, 121, 169, 139, 102, 58, 9]</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>[0.9643759308650648, 1.015355534006097, 1.309078032215393, 1.6240327394665033, 1.6671735468792106]</t>
+          <t>[0.9643759308650648, 1.015355534006097, 1.309078032215393, 1.6240327394665033, 1.7274423917541522, 1.9255385383437427, 1.6671735468792106]</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
-        <v>0.9643759308650648</v>
+        <v>0.7526716572473925</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1193,38 +1023,8 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.693594</t>
-        </is>
-      </c>
-      <c r="AA6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>1.105593113755899</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0.000122843679306211</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>5952.69544594598</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>18.01970194125326</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>18.28848635636237</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>18.4184757312721</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>18.26186641544573</v>
+          <t>2025-10-12T23:47:52.998781</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1243,16 +1043,16 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>31.04883918409602</v>
+        <v>0.8433776256132939</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7219280948873623</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -1263,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1277,78 +1077,48 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>[71, 103, 79, 83, 90]</t>
+          <t>[48, 71, 155, 79, 83, 6, 103]</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>[0.7342474404872175, 0.8839927453713303, 0.9219694314401171, 0.9574600932486723, 0.9910982703180736]</t>
+          <t>[1.0445740521454645, 0.7342474404872175, 1.350972587814987, 0.9219694314401171, 0.9574600932486723, 1.0273458703387217, 0.8839927453713303]</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>[102, 139, 143, 9, 7]</t>
+          <t>[102, 139, 143, 9, 7, 121, 168]</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>[1.015057799175586, 1.0873292441229583, 1.1586569849203083, 1.3480260842400091, 1.470400260947273]</t>
+          <t>[1.015057799175586, 1.0873292441229583, 1.1586569849203083, 1.3480260842400091, 1.470400260947273, 1.4868313662359702, 2.2044641100359974]</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
-        <v>0.9219694314401171</v>
+        <v>0.8198562294805981</v>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X7" t="n">
-        <v>0.5368466053024313</v>
+        <v>0.5454543991712841</v>
       </c>
       <c r="Y7" t="n">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.693594</t>
-        </is>
-      </c>
-      <c r="AA7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0.4638629732814245</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>5.154033036460272e-05</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>6523.366828875364</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>112.8829749453602</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>112.9154032619169</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>113.003303163694</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>112.9378524049586</v>
+          <t>2025-10-12T23:47:52.999316</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1367,16 +1137,16 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>31.04883918409602</v>
+        <v>0.8433776256132939</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7219280948873623</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -1384,13 +1154,13 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>0.8</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7219280948873623</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="b">
@@ -1401,74 +1171,48 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>[139, 97, 17, 71, 132]</t>
+          <t>[97, 139, 17, 71, 132, 119, 79]</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0]</t>
+          <t>[0, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>[0.285043916571243, 0.290743137515647, 0.30986970738125885, 0.4762486808158445, 0.6092232120953457]</t>
+          <t>[0.290743137515647, 0.285043916571243, 0.30986970738125885, 0.4762486808158445, 0.6092232120953457, 0.6937357956386917, 0.6997585091441121]</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>[139, 143, 9, 58, 7]</t>
+          <t>[139, 143, 9, 58, 7, 121, 153]</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>[0.285043916571243, 0.6743329932424019, 0.8478721364650169, 1.015057799175586, 1.2241735099679416]</t>
+          <t>[0.285043916571243, 0.6743329932424019, 0.8478721364650169, 1.015057799175586, 1.2241735099679416, 1.3019104729087863, 1.6027152759797092]</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3098697073812589</v>
+        <v>0.525164932194944</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.5368466053024313</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>139</v>
+      </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.693594</t>
-        </is>
-      </c>
-      <c r="AA8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0.651390932409643</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7.23767702677381e-05</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>4595.403497488927</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>28.9848515598194</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>29.13200771739913</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>29.13853316368308</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>29.10111244475375</v>
+          <t>2025-10-12T23:47:52.999316</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1484,19 +1228,19 @@
         <v>3</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>31.04883918409602</v>
+        <v>0.8433776256132939</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7219280948873623</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -1504,95 +1248,61 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>0.8</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7219280948873623</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="b">
         <v>1</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>[7, 120, 150, 31, 6]</t>
+          <t>[7, 120, 150, 31, 45, 6, 137]</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>[0.36870282705068963, 0.5519547370633832, 0.7350731770769507, 0.7528594013729141, 0.8294772913953069]</t>
+          <t>[0.36870282705068963, 0.5519547370633832, 0.7350731770769507, 0.7528594013729141, 1.015355534006097, 0.8294772913953069, 1.0044478913104573]</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>[7, 45, 9, 139, 102]</t>
+          <t>[7, 45, 9, 139, 102, 58, 143]</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>[0.36870282705068963, 1.015355534006097, 1.0848981146158845, 1.1840853595030576, 1.3019104729087863]</t>
+          <t>[0.36870282705068963, 1.015355534006097, 1.0848981146158845, 1.1840853595030576, 1.3019104729087863, 1.4868313662359702, 1.475155267747228]</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
-        <v>0.7350731770769507</v>
+        <v>0.7115838483253124</v>
       </c>
       <c r="W9" t="n">
-        <v>2</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.4900998503939086</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.693594</t>
-        </is>
-      </c>
-      <c r="AA9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0.7458659084999687</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>8.287398983332986e-05</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>6768.268920207085</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>21.27650220112375</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>21.44944285543849</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>21.48506772657861</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>21.41295210177222</v>
+          <t>2025-10-12T23:47:52.999316</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1611,16 +1321,16 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>31.04883918409602</v>
+        <v>0.8433776256132939</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7219280948873623</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1628,13 +1338,13 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>0.8</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7219280948873623</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="b">
@@ -1645,78 +1355,48 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>[102, 97, 132, 17, 124]</t>
+          <t>[102, 97, 132, 17, 119, 84, 124]</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>[0.285043916571243, 0.3613020375403079, 0.3682554256573937, 0.38688552012503286, 0.567023673930235]</t>
+          <t>[0.285043916571243, 0.3613020375403079, 0.3682554256573937, 0.38688552012503286, 0.5760992767784409, 0.6288485199178419, 0.567023673930235]</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>[102, 143, 9, 58, 7]</t>
+          <t>[102, 143, 9, 58, 7, 121, 153]</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>[0.285043916571243, 0.6349515184349481, 0.7289855999382798, 1.0873292441229583, 1.1263236539931059]</t>
+          <t>[0.285043916571243, 0.6349515184349481, 0.7289855999382798, 1.0873292441229583, 1.1263236539931059, 1.1840853595030576, 1.475092862204293]</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
-        <v>0.3682554256573937</v>
+        <v>0.4209065733678143</v>
       </c>
       <c r="W10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X10" t="n">
-        <v>0.5630922856909668</v>
+        <v>0.5939169255529118</v>
       </c>
       <c r="Y10" t="n">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.693594</t>
-        </is>
-      </c>
-      <c r="AA10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0.6672450308793338</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>7.413833676437043e-05</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>4547.891114680578</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>22.67966019477147</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>22.76072060939297</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>22.81256882404833</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>22.75969408425276</v>
+          <t>2025-10-12T23:47:52.999316</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1735,16 +1415,16 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>31.04883918409602</v>
+        <v>0.8433776256132939</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7219280948873623</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1752,13 +1432,13 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="b">
@@ -1769,78 +1449,48 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>[63, 76, 110, 147, 111]</t>
+          <t>[76, 63, 97, 147, 110, 57, 9]</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>[0.3796159808557999, 0.39793813337752815, 0.466880727756286, 0.5109725664891919, 0.5331716894988816]</t>
+          <t>[0.39793813337752815, 0.3796159808557999, 0.547131824675983, 0.5109725664891919, 0.466880727756286, 0.5868905832144952, 0.6392179051246156]</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>[139, 9, 102, 153, 58]</t>
+          <t>[139, 102, 9, 153, 58, 121, 7]</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>[0.6349515184349481, 0.6392179051246156, 0.6743329932424019, 1.1125232778579464, 1.1586569849203083]</t>
+          <t>[0.6349515184349481, 0.6743329932424019, 0.6392179051246156, 1.1125232778579464, 1.1586569849203083, 1.475155267747228, 1.5570746533140791]</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V11" t="n">
-        <v>0.466880727756286</v>
+        <v>0.5561281739172936</v>
       </c>
       <c r="W11" t="n">
         <v>4</v>
       </c>
       <c r="X11" t="n">
-        <v>0.4397431363068345</v>
+        <v>0.4990353820222541</v>
       </c>
       <c r="Y11" t="n">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.693594</t>
-        </is>
-      </c>
-      <c r="AA11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0.7667588613804547</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>8.519542904227275e-05</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>7014.299828199894</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>32.95914520450896</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>33.01217062008077</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>33.07164178315703</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>33.0151938952062</v>
+          <t>2025-10-12T23:47:52.999851</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1859,16 +1509,16 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>31.04883918409602</v>
+        <v>0.8433776256132939</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7219280948873623</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1876,13 +1526,13 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="b">
@@ -1893,78 +1543,48 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>[160, 74, 16, 111, 128]</t>
+          <t>[66, 160, 82, 74, 9, 16, 76]</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>[0.7418466361563256, 0.8169284393537438, 0.8513187214136887, 0.9142994441251954, 0.9251038424629177]</t>
+          <t>[1.022522729127132, 0.7418466361563256, 1.091730518109694, 0.8169284393537438, 0.9712824467055972, 0.8513187214136887, 0.9974814909302543]</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>[9, 143, 139, 102, 121]</t>
+          <t>[9, 143, 139, 102, 58, 121, 169]</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>[0.9712824467055972, 1.1125232778579464, 1.475092862204293, 1.6027152759797092, 1.9131038424109268]</t>
+          <t>[0.9712824467055972, 1.1125232778579464, 1.475092862204293, 1.6027152759797092, 2.0702255154153795, 1.9131038424109268, 2.3420474164918956]</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
-        <v>0.8513187214136887</v>
+        <v>0.8371634216080526</v>
       </c>
       <c r="W12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X12" t="n">
-        <v>0.5829919351087561</v>
+        <v>0.5630922856909668</v>
       </c>
       <c r="Y12" t="n">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.693594</t>
-        </is>
-      </c>
-      <c r="AA12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0.4524080573486984</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>5.026756192763315e-05</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>6357.300308404853</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>53.57792249124577</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>53.68855862971566</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>53.82701541422822</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>53.69536783134771</v>
+          <t>2025-10-12T23:47:52.999851</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1983,16 +1603,16 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>31.04883918409602</v>
+        <v>0.8433776256132939</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7219280948873623</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -2000,13 +1620,13 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>0.8</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7219280948873623</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="b">
@@ -2017,78 +1637,48 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>[4, 15, 106, 115, 151]</t>
+          <t>[4, 15, 106, 118, 27, 13, 89]</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 0]</t>
+          <t>[0, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>[1.9609936844987668, 2.4762693355922436, 2.5488143551159124, 2.642820500315813, 2.7597372249248537]</t>
+          <t>[1.9609936844987668, 2.4762693355922436, 2.5488143551159124, 3.9857840791532855, 2.814430996857044, 2.781341715903314, 3.241391020906572]</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>[15, 45, 169, 21, 168]</t>
+          <t>[15, 21, 168, 169, 45, 58, 7]</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>[2.4762693355922436, 3.735630166896788, 3.849267075737102, 3.852336164887893, 3.940240431990059]</t>
+          <t>[2.4762693355922436, 3.852336164887893, 3.940240431990059, 3.849267075737102, 3.735630166896788, 4.553111058292238, 4.460374817552124]</t>
         </is>
       </c>
       <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.9686725445695664</v>
+      </c>
+      <c r="W13" t="n">
         <v>3</v>
       </c>
-      <c r="V13" t="n">
-        <v>2.548814355115912</v>
-      </c>
-      <c r="W13" t="n">
-        <v>2</v>
-      </c>
       <c r="X13" t="n">
-        <v>0.5852601757026697</v>
+        <v>0.560439396150808</v>
       </c>
       <c r="Y13" t="n">
         <v>4</v>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.693594</t>
-        </is>
-      </c>
-      <c r="AA13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>3.880943908077152</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0.0004312159897863503</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>6465.676287917239</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>65.09859334992808</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>65.24593032158931</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>65.52436305336661</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>65.30230987332881</v>
+          <t>2025-10-12T23:47:52.999851</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -2107,16 +1697,16 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>31.04883918409602</v>
+        <v>0.8433776256132939</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7219280948873623</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -2124,13 +1714,13 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>0.8</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7219280948873623</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="b">
@@ -2141,78 +1731,48 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>[123, 1, 21, 167, 161]</t>
+          <t>[1, 123, 21, 167, 161, 3, 53]</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>[0.44201139323274474, 0.44201139323274474, 0.7553792977804442, 0.817289129845502, 1.0266676237864174]</t>
+          <t>[0.44201139323274474, 0.44201139323274474, 0.7553792977804442, 0.817289129845502, 1.0266676237864174, 1.20002024796093, 1.2940247242682115]</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>[21, 58, 7, 121, 45]</t>
+          <t>[21, 58, 15, 163, 7, 45, 121]</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>[0.7553792977804442, 2.2044641100359974, 2.5074243448209392, 2.5194056150095907, 2.7999065735366058]</t>
+          <t>[0.7553792977804442, 2.2044641100359974, 2.9099357041697727, 3.940240431990059, 2.5074243448209392, 2.7999065735366058, 2.5194056150095907]</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
-        <v>0.7553792977804442</v>
+        <v>0.3984468098462524</v>
       </c>
       <c r="W14" t="n">
         <v>3</v>
       </c>
       <c r="X14" t="n">
-        <v>0.4281848449949526</v>
+        <v>0.4561869019374762</v>
       </c>
       <c r="Y14" t="n">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.693594</t>
-        </is>
-      </c>
-      <c r="AA14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>1.741173543415137</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0.0001934637270461263</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>5977.511724599143</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>39.50219924795134</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>39.57121957692411</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>39.690986015278</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>39.57723305652378</v>
+          <t>2025-10-12T23:47:52.999851</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2231,16 +1791,16 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>31.04883918409602</v>
+        <v>0.8433776256132939</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7219280948873623</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -2248,13 +1808,13 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="b">
@@ -2265,78 +1825,48 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>[75, 36, 29, 69, 73]</t>
+          <t>[75, 36, 29, 107, 69, 73, 45]</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>[0.8769890823808907, 0.9809583086635929, 0.9985459325462515, 1.1135126667475501, 1.1277871921736737]</t>
+          <t>[0.8769890823808907, 0.9809583086635929, 0.9985459325462515, 1.3458586455349735, 1.1135126667475501, 1.1277871921736737, 1.309078032215393]</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>[45, 139, 121, 7, 9]</t>
+          <t>[45, 15, 7, 153, 139, 121, 102]</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>[1.309078032215393, 1.9811919545498997, 1.9998280260557344, 2.015712067298128, 2.0302161322735186]</t>
+          <t>[1.309078032215393, 2.5544267277225856, 2.015712067298128, 2.3420474164918956, 1.9811919545498997, 1.9998280260557344, 2.1122709618390516]</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
-        <v>0.9985459325462515</v>
+        <v>0.7320722481591883</v>
       </c>
       <c r="W15" t="n">
         <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>0.4031272813482388</v>
+        <v>0.573235229154987</v>
       </c>
       <c r="Y15" t="n">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.693594</t>
-        </is>
-      </c>
-      <c r="AA15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0.6690236834646688</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>7.433596482940765e-05</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>6398.147065402998</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>46.66997557363447</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>46.77115701744011</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>47.05910744267351</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>46.82022621116671</v>
+          <t>2025-10-12T23:47:52.999851</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2355,16 +1885,16 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>29.74493757366412</v>
+        <v>0.7296287939881168</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9086949695628421</v>
+        <v>0.9547012441673464</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -2372,13 +1902,13 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="b">
@@ -2389,78 +1919,44 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>[122, 114, 134, 112, 125]</t>
+          <t>[122, 104, 114, 112, 59, 38, 134]</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0]</t>
+          <t>[0, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>[3.548220758848561, 5.758371013344655, 5.858822564490876, 6.487488755518677, 6.512109778877185]</t>
+          <t>[3.548220758848561, 8.691211386839777, 5.758371013344655, 6.487488755518677, 9.90292972678089, 6.694373693143342, 5.858822564490876]</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>[94, 156, 118, 104, 81]</t>
+          <t>[104, 94, 118, 156, 81, 87, 60]</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>[7.731836095243678, 8.581772163170536, 8.609739822750038, 8.691211386839777, 8.94639168349315]</t>
+          <t>[8.691211386839777, 7.731836095243678, 8.609739822750038, 8.581772163170536, 8.94639168349315, 9.074630557371929, 9.319384200728924]</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V16" t="n">
-        <v>5.858822564490876</v>
+        <v>0.9896476270924893</v>
       </c>
       <c r="W16" t="n">
-        <v>5</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0.4190820232980823</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.723857</t>
-        </is>
-      </c>
-      <c r="AA16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>28.07417274553845</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0.00311935252728205</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>6516.88380723021</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>103.2993152060116</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>103.3745951917552</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>103.4254577626573</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>103.3722595278563</v>
+          <t>2025-10-12T23:47:53.033682</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -2479,16 +1975,16 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>29.74493757366412</v>
+        <v>0.7296287939881168</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9086949695628421</v>
+        <v>0.9547012441673464</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -2496,13 +1992,13 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>0.2</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7219280948873623</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="b">
@@ -2513,78 +2009,44 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>[156, 94, 87, 109, 162]</t>
+          <t>[156, 109, 87, 81, 94, 162, 129]</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 0]</t>
+          <t>[1, 1, 1, 1, 1, 0, 1]</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>[1.7238609439707153, 2.2133899299550968, 2.3008901008490206, 2.4434334544048664, 2.550539891650585]</t>
+          <t>[1.7238609439707153, 2.4434334544048664, 2.3008901008490206, 2.627912796286365, 2.2133899299550968, 2.550539891650585, 3.038968467681727]</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>[156, 94, 87, 109, 81]</t>
+          <t>[156, 87, 94, 109, 81, 129, 118]</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>[1.7238609439707153, 2.2133899299550968, 2.3008901008490206, 2.4434334544048664, 2.627912796286365]</t>
+          <t>[1.7238609439707153, 2.3008901008490206, 2.2133899299550968, 2.4434334544048664, 2.627912796286365, 3.038968467681727, 6.031808407587342]</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
-        <v>2.300890100849021</v>
+        <v>0.6259000088202358</v>
       </c>
       <c r="W17" t="n">
-        <v>5</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0.5829919351087561</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>156</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.723857</t>
-        </is>
-      </c>
-      <c r="AA17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>4.143532779280307</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0.0004603925310311453</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>4117.315474226829</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>29.04832081279323</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>29.09517566478608</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>29.24436620945691</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>29.12948955355608</v>
+          <t>2025-10-12T23:47:53.033682</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -2600,19 +2062,19 @@
         <v>5</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>29.74493757366412</v>
+        <v>0.7296287939881168</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9086949695628421</v>
+        <v>0.9547012441673464</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -2620,51 +2082,51 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>0.6</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9709505944546688</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="b">
         <v>1</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>[157, 54, 162, 60, 94]</t>
+          <t>[157, 54, 108, 162, 60, 87, 96]</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 1, 1]</t>
+          <t>[0, 0, 0, 0, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>[1.3550049834199527, 2.1108781737409203, 2.3781486454870766, 2.627912796286365, 2.796743980918212]</t>
+          <t>[1.3550049834199527, 2.1108781737409203, 2.9421848739981007, 2.3781486454870766, 2.627912796286365, 2.9225667947525125, 3.353070551112966]</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>[60, 94, 87, 129, 109]</t>
+          <t>[60, 94, 87, 109, 156, 129, 118]</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>[2.627912796286365, 2.796743980918212, 2.9225667947525125, 3.4966983271872256, 3.6776542059156947]</t>
+          <t>[2.627912796286365, 2.796743980918212, 2.9225667947525125, 3.6776542059156947, 3.7257145542751764, 3.4966983271872256, 5.970870397142998]</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
-        <v>2.378148645487077</v>
+        <v>0.6200942229726651</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2673,38 +2135,8 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.724856</t>
-        </is>
-      </c>
-      <c r="AA18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>3.957918596707774</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0.0004397687329675305</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>5434.023586152954</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>43.35657220313824</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>43.70168719971399</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>43.97468316442323</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>43.68188305511201</v>
+          <t>2025-10-12T23:47:53.033682</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -2720,19 +2152,19 @@
         <v>5</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>29.74493757366412</v>
+        <v>0.7296287939881168</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9086949695628421</v>
+        <v>0.9547012441673464</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -2740,51 +2172,51 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>0.4</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L19" t="n">
-        <v>0.9709505944546688</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="b">
         <v>1</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>[109, 94, 60, 66, 30]</t>
+          <t>[109, 60, 94, 81, 19, 156, 62]</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 0]</t>
+          <t>[1, 1, 1, 1, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>[1.02730719349262, 2.0229240047329005, 2.3008901008490206, 2.4294063775265933, 2.9101546021393747]</t>
+          <t>[1.02730719349262, 2.3008901008490206, 2.0229240047329005, 2.9225667947525125, 3.8935267938311524, 3.228103787224398, 4.2501120677078585]</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>[109, 94, 60, 81, 156]</t>
+          <t>[109, 94, 60, 81, 156, 129, 118]</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>[1.02730719349262, 2.0229240047329005, 2.3008901008490206, 2.9225667947525125, 3.228103787224398]</t>
+          <t>[1.02730719349262, 2.0229240047329005, 2.3008901008490206, 2.9225667947525125, 3.228103787224398, 3.639316011085586, 5.861988897205965]</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
-        <v>2.300890100849021</v>
+        <v>0.7060894573389025</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2793,38 +2225,8 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.724856</t>
-        </is>
-      </c>
-      <c r="AA19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>3.975405375158108</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0.0004417117083509009</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>4167.691719955074</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>7.385822988449762</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>7.696030642826706</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>7.862729967146152</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>7.662755380698483</v>
+          <t>2025-10-12T23:47:53.034678</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -2840,19 +2242,19 @@
         <v>5</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>29.74493757366412</v>
+        <v>0.7296287939881168</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9086949695628421</v>
+        <v>0.9547012441673464</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -2860,95 +2262,61 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="b">
         <v>1</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>[66, 141, 30, 121, 74]</t>
+          <t>[66, 87, 156, 60, 109, 157, 162]</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0]</t>
+          <t>[0, 1, 1, 1, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>[1.270390163502212, 1.5950983102481044, 1.6472968703090891, 1.792446514911611, 1.9150334880323294]</t>
+          <t>[1.270390163502212, 2.0229240047329005, 2.248409462917353, 2.2133899299550968, 2.7271522404792217, 2.1912232238840046, 2.4633435106922987]</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>[87, 60, 156, 109, 81]</t>
+          <t>[87, 60, 156, 109, 81, 129, 118]</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>[2.0229240047329005, 2.2133899299550968, 2.248409462917353, 2.7271522404792217, 2.796743980918212]</t>
+          <t>[2.0229240047329005, 2.2133899299550968, 2.248409462917353, 2.7271522404792217, 2.796743980918212, 3.5325657093384386, 5.384162362926166]</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V20" t="n">
-        <v>1.647296870309089</v>
+        <v>0.580000024688238</v>
       </c>
       <c r="W20" t="n">
-        <v>4</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0.5852601757026697</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.724856</t>
-        </is>
-      </c>
-      <c r="AA20" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>3.980301861375766</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0.0004422557623750851</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>4382.730936384864</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>19.31126669417066</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>19.80797339889477</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>20.12688341929935</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>19.75436532156022</v>
+          <t>2025-10-12T23:47:53.034678</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -2967,16 +2335,16 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>29.74493757366412</v>
+        <v>0.7296287939881168</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9086949695628421</v>
+        <v>0.9547012441673464</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -2984,13 +2352,13 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>0.8</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L21" t="n">
-        <v>0.7219280948873623</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="b">
@@ -3001,78 +2369,44 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>[25, 122, 0, 44, 22]</t>
+          <t>[25, 0, 122, 59, 114, 62, 38]</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>[8.691211386839777, 8.894895806438829, 9.207417917519324, 9.52364484751921, 9.6986341135755]</t>
+          <t>[8.691211386839777, 9.207417917519324, 8.894895806438829, 13.830842069171732, 10.461822702464078, 11.372812382036772, 9.74061119270624]</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>[25, 156, 94, 118, 87]</t>
+          <t>[25, 156, 94, 118, 109, 60, 87]</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>[8.691211386839777, 9.828562976692579, 9.933644296013902, 10.808507914758495, 10.901504884982684]</t>
+          <t>[8.691211386839777, 9.828562976692579, 9.933644296013902, 10.808507914758495, 11.140759777554265, 11.009099614484562, 10.901504884982684]</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
-        <v>9.207417917519324</v>
+        <v>1.401851776135979</v>
       </c>
       <c r="W21" t="n">
-        <v>9</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0.5630922856909668</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.724856</t>
-        </is>
-      </c>
-      <c r="AA21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>20.45142647508055</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0.002272380719453395</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>5881.316132629116</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>163.3298298182173</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>163.3626853574482</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>163.3972999865053</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>163.359683210907</v>
+          <t>2025-10-12T23:47:53.034678</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -3091,16 +2425,16 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>29.74493757366412</v>
+        <v>0.7296287939881168</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9086949695628421</v>
+        <v>0.9547012441673464</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -3108,13 +2442,13 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>0.2</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7219280948873623</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="b">
@@ -3125,78 +2459,44 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>[87, 60, 94, 66, 156]</t>
+          <t>[87, 60, 19, 156, 94, 62, 81]</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 1]</t>
+          <t>[1, 1, 0, 1, 1, 0, 1]</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>[1.02730719349262, 2.4434334544048664, 2.7271522404792217, 2.9120497986013363, 3.3227176388132555]</t>
+          <t>[1.02730719349262, 2.4434334544048664, 3.7905899556411646, 3.3227176388132555, 2.7271522404792217, 4.4170776760298525, 3.6776542059156947]</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>[87, 60, 94, 156, 81]</t>
+          <t>[87, 60, 94, 156, 81, 129, 118]</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>[1.02730719349262, 2.4434334544048664, 2.7271522404792217, 3.3227176388132555, 3.6776542059156947]</t>
+          <t>[1.02730719349262, 2.4434334544048664, 2.7271522404792217, 3.3227176388132555, 3.6776542059156947, 3.930763646094779, 6.237906359894233]</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
-        <v>2.727152240479222</v>
+        <v>0.7750965964370748</v>
       </c>
       <c r="W22" t="n">
-        <v>5</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0.5182595575415454</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.724856</t>
-        </is>
-      </c>
-      <c r="AA22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>3.494157783236418</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0.0003882397536929354</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>4778.133281142792</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>10.74812957624505</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>11.20435482077179</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>11.40753556059897</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>11.16649379586079</v>
+          <t>2025-10-12T23:47:53.034678</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -3215,16 +2515,16 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>29.74493757366412</v>
+        <v>0.7296287939881168</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9086949695628421</v>
+        <v>0.9547012441673464</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -3232,13 +2532,13 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>0.8</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L23" t="n">
-        <v>0.7219280948873623</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="b">
@@ -3249,78 +2549,44 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>[151, 4, 52, 64, 129]</t>
+          <t>[62, 129, 163, 4, 151, 89, 59]</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 1]</t>
+          <t>[0, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>[3.133360360859858, 3.5137164996797625, 3.5403012188562766, 3.56040608053446, 3.6129325646687236]</t>
+          <t>[3.9940960660638245, 3.6129325646687236, 3.9857840791532855, 3.5137164996797625, 3.133360360859858, 3.772018568783384, 8.738918927498052]</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>[129, 94, 87, 81, 156]</t>
+          <t>[129, 94, 87, 81, 156, 60, 109]</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>[3.6129325646687236, 5.384162362926166, 5.861988897205965, 5.970870397142998, 6.016938439507509]</t>
+          <t>[3.6129325646687236, 5.384162362926166, 5.861988897205965, 5.970870397142998, 6.016938439507509, 6.031808407587342, 6.237906359894233]</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V23" t="n">
-        <v>3.540301218856277</v>
+        <v>1.033773163220971</v>
       </c>
       <c r="W23" t="n">
-        <v>1</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0.5135400655639983</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.724856</t>
-        </is>
-      </c>
-      <c r="AA23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>5.072363895377887</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0.0005635959883753208</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>3698.443818585818</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>96.49871852367976</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>96.59751300713542</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>96.61024274924029</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>96.56174596756946</v>
+          <t>2025-10-12T23:47:53.034678</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -3336,19 +2602,19 @@
         <v>5</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>29.74493757366412</v>
+        <v>0.7296287939881168</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9086949695628421</v>
+        <v>0.9547012441673464</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -3356,95 +2622,61 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>0.8</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L24" t="n">
-        <v>0.7219280948873623</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="b">
         <v>1</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>[11, 89, 140, 27, 60]</t>
+          <t>[62, 60, 118, 54, 89, 81, 109]</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 1]</t>
+          <t>[0, 1, 1, 0, 0, 1, 1]</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>[2.8039437428015193, 2.8238881125594335, 2.942523047510092, 2.955587890356077, 3.038968467681727]</t>
+          <t>[3.3579545061816214, 3.038968467681727, 3.6129325646687236, 3.092282199641918, 2.8238881125594335, 3.4966983271872256, 3.930763646094779]</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>[60, 81, 94, 118, 87]</t>
+          <t>[60, 81, 118, 87, 156, 94, 109]</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>[3.038968467681727, 3.4966983271872256, 3.5325657093384386, 3.6129325646687236, 3.639316011085586]</t>
+          <t>[3.038968467681727, 3.4966983271872256, 3.6129325646687236, 3.639316011085586, 3.6992423534262557, 3.5325657093384386, 3.930763646094779]</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V24" t="n">
-        <v>2.942523047510092</v>
+        <v>0.9430233709274992</v>
       </c>
       <c r="W24" t="n">
-        <v>9</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0.5337682505327215</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.724856</t>
-        </is>
-      </c>
-      <c r="AA24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>8.647031757162534</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0.0009607813063513926</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>6623.207426359206</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>29.71714177871031</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>29.81291555330271</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>29.90944214078546</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>29.80593376477544</v>
+          <t>2025-10-12T23:47:53.035678</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -3463,16 +2695,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>29.74493757366412</v>
+        <v>0.7296287939881168</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9086949695628421</v>
+        <v>0.9547012441673464</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -3480,13 +2712,13 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>0.6</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L25" t="n">
-        <v>0.9709505944546688</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="b">
@@ -3497,34 +2729,34 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>[60, 94, 66, 141, 162]</t>
+          <t>[60, 94, 0, 109, 162, 87, 98]</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0]</t>
+          <t>[1, 1, 0, 1, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>[1.7238609439707153, 2.248409462917353, 2.547409594603133, 2.830388258774359, 2.847716027962298]</t>
+          <t>[1.7238609439707153, 2.248409462917353, 3.682756134418453, 3.3227176388132555, 2.847716027962298, 3.228103787224398, 3.1367684717948636]</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>[60, 94, 87, 109, 129]</t>
+          <t>[60, 94, 109, 87, 81, 129, 118]</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>[1.7238609439707153, 2.248409462917353, 3.228103787224398, 3.3227176388132555, 3.6992423534262557]</t>
+          <t>[1.7238609439707153, 2.248409462917353, 3.3227176388132555, 3.228103787224398, 3.7257145542751764, 3.6992423534262557, 6.016938439507509]</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
-        <v>2.547409594603133</v>
+        <v>0.7318221594501562</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -3533,38 +2765,8 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.724856</t>
-        </is>
-      </c>
-      <c r="AA25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>3.957918596707774</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0.0004397687329675305</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>5434.023586154003</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>29.54430831773086</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>29.63447061762663</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>30.01491753134233</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>29.69771937473958</v>
+          <t>2025-10-12T23:47:53.035678</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -3574,25 +2776,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>12.66947096103889</v>
+        <v>0.821170914930855</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9709505944546688</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -3600,13 +2802,13 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>0.7219280948873623</v>
+        <v>0</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="b">
@@ -3617,78 +2819,48 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>[67, 34, 96, 116, 148]</t>
+          <t>[156, 109, 60, 104, 87, 23, 19]</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>[5.746132405736057, 6.031202211871348, 6.0596907586248685, 6.167706209654057, 6.331486006867314]</t>
+          <t>[3.682756134418453, 5.021605002625455, 4.70630304597658, 9.207417917519324, 5.405719067891872, 8.388981090374504, 7.5877058337289265]</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>[96, 51, 170, 155, 149]</t>
+          <t>[8, 122, 38, 114, 98, 112, 14]</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>[6.0596907586248685, 6.549265907635428, 6.7956705096502255, 7.006064056420584, 7.243994433944117]</t>
+          <t>[6.08800436829768, 7.964256258235821, 8.471146633002151, 7.782585844233039, 5.95449152616891, 9.602741008279496, 6.843429901519849]</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
-        <v>6.059690758624869</v>
+        <v>1.152107962378609</v>
       </c>
       <c r="W26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X26" t="n">
-        <v>0.4190820232980823</v>
+        <v>0.5223306320976562</v>
       </c>
       <c r="Y26" t="n">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.748006</t>
-        </is>
-      </c>
-      <c r="AA26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>2.530375341964847</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0.0002811528157738719</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>6578.009004186445</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>88.27667516617392</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>88.63956673419561</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>89.58092937340018</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>88.71566959200845</v>
+          <t>2025-10-12T23:47:53.147462</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -3698,25 +2870,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>12.66947096103889</v>
+        <v>0.821170914930855</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9709505944546688</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -3724,13 +2896,13 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>0.7219280948873623</v>
+        <v>0</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="b">
@@ -3741,78 +2913,48 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>[170, 162, 149, 155, 157]</t>
+          <t>[46, 53, 3, 32, 130, 155, 142]</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>[1.3449232188752993, 1.5442383862034759, 1.7210647017116611, 2.197105082746076, 2.225910075721745]</t>
+          <t>[0.8132081400250286, 1.5868689295900902, 1.5875982496431946, 1.4858066535973735, 1.6002348222769218, 1.922422725330582, 1.6309597213366673]</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>[170, 162, 149, 155, 96]</t>
+          <t>[38, 98, 0, 112, 122, 14, 114]</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>[1.3449232188752993, 1.5442383862034759, 1.7210647017116611, 2.197105082746076, 2.9435461907548444]</t>
+          <t>[3.809058612177697, 3.489683763572442, 6.08800436829768, 5.247392155625091, 5.183228044239134, 4.850350457556759, 7.007670571360432]</t>
         </is>
       </c>
       <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.5981524423454762</v>
+      </c>
+      <c r="W27" t="n">
         <v>3</v>
       </c>
-      <c r="V27" t="n">
-        <v>1.721064701711661</v>
-      </c>
-      <c r="W27" t="n">
-        <v>5</v>
-      </c>
       <c r="X27" t="n">
-        <v>0.5829919351087561</v>
+        <v>0.5040136042355622</v>
       </c>
       <c r="Y27" t="n">
-        <v>170</v>
+        <v>53</v>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.749006</t>
-        </is>
-      </c>
-      <c r="AA27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>2.999274853770919</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0.0003332527615301021</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>5532.269568882582</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>12.52204163691948</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>12.66947096103889</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>13.17399675993247</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>12.73947821315956</v>
+          <t>2025-10-12T23:47:53.147971</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -3822,25 +2964,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>12.66947096103889</v>
+        <v>0.821170914930855</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H28" t="n">
-        <v>0.9709505944546688</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -3848,13 +2990,13 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L28" t="n">
-        <v>0.9709505944546688</v>
+        <v>0</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="b">
@@ -3865,78 +3007,48 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>[54, 155, 157, 51, 162]</t>
+          <t>[92, 166, 28, 134, 34, 88, 116]</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>[1.8295848262910746, 2.687012281169635, 2.753046955747242, 2.9435461907548444, 3.2700747301584507]</t>
+          <t>[0.6938538718042702, 0.7095152903098895, 1.2714170344520064, 1.5296665982953364, 1.32061194669919, 1.1889773334939922, 1.4472985267768135]</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>[155, 51, 162, 149, 170]</t>
+          <t>[92, 166, 28, 134, 34, 88, 116]</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>[2.687012281169635, 2.9435461907548444, 3.2700747301584507, 3.27413412231961, 3.333520821921467]</t>
+          <t>[0.6938538718042702, 0.7095152903098895, 1.2714170344520064, 1.5296665982953364, 1.32061194669919, 1.1889773334939922, 1.4472985267768135]</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V28" t="n">
-        <v>2.753046955747242</v>
+        <v>0.821170914930855</v>
       </c>
       <c r="W28" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X28" t="n">
-        <v>0.7443459042329746</v>
+        <v>0.5215089703802877</v>
       </c>
       <c r="Y28" t="n">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.749006</t>
-        </is>
-      </c>
-      <c r="AA28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>1.611129156226009</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0.0001790143506917788</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>6427.52494548795</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>34.82278564149517</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>35.17695674192167</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>35.41024699516862</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>35.13062829033578</v>
+          <t>2025-10-12T23:47:53.148006</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -3946,25 +3058,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>12.66947096103889</v>
+        <v>0.821170914930855</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9709505944546688</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -3972,13 +3084,13 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L29" t="n">
-        <v>0.9709505944546688</v>
+        <v>0</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="b">
@@ -3989,78 +3101,48 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>[170, 155, 48, 121, 7]</t>
+          <t>[105, 146, 165, 125, 127, 148, 98]</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>[0.6744949770748654, 0.9508623498903781, 1.344289895892408, 1.472417280340593, 1.5171429300612809]</t>
+          <t>[1.1962071176531426, 1.4052520928097405, 1.5114443168656573, 1.5090353997195989, 1.5793456969697512, 1.7265879571947085, 2.767818741427769]</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>[170, 155, 51, 162, 96]</t>
+          <t>[105, 146, 165, 125, 127, 148, 98]</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>[0.6744949770748654, 0.9508623498903781, 1.7210647017116611, 2.2374820460564573, 3.27413412231961]</t>
+          <t>[1.1962071176531426, 1.4052520928097405, 1.5114443168656573, 1.5090353997195989, 1.5793456969697512, 1.7265879571947085, 2.767818741427769]</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
-        <v>1.344289895892408</v>
+        <v>0.6868550060263893</v>
       </c>
       <c r="W29" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="X29" t="n">
-        <v>0.4630922856909668</v>
+        <v>0.5325044568707964</v>
       </c>
       <c r="Y29" t="n">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.749006</t>
-        </is>
-      </c>
-      <c r="AA29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>3.029267990767385</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0.0003365853323074873</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>5123.859099173827</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>8.681236052215757</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>9.067578038140129</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>9.1983873340751</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>8.988727505707452</v>
+          <t>2025-10-12T23:47:53.148006</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -4070,25 +3152,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>12.66947096103889</v>
+        <v>0.821170914930855</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9709505944546688</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -4096,13 +3178,13 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L30" t="n">
-        <v>0.9709505944546688</v>
+        <v>0</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="b">
@@ -4113,78 +3195,44 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>[149, 58, 30, 170, 48]</t>
+          <t>[116, 67, 34, 166, 88, 12, 92]</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>[0.9508623498903781, 1.350972587814987, 1.3559413002318346, 1.3904879512591608, 1.394996451302257]</t>
+          <t>[0.5247670678089587, 1.0627897260130672, 1.0365164925602255, 1.0264295246425166, 1.0427116849041143, 1.2714170344520064, 1.5825925572439319]</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>[149, 170, 51, 162, 96]</t>
+          <t>[116, 67, 34, 166, 88, 12, 92]</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>[0.9508623498903781, 1.3904879512591608, 2.197105082746076, 2.6232432008865922, 2.687012281169635]</t>
+          <t>[0.5247670678089587, 1.0627897260130672, 1.0365164925602255, 1.0264295246425166, 1.0427116849041143, 1.2714170344520064, 1.5825925572439319]</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V30" t="n">
-        <v>1.355941300231835</v>
+        <v>0.717767917424956</v>
       </c>
       <c r="W30" t="n">
-        <v>5</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0.4182595575415454</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.749006</t>
-        </is>
-      </c>
-      <c r="AA30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>2.943323988845383</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0.0003270359987605981</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>5727.262529305449</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>8.619333264700359</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>8.858528092582448</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>9.260803780476961</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>8.912657688484028</v>
+          <t>2025-10-12T23:47:53.148513</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -4194,25 +3242,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>162</v>
+        <v>34</v>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>12.66947096103889</v>
+        <v>0.821170914930855</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9709505944546688</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -4220,13 +3268,13 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L31" t="n">
-        <v>0.9709505944546688</v>
+        <v>0</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="b">
@@ -4237,78 +3285,48 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>[51, 157, 149, 170, 28]</t>
+          <t>[67, 116, 28, 88, 12, 166, 92]</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 1, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>[1.5442383862034759, 2.1026197259635127, 2.2374820460564573, 2.249330520790928, 2.2810373555610575]</t>
+          <t>[0.5955520820772918, 0.7853120750288224, 1.0365164925602255, 1.1688040592017273, 1.32061194669919, 1.215666646680279, 1.6141646739074402]</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>[51, 149, 170, 155, 96]</t>
+          <t>[67, 116, 28, 88, 12, 166, 92]</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>[1.5442383862034759, 2.2374820460564573, 2.249330520790928, 2.6232432008865922, 3.2700747301584507]</t>
+          <t>[0.5955520820772918, 0.7853120750288224, 1.0365164925602255, 1.1688040592017273, 1.32061194669919, 1.215666646680279, 1.6141646739074402]</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V31" t="n">
-        <v>2.237482046056457</v>
+        <v>0.8092957470531871</v>
       </c>
       <c r="W31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X31" t="n">
-        <v>0.7122486851695402</v>
+        <v>0.4363649934414202</v>
       </c>
       <c r="Y31" t="n">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.749006</t>
-        </is>
-      </c>
-      <c r="AA31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>2.530375341964847</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>0.0002811528157738719</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>6578.009004186164</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>51.42209029147172</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>51.55720629318317</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>51.8694661868811</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>51.60695881105888</v>
+          <t>2025-10-12T23:47:53.148545</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -4318,25 +3336,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>12.66947096103889</v>
+        <v>0.821170914930855</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9709505944546688</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -4344,95 +3362,61 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>0.4</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L32" t="n">
-        <v>0.9709505944546688</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="b">
         <v>1</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>[149, 51, 155, 48, 142]</t>
+          <t>[112, 72, 51, 122, 56, 157, 81]</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 0]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>[0.6744949770748654, 1.3449232188752993, 1.3904879512591608, 1.6086519216167632, 1.6791925599954158]</t>
+          <t>[4.05470661044856, 2.8743801847924346, 3.5498127594816147, 4.931710867209231, 3.9400554781817645, 3.491143442024662, 4.050657684538021]</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>[149, 51, 155, 162, 96]</t>
+          <t>[8, 112, 122, 98, 0, 134, 14]</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>[0.6744949770748654, 1.3449232188752993, 1.3904879512591608, 2.249330520790928, 3.333520821921467]</t>
+          <t>[3.809058612177697, 4.05470661044856, 4.931710867209231, 4.900343505852515, 8.471146633002151, 5.014385606825274, 5.74133915986708]</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V32" t="n">
-        <v>1.390487951259161</v>
+        <v>1.030341909849657</v>
       </c>
       <c r="W32" t="n">
-        <v>9</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0.7337682505327214</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.749006</t>
-        </is>
-      </c>
-      <c r="AA32" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>3.013185940970742</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>0.000334798437885638</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>4998.762812142815</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>11.85436244995317</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>12.11323197400166</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>12.21379587151188</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>12.05412468815237</v>
+          <t>2025-10-12T23:47:53.148545</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -4442,7 +3426,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C33" t="n">
         <v>7</v>
@@ -4451,13 +3435,13 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F33" t="n">
-        <v>59.69340921161348</v>
+        <v>0.821170914930855</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -4468,10 +3452,10 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4485,78 +3469,48 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>[156, 60, 82, 66, 152]</t>
+          <t>[116, 34, 28, 88, 166, 12, 148]</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>[3.682756134418453, 4.70630304597658, 4.783637926459945, 4.80497771074045, 4.842347682308343]</t>
+          <t>[0.5768095704933661, 0.5955520820772918, 1.0627897260130672, 1.1515591686123146, 1.4561485338614213, 1.6920400399297932, 1.8567672404495317]</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>[98, 8, 12, 92, 34]</t>
+          <t>[116, 34, 28, 88, 166, 12, 148]</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>[5.95449152616891, 6.08800436829768, 6.298216901063049, 6.413730728557752, 6.417726160743521]</t>
+          <t>[0.5768095704933661, 0.5955520820772918, 1.0627897260130672, 1.1515591686123146, 1.4561485338614213, 1.6920400399297932, 1.8567672404495317]</t>
         </is>
       </c>
       <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.7434418264670064</v>
+      </c>
+      <c r="W33" t="n">
         <v>3</v>
       </c>
-      <c r="V33" t="n">
-        <v>4.783637926459945</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1</v>
-      </c>
       <c r="X33" t="n">
-        <v>0.5049512863264476</v>
+        <v>0.4990353820222541</v>
       </c>
       <c r="Y33" t="n">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.795344</t>
-        </is>
-      </c>
-      <c r="AA33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>5.619365638622249</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0.0006243739598469165</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>7675.055355953153</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>219.128656528511</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>219.2012141666833</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>219.2604123004614</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>219.2008365591462</v>
+          <t>2025-10-12T23:47:53.148545</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -4566,7 +3520,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="C34" t="n">
         <v>7</v>
@@ -4575,13 +3529,13 @@
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>59.69340921161348</v>
+        <v>0.821170914930855</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -4592,10 +3546,10 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -4609,78 +3563,48 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>[46, 150, 32, 120, 53]</t>
+          <t>[116, 28, 67, 92, 34, 12, 166]</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>[0.8132081400250286, 1.4415421245913314, 1.4858066535973735, 1.5090954936329044, 1.5868689295900902]</t>
+          <t>[0.9638482758194614, 1.0427116849041143, 1.1515591686123146, 1.2844867596432914, 1.1688040592017273, 1.1889773334939922, 1.2921742063603394]</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>[98, 38, 28, 116, 14]</t>
+          <t>[116, 28, 67, 92, 34, 12, 166]</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>[3.489683763572442, 3.809058612177697, 4.527222335908589, 4.752742239180374, 4.850350457556759]</t>
+          <t>[0.9638482758194614, 1.0427116849041143, 1.1515591686123146, 1.2844867596432914, 1.1688040592017273, 1.1889773334939922, 1.2921742063603394]</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V34" t="n">
-        <v>1.485806653597374</v>
+        <v>0.8046591249625796</v>
       </c>
       <c r="W34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X34" t="n">
-        <v>0.5366527037650917</v>
+        <v>0.4777354579378964</v>
       </c>
       <c r="Y34" t="n">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.796342</t>
-        </is>
-      </c>
-      <c r="AA34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>6.820637759911813</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0.0007578486399902014</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>6745.029408638954</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>70.53012348438939</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>70.59289416482827</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>70.74448015286099</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>70.6061314716072</v>
+          <t>2025-10-12T23:47:53.148545</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -4690,7 +3614,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="C35" t="n">
         <v>7</v>
@@ -4699,13 +3623,13 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F35" t="n">
-        <v>59.69340921161348</v>
+        <v>0.821170914930855</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -4719,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -4733,78 +3657,48 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>[92, 166, 88, 28, 34]</t>
+          <t>[12, 166, 88, 28, 34, 134, 116]</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>[0.6938538718042702, 0.7095152903098895, 1.1889773334939922, 1.2714170344520064, 1.32061194669919]</t>
+          <t>[0.6938538718042702, 1.232152903578428, 1.2844867596432914, 1.5825925572439319, 1.6141646739074402, 1.972033621587465, 1.7865657354714215]</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>[92, 166, 88, 28, 34]</t>
+          <t>[12, 166, 88, 28, 34, 134, 116]</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>[0.6938538718042702, 0.7095152903098895, 1.1889773334939922, 1.2714170344520064, 1.32061194669919]</t>
+          <t>[0.6938538718042702, 1.232152903578428, 1.2844867596432914, 1.5825925572439319, 1.6141646739074402, 1.972033621587465, 1.7865657354714215]</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V35" t="n">
-        <v>1.188977333493992</v>
+        <v>0.8958337123706623</v>
       </c>
       <c r="W35" t="n">
         <v>1</v>
       </c>
       <c r="X35" t="n">
-        <v>0.4782121215146481</v>
+        <v>0.4026529922319733</v>
       </c>
       <c r="Y35" t="n">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.796342</t>
-        </is>
-      </c>
-      <c r="AA35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>0.8003533990356674</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>8.892815544840748e-05</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>4311.233055883248</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>34.82160191982753</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>34.87694369280977</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>34.8932668310787</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>34.85962437257316</v>
+          <t>2025-10-12T23:47:53.149084</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -4814,22 +3708,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="C36" t="n">
         <v>7</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F36" t="n">
-        <v>59.69340921161348</v>
+        <v>0.821170914930855</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -4840,95 +3734,61 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" t="b">
         <v>1</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>[105, 146, 125, 165, 127]</t>
+          <t>[146, 28, 105, 116, 170, 148, 51]</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>[1.1962071176531426, 1.4052520928097405, 1.5090353997195989, 1.5114443168656573, 1.5793456969697512]</t>
+          <t>[2.2655902011080813, 2.009402944755667, 2.3744285735325943, 2.069902236630937, 2.1498598411769523, 2.1959409717746525, 2.6336450736208743]</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>[105, 146, 125, 165, 127]</t>
+          <t>[146, 8, 28, 105, 116, 148, 165]</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>[1.1962071176531426, 1.4052520928097405, 1.5090353997195989, 1.5114443168656573, 1.5793456969697512]</t>
+          <t>[2.2655902011080813, 3.489683763572442, 2.009402944755667, 2.3744285735325943, 2.069902236630937, 2.1959409717746525, 2.4429403769269977]</t>
         </is>
       </c>
       <c r="U36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
-        <v>1.509035399719599</v>
+        <v>1.056791616011707</v>
       </c>
       <c r="W36" t="n">
-        <v>1</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0.4041168988591605</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.796342</t>
-        </is>
-      </c>
-      <c r="AA36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>0.4827591280394067</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>5.363990311548964e-05</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>5462.774652648141</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>143.8205292700947</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>143.8645802894706</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>143.8970065922316</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>143.8591157443415</v>
+          <t>2025-10-12T23:47:53.149084</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -4938,7 +3798,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="C37" t="n">
         <v>7</v>
@@ -4947,13 +3807,13 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>59.69340921161348</v>
+        <v>0.821170914930855</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -4967,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -4981,74 +3841,48 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>[116, 166, 34, 88, 67]</t>
+          <t>[146, 125, 14, 127, 165, 148, 134]</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>[0.5247670678089587, 1.0264295246425166, 1.0365164925602255, 1.0427116849041143, 1.0627897260130672]</t>
+          <t>[0.554208474292604, 0.9788096610379503, 1.1962071176531426, 1.15532112645773, 1.1788478002932243, 1.196821520219185, 2.3023860235789515]</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>[116, 166, 34, 88, 67]</t>
+          <t>[146, 125, 14, 127, 165, 148, 134]</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>[0.5247670678089587, 1.0264295246425166, 1.0365164925602255, 1.0427116849041143, 1.0627897260130672]</t>
+          <t>[0.554208474292604, 0.9788096610379503, 1.1962071176531426, 1.15532112645773, 1.1788478002932243, 1.196821520219185, 2.3023860235789515]</t>
         </is>
       </c>
       <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.5335128296678726</v>
+      </c>
+      <c r="W37" t="n">
         <v>3</v>
       </c>
-      <c r="V37" t="n">
-        <v>1.036516492560225</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
+      <c r="X37" t="n">
+        <v>0.5853317731587588</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>125</v>
+      </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.796342</t>
-        </is>
-      </c>
-      <c r="AA37" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>0.5759345986827109</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>6.399273318696788e-05</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>4727.822080611132</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>6.669423471435304</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>7.748438367574146</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>8.434381332306941</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>7.624128227244813</v>
+          <t>2025-10-12T23:47:53.149084</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -5058,22 +3892,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="C38" t="n">
         <v>7</v>
       </c>
       <c r="D38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>59.69340921161348</v>
+        <v>0.821170914930855</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -5084,51 +3918,51 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" t="b">
         <v>1</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>[67, 116, 28, 88, 166]</t>
+          <t>[122, 38, 25, 114, 59, 56, 165]</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 0, 1, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>[0.5955520820772918, 0.7853120750288224, 1.0365164925602255, 1.1688040592017273, 1.215666646680279]</t>
+          <t>[4.337198191692961, 4.05470661044856, 6.487488755518677, 5.440198495444032, 8.820757032771018, 5.109254203889771, 4.391370694579391]</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>[67, 116, 28, 88, 166]</t>
+          <t>[38, 122, 8, 114, 165, 14, 127]</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>[0.5955520820772918, 0.7853120750288224, 1.0365164925602255, 1.1688040592017273, 1.215666646680279]</t>
+          <t>[4.05470661044856, 4.337198191692961, 5.247392155625091, 5.440198495444032, 4.391370694579391, 4.788558760473677, 4.678288879544833]</t>
         </is>
       </c>
       <c r="U38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
-        <v>1.036516492560225</v>
+        <v>1.229594771154912</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -5137,38 +3971,8 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.797340</t>
-        </is>
-      </c>
-      <c r="AA38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>0.562452700770671</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>6.249474453007456e-05</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>4632.45354631294</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>12.50377674987464</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>13.1601767700159</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>14.17750266403931</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>13.16072881726153</v>
+          <t>2025-10-12T23:47:53.149084</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -5178,22 +3982,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="C39" t="n">
         <v>7</v>
       </c>
       <c r="D39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>59.69340921161348</v>
+        <v>0.821170914930855</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -5204,95 +4008,61 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" t="b">
         <v>1</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>[72, 161, 137, 142, 27]</t>
+          <t>[122, 25, 14, 105, 112, 127, 165]</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>[2.8743801847924346, 3.2135648621806987, 3.228033933840191, 3.4249093040861704, 3.4506572289798974]</t>
+          <t>[4.087903692704581, 5.758371013344655, 3.762171276613728, 3.718255724775455, 5.440198495444032, 3.8400893679327046, 3.842576423535419]</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>[8, 112, 98, 122, 28]</t>
+          <t>[122, 14, 112, 105, 127, 165, 125]</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>[3.809058612177697, 4.05470661044856, 4.900343505852515, 4.931710867209231, 4.936753476539264]</t>
+          <t>[4.087903692704581, 3.762171276613728, 5.440198495444032, 3.718255724775455, 3.8400893679327046, 3.842576423535419, 3.7610177832708014]</t>
         </is>
       </c>
       <c r="U39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
-        <v>3.228033933840191</v>
+        <v>1.241264517011573</v>
       </c>
       <c r="W39" t="n">
-        <v>2</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0.5897771074506666</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>161</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.797340</t>
-        </is>
-      </c>
-      <c r="AA39" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>10.76043997660839</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>0.001195604441845377</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>4570.056141730649</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>70.59762795577923</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>70.62694443724249</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>70.7112166170878</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>70.63406872213555</v>
+          <t>2025-10-12T23:47:53.149084</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -5302,7 +4072,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="C40" t="n">
         <v>7</v>
@@ -5311,13 +4081,13 @@
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>59.69340921161348</v>
+        <v>0.821170914930855</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -5331,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -5345,78 +4115,48 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>[116, 34, 28, 88, 166]</t>
+          <t>[28, 67, 34, 88, 166, 12, 148]</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>[0.5768095704933661, 0.5955520820772918, 1.0627897260130672, 1.1515591686123146, 1.4561485338614213]</t>
+          <t>[0.5247670678089587, 0.5768095704933661, 0.7853120750288224, 0.9638482758194614, 1.1512872277874546, 1.4472985267768135, 1.6623535242660015]</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>[116, 34, 28, 88, 166]</t>
+          <t>[28, 67, 34, 88, 166, 12, 148]</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>[0.5768095704933661, 0.5955520820772918, 1.0627897260130672, 1.1515591686123146, 1.4561485338614213]</t>
+          <t>[0.5247670678089587, 0.5768095704933661, 0.7853120750288224, 0.9638482758194614, 1.1512872277874546, 1.4472985267768135, 1.6623535242660015]</t>
         </is>
       </c>
       <c r="U40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V40" t="n">
-        <v>1.062789726013067</v>
+        <v>0.6576373138180097</v>
       </c>
       <c r="W40" t="n">
         <v>2</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4777354579378964</v>
+        <v>0.573235229154987</v>
       </c>
       <c r="Y40" t="n">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.797340</t>
-        </is>
-      </c>
-      <c r="AA40" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>0.5437697740396316</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>6.041886378218128e-05</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>3647.49794879816</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>4.52274868703161</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>5.618536551105106</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>6.102000095551063</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>5.450104678382795</v>
+          <t>2025-10-12T23:47:53.149620</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -5426,22 +4166,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C41" t="n">
         <v>7</v>
       </c>
       <c r="D41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>59.69340921161348</v>
+        <v>0.821170914930855</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -5452,51 +4192,51 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K41" t="n">
         <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" t="b">
         <v>1</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>[116, 28, 67, 34, 12]</t>
+          <t>[25, 112, 114, 38, 104, 98, 14]</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1]</t>
+          <t>[0, 1, 1, 1, 0, 1, 1]</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>[0.9638482758194614, 1.0427116849041143, 1.1515591686123146, 1.1688040592017273, 1.1889773334939922]</t>
+          <t>[3.548220758848561, 4.337198191692961, 4.087903692704581, 4.931710867209231, 8.894895806438829, 4.539073032076113, 4.718257125202034]</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>[116, 28, 67, 34, 12]</t>
+          <t>[112, 114, 38, 8, 98, 14, 127]</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>[0.9638482758194614, 1.0427116849041143, 1.1515591686123146, 1.1688040592017273, 1.1889773334939922]</t>
+          <t>[4.337198191692961, 4.087903692704581, 4.931710867209231, 5.183228044239134, 4.539073032076113, 4.718257125202034, 4.522115957094709]</t>
         </is>
       </c>
       <c r="U41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V41" t="n">
-        <v>1.151559168612315</v>
+        <v>1.227683169339736</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -5505,38 +4245,8 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.797340</t>
-        </is>
-      </c>
-      <c r="AA41" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>0.605078262319291</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>6.723091803547677e-05</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>6190.586655416119</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>51.04450113611478</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>51.63187044308727</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>52.50813432351549</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>51.72058223289836</v>
+          <t>2025-10-12T23:47:53.149620</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -5546,7 +4256,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="C42" t="n">
         <v>7</v>
@@ -5555,13 +4265,13 @@
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F42" t="n">
-        <v>59.69340921161348</v>
+        <v>0.821170914930855</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -5575,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -5589,78 +4299,48 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>[12, 166, 88, 28, 34]</t>
+          <t>[165, 148, 127, 105, 146, 14, 116]</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>[0.6938538718042702, 1.232152903578428, 1.2844867596432914, 1.5825925572439319, 1.6141646739074402]</t>
+          <t>[0.4555300636353425, 0.5437260897988515, 0.8630496944521113, 0.9788096610379503, 0.9866147171205542, 1.5090353997195989, 1.987839538370493]</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>[12, 166, 88, 28, 34]</t>
+          <t>[165, 148, 127, 105, 146, 14, 116]</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>[0.6938538718042702, 1.232152903578428, 1.2844867596432914, 1.5825925572439319, 1.6141646739074402]</t>
+          <t>[0.4555300636353425, 0.5437260897988515, 0.8630496944521113, 0.9788096610379503, 0.9866147171205542, 1.5090353997195989, 1.987839538370493]</t>
         </is>
       </c>
       <c r="U42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V42" t="n">
-        <v>1.284486759643291</v>
+        <v>0.4685791911061563</v>
       </c>
       <c r="W42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X42" t="n">
-        <v>0.5853317731587588</v>
+        <v>0.4582458280396084</v>
       </c>
       <c r="Y42" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.798341</t>
-        </is>
-      </c>
-      <c r="AA42" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>0.6503215203244221</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>7.225794670271357e-05</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>4106.006898787877</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>64.99687064559862</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>65.08416280492887</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>65.11241862077712</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>65.07038654911533</v>
+          <t>2025-10-12T23:47:53.149620</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -5670,22 +4350,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="C43" t="n">
         <v>7</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F43" t="n">
-        <v>59.69340921161348</v>
+        <v>0.821170914930855</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -5696,51 +4376,51 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L43" t="n">
-        <v>0.9709505944546688</v>
+        <v>0</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" t="b">
         <v>1</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>[28, 116, 170, 148, 149]</t>
+          <t>[125, 165, 105, 148, 146, 14, 134]</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 1, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>[2.009402944755667, 2.069902236630937, 2.1498598411769523, 2.1959409717746525, 2.2327111284844623]</t>
+          <t>[0.8630496944521113, 0.9548645626090493, 1.15532112645773, 1.0304942909300825, 1.2386401795972093, 1.5793456969697512, 2.4712924331226453]</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>[28, 116, 148, 146, 166]</t>
+          <t>[125, 165, 105, 148, 146, 14, 134]</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>[2.009402944755667, 2.069902236630937, 2.1959409717746525, 2.2655902011080813, 2.275157458684912]</t>
+          <t>[0.8630496944521113, 0.9548645626090493, 1.15532112645773, 1.0304942909300825, 1.2386401795972093, 1.5793456969697512, 2.4712924331226453]</t>
         </is>
       </c>
       <c r="U43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V43" t="n">
-        <v>2.149859841176952</v>
+        <v>0.5365596074805511</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -5749,38 +4429,8 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.798341</t>
-        </is>
-      </c>
-      <c r="AA43" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>1.524934174310906</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>0.0001694371304789896</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>7231.605483840171</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>140.8188271696362</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>140.8357852092942</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>140.8484398295292</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>140.8340793180169</v>
+          <t>2025-10-12T23:47:53.149620</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -5790,7 +4440,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="C44" t="n">
         <v>7</v>
@@ -5799,13 +4449,13 @@
         <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>59.69340921161348</v>
+        <v>0.821170914930855</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -5819,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -5833,74 +4483,48 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>[146, 125, 127, 165, 14]</t>
+          <t>[166, 12, 92, 28, 105, 116, 127]</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>[0.554208474292604, 0.9788096610379503, 1.15532112645773, 1.1788478002932243, 1.1962071176531426]</t>
+          <t>[1.2254670342423102, 1.5296665982953364, 1.972033621587465, 1.7913607550454447, 2.3023860235789515, 2.007189037033557, 2.4712924331226453]</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>[146, 125, 127, 165, 14]</t>
+          <t>[166, 12, 92, 28, 105, 116, 127]</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>[0.554208474292604, 0.9788096610379503, 1.15532112645773, 1.1788478002932243, 1.1962071176531426]</t>
+          <t>[1.2254670342423102, 1.5296665982953364, 1.972033621587465, 1.7913607550454447, 2.3023860235789515, 2.007189037033557, 2.4712924331226453]</t>
         </is>
       </c>
       <c r="U44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V44" t="n">
-        <v>1.15532112645773</v>
+        <v>0.9454393257791043</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.4770833005079832</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>12</v>
+      </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.798341</t>
-        </is>
-      </c>
-      <c r="AA44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>0.7348118084624422</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>8.164575649582691e-05</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>4939.659051648756</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>43.70727923081737</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>43.74637902537555</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>43.81049742572807</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>43.74845844729693</v>
+          <t>2025-10-12T23:47:53.150128</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -5910,22 +4534,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="C45" t="n">
         <v>7</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F45" t="n">
-        <v>59.69340921161348</v>
+        <v>0.821170914930855</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -5936,91 +4560,65 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L45" t="n">
-        <v>0.9709505944546688</v>
+        <v>0</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" t="b">
         <v>1</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>[38, 122, 161, 165, 21]</t>
+          <t>[105, 125, 165, 148, 127, 14, 98]</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 1, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>[4.05470661044856, 4.337198191692961, 4.3814270704880585, 4.391370694579391, 4.5682543561525275]</t>
+          <t>[0.554208474292604, 0.9866147171205542, 1.1374318846972276, 1.0372642603783018, 1.2386401795972093, 1.4052520928097405, 2.2655902011080813]</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>[38, 122, 165, 125, 127]</t>
+          <t>[105, 125, 165, 148, 127, 14, 98]</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>[4.05470661044856, 4.337198191692961, 4.391370694579391, 4.639421127596824, 4.678288879544833]</t>
+          <t>[0.554208474292604, 0.9866147171205542, 1.1374318846972276, 1.0372642603783018, 1.2386401795972093, 1.4052520928097405, 2.2655902011080813]</t>
         </is>
       </c>
       <c r="U45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V45" t="n">
-        <v>4.381427070488058</v>
+        <v>0.5444288353851664</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.5818640804157564</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>165</v>
+      </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.798341</t>
-        </is>
-      </c>
-      <c r="AA45" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>8.990998016839201</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>0.0009989997796488001</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>6136.154403355093</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>76.44264518146909</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>76.69782474896249</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>76.94963734523729</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>76.69878308409923</v>
+          <t>2025-10-12T23:47:53.150230</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -6030,7 +4628,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="C46" t="n">
         <v>7</v>
@@ -6039,13 +4637,13 @@
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>59.69340921161348</v>
+        <v>0.821170914930855</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -6059,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -6073,78 +4671,48 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>[105, 125, 14, 127, 165]</t>
+          <t>[165, 125, 127, 146, 105, 14, 116]</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>[3.718255724775455, 3.7610177832708014, 3.762171276613728, 3.8400893679327046, 3.842576423535419]</t>
+          <t>[0.4956847553434702, 0.5437260897988515, 1.0304942909300825, 1.0372642603783018, 1.196821520219185, 1.7265879571947085, 1.6623535242660015]</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>[105, 125, 14, 127, 165]</t>
+          <t>[165, 125, 127, 146, 105, 14, 116]</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>[3.718255724775455, 3.7610177832708014, 3.762171276613728, 3.8400893679327046, 3.842576423535419]</t>
+          <t>[0.4956847553434702, 0.5437260897988515, 1.0304942909300825, 1.0372642603783018, 1.196821520219185, 1.7265879571947085, 1.6623535242660015]</t>
         </is>
       </c>
       <c r="U46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V46" t="n">
-        <v>3.762171276613728</v>
+        <v>0.5444288353851664</v>
       </c>
       <c r="W46" t="n">
         <v>2</v>
       </c>
       <c r="X46" t="n">
-        <v>0.5666389823472329</v>
+        <v>0.4176985004103839</v>
       </c>
       <c r="Y46" t="n">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.799345</t>
-        </is>
-      </c>
-      <c r="AA46" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>0.7016771100193161</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>7.796412333547957e-05</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>5352.655825569469</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>412.3212138348649</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>412.3380691456306</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>412.3502526435019</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>412.3362296716082</v>
+          <t>2025-10-12T23:47:53.150230</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -6154,7 +4722,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="C47" t="n">
         <v>7</v>
@@ -6163,13 +4731,13 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F47" t="n">
-        <v>59.69340921161348</v>
+        <v>0.821170914930855</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -6183,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -6197,78 +4765,44 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>[28, 67, 34, 88, 166]</t>
+          <t>[125, 148, 127, 146, 105, 14, 116]</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>[0.5247670678089587, 0.5768095704933661, 0.7853120750288224, 0.9638482758194614, 1.1512872277874546]</t>
+          <t>[0.4555300636353425, 0.4956847553434702, 0.9548645626090493, 1.1374318846972276, 1.1788478002932243, 1.5114443168656573, 2.0850346828531623]</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>[28, 67, 34, 88, 166]</t>
+          <t>[125, 148, 127, 146, 105, 14, 98]</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>[0.5247670678089587, 0.5768095704933661, 0.7853120750288224, 0.9638482758194614, 1.1512872277874546]</t>
+          <t>[0.4555300636353425, 0.4956847553434702, 0.9548645626090493, 1.1374318846972276, 1.1788478002932243, 1.5114443168656573, 2.4429403769269977]</t>
         </is>
       </c>
       <c r="U47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V47" t="n">
-        <v>0.7853120750288224</v>
+        <v>0.5432688640123672</v>
       </c>
       <c r="W47" t="n">
-        <v>2</v>
-      </c>
-      <c r="X47" t="n">
-        <v>0.4031272813482388</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.799345</t>
-        </is>
-      </c>
-      <c r="AA47" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>0.6329747763075226</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>7.033053070083586e-05</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>4330.650487421944</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>3.04407020302737</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>3.795677832486635</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>4.162809895293442</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>3.63499600507204</v>
+          <t>2025-10-12T23:47:53.150768</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -6278,22 +4812,22 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="C48" t="n">
         <v>7</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>59.69340921161348</v>
+        <v>0.821170914930855</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -6304,955 +4838,65 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L48" t="n">
-        <v>0.9709505944546688</v>
+        <v>0</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" t="b">
         <v>1</v>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>[25, 114, 112, 95, 125]</t>
+          <t>[12, 134, 28, 92, 116, 34, 67]</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>[0, 1, 1, 0, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>[3.548220758848561, 4.087903692704581, 4.337198191692961, 4.459563889993939, 4.477699112513131]</t>
+          <t>[0.7095152903098895, 1.2254670342423102, 1.0264295246425166, 1.232152903578428, 1.1512872277874546, 1.215666646680279, 1.4561485338614213]</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>[114, 112, 125, 127, 98]</t>
+          <t>[12, 134, 28, 92, 116, 34, 67]</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>[4.087903692704581, 4.337198191692961, 4.477699112513131, 4.522115957094709, 4.539073032076113]</t>
+          <t>[0.7095152903098895, 1.2254670342423102, 1.0264295246425166, 1.232152903578428, 1.1512872277874546, 1.215666646680279, 1.4561485338614213]</t>
         </is>
       </c>
       <c r="U48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V48" t="n">
-        <v>4.337198191692961</v>
+        <v>0.7718748907064281</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
-      </c>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.4899508266739531</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>134</v>
+      </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:38.799345</t>
-        </is>
-      </c>
-      <c r="AA48" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>8.571078349963415</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>0.0009523420388848239</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>4462.076357235868</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>77.07480008726579</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>77.10198807055153</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>77.17048754572281</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>77.11389643591284</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>125</v>
-      </c>
-      <c r="C49" t="n">
-        <v>7</v>
-      </c>
-      <c r="D49" t="b">
-        <v>1</v>
-      </c>
-      <c r="E49" t="n">
-        <v>5</v>
-      </c>
-      <c r="F49" t="n">
-        <v>59.69340921161348</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>1</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="b">
-        <v>1</v>
-      </c>
-      <c r="O49" t="b">
-        <v>1</v>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>[165, 148, 127, 105, 146]</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>[0.4555300636353425, 0.5437260897988515, 0.8630496944521113, 0.9788096610379503, 0.9866147171205542]</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>[165, 148, 127, 105, 146]</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>[0.4555300636353425, 0.5437260897988515, 0.8630496944521113, 0.9788096610379503, 0.9866147171205542]</t>
-        </is>
-      </c>
-      <c r="U49" t="n">
-        <v>3</v>
-      </c>
-      <c r="V49" t="n">
-        <v>0.8630496944521113</v>
-      </c>
-      <c r="W49" t="n">
-        <v>1</v>
-      </c>
-      <c r="X49" t="n">
-        <v>0.4770833005079832</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>148</v>
-      </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>2025-10-10T09:55:38.799345</t>
-        </is>
-      </c>
-      <c r="AA49" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>0.5293631975837925</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>5.881813306486583e-05</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>5236.475085438217</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>42.72989430654424</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>42.73791245179928</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>42.78784574100764</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>42.75120581563077</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>127</v>
-      </c>
-      <c r="C50" t="n">
-        <v>7</v>
-      </c>
-      <c r="D50" t="b">
-        <v>1</v>
-      </c>
-      <c r="E50" t="n">
-        <v>5</v>
-      </c>
-      <c r="F50" t="n">
-        <v>59.69340921161348</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="b">
-        <v>1</v>
-      </c>
-      <c r="O50" t="b">
-        <v>1</v>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>[125, 165, 148, 105, 146]</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>[0.8630496944521113, 0.9548645626090493, 1.0304942909300825, 1.15532112645773, 1.2386401795972093]</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>[125, 165, 148, 105, 146]</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>[0.8630496944521113, 0.9548645626090493, 1.0304942909300825, 1.15532112645773, 1.2386401795972093]</t>
-        </is>
-      </c>
-      <c r="U50" t="n">
-        <v>3</v>
-      </c>
-      <c r="V50" t="n">
-        <v>1.030494290930082</v>
-      </c>
-      <c r="W50" t="n">
-        <v>1</v>
-      </c>
-      <c r="X50" t="n">
-        <v>0.439934756431672</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>165</v>
-      </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>2025-10-10T09:55:38.799345</t>
-        </is>
-      </c>
-      <c r="AA50" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>0.4089602693770643</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>4.544002993078491e-05</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>6919.960146299097</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>122.2258346941381</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>122.23635886882</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>122.2537870517207</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>122.23615599077</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>134</v>
-      </c>
-      <c r="C51" t="n">
-        <v>7</v>
-      </c>
-      <c r="D51" t="b">
-        <v>1</v>
-      </c>
-      <c r="E51" t="n">
-        <v>5</v>
-      </c>
-      <c r="F51" t="n">
-        <v>59.69340921161348</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="b">
-        <v>1</v>
-      </c>
-      <c r="O51" t="b">
-        <v>1</v>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>[166, 12, 28, 92, 116]</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>[1.2254670342423102, 1.5296665982953364, 1.7913607550454447, 1.972033621587465, 2.007189037033557]</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>[166, 12, 28, 92, 116]</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>[1.2254670342423102, 1.5296665982953364, 1.7913607550454447, 1.972033621587465, 2.007189037033557]</t>
-        </is>
-      </c>
-      <c r="U51" t="n">
-        <v>3</v>
-      </c>
-      <c r="V51" t="n">
-        <v>1.791360755045445</v>
-      </c>
-      <c r="W51" t="n">
-        <v>1</v>
-      </c>
-      <c r="X51" t="n">
-        <v>0.4176985004103839</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>2025-10-10T09:55:38.799345</t>
-        </is>
-      </c>
-      <c r="AA51" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB51" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>0.7282518438144375</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>8.09168715349375e-05</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>6949.007980825628</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>100.6292024294072</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>100.6759395613318</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>100.7445484281291</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>100.6831126105625</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>146</v>
-      </c>
-      <c r="C52" t="n">
-        <v>7</v>
-      </c>
-      <c r="D52" t="b">
-        <v>1</v>
-      </c>
-      <c r="E52" t="n">
-        <v>5</v>
-      </c>
-      <c r="F52" t="n">
-        <v>59.69340921161348</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="b">
-        <v>1</v>
-      </c>
-      <c r="O52" t="b">
-        <v>1</v>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>[105, 125, 148, 165, 127]</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>[0.554208474292604, 0.9866147171205542, 1.0372642603783018, 1.1374318846972276, 1.2386401795972093]</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>[105, 125, 148, 165, 127]</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>[0.554208474292604, 0.9866147171205542, 1.0372642603783018, 1.1374318846972276, 1.2386401795972093]</t>
-        </is>
-      </c>
-      <c r="U52" t="n">
-        <v>3</v>
-      </c>
-      <c r="V52" t="n">
-        <v>1.037264260378302</v>
-      </c>
-      <c r="W52" t="n">
-        <v>0</v>
-      </c>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>2025-10-10T09:55:38.799345</t>
-        </is>
-      </c>
-      <c r="AA52" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB52" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>0.4291143906620075</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>4.767937674022306e-05</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>4825.507229208012</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>59.62711138457158</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>59.69340921161348</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>59.70800127128433</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>59.67429799628134</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>148</v>
-      </c>
-      <c r="C53" t="n">
-        <v>7</v>
-      </c>
-      <c r="D53" t="b">
-        <v>1</v>
-      </c>
-      <c r="E53" t="n">
-        <v>5</v>
-      </c>
-      <c r="F53" t="n">
-        <v>59.69340921161348</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="b">
-        <v>1</v>
-      </c>
-      <c r="O53" t="b">
-        <v>1</v>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>[165, 125, 127, 146, 105]</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>[0.4956847553434702, 0.5437260897988515, 1.0304942909300825, 1.0372642603783018, 1.196821520219185]</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>[165, 125, 127, 146, 105]</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>[0.4956847553434702, 0.5437260897988515, 1.0304942909300825, 1.0372642603783018, 1.196821520219185]</t>
-        </is>
-      </c>
-      <c r="U53" t="n">
-        <v>3</v>
-      </c>
-      <c r="V53" t="n">
-        <v>1.030494290930082</v>
-      </c>
-      <c r="W53" t="n">
-        <v>3</v>
-      </c>
-      <c r="X53" t="n">
-        <v>0.5657475018303859</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>127</v>
-      </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>2025-10-10T09:55:38.799345</t>
-        </is>
-      </c>
-      <c r="AA53" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB53" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>0.4827591280394067</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>5.363990311548964e-05</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>5462.77465264926</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>50.1823558431384</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>50.19100985439966</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>50.26560371643002</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>50.20972309636967</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>165</v>
-      </c>
-      <c r="C54" t="n">
-        <v>7</v>
-      </c>
-      <c r="D54" t="b">
-        <v>1</v>
-      </c>
-      <c r="E54" t="n">
-        <v>5</v>
-      </c>
-      <c r="F54" t="n">
-        <v>59.69340921161348</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="b">
-        <v>1</v>
-      </c>
-      <c r="O54" t="b">
-        <v>1</v>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>[125, 148, 127, 146, 105]</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>[0.4555300636353425, 0.4956847553434702, 0.9548645626090493, 1.1374318846972276, 1.1788478002932243]</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>[125, 148, 127, 146, 105]</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>[0.4555300636353425, 0.4956847553434702, 0.9548645626090493, 1.1374318846972276, 1.1788478002932243]</t>
-        </is>
-      </c>
-      <c r="U54" t="n">
-        <v>3</v>
-      </c>
-      <c r="V54" t="n">
-        <v>0.9548645626090493</v>
-      </c>
-      <c r="W54" t="n">
-        <v>2</v>
-      </c>
-      <c r="X54" t="n">
-        <v>0.4341048247374583</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>127</v>
-      </c>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>2025-10-10T09:55:38.799345</t>
-        </is>
-      </c>
-      <c r="AA54" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB54" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>0.4859165300944616</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>5.399072556605129e-05</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>5090.021104196723</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>50.73661810617396</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>50.77543316500213</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>50.7930914120779</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>50.7644948166037</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>166</v>
-      </c>
-      <c r="C55" t="n">
-        <v>7</v>
-      </c>
-      <c r="D55" t="b">
-        <v>1</v>
-      </c>
-      <c r="E55" t="n">
-        <v>5</v>
-      </c>
-      <c r="F55" t="n">
-        <v>59.69340921161348</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>1</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="b">
-        <v>1</v>
-      </c>
-      <c r="O55" t="b">
-        <v>1</v>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>[12, 28, 116, 34, 134]</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>[0.7095152903098895, 1.0264295246425166, 1.1512872277874546, 1.215666646680279, 1.2254670342423102]</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>[12, 28, 116, 34, 134]</t>
-        </is>
-      </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>[0.7095152903098895, 1.0264295246425166, 1.1512872277874546, 1.215666646680279, 1.2254670342423102]</t>
-        </is>
-      </c>
-      <c r="U55" t="n">
-        <v>3</v>
-      </c>
-      <c r="V55" t="n">
-        <v>1.151287227787455</v>
-      </c>
-      <c r="W55" t="n">
-        <v>1</v>
-      </c>
-      <c r="X55" t="n">
-        <v>0.4092900825439996</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>2025-10-10T09:55:38.799345</t>
-        </is>
-      </c>
-      <c r="AA55" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB55" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>1.107259472814862</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>0.0001230288303127625</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>6376.15703641147</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>32.52405246389969</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>32.54204829726027</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>32.57996421843873</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>32.54381742573202</v>
+          <t>2025-10-12T23:47:53.150768</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D25_R50_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D25_R50_Pentropia.xlsx
@@ -651,7 +651,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:52.998243</t>
+          <t>2025-10-16T12:16:25.678616</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:52.998781</t>
+          <t>2025-10-16T12:16:25.679621</t>
         </is>
       </c>
     </row>
@@ -785,7 +785,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L4" t="n">
         <v>0.5916727785823274</v>
@@ -839,7 +839,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:52.998781</t>
+          <t>2025-10-16T12:16:25.679621</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L5" t="n">
         <v>0.5916727785823274</v>
@@ -933,7 +933,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:52.998781</t>
+          <t>2025-10-16T12:16:25.679621</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:52.998781</t>
+          <t>2025-10-16T12:16:25.679621</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:52.999316</t>
+          <t>2025-10-16T12:16:25.680618</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:52.999316</t>
+          <t>2025-10-16T12:16:25.680618</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:52.999316</t>
+          <t>2025-10-16T12:16:25.680618</t>
         </is>
       </c>
     </row>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:52.999316</t>
+          <t>2025-10-16T12:16:25.680618</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:52.999851</t>
+          <t>2025-10-16T12:16:25.680618</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:52.999851</t>
+          <t>2025-10-16T12:16:25.680618</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:52.999851</t>
+          <t>2025-10-16T12:16:25.681619</t>
         </is>
       </c>
     </row>
@@ -1717,7 +1717,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L14" t="n">
         <v>0.5916727785823274</v>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:52.999851</t>
+          <t>2025-10-16T12:16:25.681619</t>
         </is>
       </c>
     </row>
@@ -1811,7 +1811,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L15" t="n">
         <v>0.5916727785823274</v>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:52.999851</t>
+          <t>2025-10-16T12:16:25.681619</t>
         </is>
       </c>
     </row>
@@ -1955,7 +1955,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:53.033682</t>
+          <t>2025-10-16T12:16:25.697565</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:53.033682</t>
+          <t>2025-10-16T12:16:25.697565</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:53.033682</t>
+          <t>2025-10-16T12:16:25.697565</t>
         </is>
       </c>
     </row>
@@ -2225,7 +2225,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:53.034678</t>
+          <t>2025-10-16T12:16:25.701574</t>
         </is>
       </c>
     </row>
@@ -2315,7 +2315,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:53.034678</t>
+          <t>2025-10-16T12:16:25.702624</t>
         </is>
       </c>
     </row>
@@ -2405,7 +2405,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:53.034678</t>
+          <t>2025-10-16T12:16:25.702624</t>
         </is>
       </c>
     </row>
@@ -2495,7 +2495,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:53.034678</t>
+          <t>2025-10-16T12:16:25.703648</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:53.034678</t>
+          <t>2025-10-16T12:16:25.703648</t>
         </is>
       </c>
     </row>
@@ -2675,7 +2675,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:53.035678</t>
+          <t>2025-10-16T12:16:25.704640</t>
         </is>
       </c>
     </row>
@@ -2765,7 +2765,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:53.035678</t>
+          <t>2025-10-16T12:16:25.704640</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:53.147462</t>
+          <t>2025-10-16T12:16:25.767692</t>
         </is>
       </c>
     </row>
@@ -2899,7 +2899,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:53.147971</t>
+          <t>2025-10-16T12:16:25.767692</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:53.148006</t>
+          <t>2025-10-16T12:16:25.767692</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:53.148006</t>
+          <t>2025-10-16T12:16:25.768688</t>
         </is>
       </c>
     </row>
@@ -3231,7 +3231,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:53.148513</t>
+          <t>2025-10-16T12:16:25.768688</t>
         </is>
       </c>
     </row>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:53.148545</t>
+          <t>2025-10-16T12:16:25.768688</t>
         </is>
       </c>
     </row>
@@ -3415,7 +3415,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:53.148545</t>
+          <t>2025-10-16T12:16:25.768688</t>
         </is>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:53.148545</t>
+          <t>2025-10-16T12:16:25.769687</t>
         </is>
       </c>
     </row>
@@ -3603,7 +3603,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:53.148545</t>
+          <t>2025-10-16T12:16:25.769687</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:53.149084</t>
+          <t>2025-10-16T12:16:25.769687</t>
         </is>
       </c>
     </row>
@@ -3737,7 +3737,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K36" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L36" t="n">
         <v>0.8631205685666311</v>
@@ -3787,7 +3787,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:53.149084</t>
+          <t>2025-10-16T12:16:25.769687</t>
         </is>
       </c>
     </row>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:53.149084</t>
+          <t>2025-10-16T12:16:25.769687</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K38" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L38" t="n">
         <v>0.9852281360342515</v>
@@ -3971,7 +3971,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:53.149084</t>
+          <t>2025-10-16T12:16:25.769687</t>
         </is>
       </c>
     </row>
@@ -4011,7 +4011,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K39" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L39" t="n">
         <v>0.5916727785823274</v>
@@ -4061,7 +4061,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:53.149084</t>
+          <t>2025-10-16T12:16:25.769687</t>
         </is>
       </c>
     </row>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:53.149620</t>
+          <t>2025-10-16T12:16:25.770690</t>
         </is>
       </c>
     </row>
@@ -4195,7 +4195,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L41" t="n">
         <v>0.8631205685666311</v>
@@ -4245,7 +4245,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:53.149620</t>
+          <t>2025-10-16T12:16:25.770690</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:53.149620</t>
+          <t>2025-10-16T12:16:25.770690</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:53.149620</t>
+          <t>2025-10-16T12:16:25.770690</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:53.150128</t>
+          <t>2025-10-16T12:16:25.770690</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:53.150230</t>
+          <t>2025-10-16T12:16:25.770690</t>
         </is>
       </c>
     </row>
@@ -4711,7 +4711,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:53.150230</t>
+          <t>2025-10-16T12:16:25.770690</t>
         </is>
       </c>
     </row>
@@ -4801,7 +4801,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:53.150768</t>
+          <t>2025-10-16T12:16:25.770690</t>
         </is>
       </c>
     </row>
@@ -4895,7 +4895,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:53.150768</t>
+          <t>2025-10-16T12:16:25.771687</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D25_R50_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D25_R50_Pentropia.xlsx
@@ -584,7 +584,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8433776256132939</v>
+        <v>0.8433693214731602</v>
       </c>
       <c r="G2" t="n">
         <v>0.5714285714285714</v>
@@ -625,7 +625,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[0.36870282705068963, 0.571254182457916, 0.8399570029762644, 0.7188030116408483, 0.915922586578981, 0.9643759308650648, 0.8161088220553884]</t>
+          <t>[0.3686896860599518, 0.5712586641311646, 0.8399618864059448, 0.7188007235527039, 0.9159262180328369, 0.964373767375946, 0.8161059021949768]</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -635,14 +635,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.36870282705068963, 0.9643759308650648, 1.1263236539931059, 1.2241735099679416, 1.2196421966004263, 1.470400260947273, 1.5570746533140791]</t>
+          <t>[0.3686896860599518, 0.964373767375946, 1.126319169998169, 1.2241731882095337, 1.2196450233459473, 1.4703971147537231, 1.557084560394287]</t>
         </is>
       </c>
       <c r="U2" t="n">
         <v>4</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6499969329634168</v>
+        <v>0.6499942541122437</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -651,7 +651,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.678616</t>
+          <t>2025-10-17T02:10:08.425314</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8433776256132939</v>
+        <v>0.8433693214731602</v>
       </c>
       <c r="G3" t="n">
         <v>0.5714285714285714</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[0.29108793636307856, 0.3007785898777099, 0.5837685871344127, 0.6349888467834518, 0.6392179051246156, 0.5765435063524058, 0.6429941276074913]</t>
+          <t>[0.29108816385269165, 0.3007749617099762, 0.5837634801864624, 0.6349945664405823, 0.639224112033844, 0.5765426754951477, 0.6429972052574158]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -725,14 +725,14 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[0.6392179051246156, 0.7289855999382798, 0.8478721364650169, 0.9712824467055972, 1.0848981146158845, 1.3480260842400091, 1.2196421966004263]</t>
+          <t>[0.639224112033844, 0.7289791107177734, 0.8478673100471497, 0.9712804555892944, 1.0848945379257202, 1.3480218648910522, 1.2196450233459473]</t>
         </is>
       </c>
       <c r="U3" t="n">
         <v>4</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6863314508098379</v>
+        <v>0.686335563659668</v>
       </c>
       <c r="W3" t="n">
         <v>4</v>
@@ -745,7 +745,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.679621</t>
+          <t>2025-10-17T02:10:08.425314</t>
         </is>
       </c>
     </row>
@@ -768,7 +768,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8433776256132939</v>
+        <v>0.8433693214731602</v>
       </c>
       <c r="G4" t="n">
         <v>0.5714285714285714</v>
@@ -785,7 +785,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L4" t="n">
         <v>0.5916727785823274</v>
@@ -809,7 +809,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[1.5354786819005746, 1.5763796645421633, 1.518245731033573, 1.601565229324348, 1.8141893925589672, 2.4762693355922436, 1.6455757268203273]</t>
+          <t>[1.5354762077331543, 1.5763767957687378, 1.5182515382766724, 1.6015644073486328, 1.814195990562439, 2.4762635231018066, 1.645581841468811]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -819,14 +819,14 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>[2.4762693355922436, 2.9099357041697727, 2.5544267277225856, 3.135508093288406, 2.661673534050169, 2.6628466326195666, 2.9838959810785206]</t>
+          <t>[2.4762635231018066, 2.9099297523498535, 2.5544352531433105, 3.1355085372924805, 2.66167950630188, 2.662851095199585, 2.9838945865631104]</t>
         </is>
       </c>
       <c r="U4" t="n">
         <v>4</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7479138955814472</v>
+        <v>0.7479127645492554</v>
       </c>
       <c r="W4" t="n">
         <v>3</v>
@@ -839,7 +839,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.679621</t>
+          <t>2025-10-17T02:10:08.425314</t>
         </is>
       </c>
     </row>
@@ -862,7 +862,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8433776256132939</v>
+        <v>0.8433693214731602</v>
       </c>
       <c r="G5" t="n">
         <v>0.5714285714285714</v>
@@ -879,7 +879,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L5" t="n">
         <v>0.5916727785823274</v>
@@ -903,7 +903,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[0.46185233475496995, 0.46297917576952363, 0.7553792977804442, 0.8820956202336345, 0.8820956202336345, 1.2559472641199887, 1.800462053004792]</t>
+          <t>[0.4618493616580963, 0.46296268701553345, 0.7553806304931641, 0.8820913434028625, 0.8820913434028625, 1.2559460401535034, 1.8004459142684937]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -913,14 +913,14 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>[0.7553792977804442, 2.353507723745344, 3.135508093288406, 3.852336164887893, 2.6655485707291344, 2.417296510745149, 2.481662343266953]</t>
+          <t>[0.7553806304931641, 2.353519916534424, 3.1355085372924805, 3.852335214614868, 2.665560245513916, 2.4172964096069336, 2.481671094894409]</t>
         </is>
       </c>
       <c r="U5" t="n">
         <v>5</v>
       </c>
       <c r="V5" t="n">
-        <v>0.416807679815069</v>
+        <v>0.4168060123920441</v>
       </c>
       <c r="W5" t="n">
         <v>2</v>
@@ -933,7 +933,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.679621</t>
+          <t>2025-10-17T02:10:08.425314</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
         <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8433776256132939</v>
+        <v>0.8433693214731602</v>
       </c>
       <c r="G6" t="n">
         <v>0.5714285714285714</v>
@@ -997,7 +997,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>[0.9198494393336901, 0.9164440119967676, 1.015355534006097, 0.9643759308650648, 1.1352381971484793, 1.309078032215393, 1.2096121380822629]</t>
+          <t>[0.9198511242866516, 0.9164473414421082, 1.0153549909591675, 0.964373767375946, 1.1352434158325195, 1.3090776205062866, 1.209598422050476]</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1007,14 +1007,14 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>[0.9643759308650648, 1.015355534006097, 1.309078032215393, 1.6240327394665033, 1.7274423917541522, 1.9255385383437427, 1.6671735468792106]</t>
+          <t>[0.964373767375946, 1.0153549909591675, 1.3090776205062866, 1.624017596244812, 1.7274311780929565, 1.9255344867706299, 1.6671695709228516]</t>
         </is>
       </c>
       <c r="U6" t="n">
         <v>4</v>
       </c>
       <c r="V6" t="n">
-        <v>0.7526716572473925</v>
+        <v>0.7526718974113464</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.679621</t>
+          <t>2025-10-17T02:10:08.425314</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
         <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8433776256132939</v>
+        <v>0.8433693214731602</v>
       </c>
       <c r="G7" t="n">
         <v>0.5714285714285714</v>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>[1.0445740521454645, 0.7342474404872175, 1.350972587814987, 0.9219694314401171, 0.9574600932486723, 1.0273458703387217, 0.8839927453713303]</t>
+          <t>[1.0445706844329834, 0.7342439293861389, 1.3509747982025146, 0.9219695329666138, 0.9574594497680664, 1.027353048324585, 0.8839975595474243]</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1097,14 +1097,14 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>[1.015057799175586, 1.0873292441229583, 1.1586569849203083, 1.3480260842400091, 1.470400260947273, 1.4868313662359702, 2.2044641100359974]</t>
+          <t>[1.0150388479232788, 1.0873119831085205, 1.158658742904663, 1.3480218648910522, 1.4703971147537231, 1.486830234527588, 2.204462766647339]</t>
         </is>
       </c>
       <c r="U7" t="n">
         <v>4</v>
       </c>
       <c r="V7" t="n">
-        <v>0.8198562294805981</v>
+        <v>0.8198584318161011</v>
       </c>
       <c r="W7" t="n">
         <v>2</v>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.680618</t>
+          <t>2025-10-17T02:10:08.425314</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8433776256132939</v>
+        <v>0.8433693214731602</v>
       </c>
       <c r="G8" t="n">
         <v>0.5714285714285714</v>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>[0.290743137515647, 0.285043916571243, 0.30986970738125885, 0.4762486808158445, 0.6092232120953457, 0.6937357956386917, 0.6997585091441121]</t>
+          <t>[0.2907591462135315, 0.28504446148872375, 0.3098526895046234, 0.4762324094772339, 0.6092221736907959, 0.693737268447876, 0.6997390985488892]</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1191,14 +1191,14 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>[0.285043916571243, 0.6743329932424019, 0.8478721364650169, 1.015057799175586, 1.2241735099679416, 1.3019104729087863, 1.6027152759797092]</t>
+          <t>[0.28504446148872375, 0.6743265986442566, 0.8478673100471497, 1.0150388479232788, 1.2241731882095337, 1.3018968105316162, 1.6027143001556396]</t>
         </is>
       </c>
       <c r="U8" t="n">
         <v>4</v>
       </c>
       <c r="V8" t="n">
-        <v>0.525164932194944</v>
+        <v>0.5251497626304626</v>
       </c>
       <c r="W8" t="n">
         <v>2</v>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.680618</t>
+          <t>2025-10-17T02:10:08.425314</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
         <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8433776256132939</v>
+        <v>0.8433693214731602</v>
       </c>
       <c r="G9" t="n">
         <v>0.5714285714285714</v>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>[0.36870282705068963, 0.5519547370633832, 0.7350731770769507, 0.7528594013729141, 1.015355534006097, 0.8294772913953069, 1.0044478913104573]</t>
+          <t>[0.3686896860599518, 0.5519679188728333, 0.735078752040863, 0.7528611421585083, 1.0153549909591675, 0.8294775485992432, 1.004456877708435]</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1285,14 +1285,14 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>[0.36870282705068963, 1.015355534006097, 1.0848981146158845, 1.1840853595030576, 1.3019104729087863, 1.4868313662359702, 1.475155267747228]</t>
+          <t>[0.3686896860599518, 1.0153549909591675, 1.0848945379257202, 1.1840670108795166, 1.3018968105316162, 1.486830234527588, 1.4751609563827515]</t>
         </is>
       </c>
       <c r="U9" t="n">
         <v>4</v>
       </c>
       <c r="V9" t="n">
-        <v>0.7115838483253124</v>
+        <v>0.7115849256515503</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1301,7 +1301,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.680618</t>
+          <t>2025-10-17T02:10:08.425314</t>
         </is>
       </c>
     </row>
@@ -1324,7 +1324,7 @@
         <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8433776256132939</v>
+        <v>0.8433693214731602</v>
       </c>
       <c r="G10" t="n">
         <v>0.5714285714285714</v>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>[0.285043916571243, 0.3613020375403079, 0.3682554256573937, 0.38688552012503286, 0.5760992767784409, 0.6288485199178419, 0.567023673930235]</t>
+          <t>[0.28504446148872375, 0.36131569743156433, 0.36825448274612427, 0.38687416911125183, 0.5760982632637024, 0.6288474202156067, 0.5670149326324463]</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1375,14 +1375,14 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>[0.285043916571243, 0.6349515184349481, 0.7289855999382798, 1.0873292441229583, 1.1263236539931059, 1.1840853595030576, 1.475092862204293]</t>
+          <t>[0.28504446148872375, 0.6349484324455261, 0.7289791107177734, 1.0873119831085205, 1.126319169998169, 1.1840670108795166, 1.4750926494598389]</t>
         </is>
       </c>
       <c r="U10" t="n">
         <v>4</v>
       </c>
       <c r="V10" t="n">
-        <v>0.4209065733678143</v>
+        <v>0.4208942651748657</v>
       </c>
       <c r="W10" t="n">
         <v>5</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.680618</t>
+          <t>2025-10-17T02:10:08.426311</t>
         </is>
       </c>
     </row>
@@ -1418,7 +1418,7 @@
         <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8433776256132939</v>
+        <v>0.8433693214731602</v>
       </c>
       <c r="G11" t="n">
         <v>0.5714285714285714</v>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>[0.39793813337752815, 0.3796159808557999, 0.547131824675983, 0.5109725664891919, 0.466880727756286, 0.5868905832144952, 0.6392179051246156]</t>
+          <t>[0.39794325828552246, 0.3796297311782837, 0.5471352934837341, 0.5109684467315674, 0.4668952524662018, 0.5869107246398926, 0.639224112033844]</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1469,14 +1469,14 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>[0.6349515184349481, 0.6743329932424019, 0.6392179051246156, 1.1125232778579464, 1.1586569849203083, 1.475155267747228, 1.5570746533140791]</t>
+          <t>[0.6349484324455261, 0.6743265986442566, 0.639224112033844, 1.1125237941741943, 1.158658742904663, 1.4751609563827515, 1.557084560394287]</t>
         </is>
       </c>
       <c r="U11" t="n">
         <v>4</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5561281739172936</v>
+        <v>0.5561211705207825</v>
       </c>
       <c r="W11" t="n">
         <v>4</v>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.680618</t>
+          <t>2025-10-17T02:10:08.426311</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
         <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8433776256132939</v>
+        <v>0.8433693214731602</v>
       </c>
       <c r="G12" t="n">
         <v>0.5714285714285714</v>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>[1.022522729127132, 0.7418466361563256, 1.091730518109694, 0.8169284393537438, 0.9712824467055972, 0.8513187214136887, 0.9974814909302543]</t>
+          <t>[1.022521734237671, 0.7418535351753235, 1.0917242765426636, 0.8169267773628235, 0.9712804555892944, 0.8513126373291016, 0.9974803328514099]</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1563,14 +1563,14 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>[0.9712824467055972, 1.1125232778579464, 1.475092862204293, 1.6027152759797092, 2.0702255154153795, 1.9131038424109268, 2.3420474164918956]</t>
+          <t>[0.9712804555892944, 1.1125237941741943, 1.4750926494598389, 1.6027143001556396, 2.070220708847046, 1.913097858428955, 2.342046022415161]</t>
         </is>
       </c>
       <c r="U12" t="n">
         <v>4</v>
       </c>
       <c r="V12" t="n">
-        <v>0.8371634216080526</v>
+        <v>0.8371603488922119</v>
       </c>
       <c r="W12" t="n">
         <v>4</v>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.680618</t>
+          <t>2025-10-17T02:10:08.426311</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
         <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8433776256132939</v>
+        <v>0.8433693214731602</v>
       </c>
       <c r="G13" t="n">
         <v>0.5714285714285714</v>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>[1.9609936844987668, 2.4762693355922436, 2.5488143551159124, 3.9857840791532855, 2.814430996857044, 2.781341715903314, 3.241391020906572]</t>
+          <t>[1.961000919342041, 2.4762635231018066, 2.548816442489624, 3.9857804775238037, 2.8144288063049316, 2.781341075897217, 3.2413923740386963]</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1657,14 +1657,14 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>[2.4762693355922436, 3.852336164887893, 3.940240431990059, 3.849267075737102, 3.735630166896788, 4.553111058292238, 4.460374817552124]</t>
+          <t>[2.4762635231018066, 3.852335214614868, 3.940241575241089, 3.849271774291992, 3.7356345653533936, 4.5531134605407715, 4.46036958694458]</t>
         </is>
       </c>
       <c r="U13" t="n">
         <v>4</v>
       </c>
       <c r="V13" t="n">
-        <v>0.9686725445695664</v>
+        <v>0.9686715006828308</v>
       </c>
       <c r="W13" t="n">
         <v>3</v>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.681619</t>
+          <t>2025-10-17T02:10:08.426311</t>
         </is>
       </c>
     </row>
@@ -1700,7 +1700,7 @@
         <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8433776256132939</v>
+        <v>0.8433693214731602</v>
       </c>
       <c r="G14" t="n">
         <v>0.5714285714285714</v>
@@ -1717,7 +1717,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L14" t="n">
         <v>0.5916727785823274</v>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>[0.44201139323274474, 0.44201139323274474, 0.7553792977804442, 0.817289129845502, 1.0266676237864174, 1.20002024796093, 1.2940247242682115]</t>
+          <t>[0.4420248568058014, 0.4420248568058014, 0.7553806304931641, 0.8172926902770996, 1.0266729593276978, 1.2000261545181274, 1.2940304279327393]</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -1751,14 +1751,14 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>[0.7553792977804442, 2.2044641100359974, 2.9099357041697727, 3.940240431990059, 2.5074243448209392, 2.7999065735366058, 2.5194056150095907]</t>
+          <t>[0.7553806304931641, 2.204462766647339, 2.9099297523498535, 3.940241575241089, 2.5074117183685303, 2.7999069690704346, 2.5194039344787598]</t>
         </is>
       </c>
       <c r="U14" t="n">
         <v>4</v>
       </c>
       <c r="V14" t="n">
-        <v>0.3984468098462524</v>
+        <v>0.3984488546848297</v>
       </c>
       <c r="W14" t="n">
         <v>3</v>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.681619</t>
+          <t>2025-10-17T02:10:08.426311</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
         <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8433776256132939</v>
+        <v>0.8433693214731602</v>
       </c>
       <c r="G15" t="n">
         <v>0.5714285714285714</v>
@@ -1811,7 +1811,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L15" t="n">
         <v>0.5916727785823274</v>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>[0.8769890823808907, 0.9809583086635929, 0.9985459325462515, 1.3458586455349735, 1.1135126667475501, 1.1277871921736737, 1.309078032215393]</t>
+          <t>[0.8769850134849548, 0.9809556007385254, 0.998561441898346, 1.3458682298660278, 1.1135129928588867, 1.1277869939804077, 1.3090776205062866]</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -1845,14 +1845,14 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>[1.309078032215393, 2.5544267277225856, 2.015712067298128, 2.3420474164918956, 1.9811919545498997, 1.9998280260557344, 2.1122709618390516]</t>
+          <t>[1.3090776205062866, 2.5544352531433105, 2.0157172679901123, 2.342046022415161, 1.981188416481018, 1.9998292922973633, 2.1122682094573975]</t>
         </is>
       </c>
       <c r="U15" t="n">
         <v>4</v>
       </c>
       <c r="V15" t="n">
-        <v>0.7320722481591883</v>
+        <v>0.7320764660835266</v>
       </c>
       <c r="W15" t="n">
         <v>2</v>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.681619</t>
+          <t>2025-10-17T02:10:08.426311</t>
         </is>
       </c>
     </row>
@@ -1888,7 +1888,7 @@
         <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7296287939881168</v>
+        <v>0.7296286327427797</v>
       </c>
       <c r="G16" t="n">
         <v>0.5714285714285714</v>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>[3.548220758848561, 8.691211386839777, 5.758371013344655, 6.487488755518677, 9.90292972678089, 6.694373693143342, 5.858822564490876]</t>
+          <t>[3.548219919204712, 8.691213607788086, 5.758365631103516, 6.487487316131592, 9.90291976928711, 6.694366455078125, 5.858821868896484]</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -1939,14 +1939,14 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>[8.691211386839777, 7.731836095243678, 8.609739822750038, 8.581772163170536, 8.94639168349315, 9.074630557371929, 9.319384200728924]</t>
+          <t>[8.691213607788086, 7.731835842132568, 8.609739303588867, 8.581768989562988, 8.94638442993164, 9.074629783630371, 9.31938362121582]</t>
         </is>
       </c>
       <c r="U16" t="n">
         <v>4</v>
       </c>
       <c r="V16" t="n">
-        <v>0.9896476270924893</v>
+        <v>0.9896475076675415</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1955,7 +1955,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.697565</t>
+          <t>2025-10-17T02:10:08.488644</t>
         </is>
       </c>
     </row>
@@ -1978,7 +1978,7 @@
         <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7296287939881168</v>
+        <v>0.7296286327427797</v>
       </c>
       <c r="G17" t="n">
         <v>0.5714285714285714</v>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>[1.7238609439707153, 2.4434334544048664, 2.3008901008490206, 2.627912796286365, 2.2133899299550968, 2.550539891650585, 3.038968467681727]</t>
+          <t>[1.7238720655441284, 2.4434309005737305, 2.300889730453491, 2.6279022693634033, 2.213388204574585, 2.5505406856536865, 3.038969039916992]</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -2029,14 +2029,14 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>[1.7238609439707153, 2.3008901008490206, 2.2133899299550968, 2.4434334544048664, 2.627912796286365, 3.038968467681727, 6.031808407587342]</t>
+          <t>[1.7238720655441284, 2.300889730453491, 2.213388204574585, 2.4434309005737305, 2.6279022693634033, 3.038969039916992, 6.031808853149414]</t>
         </is>
       </c>
       <c r="U17" t="n">
         <v>4</v>
       </c>
       <c r="V17" t="n">
-        <v>0.6259000088202358</v>
+        <v>0.625898003578186</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2045,7 +2045,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.697565</t>
+          <t>2025-10-17T02:10:08.488644</t>
         </is>
       </c>
     </row>
@@ -2068,7 +2068,7 @@
         <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7296287939881168</v>
+        <v>0.7296286327427797</v>
       </c>
       <c r="G18" t="n">
         <v>0.5714285714285714</v>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>[1.3550049834199527, 2.1108781737409203, 2.9421848739981007, 2.3781486454870766, 2.627912796286365, 2.9225667947525125, 3.353070551112966]</t>
+          <t>[1.3550022840499878, 2.110875129699707, 2.9421937465667725, 2.3781371116638184, 2.6279022693634033, 2.9225618839263916, 3.3530654907226562]</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2119,14 +2119,14 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>[2.627912796286365, 2.796743980918212, 2.9225667947525125, 3.6776542059156947, 3.7257145542751764, 3.4966983271872256, 5.970870397142998]</t>
+          <t>[2.6279022693634033, 2.7967379093170166, 2.9225618839263916, 3.6776535511016846, 3.725713014602661, 3.496691942214966, 5.9708662033081055]</t>
         </is>
       </c>
       <c r="U18" t="n">
         <v>4</v>
       </c>
       <c r="V18" t="n">
-        <v>0.6200942229726651</v>
+        <v>0.620091438293457</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.697565</t>
+          <t>2025-10-17T02:10:08.488644</t>
         </is>
       </c>
     </row>
@@ -2158,7 +2158,7 @@
         <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7296287939881168</v>
+        <v>0.7296286327427797</v>
       </c>
       <c r="G19" t="n">
         <v>0.5714285714285714</v>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>[1.02730719349262, 2.3008901008490206, 2.0229240047329005, 2.9225667947525125, 3.8935267938311524, 3.228103787224398, 4.2501120677078585]</t>
+          <t>[1.0273101329803467, 2.300889730453491, 2.022925615310669, 2.9225618839263916, 3.8935210704803467, 3.228111982345581, 4.250108242034912]</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2209,14 +2209,14 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>[1.02730719349262, 2.0229240047329005, 2.3008901008490206, 2.9225667947525125, 3.228103787224398, 3.639316011085586, 5.861988897205965]</t>
+          <t>[1.0273101329803467, 2.022925615310669, 2.300889730453491, 2.9225618839263916, 3.228111982345581, 3.639315605163574, 5.8619890213012695]</t>
         </is>
       </c>
       <c r="U19" t="n">
         <v>4</v>
       </c>
       <c r="V19" t="n">
-        <v>0.7060894573389025</v>
+        <v>0.7060889005661011</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2225,7 +2225,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.701574</t>
+          <t>2025-10-17T02:10:08.488644</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
         <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7296287939881168</v>
+        <v>0.7296286327427797</v>
       </c>
       <c r="G20" t="n">
         <v>0.5714285714285714</v>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>[1.270390163502212, 2.0229240047329005, 2.248409462917353, 2.2133899299550968, 2.7271522404792217, 2.1912232238840046, 2.4633435106922987]</t>
+          <t>[1.2703914642333984, 2.022925615310669, 2.2484099864959717, 2.213388204574585, 2.7271506786346436, 2.191220998764038, 2.463343381881714]</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -2299,14 +2299,14 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>[2.0229240047329005, 2.2133899299550968, 2.248409462917353, 2.7271522404792217, 2.796743980918212, 3.5325657093384386, 5.384162362926166]</t>
+          <t>[2.022925615310669, 2.213388204574585, 2.2484099864959717, 2.7271506786346436, 2.7967379093170166, 3.532566547393799, 5.384163856506348]</t>
         </is>
       </c>
       <c r="U20" t="n">
         <v>4</v>
       </c>
       <c r="V20" t="n">
-        <v>0.580000024688238</v>
+        <v>0.580000102519989</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.702624</t>
+          <t>2025-10-17T02:10:08.488644</t>
         </is>
       </c>
     </row>
@@ -2338,7 +2338,7 @@
         <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7296287939881168</v>
+        <v>0.7296286327427797</v>
       </c>
       <c r="G21" t="n">
         <v>0.5714285714285714</v>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>[8.691211386839777, 9.207417917519324, 8.894895806438829, 13.830842069171732, 10.461822702464078, 11.372812382036772, 9.74061119270624]</t>
+          <t>[8.691213607788086, 9.207416534423828, 8.894898414611816, 13.830842971801758, 10.461819648742676, 11.372812271118164, 9.74061107635498]</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -2389,14 +2389,14 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>[8.691211386839777, 9.828562976692579, 9.933644296013902, 10.808507914758495, 11.140759777554265, 11.009099614484562, 10.901504884982684]</t>
+          <t>[8.691213607788086, 9.828558921813965, 9.933645248413086, 10.808511734008789, 11.14076042175293, 11.009100914001465, 10.901507377624512]</t>
         </is>
       </c>
       <c r="U21" t="n">
         <v>4</v>
       </c>
       <c r="V21" t="n">
-        <v>1.401851776135979</v>
+        <v>1.401852250099182</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2405,7 +2405,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.702624</t>
+          <t>2025-10-17T02:10:08.489645</t>
         </is>
       </c>
     </row>
@@ -2428,7 +2428,7 @@
         <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7296287939881168</v>
+        <v>0.7296286327427797</v>
       </c>
       <c r="G22" t="n">
         <v>0.5714285714285714</v>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>[1.02730719349262, 2.4434334544048664, 3.7905899556411646, 3.3227176388132555, 2.7271522404792217, 4.4170776760298525, 3.6776542059156947]</t>
+          <t>[1.0273101329803467, 2.4434309005737305, 3.7905890941619873, 3.322721242904663, 2.7271506786346436, 4.417076587677002, 3.6776535511016846]</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -2479,14 +2479,14 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>[1.02730719349262, 2.4434334544048664, 2.7271522404792217, 3.3227176388132555, 3.6776542059156947, 3.930763646094779, 6.237906359894233]</t>
+          <t>[1.0273101329803467, 2.4434309005737305, 2.7271506786346436, 3.322721242904663, 3.6776535511016846, 3.9307637214660645, 6.2379069328308105]</t>
         </is>
       </c>
       <c r="U22" t="n">
         <v>4</v>
       </c>
       <c r="V22" t="n">
-        <v>0.7750965964370748</v>
+        <v>0.7750979661941528</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2495,7 +2495,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.703648</t>
+          <t>2025-10-17T02:10:08.489645</t>
         </is>
       </c>
     </row>
@@ -2518,7 +2518,7 @@
         <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7296287939881168</v>
+        <v>0.7296286327427797</v>
       </c>
       <c r="G23" t="n">
         <v>0.5714285714285714</v>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>[3.9940960660638245, 3.6129325646687236, 3.9857840791532855, 3.5137164996797625, 3.133360360859858, 3.772018568783384, 8.738918927498052]</t>
+          <t>[3.9940896034240723, 3.612931966781616, 3.9857804775238037, 3.513723611831665, 3.133359909057617, 3.7720181941986084, 8.738912582397461]</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -2569,14 +2569,14 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>[3.6129325646687236, 5.384162362926166, 5.861988897205965, 5.970870397142998, 6.016938439507509, 6.031808407587342, 6.237906359894233]</t>
+          <t>[3.612931966781616, 5.384163856506348, 5.8619890213012695, 5.9708662033081055, 6.016942501068115, 6.031808853149414, 6.2379069328308105]</t>
         </is>
       </c>
       <c r="U23" t="n">
         <v>4</v>
       </c>
       <c r="V23" t="n">
-        <v>1.033773163220971</v>
+        <v>1.033775687217712</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2585,7 +2585,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.703648</t>
+          <t>2025-10-17T02:10:08.489645</t>
         </is>
       </c>
     </row>
@@ -2608,7 +2608,7 @@
         <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7296287939881168</v>
+        <v>0.7296286327427797</v>
       </c>
       <c r="G24" t="n">
         <v>0.5714285714285714</v>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>[3.3579545061816214, 3.038968467681727, 3.6129325646687236, 3.092282199641918, 2.8238881125594335, 3.4966983271872256, 3.930763646094779]</t>
+          <t>[3.3579466342926025, 3.038969039916992, 3.612931966781616, 3.0922813415527344, 2.8238894939422607, 3.496691942214966, 3.9307637214660645]</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -2659,14 +2659,14 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>[3.038968467681727, 3.4966983271872256, 3.6129325646687236, 3.639316011085586, 3.6992423534262557, 3.5325657093384386, 3.930763646094779]</t>
+          <t>[3.038969039916992, 3.496691942214966, 3.612931966781616, 3.639315605163574, 3.699251413345337, 3.532566547393799, 3.9307637214660645]</t>
         </is>
       </c>
       <c r="U24" t="n">
         <v>4</v>
       </c>
       <c r="V24" t="n">
-        <v>0.9430233709274992</v>
+        <v>0.9430229663848877</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2675,7 +2675,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.704640</t>
+          <t>2025-10-17T02:10:08.489645</t>
         </is>
       </c>
     </row>
@@ -2698,7 +2698,7 @@
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7296287939881168</v>
+        <v>0.7296286327427797</v>
       </c>
       <c r="G25" t="n">
         <v>0.5714285714285714</v>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>[1.7238609439707153, 2.248409462917353, 3.682756134418453, 3.3227176388132555, 2.847716027962298, 3.228103787224398, 3.1367684717948636]</t>
+          <t>[1.7238720655441284, 2.2484099864959717, 3.682757616043091, 3.322721242904663, 2.8477210998535156, 3.228111982345581, 3.136768102645874]</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -2749,14 +2749,14 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>[1.7238609439707153, 2.248409462917353, 3.3227176388132555, 3.228103787224398, 3.7257145542751764, 3.6992423534262557, 6.016938439507509]</t>
+          <t>[1.7238720655441284, 2.2484099864959717, 3.322721242904663, 3.228111982345581, 3.725713014602661, 3.699251413345337, 6.016942501068115]</t>
         </is>
       </c>
       <c r="U25" t="n">
         <v>4</v>
       </c>
       <c r="V25" t="n">
-        <v>0.7318221594501562</v>
+        <v>0.7318229079246521</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2765,7 +2765,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.704640</t>
+          <t>2025-10-17T02:10:08.489645</t>
         </is>
       </c>
     </row>
@@ -2788,7 +2788,7 @@
         <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>0.821170914930855</v>
+        <v>0.8211710098739295</v>
       </c>
       <c r="G26" t="n">
         <v>0.5714285714285714</v>
@@ -2805,7 +2805,7 @@
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>[3.682756134418453, 5.021605002625455, 4.70630304597658, 9.207417917519324, 5.405719067891872, 8.388981090374504, 7.5877058337289265]</t>
+          <t>[3.682757616043091, 5.021600246429443, 4.706303119659424, 9.207416534423828, 5.405718803405762, 8.388983726501465, 7.5876994132995605]</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -2839,14 +2839,14 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>[6.08800436829768, 7.964256258235821, 8.471146633002151, 7.782585844233039, 5.95449152616891, 9.602741008279496, 6.843429901519849]</t>
+          <t>[6.087997913360596, 7.964256763458252, 8.471141815185547, 7.782583713531494, 5.954493045806885, 9.602742195129395, 6.843430519104004]</t>
         </is>
       </c>
       <c r="U26" t="n">
         <v>4</v>
       </c>
       <c r="V26" t="n">
-        <v>1.152107962378609</v>
+        <v>1.152107954025269</v>
       </c>
       <c r="W26" t="n">
         <v>1</v>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.767692</t>
+          <t>2025-10-17T02:10:08.580301</t>
         </is>
       </c>
     </row>
@@ -2882,7 +2882,7 @@
         <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>0.821170914930855</v>
+        <v>0.8211710098739295</v>
       </c>
       <c r="G27" t="n">
         <v>0.5714285714285714</v>
@@ -2899,7 +2899,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>[0.8132081400250286, 1.5868689295900902, 1.5875982496431946, 1.4858066535973735, 1.6002348222769218, 1.922422725330582, 1.6309597213366673]</t>
+          <t>[0.8132038116455078, 1.586868405342102, 1.5875941514968872, 1.4857956171035767, 1.6002230644226074, 1.9224257469177246, 1.6309336423873901]</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2933,14 +2933,14 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>[3.809058612177697, 3.489683763572442, 6.08800436829768, 5.247392155625091, 5.183228044239134, 4.850350457556759, 7.007670571360432]</t>
+          <t>[3.809053421020508, 3.489682912826538, 6.087997913360596, 5.247391700744629, 5.183218955993652, 4.85034704208374, 7.00767183303833]</t>
         </is>
       </c>
       <c r="U27" t="n">
         <v>4</v>
       </c>
       <c r="V27" t="n">
-        <v>0.5981524423454762</v>
+        <v>0.5981482863426208</v>
       </c>
       <c r="W27" t="n">
         <v>3</v>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.767692</t>
+          <t>2025-10-17T02:10:08.580301</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2976,7 @@
         <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>0.821170914930855</v>
+        <v>0.8211710098739295</v>
       </c>
       <c r="G28" t="n">
         <v>0.5714285714285714</v>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>[0.6938538718042702, 0.7095152903098895, 1.2714170344520064, 1.5296665982953364, 1.32061194669919, 1.1889773334939922, 1.4472985267768135]</t>
+          <t>[0.6938520073890686, 0.7095147371292114, 1.2714117765426636, 1.5296647548675537, 1.3206110000610352, 1.1889803409576416, 1.4472988843917847]</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -3027,14 +3027,14 @@
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>[0.6938538718042702, 0.7095152903098895, 1.2714170344520064, 1.5296665982953364, 1.32061194669919, 1.1889773334939922, 1.4472985267768135]</t>
+          <t>[0.6938520073890686, 0.7095147371292114, 1.2714117765426636, 1.5296647548675537, 1.3206110000610352, 1.1889803409576416, 1.4472988843917847]</t>
         </is>
       </c>
       <c r="U28" t="n">
         <v>4</v>
       </c>
       <c r="V28" t="n">
-        <v>0.821170914930855</v>
+        <v>0.8211709856987</v>
       </c>
       <c r="W28" t="n">
         <v>1</v>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.767692</t>
+          <t>2025-10-17T02:10:08.580301</t>
         </is>
       </c>
     </row>
@@ -3070,7 +3070,7 @@
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>0.821170914930855</v>
+        <v>0.8211710098739295</v>
       </c>
       <c r="G29" t="n">
         <v>0.5714285714285714</v>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>[1.1962071176531426, 1.4052520928097405, 1.5114443168656573, 1.5090353997195989, 1.5793456969697512, 1.7265879571947085, 2.767818741427769]</t>
+          <t>[1.1962192058563232, 1.4052584171295166, 1.5114425420761108, 1.5090450048446655, 1.5793581008911133, 1.7265819311141968, 2.7678287029266357]</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -3121,14 +3121,14 @@
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>[1.1962071176531426, 1.4052520928097405, 1.5114443168656573, 1.5090353997195989, 1.5793456969697512, 1.7265879571947085, 2.767818741427769]</t>
+          <t>[1.1962192058563232, 1.4052584171295166, 1.5114425420761108, 1.5090450048446655, 1.5793581008911133, 1.7265819311141968, 2.7678287029266357]</t>
         </is>
       </c>
       <c r="U29" t="n">
         <v>4</v>
       </c>
       <c r="V29" t="n">
-        <v>0.6868550060263893</v>
+        <v>0.686858057975769</v>
       </c>
       <c r="W29" t="n">
         <v>2</v>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.768688</t>
+          <t>2025-10-17T02:10:08.580301</t>
         </is>
       </c>
     </row>
@@ -3164,7 +3164,7 @@
         <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>0.821170914930855</v>
+        <v>0.8211710098739295</v>
       </c>
       <c r="G30" t="n">
         <v>0.5714285714285714</v>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>[0.5247670678089587, 1.0627897260130672, 1.0365164925602255, 1.0264295246425166, 1.0427116849041143, 1.2714170344520064, 1.5825925572439319]</t>
+          <t>[0.5247544646263123, 1.0627883672714233, 1.0364985466003418, 1.026412844657898, 1.042699933052063, 1.2714117765426636, 1.5825912952423096]</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -3215,14 +3215,14 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>[0.5247670678089587, 1.0627897260130672, 1.0365164925602255, 1.0264295246425166, 1.0427116849041143, 1.2714170344520064, 1.5825925572439319]</t>
+          <t>[0.5247544646263123, 1.0627883672714233, 1.0364985466003418, 1.026412844657898, 1.042699933052063, 1.2714117765426636, 1.5825912952423096]</t>
         </is>
       </c>
       <c r="U30" t="n">
         <v>4</v>
       </c>
       <c r="V30" t="n">
-        <v>0.717767917424956</v>
+        <v>0.7177563309669495</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -3231,7 +3231,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.768688</t>
+          <t>2025-10-17T02:10:08.580301</t>
         </is>
       </c>
     </row>
@@ -3254,7 +3254,7 @@
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>0.821170914930855</v>
+        <v>0.8211710098739295</v>
       </c>
       <c r="G31" t="n">
         <v>0.5714285714285714</v>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>[0.5955520820772918, 0.7853120750288224, 1.0365164925602255, 1.1688040592017273, 1.32061194669919, 1.215666646680279, 1.6141646739074402]</t>
+          <t>[0.5955532789230347, 0.7853057980537415, 1.0364985466003418, 1.1688058376312256, 1.3206110000610352, 1.215668797492981, 1.6141602993011475]</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -3305,14 +3305,14 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>[0.5955520820772918, 0.7853120750288224, 1.0365164925602255, 1.1688040592017273, 1.32061194669919, 1.215666646680279, 1.6141646739074402]</t>
+          <t>[0.5955532789230347, 0.7853057980537415, 1.0364985466003418, 1.1688058376312256, 1.3206110000610352, 1.215668797492981, 1.6141602993011475]</t>
         </is>
       </c>
       <c r="U31" t="n">
         <v>4</v>
       </c>
       <c r="V31" t="n">
-        <v>0.8092957470531871</v>
+        <v>0.8092978596687317</v>
       </c>
       <c r="W31" t="n">
         <v>1</v>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.768688</t>
+          <t>2025-10-17T02:10:08.580301</t>
         </is>
       </c>
     </row>
@@ -3348,7 +3348,7 @@
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>0.821170914930855</v>
+        <v>0.8211710098739295</v>
       </c>
       <c r="G32" t="n">
         <v>0.5714285714285714</v>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>[4.05470661044856, 2.8743801847924346, 3.5498127594816147, 4.931710867209231, 3.9400554781817645, 3.491143442024662, 4.050657684538021]</t>
+          <t>[4.054708003997803, 2.8743762969970703, 3.549809217453003, 4.931705474853516, 3.940061569213867, 3.491143226623535, 4.050656318664551]</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -3399,14 +3399,14 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>[3.809058612177697, 4.05470661044856, 4.931710867209231, 4.900343505852515, 8.471146633002151, 5.014385606825274, 5.74133915986708]</t>
+          <t>[3.809053421020508, 4.054708003997803, 4.931705474853516, 4.90034294128418, 8.471141815185547, 5.014385223388672, 5.741334438323975]</t>
         </is>
       </c>
       <c r="U32" t="n">
         <v>4</v>
       </c>
       <c r="V32" t="n">
-        <v>1.030341909849657</v>
+        <v>1.030341029167175</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3415,7 +3415,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.768688</t>
+          <t>2025-10-17T02:10:08.580301</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
         <v>7</v>
       </c>
       <c r="F33" t="n">
-        <v>0.821170914930855</v>
+        <v>0.8211710098739295</v>
       </c>
       <c r="G33" t="n">
         <v>0.5714285714285714</v>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>[0.5768095704933661, 0.5955520820772918, 1.0627897260130672, 1.1515591686123146, 1.4561485338614213, 1.6920400399297932, 1.8567672404495317]</t>
+          <t>[0.5768178105354309, 0.5955532789230347, 1.0627883672714233, 1.151566743850708, 1.4561500549316406, 1.6920398473739624, 1.856772780418396]</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -3489,14 +3489,14 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>[0.5768095704933661, 0.5955520820772918, 1.0627897260130672, 1.1515591686123146, 1.4561485338614213, 1.6920400399297932, 1.8567672404495317]</t>
+          <t>[0.5768178105354309, 0.5955532789230347, 1.0627883672714233, 1.151566743850708, 1.4561500549316406, 1.6920398473739624, 1.856772780418396]</t>
         </is>
       </c>
       <c r="U33" t="n">
         <v>4</v>
       </c>
       <c r="V33" t="n">
-        <v>0.7434418264670064</v>
+        <v>0.7434453964233398</v>
       </c>
       <c r="W33" t="n">
         <v>3</v>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.769687</t>
+          <t>2025-10-17T02:10:08.581301</t>
         </is>
       </c>
     </row>
@@ -3532,7 +3532,7 @@
         <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>0.821170914930855</v>
+        <v>0.8211710098739295</v>
       </c>
       <c r="G34" t="n">
         <v>0.5714285714285714</v>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>[0.9638482758194614, 1.0427116849041143, 1.1515591686123146, 1.2844867596432914, 1.1688040592017273, 1.1889773334939922, 1.2921742063603394]</t>
+          <t>[0.963847815990448, 1.042699933052063, 1.151566743850708, 1.2844855785369873, 1.1688058376312256, 1.1889803409576416, 1.2921749353408813]</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -3583,14 +3583,14 @@
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>[0.9638482758194614, 1.0427116849041143, 1.1515591686123146, 1.2844867596432914, 1.1688040592017273, 1.1889773334939922, 1.2921742063603394]</t>
+          <t>[0.963847815990448, 1.042699933052063, 1.151566743850708, 1.2844855785369873, 1.1688058376312256, 1.1889803409576416, 1.2921749353408813]</t>
         </is>
       </c>
       <c r="U34" t="n">
         <v>4</v>
       </c>
       <c r="V34" t="n">
-        <v>0.8046591249625796</v>
+        <v>0.8046584129333496</v>
       </c>
       <c r="W34" t="n">
         <v>1</v>
@@ -3603,7 +3603,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.769687</t>
+          <t>2025-10-17T02:10:08.581301</t>
         </is>
       </c>
     </row>
@@ -3626,7 +3626,7 @@
         <v>7</v>
       </c>
       <c r="F35" t="n">
-        <v>0.821170914930855</v>
+        <v>0.8211710098739295</v>
       </c>
       <c r="G35" t="n">
         <v>0.5714285714285714</v>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>[0.6938538718042702, 1.232152903578428, 1.2844867596432914, 1.5825925572439319, 1.6141646739074402, 1.972033621587465, 1.7865657354714215]</t>
+          <t>[0.6938520073890686, 1.2321480512619019, 1.2844855785369873, 1.5825912952423096, 1.6141602993011475, 1.9720324277877808, 1.7865649461746216]</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -3677,14 +3677,14 @@
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>[0.6938538718042702, 1.232152903578428, 1.2844867596432914, 1.5825925572439319, 1.6141646739074402, 1.972033621587465, 1.7865657354714215]</t>
+          <t>[0.6938520073890686, 1.2321480512619019, 1.2844855785369873, 1.5825912952423096, 1.6141602993011475, 1.9720324277877808, 1.7865649461746216]</t>
         </is>
       </c>
       <c r="U35" t="n">
         <v>4</v>
       </c>
       <c r="V35" t="n">
-        <v>0.8958337123706623</v>
+        <v>0.8958336114883423</v>
       </c>
       <c r="W35" t="n">
         <v>1</v>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.769687</t>
+          <t>2025-10-17T02:10:08.581301</t>
         </is>
       </c>
     </row>
@@ -3720,7 +3720,7 @@
         <v>7</v>
       </c>
       <c r="F36" t="n">
-        <v>0.821170914930855</v>
+        <v>0.8211710098739295</v>
       </c>
       <c r="G36" t="n">
         <v>0.5714285714285714</v>
@@ -3737,7 +3737,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K36" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L36" t="n">
         <v>0.8631205685666311</v>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>[2.2655902011080813, 2.009402944755667, 2.3744285735325943, 2.069902236630937, 2.1498598411769523, 2.1959409717746525, 2.6336450736208743]</t>
+          <t>[2.265591859817505, 2.0094025135040283, 2.374429702758789, 2.0699026584625244, 2.1498682498931885, 2.195941925048828, 2.633648633956909]</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -3771,14 +3771,14 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>[2.2655902011080813, 3.489683763572442, 2.009402944755667, 2.3744285735325943, 2.069902236630937, 2.1959409717746525, 2.4429403769269977]</t>
+          <t>[2.265591859817505, 3.489682912826538, 2.0094025135040283, 2.374429702758789, 2.0699026584625244, 2.195941925048828, 2.442943572998047]</t>
         </is>
       </c>
       <c r="U36" t="n">
         <v>4</v>
       </c>
       <c r="V36" t="n">
-        <v>1.056791616011707</v>
+        <v>1.056791543960571</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.769687</t>
+          <t>2025-10-17T02:10:08.581301</t>
         </is>
       </c>
     </row>
@@ -3810,7 +3810,7 @@
         <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>0.821170914930855</v>
+        <v>0.8211710098739295</v>
       </c>
       <c r="G37" t="n">
         <v>0.5714285714285714</v>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>[0.554208474292604, 0.9788096610379503, 1.1962071176531426, 1.15532112645773, 1.1788478002932243, 1.196821520219185, 2.3023860235789515]</t>
+          <t>[0.5542061924934387, 0.9788116216659546, 1.1962192058563232, 1.1553232669830322, 1.1788504123687744, 1.1968179941177368, 2.302386522293091]</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -3861,14 +3861,14 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>[0.554208474292604, 0.9788096610379503, 1.1962071176531426, 1.15532112645773, 1.1788478002932243, 1.196821520219185, 2.3023860235789515]</t>
+          <t>[0.5542061924934387, 0.9788116216659546, 1.1962192058563232, 1.1553232669830322, 1.1788504123687744, 1.1968179941177368, 2.302386522293091]</t>
         </is>
       </c>
       <c r="U37" t="n">
         <v>4</v>
       </c>
       <c r="V37" t="n">
-        <v>0.5335128296678726</v>
+        <v>0.5335143208503723</v>
       </c>
       <c r="W37" t="n">
         <v>3</v>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.769687</t>
+          <t>2025-10-17T02:10:08.581301</t>
         </is>
       </c>
     </row>
@@ -3904,7 +3904,7 @@
         <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>0.821170914930855</v>
+        <v>0.8211710098739295</v>
       </c>
       <c r="G38" t="n">
         <v>0.5714285714285714</v>
@@ -3921,7 +3921,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K38" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L38" t="n">
         <v>0.9852281360342515</v>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>[4.337198191692961, 4.05470661044856, 6.487488755518677, 5.440198495444032, 8.820757032771018, 5.109254203889771, 4.391370694579391]</t>
+          <t>[4.337198257446289, 4.054708003997803, 6.487487316131592, 5.44020938873291, 8.82075309753418, 5.109254360198975, 4.3913702964782715]</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -3955,14 +3955,14 @@
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>[4.05470661044856, 4.337198191692961, 5.247392155625091, 5.440198495444032, 4.391370694579391, 4.788558760473677, 4.678288879544833]</t>
+          <t>[4.054708003997803, 4.337198257446289, 5.247391700744629, 5.44020938873291, 4.3913702964782715, 4.788558006286621, 4.678295612335205]</t>
         </is>
       </c>
       <c r="U38" t="n">
         <v>4</v>
       </c>
       <c r="V38" t="n">
-        <v>1.229594771154912</v>
+        <v>1.229597210884094</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.769687</t>
+          <t>2025-10-17T02:10:08.581301</t>
         </is>
       </c>
     </row>
@@ -3994,7 +3994,7 @@
         <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>0.821170914930855</v>
+        <v>0.8211710098739295</v>
       </c>
       <c r="G39" t="n">
         <v>0.5714285714285714</v>
@@ -4011,7 +4011,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K39" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L39" t="n">
         <v>0.5916727785823274</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>[4.087903692704581, 5.758371013344655, 3.762171276613728, 3.718255724775455, 5.440198495444032, 3.8400893679327046, 3.842576423535419]</t>
+          <t>[4.087904453277588, 5.758365631103516, 3.762176036834717, 3.718254804611206, 5.44020938873291, 3.840088129043579, 3.842573881149292]</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -4045,14 +4045,14 @@
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>[4.087903692704581, 3.762171276613728, 5.440198495444032, 3.718255724775455, 3.8400893679327046, 3.842576423535419, 3.7610177832708014]</t>
+          <t>[4.087904453277588, 3.762176036834717, 5.44020938873291, 3.718254804611206, 3.840088129043579, 3.842573881149292, 3.7610156536102295]</t>
         </is>
       </c>
       <c r="U39" t="n">
         <v>4</v>
       </c>
       <c r="V39" t="n">
-        <v>1.241264517011573</v>
+        <v>1.24126410484314</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -4061,7 +4061,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.769687</t>
+          <t>2025-10-17T02:10:08.581301</t>
         </is>
       </c>
     </row>
@@ -4084,7 +4084,7 @@
         <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>0.821170914930855</v>
+        <v>0.8211710098739295</v>
       </c>
       <c r="G40" t="n">
         <v>0.5714285714285714</v>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>[0.5247670678089587, 0.5768095704933661, 0.7853120750288224, 0.9638482758194614, 1.1512872277874546, 1.4472985267768135, 1.6623535242660015]</t>
+          <t>[0.5247544646263123, 0.5768178105354309, 0.7853057980537415, 0.963847815990448, 1.1512864828109741, 1.4472988843917847, 1.6623544692993164]</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -4135,14 +4135,14 @@
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>[0.5247670678089587, 0.5768095704933661, 0.7853120750288224, 0.9638482758194614, 1.1512872277874546, 1.4472985267768135, 1.6623535242660015]</t>
+          <t>[0.5247544646263123, 0.5768178105354309, 0.7853057980537415, 0.963847815990448, 1.1512864828109741, 1.4472988843917847, 1.6623544692993164]</t>
         </is>
       </c>
       <c r="U40" t="n">
         <v>4</v>
       </c>
       <c r="V40" t="n">
-        <v>0.6576373138180097</v>
+        <v>0.6576366424560547</v>
       </c>
       <c r="W40" t="n">
         <v>2</v>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.770690</t>
+          <t>2025-10-17T02:10:08.581301</t>
         </is>
       </c>
     </row>
@@ -4178,7 +4178,7 @@
         <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>0.821170914930855</v>
+        <v>0.8211710098739295</v>
       </c>
       <c r="G41" t="n">
         <v>0.5714285714285714</v>
@@ -4195,7 +4195,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K41" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
         <v>0.8631205685666311</v>
@@ -4219,7 +4219,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>[3.548220758848561, 4.337198191692961, 4.087903692704581, 4.931710867209231, 8.894895806438829, 4.539073032076113, 4.718257125202034]</t>
+          <t>[3.548219919204712, 4.337198257446289, 4.087904453277588, 4.931705474853516, 8.894898414611816, 4.53907585144043, 4.718254566192627]</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -4229,14 +4229,14 @@
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>[4.337198191692961, 4.087903692704581, 4.931710867209231, 5.183228044239134, 4.539073032076113, 4.718257125202034, 4.522115957094709]</t>
+          <t>[4.337198257446289, 4.087904453277588, 4.931705474853516, 5.183218955993652, 4.53907585144043, 4.718254566192627, 4.522115707397461]</t>
         </is>
       </c>
       <c r="U41" t="n">
         <v>4</v>
       </c>
       <c r="V41" t="n">
-        <v>1.227683169339736</v>
+        <v>1.227683782577515</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -4245,7 +4245,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.770690</t>
+          <t>2025-10-17T02:10:08.581301</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4268,7 @@
         <v>7</v>
       </c>
       <c r="F42" t="n">
-        <v>0.821170914930855</v>
+        <v>0.8211710098739295</v>
       </c>
       <c r="G42" t="n">
         <v>0.5714285714285714</v>
@@ -4309,7 +4309,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>[0.4555300636353425, 0.5437260897988515, 0.8630496944521113, 0.9788096610379503, 0.9866147171205542, 1.5090353997195989, 1.987839538370493]</t>
+          <t>[0.4555348753929138, 0.5437226295471191, 0.8630491495132446, 0.9788116216659546, 0.9866169691085815, 1.5090450048446655, 1.987839698791504]</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -4319,14 +4319,14 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>[0.4555300636353425, 0.5437260897988515, 0.8630496944521113, 0.9788096610379503, 0.9866147171205542, 1.5090353997195989, 1.987839538370493]</t>
+          <t>[0.4555348753929138, 0.5437226295471191, 0.8630491495132446, 0.9788116216659546, 0.9866169691085815, 1.5090450048446655, 1.987839698791504]</t>
         </is>
       </c>
       <c r="U42" t="n">
         <v>4</v>
       </c>
       <c r="V42" t="n">
-        <v>0.4685791911061563</v>
+        <v>0.4685800969600677</v>
       </c>
       <c r="W42" t="n">
         <v>1</v>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.770690</t>
+          <t>2025-10-17T02:10:08.581301</t>
         </is>
       </c>
     </row>
@@ -4362,7 +4362,7 @@
         <v>7</v>
       </c>
       <c r="F43" t="n">
-        <v>0.821170914930855</v>
+        <v>0.8211710098739295</v>
       </c>
       <c r="G43" t="n">
         <v>0.5714285714285714</v>
@@ -4403,7 +4403,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>[0.8630496944521113, 0.9548645626090493, 1.15532112645773, 1.0304942909300825, 1.2386401795972093, 1.5793456969697512, 2.4712924331226453]</t>
+          <t>[0.8630491495132446, 0.9548653364181519, 1.1553232669830322, 1.0304895639419556, 1.2386415004730225, 1.5793581008911133, 2.4712913036346436]</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -4413,14 +4413,14 @@
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>[0.8630496944521113, 0.9548645626090493, 1.15532112645773, 1.0304942909300825, 1.2386401795972093, 1.5793456969697512, 2.4712924331226453]</t>
+          <t>[0.8630491495132446, 0.9548653364181519, 1.1553232669830322, 1.0304895639419556, 1.2386415004730225, 1.5793581008911133, 2.4712913036346436]</t>
         </is>
       </c>
       <c r="U43" t="n">
         <v>4</v>
       </c>
       <c r="V43" t="n">
-        <v>0.5365596074805511</v>
+        <v>0.5365585684776306</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -4429,7 +4429,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.770690</t>
+          <t>2025-10-17T02:10:08.582301</t>
         </is>
       </c>
     </row>
@@ -4452,7 +4452,7 @@
         <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>0.821170914930855</v>
+        <v>0.8211710098739295</v>
       </c>
       <c r="G44" t="n">
         <v>0.5714285714285714</v>
@@ -4493,7 +4493,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>[1.2254670342423102, 1.5296665982953364, 1.972033621587465, 1.7913607550454447, 2.3023860235789515, 2.007189037033557, 2.4712924331226453]</t>
+          <t>[1.225460410118103, 1.5296647548675537, 1.9720324277877808, 1.7913583517074585, 2.302386522293091, 2.007189989089966, 2.4712913036346436]</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -4503,14 +4503,14 @@
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>[1.2254670342423102, 1.5296665982953364, 1.972033621587465, 1.7913607550454447, 2.3023860235789515, 2.007189037033557, 2.4712924331226453]</t>
+          <t>[1.225460410118103, 1.5296647548675537, 1.9720324277877808, 1.7913583517074585, 2.302386522293091, 2.007189989089966, 2.4712913036346436]</t>
         </is>
       </c>
       <c r="U44" t="n">
         <v>4</v>
       </c>
       <c r="V44" t="n">
-        <v>0.9454393257791043</v>
+        <v>0.9454391002655029</v>
       </c>
       <c r="W44" t="n">
         <v>1</v>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.770690</t>
+          <t>2025-10-17T02:10:08.582301</t>
         </is>
       </c>
     </row>
@@ -4546,7 +4546,7 @@
         <v>7</v>
       </c>
       <c r="F45" t="n">
-        <v>0.821170914930855</v>
+        <v>0.8211710098739295</v>
       </c>
       <c r="G45" t="n">
         <v>0.5714285714285714</v>
@@ -4587,7 +4587,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>[0.554208474292604, 0.9866147171205542, 1.1374318846972276, 1.0372642603783018, 1.2386401795972093, 1.4052520928097405, 2.2655902011080813]</t>
+          <t>[0.5542061924934387, 0.9866169691085815, 1.1374363899230957, 1.0372637510299683, 1.2386415004730225, 1.4052584171295166, 2.265591859817505]</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -4597,14 +4597,14 @@
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>[0.554208474292604, 0.9866147171205542, 1.1374318846972276, 1.0372642603783018, 1.2386401795972093, 1.4052520928097405, 2.2655902011080813]</t>
+          <t>[0.5542061924934387, 0.9866169691085815, 1.1374363899230957, 1.0372637510299683, 1.2386415004730225, 1.4052584171295166, 2.265591859817505]</t>
         </is>
       </c>
       <c r="U45" t="n">
         <v>4</v>
       </c>
       <c r="V45" t="n">
-        <v>0.5444288353851664</v>
+        <v>0.5444296002388</v>
       </c>
       <c r="W45" t="n">
         <v>2</v>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.770690</t>
+          <t>2025-10-17T02:10:08.582301</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4640,7 @@
         <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>0.821170914930855</v>
+        <v>0.8211710098739295</v>
       </c>
       <c r="G46" t="n">
         <v>0.5714285714285714</v>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>[0.4956847553434702, 0.5437260897988515, 1.0304942909300825, 1.0372642603783018, 1.196821520219185, 1.7265879571947085, 1.6623535242660015]</t>
+          <t>[0.49568384885787964, 0.5437226295471191, 1.0304895639419556, 1.0372637510299683, 1.1968179941177368, 1.7265819311141968, 1.6623544692993164]</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -4691,14 +4691,14 @@
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>[0.4956847553434702, 0.5437260897988515, 1.0304942909300825, 1.0372642603783018, 1.196821520219185, 1.7265879571947085, 1.6623535242660015]</t>
+          <t>[0.49568384885787964, 0.5437226295471191, 1.0304895639419556, 1.0372637510299683, 1.1968179941177368, 1.7265819311141968, 1.6623544692993164]</t>
         </is>
       </c>
       <c r="U46" t="n">
         <v>4</v>
       </c>
       <c r="V46" t="n">
-        <v>0.5444288353851664</v>
+        <v>0.5444296002388</v>
       </c>
       <c r="W46" t="n">
         <v>2</v>
@@ -4711,7 +4711,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.770690</t>
+          <t>2025-10-17T02:10:08.582301</t>
         </is>
       </c>
     </row>
@@ -4734,7 +4734,7 @@
         <v>7</v>
       </c>
       <c r="F47" t="n">
-        <v>0.821170914930855</v>
+        <v>0.8211710098739295</v>
       </c>
       <c r="G47" t="n">
         <v>0.5714285714285714</v>
@@ -4775,7 +4775,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>[0.4555300636353425, 0.4956847553434702, 0.9548645626090493, 1.1374318846972276, 1.1788478002932243, 1.5114443168656573, 2.0850346828531623]</t>
+          <t>[0.4555348753929138, 0.49568384885787964, 0.9548653364181519, 1.1374363899230957, 1.1788504123687744, 1.5114425420761108, 2.0850367546081543]</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -4785,14 +4785,14 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>[0.4555300636353425, 0.4956847553434702, 0.9548645626090493, 1.1374318846972276, 1.1788478002932243, 1.5114443168656573, 2.4429403769269977]</t>
+          <t>[0.4555348753929138, 0.49568384885787964, 0.9548653364181519, 1.1374363899230957, 1.1788504123687744, 1.5114425420761108, 2.442943572998047]</t>
         </is>
       </c>
       <c r="U47" t="n">
         <v>4</v>
       </c>
       <c r="V47" t="n">
-        <v>0.5432688640123672</v>
+        <v>0.5432708263397217</v>
       </c>
       <c r="W47" t="n">
         <v>0</v>
@@ -4801,7 +4801,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.770690</t>
+          <t>2025-10-17T02:10:08.582301</t>
         </is>
       </c>
     </row>
@@ -4824,7 +4824,7 @@
         <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>0.821170914930855</v>
+        <v>0.8211710098739295</v>
       </c>
       <c r="G48" t="n">
         <v>0.5714285714285714</v>
@@ -4865,7 +4865,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>[0.7095152903098895, 1.2254670342423102, 1.0264295246425166, 1.232152903578428, 1.1512872277874546, 1.215666646680279, 1.4561485338614213]</t>
+          <t>[0.7095147371292114, 1.225460410118103, 1.026412844657898, 1.2321480512619019, 1.1512864828109741, 1.215668797492981, 1.4561500549316406]</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -4875,14 +4875,14 @@
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>[0.7095152903098895, 1.2254670342423102, 1.0264295246425166, 1.232152903578428, 1.1512872277874546, 1.215666646680279, 1.4561485338614213]</t>
+          <t>[0.7095147371292114, 1.225460410118103, 1.026412844657898, 1.2321480512619019, 1.1512864828109741, 1.215668797492981, 1.4561500549316406]</t>
         </is>
       </c>
       <c r="U48" t="n">
         <v>4</v>
       </c>
       <c r="V48" t="n">
-        <v>0.7718748907064281</v>
+        <v>0.7718718647956848</v>
       </c>
       <c r="W48" t="n">
         <v>1</v>
@@ -4895,7 +4895,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:25.771687</t>
+          <t>2025-10-17T02:10:08.582301</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D25_R50_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D25_R50_Pentropia.xlsx
@@ -651,7 +651,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.425314</t>
+          <t>2025-10-17T07:09:26.729645</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.425314</t>
+          <t>2025-10-17T07:09:26.729645</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.425314</t>
+          <t>2025-10-17T07:09:26.729645</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.425314</t>
+          <t>2025-10-17T07:09:26.729645</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.425314</t>
+          <t>2025-10-17T07:09:26.729645</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.425314</t>
+          <t>2025-10-17T07:09:26.729645</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.425314</t>
+          <t>2025-10-17T07:09:26.729645</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.425314</t>
+          <t>2025-10-17T07:09:26.729645</t>
         </is>
       </c>
     </row>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.426311</t>
+          <t>2025-10-17T07:09:26.729645</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.426311</t>
+          <t>2025-10-17T07:09:26.729645</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.426311</t>
+          <t>2025-10-17T07:09:26.729645</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.426311</t>
+          <t>2025-10-17T07:09:26.729645</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.426311</t>
+          <t>2025-10-17T07:09:26.743618</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.426311</t>
+          <t>2025-10-17T07:09:26.744300</t>
         </is>
       </c>
     </row>
@@ -1955,7 +1955,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.488644</t>
+          <t>2025-10-17T07:09:26.822868</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.488644</t>
+          <t>2025-10-17T07:09:26.822868</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.488644</t>
+          <t>2025-10-17T07:09:26.822868</t>
         </is>
       </c>
     </row>
@@ -2225,7 +2225,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.488644</t>
+          <t>2025-10-17T07:09:26.822868</t>
         </is>
       </c>
     </row>
@@ -2315,7 +2315,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.488644</t>
+          <t>2025-10-17T07:09:26.823867</t>
         </is>
       </c>
     </row>
@@ -2405,7 +2405,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.489645</t>
+          <t>2025-10-17T07:09:26.823867</t>
         </is>
       </c>
     </row>
@@ -2495,7 +2495,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.489645</t>
+          <t>2025-10-17T07:09:26.823867</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.489645</t>
+          <t>2025-10-17T07:09:26.823867</t>
         </is>
       </c>
     </row>
@@ -2675,7 +2675,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.489645</t>
+          <t>2025-10-17T07:09:26.824863</t>
         </is>
       </c>
     </row>
@@ -2765,7 +2765,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.489645</t>
+          <t>2025-10-17T07:09:26.824863</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.580301</t>
+          <t>2025-10-17T07:09:26.894342</t>
         </is>
       </c>
     </row>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.580301</t>
+          <t>2025-10-17T07:09:26.894342</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.580301</t>
+          <t>2025-10-17T07:09:26.894342</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.580301</t>
+          <t>2025-10-17T07:09:26.894342</t>
         </is>
       </c>
     </row>
@@ -3231,7 +3231,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.580301</t>
+          <t>2025-10-17T07:09:26.894342</t>
         </is>
       </c>
     </row>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.580301</t>
+          <t>2025-10-17T07:09:26.894342</t>
         </is>
       </c>
     </row>
@@ -3415,7 +3415,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.580301</t>
+          <t>2025-10-17T07:09:26.894342</t>
         </is>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.581301</t>
+          <t>2025-10-17T07:09:26.894342</t>
         </is>
       </c>
     </row>
@@ -3603,7 +3603,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.581301</t>
+          <t>2025-10-17T07:09:26.894342</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.581301</t>
+          <t>2025-10-17T07:09:26.894342</t>
         </is>
       </c>
     </row>
@@ -3787,7 +3787,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.581301</t>
+          <t>2025-10-17T07:09:26.894342</t>
         </is>
       </c>
     </row>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.581301</t>
+          <t>2025-10-17T07:09:26.894342</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.581301</t>
+          <t>2025-10-17T07:09:26.894342</t>
         </is>
       </c>
     </row>
@@ -4061,7 +4061,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.581301</t>
+          <t>2025-10-17T07:09:26.894342</t>
         </is>
       </c>
     </row>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.581301</t>
+          <t>2025-10-17T07:09:26.894342</t>
         </is>
       </c>
     </row>
@@ -4245,7 +4245,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.581301</t>
+          <t>2025-10-17T07:09:26.894342</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.581301</t>
+          <t>2025-10-17T07:09:26.894342</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.582301</t>
+          <t>2025-10-17T07:09:26.894342</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.582301</t>
+          <t>2025-10-17T07:09:26.894342</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.582301</t>
+          <t>2025-10-17T07:09:26.894342</t>
         </is>
       </c>
     </row>
@@ -4711,7 +4711,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.582301</t>
+          <t>2025-10-17T07:09:26.894342</t>
         </is>
       </c>
     </row>
@@ -4801,7 +4801,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.582301</t>
+          <t>2025-10-17T07:09:26.894342</t>
         </is>
       </c>
     </row>
@@ -4895,7 +4895,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:08.582301</t>
+          <t>2025-10-17T07:09:26.894342</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D25_R50_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D25_R50_Pentropia.xlsx
@@ -587,7 +587,7 @@
         <v>0.8433693214731602</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H2" t="n">
         <v>0.5916727785823274</v>
@@ -601,7 +601,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L2" t="n">
         <v>0.8631205685666311</v>
@@ -651,7 +651,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.729645</t>
+          <t>2025-10-19T23:55:10.314715</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
         <v>0.8433693214731602</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H3" t="n">
         <v>0.5916727785823274</v>
@@ -691,7 +691,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L3" t="n">
         <v>0.5916727785823274</v>
@@ -745,7 +745,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.729645</t>
+          <t>2025-10-19T23:55:10.314715</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
         <v>0.8433693214731602</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H4" t="n">
         <v>0.5916727785823274</v>
@@ -785,7 +785,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L4" t="n">
         <v>0.5916727785823274</v>
@@ -839,7 +839,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.729645</t>
+          <t>2025-10-19T23:55:10.315718</t>
         </is>
       </c>
     </row>
@@ -865,7 +865,7 @@
         <v>0.8433693214731602</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H5" t="n">
         <v>0.5916727785823274</v>
@@ -879,7 +879,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L5" t="n">
         <v>0.5916727785823274</v>
@@ -933,7 +933,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.729645</t>
+          <t>2025-10-19T23:55:10.315718</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
         <v>0.8433693214731602</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H6" t="n">
         <v>0.5916727785823274</v>
@@ -973,7 +973,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L6" t="n">
         <v>0.9852281360342515</v>
@@ -1023,7 +1023,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.729645</t>
+          <t>2025-10-19T23:55:10.315718</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
         <v>0.8433693214731602</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H7" t="n">
         <v>0.5916727785823274</v>
@@ -1063,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.729645</t>
+          <t>2025-10-19T23:55:10.315718</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
         <v>0.8433693214731602</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H8" t="n">
         <v>0.5916727785823274</v>
@@ -1157,7 +1157,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L8" t="n">
         <v>0.5916727785823274</v>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.729645</t>
+          <t>2025-10-19T23:55:10.315718</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
         <v>0.8433693214731602</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H9" t="n">
         <v>0.5916727785823274</v>
@@ -1251,7 +1251,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L9" t="n">
         <v>0.8631205685666311</v>
@@ -1301,7 +1301,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.729645</t>
+          <t>2025-10-19T23:55:10.315718</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
         <v>0.8433693214731602</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H10" t="n">
         <v>0.5916727785823274</v>
@@ -1341,7 +1341,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L10" t="n">
         <v>0.5916727785823274</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.729645</t>
+          <t>2025-10-19T23:55:10.316712</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
         <v>0.8433693214731602</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H11" t="n">
         <v>0.5916727785823274</v>
@@ -1435,7 +1435,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L11" t="n">
         <v>0.5916727785823274</v>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.729645</t>
+          <t>2025-10-19T23:55:10.316712</t>
         </is>
       </c>
     </row>
@@ -1515,7 +1515,7 @@
         <v>0.8433693214731602</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H12" t="n">
         <v>0.5916727785823274</v>
@@ -1529,7 +1529,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L12" t="n">
         <v>0.5916727785823274</v>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.729645</t>
+          <t>2025-10-19T23:55:10.316712</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
         <v>0.8433693214731602</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H13" t="n">
         <v>0.5916727785823274</v>
@@ -1623,7 +1623,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L13" t="n">
         <v>0.5916727785823274</v>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.729645</t>
+          <t>2025-10-19T23:55:10.316712</t>
         </is>
       </c>
     </row>
@@ -1703,7 +1703,7 @@
         <v>0.8433693214731602</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H14" t="n">
         <v>0.5916727785823274</v>
@@ -1717,7 +1717,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L14" t="n">
         <v>0.5916727785823274</v>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.743618</t>
+          <t>2025-10-19T23:55:10.316712</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
         <v>0.8433693214731602</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H15" t="n">
         <v>0.5916727785823274</v>
@@ -1811,7 +1811,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L15" t="n">
         <v>0.5916727785823274</v>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.744300</t>
+          <t>2025-10-19T23:55:10.317711</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
         <v>0.7296286327427797</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H16" t="n">
         <v>0.9547012441673464</v>
@@ -1905,7 +1905,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L16" t="n">
         <v>0.5916727785823274</v>
@@ -1955,7 +1955,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.822868</t>
+          <t>2025-10-19T23:55:10.351369</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
         <v>0.7296286327427797</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H17" t="n">
         <v>0.9547012441673464</v>
@@ -1995,7 +1995,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L17" t="n">
         <v>0.5916727785823274</v>
@@ -2045,7 +2045,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.822868</t>
+          <t>2025-10-19T23:55:10.352369</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
         <v>0.7296286327427797</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H18" t="n">
         <v>0.9547012441673464</v>
@@ -2085,7 +2085,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L18" t="n">
         <v>0.8631205685666311</v>
@@ -2135,7 +2135,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.822868</t>
+          <t>2025-10-19T23:55:10.352369</t>
         </is>
       </c>
     </row>
@@ -2161,7 +2161,7 @@
         <v>0.7296286327427797</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H19" t="n">
         <v>0.9547012441673464</v>
@@ -2175,7 +2175,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L19" t="n">
         <v>0.8631205685666311</v>
@@ -2225,7 +2225,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.822868</t>
+          <t>2025-10-19T23:55:10.352369</t>
         </is>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
         <v>0.7296286327427797</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H20" t="n">
         <v>0.9547012441673464</v>
@@ -2265,7 +2265,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L20" t="n">
         <v>0.9852281360342515</v>
@@ -2315,7 +2315,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.823867</t>
+          <t>2025-10-19T23:55:10.352369</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
         <v>0.7296286327427797</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H21" t="n">
         <v>0.9547012441673464</v>
@@ -2355,7 +2355,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L21" t="n">
         <v>0.5916727785823274</v>
@@ -2405,7 +2405,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.823867</t>
+          <t>2025-10-19T23:55:10.352369</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
         <v>0.7296286327427797</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H22" t="n">
         <v>0.9547012441673464</v>
@@ -2445,7 +2445,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L22" t="n">
         <v>0.8631205685666311</v>
@@ -2495,7 +2495,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.823867</t>
+          <t>2025-10-19T23:55:10.353367</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
         <v>0.7296286327427797</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H23" t="n">
         <v>0.9547012441673464</v>
@@ -2535,7 +2535,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L23" t="n">
         <v>0.5916727785823274</v>
@@ -2585,7 +2585,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.823867</t>
+          <t>2025-10-19T23:55:10.353367</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
         <v>0.7296286327427797</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H24" t="n">
         <v>0.9547012441673464</v>
@@ -2625,7 +2625,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L24" t="n">
         <v>0.9852281360342515</v>
@@ -2675,7 +2675,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.824863</t>
+          <t>2025-10-19T23:55:10.353367</t>
         </is>
       </c>
     </row>
@@ -2701,7 +2701,7 @@
         <v>0.7296286327427797</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H25" t="n">
         <v>0.9547012441673464</v>
@@ -2715,7 +2715,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L25" t="n">
         <v>0.9852281360342515</v>
@@ -2765,7 +2765,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.824863</t>
+          <t>2025-10-19T23:55:10.353367</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
         <v>0.8211710098739295</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2805,7 +2805,7 @@
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.894342</t>
+          <t>2025-10-19T23:55:10.421428</t>
         </is>
       </c>
     </row>
@@ -2885,7 +2885,7 @@
         <v>0.8211710098739295</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2899,7 +2899,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.894342</t>
+          <t>2025-10-19T23:55:10.421428</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2979,7 @@
         <v>0.8211710098739295</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.894342</t>
+          <t>2025-10-19T23:55:10.422430</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3073,7 @@
         <v>0.8211710098739295</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -3087,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.894342</t>
+          <t>2025-10-19T23:55:10.422430</t>
         </is>
       </c>
     </row>
@@ -3167,7 +3167,7 @@
         <v>0.8211710098739295</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3181,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -3231,7 +3231,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.894342</t>
+          <t>2025-10-19T23:55:10.422430</t>
         </is>
       </c>
     </row>
@@ -3257,7 +3257,7 @@
         <v>0.8211710098739295</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.894342</t>
+          <t>2025-10-19T23:55:10.422430</t>
         </is>
       </c>
     </row>
@@ -3351,7 +3351,7 @@
         <v>0.8211710098739295</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K32" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L32" t="n">
         <v>0.8631205685666311</v>
@@ -3415,7 +3415,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.894342</t>
+          <t>2025-10-19T23:55:10.422430</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
         <v>0.8211710098739295</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3455,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.894342</t>
+          <t>2025-10-19T23:55:10.423428</t>
         </is>
       </c>
     </row>
@@ -3535,7 +3535,7 @@
         <v>0.8211710098739295</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3549,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.894342</t>
+          <t>2025-10-19T23:55:10.423428</t>
         </is>
       </c>
     </row>
@@ -3629,7 +3629,7 @@
         <v>0.8211710098739295</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.894342</t>
+          <t>2025-10-19T23:55:10.423428</t>
         </is>
       </c>
     </row>
@@ -3723,7 +3723,7 @@
         <v>0.8211710098739295</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K36" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L36" t="n">
         <v>0.8631205685666311</v>
@@ -3787,7 +3787,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.894342</t>
+          <t>2025-10-19T23:55:10.423428</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
         <v>0.8211710098739295</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.894342</t>
+          <t>2025-10-19T23:55:10.424429</t>
         </is>
       </c>
     </row>
@@ -3907,7 +3907,7 @@
         <v>0.8211710098739295</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K38" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L38" t="n">
         <v>0.9852281360342515</v>
@@ -3971,7 +3971,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.894342</t>
+          <t>2025-10-19T23:55:10.424429</t>
         </is>
       </c>
     </row>
@@ -3997,7 +3997,7 @@
         <v>0.8211710098739295</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -4011,7 +4011,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K39" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L39" t="n">
         <v>0.5916727785823274</v>
@@ -4061,7 +4061,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.894342</t>
+          <t>2025-10-19T23:55:10.424429</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4087,7 @@
         <v>0.8211710098739295</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.894342</t>
+          <t>2025-10-19T23:55:10.424429</t>
         </is>
       </c>
     </row>
@@ -4181,21 +4181,21 @@
         <v>0.8211710098739295</v>
       </c>
       <c r="G41" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.5714285714285714</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J41" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="K41" t="n">
-        <v>1</v>
       </c>
       <c r="L41" t="n">
         <v>0.8631205685666311</v>
@@ -4245,7 +4245,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.894342</t>
+          <t>2025-10-19T23:55:10.424429</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
         <v>0.8211710098739295</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -4285,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.894342</t>
+          <t>2025-10-19T23:55:10.425429</t>
         </is>
       </c>
     </row>
@@ -4365,7 +4365,7 @@
         <v>0.8211710098739295</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -4429,7 +4429,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.894342</t>
+          <t>2025-10-19T23:55:10.425429</t>
         </is>
       </c>
     </row>
@@ -4455,7 +4455,7 @@
         <v>0.8211710098739295</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4469,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.894342</t>
+          <t>2025-10-19T23:55:10.425429</t>
         </is>
       </c>
     </row>
@@ -4549,7 +4549,7 @@
         <v>0.8211710098739295</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4563,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.894342</t>
+          <t>2025-10-19T23:55:10.425429</t>
         </is>
       </c>
     </row>
@@ -4643,7 +4643,7 @@
         <v>0.8211710098739295</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4657,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -4711,7 +4711,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.894342</t>
+          <t>2025-10-19T23:55:10.425429</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
         <v>0.8211710098739295</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4751,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -4801,7 +4801,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.894342</t>
+          <t>2025-10-19T23:55:10.426428</t>
         </is>
       </c>
     </row>
@@ -4827,7 +4827,7 @@
         <v>0.8211710098739295</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4841,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -4895,7 +4895,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:26.894342</t>
+          <t>2025-10-19T23:55:10.426428</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D25_R50_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D25_R50_Pentropia.xlsx
@@ -64,6 +64,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF2D7D9"/>
+          <bgColor rgb="FFF2D7D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -651,7 +661,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.314715</t>
+          <t>2025-10-20T01:21:36.020959</t>
         </is>
       </c>
     </row>
@@ -745,7 +755,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.314715</t>
+          <t>2025-10-20T01:21:36.020959</t>
         </is>
       </c>
     </row>
@@ -839,7 +849,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.315718</t>
+          <t>2025-10-20T01:21:36.021977</t>
         </is>
       </c>
     </row>
@@ -933,7 +943,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.315718</t>
+          <t>2025-10-20T01:21:36.021977</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1033,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.315718</t>
+          <t>2025-10-20T01:21:36.021977</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1127,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.315718</t>
+          <t>2025-10-20T01:21:36.021977</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1221,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.315718</t>
+          <t>2025-10-20T01:21:36.022951</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1311,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.315718</t>
+          <t>2025-10-20T01:21:36.022951</t>
         </is>
       </c>
     </row>
@@ -1395,7 +1405,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.316712</t>
+          <t>2025-10-20T01:21:36.022951</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1499,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.316712</t>
+          <t>2025-10-20T01:21:36.022951</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1593,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.316712</t>
+          <t>2025-10-20T01:21:36.023950</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1687,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.316712</t>
+          <t>2025-10-20T01:21:36.023950</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1781,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.316712</t>
+          <t>2025-10-20T01:21:36.023950</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1875,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.317711</t>
+          <t>2025-10-20T01:21:36.071815</t>
         </is>
       </c>
     </row>
@@ -1955,7 +1965,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.351369</t>
+          <t>2025-10-20T01:21:36.102821</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2055,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.352369</t>
+          <t>2025-10-20T01:21:36.103820</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2145,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.352369</t>
+          <t>2025-10-20T01:21:36.103820</t>
         </is>
       </c>
     </row>
@@ -2225,7 +2235,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.352369</t>
+          <t>2025-10-20T01:21:36.103820</t>
         </is>
       </c>
     </row>
@@ -2315,7 +2325,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.352369</t>
+          <t>2025-10-20T01:21:36.103820</t>
         </is>
       </c>
     </row>
@@ -2405,7 +2415,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.352369</t>
+          <t>2025-10-20T01:21:36.103820</t>
         </is>
       </c>
     </row>
@@ -2495,7 +2505,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.353367</t>
+          <t>2025-10-20T01:21:36.104818</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2595,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.353367</t>
+          <t>2025-10-20T01:21:36.104818</t>
         </is>
       </c>
     </row>
@@ -2675,7 +2685,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.353367</t>
+          <t>2025-10-20T01:21:36.104818</t>
         </is>
       </c>
     </row>
@@ -2765,7 +2775,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.353367</t>
+          <t>2025-10-20T01:21:36.104818</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2869,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.421428</t>
+          <t>2025-10-20T01:21:36.207738</t>
         </is>
       </c>
     </row>
@@ -2953,7 +2963,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.421428</t>
+          <t>2025-10-20T01:21:36.207738</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3057,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.422430</t>
+          <t>2025-10-20T01:21:36.207738</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3151,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.422430</t>
+          <t>2025-10-20T01:21:36.207738</t>
         </is>
       </c>
     </row>
@@ -3231,7 +3241,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.422430</t>
+          <t>2025-10-20T01:21:36.207738</t>
         </is>
       </c>
     </row>
@@ -3325,7 +3335,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.422430</t>
+          <t>2025-10-20T01:21:36.207738</t>
         </is>
       </c>
     </row>
@@ -3415,7 +3425,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.422430</t>
+          <t>2025-10-20T01:21:36.208739</t>
         </is>
       </c>
     </row>
@@ -3509,7 +3519,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.423428</t>
+          <t>2025-10-20T01:21:36.208739</t>
         </is>
       </c>
     </row>
@@ -3603,7 +3613,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.423428</t>
+          <t>2025-10-20T01:21:36.208739</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3707,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.423428</t>
+          <t>2025-10-20T01:21:36.208739</t>
         </is>
       </c>
     </row>
@@ -3787,7 +3797,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.423428</t>
+          <t>2025-10-20T01:21:36.209740</t>
         </is>
       </c>
     </row>
@@ -3881,7 +3891,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.424429</t>
+          <t>2025-10-20T01:21:36.209740</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3981,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.424429</t>
+          <t>2025-10-20T01:21:36.209740</t>
         </is>
       </c>
     </row>
@@ -4061,7 +4071,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.424429</t>
+          <t>2025-10-20T01:21:36.209740</t>
         </is>
       </c>
     </row>
@@ -4155,7 +4165,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.424429</t>
+          <t>2025-10-20T01:21:36.209740</t>
         </is>
       </c>
     </row>
@@ -4245,7 +4255,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.424429</t>
+          <t>2025-10-20T01:21:36.210734</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4349,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.425429</t>
+          <t>2025-10-20T01:21:36.210734</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4439,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.425429</t>
+          <t>2025-10-20T01:21:36.210734</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4533,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.425429</t>
+          <t>2025-10-20T01:21:36.211737</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4627,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.425429</t>
+          <t>2025-10-20T01:21:36.211737</t>
         </is>
       </c>
     </row>
@@ -4711,7 +4721,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.425429</t>
+          <t>2025-10-20T01:21:36.211737</t>
         </is>
       </c>
     </row>
@@ -4801,7 +4811,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.426428</t>
+          <t>2025-10-20T01:21:36.211737</t>
         </is>
       </c>
     </row>
@@ -4895,11 +4905,16 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:10.426428</t>
+          <t>2025-10-20T01:21:36.211737</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:Z48">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>=$D2=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D25_R50_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D25_R50_Pentropia.xlsx
@@ -661,7 +661,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.020959</t>
+          <t>2025-10-23T11:29:16.342376</t>
         </is>
       </c>
     </row>
@@ -748,14 +748,14 @@
         <v>4</v>
       </c>
       <c r="X3" t="n">
-        <v>0.4148089303468181</v>
+        <v>0.5211919949562023</v>
       </c>
       <c r="Y3" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.020959</t>
+          <t>2025-10-23T11:29:16.342376</t>
         </is>
       </c>
     </row>
@@ -839,17 +839,17 @@
         <v>0.7479127645492554</v>
       </c>
       <c r="W4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X4" t="n">
-        <v>0.5657475018303859</v>
+        <v>0.507938426477816</v>
       </c>
       <c r="Y4" t="n">
-        <v>159</v>
+        <v>26</v>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.021977</t>
+          <t>2025-10-23T11:29:16.342376</t>
         </is>
       </c>
     </row>
@@ -936,14 +936,14 @@
         <v>2</v>
       </c>
       <c r="X5" t="n">
-        <v>0.4517559963200034</v>
+        <v>0.5818640804157564</v>
       </c>
       <c r="Y5" t="n">
-        <v>161</v>
+        <v>1</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.021977</t>
+          <t>2025-10-23T11:29:16.343999</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.021977</t>
+          <t>2025-10-23T11:29:16.344361</t>
         </is>
       </c>
     </row>
@@ -1120,14 +1120,14 @@
         <v>2</v>
       </c>
       <c r="X7" t="n">
-        <v>0.5454543991712841</v>
+        <v>0.519579995762217</v>
       </c>
       <c r="Y7" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.021977</t>
+          <t>2025-10-23T11:29:16.344361</t>
         </is>
       </c>
     </row>
@@ -1214,14 +1214,14 @@
         <v>2</v>
       </c>
       <c r="X8" t="n">
-        <v>0.5368466053024313</v>
+        <v>0.4461787651244298</v>
       </c>
       <c r="Y8" t="n">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.022951</t>
+          <t>2025-10-23T11:29:16.344361</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.022951</t>
+          <t>2025-10-23T11:29:16.344361</t>
         </is>
       </c>
     </row>
@@ -1398,14 +1398,14 @@
         <v>5</v>
       </c>
       <c r="X10" t="n">
-        <v>0.5939169255529118</v>
+        <v>0.4062626584911118</v>
       </c>
       <c r="Y10" t="n">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.022951</t>
+          <t>2025-10-23T11:29:16.345363</t>
         </is>
       </c>
     </row>
@@ -1492,14 +1492,14 @@
         <v>4</v>
       </c>
       <c r="X11" t="n">
-        <v>0.4990353820222541</v>
+        <v>0.5219993315565241</v>
       </c>
       <c r="Y11" t="n">
         <v>147</v>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.022951</t>
+          <t>2025-10-23T11:29:16.345363</t>
         </is>
       </c>
     </row>
@@ -1583,17 +1583,17 @@
         <v>0.8371603488922119</v>
       </c>
       <c r="W12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X12" t="n">
-        <v>0.5630922856909668</v>
+        <v>0.4028159645430169</v>
       </c>
       <c r="Y12" t="n">
         <v>82</v>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.023950</t>
+          <t>2025-10-23T11:29:16.345363</t>
         </is>
       </c>
     </row>
@@ -1680,14 +1680,14 @@
         <v>3</v>
       </c>
       <c r="X13" t="n">
-        <v>0.560439396150808</v>
+        <v>0.4592547011408165</v>
       </c>
       <c r="Y13" t="n">
         <v>4</v>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.023950</t>
+          <t>2025-10-23T11:29:16.346366</t>
         </is>
       </c>
     </row>
@@ -1774,14 +1774,14 @@
         <v>3</v>
       </c>
       <c r="X14" t="n">
-        <v>0.4561869019374762</v>
+        <v>0.5930510614528276</v>
       </c>
       <c r="Y14" t="n">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.023950</t>
+          <t>2025-10-23T11:29:16.346366</t>
         </is>
       </c>
     </row>
@@ -1868,14 +1868,14 @@
         <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>0.573235229154987</v>
+        <v>0.4918497783931735</v>
       </c>
       <c r="Y15" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.071815</t>
+          <t>2025-10-23T11:29:16.346366</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.102821</t>
+          <t>2025-10-23T11:29:16.375537</t>
         </is>
       </c>
     </row>
@@ -2055,7 +2055,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.103820</t>
+          <t>2025-10-23T11:29:16.375537</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.103820</t>
+          <t>2025-10-23T11:29:16.375537</t>
         </is>
       </c>
     </row>
@@ -2235,7 +2235,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.103820</t>
+          <t>2025-10-23T11:29:16.375537</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.103820</t>
+          <t>2025-10-23T11:29:16.375537</t>
         </is>
       </c>
     </row>
@@ -2415,7 +2415,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.103820</t>
+          <t>2025-10-23T11:29:16.375537</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.104818</t>
+          <t>2025-10-23T11:29:16.375537</t>
         </is>
       </c>
     </row>
@@ -2595,7 +2595,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.104818</t>
+          <t>2025-10-23T11:29:16.375537</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.104818</t>
+          <t>2025-10-23T11:29:16.375537</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.104818</t>
+          <t>2025-10-23T11:29:16.375537</t>
         </is>
       </c>
     </row>
@@ -2862,14 +2862,14 @@
         <v>1</v>
       </c>
       <c r="X26" t="n">
-        <v>0.5223306320976562</v>
+        <v>0.4608484485919075</v>
       </c>
       <c r="Y26" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.207738</t>
+          <t>2025-10-23T11:29:16.406800</t>
         </is>
       </c>
     </row>
@@ -2956,14 +2956,14 @@
         <v>3</v>
       </c>
       <c r="X27" t="n">
-        <v>0.5040136042355622</v>
+        <v>0.4850311748982489</v>
       </c>
       <c r="Y27" t="n">
         <v>53</v>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.207738</t>
+          <t>2025-10-23T11:29:16.406800</t>
         </is>
       </c>
     </row>
@@ -3050,14 +3050,14 @@
         <v>1</v>
       </c>
       <c r="X28" t="n">
-        <v>0.5215089703802877</v>
+        <v>0.5719880813472641</v>
       </c>
       <c r="Y28" t="n">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.207738</t>
+          <t>2025-10-23T11:29:16.406800</t>
         </is>
       </c>
     </row>
@@ -3144,14 +3144,14 @@
         <v>2</v>
       </c>
       <c r="X29" t="n">
-        <v>0.5325044568707964</v>
+        <v>0.4364472175576125</v>
       </c>
       <c r="Y29" t="n">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.207738</t>
+          <t>2025-10-23T11:29:16.406800</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.207738</t>
+          <t>2025-10-23T11:29:16.406800</t>
         </is>
       </c>
     </row>
@@ -3328,14 +3328,14 @@
         <v>1</v>
       </c>
       <c r="X31" t="n">
-        <v>0.4363649934414202</v>
+        <v>0.4001557531682029</v>
       </c>
       <c r="Y31" t="n">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.207738</t>
+          <t>2025-10-23T11:29:16.406800</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.208739</t>
+          <t>2025-10-23T11:29:16.406800</t>
         </is>
       </c>
     </row>
@@ -3512,14 +3512,14 @@
         <v>3</v>
       </c>
       <c r="X33" t="n">
-        <v>0.4990353820222541</v>
+        <v>0.5219993315565241</v>
       </c>
       <c r="Y33" t="n">
         <v>88</v>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.208739</t>
+          <t>2025-10-23T11:29:16.406800</t>
         </is>
       </c>
     </row>
@@ -3606,14 +3606,14 @@
         <v>1</v>
       </c>
       <c r="X34" t="n">
-        <v>0.4777354579378964</v>
+        <v>0.5689067697356303</v>
       </c>
       <c r="Y34" t="n">
         <v>116</v>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.208739</t>
+          <t>2025-10-23T11:29:16.406800</t>
         </is>
       </c>
     </row>
@@ -3700,14 +3700,14 @@
         <v>1</v>
       </c>
       <c r="X35" t="n">
-        <v>0.4026529922319733</v>
+        <v>0.4130103185970559</v>
       </c>
       <c r="Y35" t="n">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.208739</t>
+          <t>2025-10-23T11:29:16.406800</t>
         </is>
       </c>
     </row>
@@ -3797,7 +3797,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.209740</t>
+          <t>2025-10-23T11:29:16.406800</t>
         </is>
       </c>
     </row>
@@ -3884,14 +3884,14 @@
         <v>3</v>
       </c>
       <c r="X37" t="n">
-        <v>0.5853317731587588</v>
+        <v>0.5789654700855298</v>
       </c>
       <c r="Y37" t="n">
         <v>125</v>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.209740</t>
+          <t>2025-10-23T11:29:16.406800</t>
         </is>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.209740</t>
+          <t>2025-10-23T11:29:16.406800</t>
         </is>
       </c>
     </row>
@@ -4071,7 +4071,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.209740</t>
+          <t>2025-10-23T11:29:16.406800</t>
         </is>
       </c>
     </row>
@@ -4158,14 +4158,14 @@
         <v>2</v>
       </c>
       <c r="X40" t="n">
-        <v>0.573235229154987</v>
+        <v>0.4918497783931735</v>
       </c>
       <c r="Y40" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.209740</t>
+          <t>2025-10-23T11:29:16.406800</t>
         </is>
       </c>
     </row>
@@ -4255,7 +4255,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.210734</t>
+          <t>2025-10-23T11:29:16.406800</t>
         </is>
       </c>
     </row>
@@ -4342,14 +4342,14 @@
         <v>1</v>
       </c>
       <c r="X42" t="n">
-        <v>0.4582458280396084</v>
+        <v>0.4046124850082832</v>
       </c>
       <c r="Y42" t="n">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.210734</t>
+          <t>2025-10-23T11:29:16.406800</t>
         </is>
       </c>
     </row>
@@ -4439,7 +4439,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.210734</t>
+          <t>2025-10-23T11:29:16.406800</t>
         </is>
       </c>
     </row>
@@ -4526,14 +4526,14 @@
         <v>1</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4770833005079832</v>
+        <v>0.5616794696232922</v>
       </c>
       <c r="Y44" t="n">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.211737</t>
+          <t>2025-10-23T11:29:16.406800</t>
         </is>
       </c>
     </row>
@@ -4620,14 +4620,14 @@
         <v>2</v>
       </c>
       <c r="X45" t="n">
-        <v>0.5818640804157564</v>
+        <v>0.4346729307015544</v>
       </c>
       <c r="Y45" t="n">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.211737</t>
+          <t>2025-10-23T11:29:16.406800</t>
         </is>
       </c>
     </row>
@@ -4714,14 +4714,14 @@
         <v>2</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4176985004103839</v>
+        <v>0.4653081537611671</v>
       </c>
       <c r="Y46" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.211737</t>
+          <t>2025-10-23T11:29:16.406800</t>
         </is>
       </c>
     </row>
@@ -4811,7 +4811,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.211737</t>
+          <t>2025-10-23T11:29:16.406800</t>
         </is>
       </c>
     </row>
@@ -4898,14 +4898,14 @@
         <v>1</v>
       </c>
       <c r="X48" t="n">
-        <v>0.4899508266739531</v>
+        <v>0.5550265646722229</v>
       </c>
       <c r="Y48" t="n">
         <v>134</v>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:36.211737</t>
+          <t>2025-10-23T11:29:16.406800</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D25_R50_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D25_R50_Pentropia.xlsx
@@ -661,7 +661,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.342376</t>
+          <t>2025-10-23T12:45:18.643525</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.342376</t>
+          <t>2025-10-23T12:45:18.643525</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.342376</t>
+          <t>2025-10-23T12:45:18.643525</t>
         </is>
       </c>
     </row>
@@ -943,7 +943,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.343999</t>
+          <t>2025-10-23T12:45:18.643525</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.344361</t>
+          <t>2025-10-23T12:45:18.643525</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.344361</t>
+          <t>2025-10-23T12:45:18.643525</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.344361</t>
+          <t>2025-10-23T12:45:18.643525</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.344361</t>
+          <t>2025-10-23T12:45:18.643525</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.345363</t>
+          <t>2025-10-23T12:45:18.643525</t>
         </is>
       </c>
     </row>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.345363</t>
+          <t>2025-10-23T12:45:18.654814</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.345363</t>
+          <t>2025-10-23T12:45:18.654814</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.346366</t>
+          <t>2025-10-23T12:45:18.654814</t>
         </is>
       </c>
     </row>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.346366</t>
+          <t>2025-10-23T12:45:18.654814</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.346366</t>
+          <t>2025-10-23T12:45:18.655791</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.375537</t>
+          <t>2025-10-23T12:45:18.688487</t>
         </is>
       </c>
     </row>
@@ -2055,7 +2055,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.375537</t>
+          <t>2025-10-23T12:45:18.688487</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.375537</t>
+          <t>2025-10-23T12:45:18.688487</t>
         </is>
       </c>
     </row>
@@ -2235,7 +2235,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.375537</t>
+          <t>2025-10-23T12:45:18.688487</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.375537</t>
+          <t>2025-10-23T12:45:18.688487</t>
         </is>
       </c>
     </row>
@@ -2415,7 +2415,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.375537</t>
+          <t>2025-10-23T12:45:18.688487</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.375537</t>
+          <t>2025-10-23T12:45:18.688487</t>
         </is>
       </c>
     </row>
@@ -2595,7 +2595,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.375537</t>
+          <t>2025-10-23T12:45:18.688487</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.375537</t>
+          <t>2025-10-23T12:45:18.688487</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.375537</t>
+          <t>2025-10-23T12:45:18.688487</t>
         </is>
       </c>
     </row>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.406800</t>
+          <t>2025-10-23T12:45:18.753063</t>
         </is>
       </c>
     </row>
@@ -2963,7 +2963,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.406800</t>
+          <t>2025-10-23T12:45:18.753063</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.406800</t>
+          <t>2025-10-23T12:45:18.754309</t>
         </is>
       </c>
     </row>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.406800</t>
+          <t>2025-10-23T12:45:18.755313</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.406800</t>
+          <t>2025-10-23T12:45:18.755313</t>
         </is>
       </c>
     </row>
@@ -3335,7 +3335,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.406800</t>
+          <t>2025-10-23T12:45:18.755313</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.406800</t>
+          <t>2025-10-23T12:45:18.756311</t>
         </is>
       </c>
     </row>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.406800</t>
+          <t>2025-10-23T12:45:18.756311</t>
         </is>
       </c>
     </row>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.406800</t>
+          <t>2025-10-23T12:45:18.756311</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.406800</t>
+          <t>2025-10-23T12:45:18.756311</t>
         </is>
       </c>
     </row>
@@ -3797,7 +3797,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.406800</t>
+          <t>2025-10-23T12:45:18.757312</t>
         </is>
       </c>
     </row>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.406800</t>
+          <t>2025-10-23T12:45:18.757312</t>
         </is>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.406800</t>
+          <t>2025-10-23T12:45:18.757312</t>
         </is>
       </c>
     </row>
@@ -4071,7 +4071,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.406800</t>
+          <t>2025-10-23T12:45:18.757312</t>
         </is>
       </c>
     </row>
@@ -4165,7 +4165,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.406800</t>
+          <t>2025-10-23T12:45:18.757312</t>
         </is>
       </c>
     </row>
@@ -4255,7 +4255,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.406800</t>
+          <t>2025-10-23T12:45:18.758310</t>
         </is>
       </c>
     </row>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.406800</t>
+          <t>2025-10-23T12:45:18.758310</t>
         </is>
       </c>
     </row>
@@ -4439,7 +4439,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.406800</t>
+          <t>2025-10-23T12:45:18.758310</t>
         </is>
       </c>
     </row>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.406800</t>
+          <t>2025-10-23T12:45:18.758310</t>
         </is>
       </c>
     </row>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.406800</t>
+          <t>2025-10-23T12:45:18.758310</t>
         </is>
       </c>
     </row>
@@ -4721,7 +4721,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.406800</t>
+          <t>2025-10-23T12:45:18.759311</t>
         </is>
       </c>
     </row>
@@ -4811,7 +4811,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.406800</t>
+          <t>2025-10-23T12:45:18.759311</t>
         </is>
       </c>
     </row>
@@ -4905,7 +4905,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:16.406800</t>
+          <t>2025-10-23T12:45:18.759311</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D25_R50_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D25_R50_Pentropia.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z48"/>
+  <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,22 +582,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.8433693214731602</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H2" t="n">
         <v>0.5916727785823274</v>
@@ -608,60 +606,64 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[121, 120, 137, 150, 142, 45, 6]</t>
+          <t>[92, 91, 116, 3, 20, 64, 90]</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 1, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[0.3686896860599518, 0.5712586641311646, 0.8399618864059448, 0.7188007235527039, 0.9159262180328369, 0.964373767375946, 0.8161059021949768]</t>
+          <t>[0.3686896860599518, 0.5712586641311646, 0.7188007235527039, 0.8161059021949768, 0.8208655714988708, 0.8525661826133728, 0.9072226285934448]</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>[121, 45, 139, 102, 9, 58, 143]</t>
+          <t>[92, 32, 106, 5, 80, 41, 109]</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3686896860599518, 0.964373767375946, 1.126319169998169, 1.2241731882095337, 1.2196450233459473, 1.4703971147537231, 1.557084560394287]</t>
+          <t>[0.3686896860599518, 0.964373767375946, 1.126319169998169, 1.2196450233459473, 1.2241731882095337, 1.4703971147537231, 1.557084560394287]</t>
         </is>
       </c>
       <c r="U2" t="n">
         <v>4</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6499942541122437</v>
+        <v>0.8161059335608314</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.4650660661526529</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>91</v>
+      </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:18.643525</t>
+          <t>2025-10-27T20:44:27.566203</t>
         </is>
       </c>
     </row>
@@ -672,7 +674,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -683,11 +685,9 @@
       <c r="E3" t="n">
         <v>7</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.8433693214731602</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H3" t="n">
         <v>0.5916727785823274</v>
@@ -698,13 +698,13 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5916727785823274</v>
+        <v>0</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="b">
@@ -715,47 +715,47 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[76, 16, 37, 55, 143, 74, 124]</t>
+          <t>[56, 10, 54, 26, 86, 44, 39]</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 1, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[0.29108816385269165, 0.3007749617099762, 0.5837634801864624, 0.6349945664405823, 0.639224112033844, 0.5765426754951477, 0.6429972052574158]</t>
+          <t>[0.29108816385269165, 0.3007749617099762, 0.5765426754951477, 0.5837634801864624, 0.60104900598526, 0.6279987692832947, 0.6349945664405823]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>[143, 139, 102, 153, 121, 58, 7]</t>
+          <t>[109, 106, 80, 119, 92, 4, 41]</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[0.639224112033844, 0.7289791107177734, 0.8478673100471497, 0.9712804555892944, 1.0848945379257202, 1.3480218648910522, 1.2196450233459473]</t>
+          <t>[0.639224112033844, 0.7289791107177734, 0.8478673100471497, 0.9712804555892944, 1.0848945379257202, 1.2196450233459473, 1.3480218648910522]</t>
         </is>
       </c>
       <c r="U3" t="n">
         <v>4</v>
       </c>
       <c r="V3" t="n">
-        <v>0.686335563659668</v>
+        <v>0.5837635074955616</v>
       </c>
       <c r="W3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X3" t="n">
-        <v>0.5211919949562023</v>
+        <v>0.5789654700855298</v>
       </c>
       <c r="Y3" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:18.643525</t>
+          <t>2025-10-27T20:44:27.566203</t>
         </is>
       </c>
     </row>
@@ -766,22 +766,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.8433693214731602</v>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H4" t="n">
         <v>0.5916727785823274</v>
@@ -792,64 +790,60 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="b">
         <v>1</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[10, 13, 159, 26, 4, 163, 115]</t>
+          <t>[57, 83, 4, 92, 18, 91, 25]</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 1, 0]</t>
+          <t>[0, 0, 1, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[1.5354762077331543, 1.5763767957687378, 1.5182515382766724, 1.6015644073486328, 1.814195990562439, 2.4762635231018066, 1.645581841468811]</t>
+          <t>[0.9164473414421082, 0.9198511242866516, 0.964373767375946, 1.0153549909591675, 1.1352434158325195, 1.147658109664917, 1.209598422050476]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>[163, 168, 169, 21, 58, 45, 102]</t>
+          <t>[4, 92, 130, 106, 5, 80, 41]</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>[2.4762635231018066, 2.9099297523498535, 2.5544352531433105, 3.1355085372924805, 2.66167950630188, 2.662851095199585, 2.9838945865631104]</t>
+          <t>[0.964373767375946, 1.0153549909591675, 1.3090776205062866, 1.624017596244812, 1.6671695709228516, 1.7274311780929565, 1.9255344867706299]</t>
         </is>
       </c>
       <c r="U4" t="n">
         <v>4</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7479127645492554</v>
+        <v>1.015355025260908</v>
       </c>
       <c r="W4" t="n">
-        <v>4</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.507938426477816</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:18.643525</t>
+          <t>2025-10-27T20:44:27.566203</t>
         </is>
       </c>
     </row>
@@ -860,7 +854,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -871,11 +865,9 @@
       <c r="E5" t="n">
         <v>7</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.8433693214731602</v>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H5" t="n">
         <v>0.5916727785823274</v>
@@ -889,7 +881,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L5" t="n">
         <v>0.5916727785823274</v>
@@ -903,47 +895,47 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[161, 167, 168, 1, 123, 130, 72]</t>
+          <t>[52, 81, 59, 63, 69, 80, 93]</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[0.4618493616580963, 0.46296268701553345, 0.7553806304931641, 0.8820913434028625, 0.8820913434028625, 1.2559460401535034, 1.8004459142684937]</t>
+          <t>[0.7342439293861389, 0.8839975595474243, 0.9219695329666138, 0.9574594497680664, 0.9910978078842163, 1.0150388479232788, 1.0183871984481812]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>[168, 58, 15, 163, 45, 7, 121]</t>
+          <t>[80, 106, 109, 5, 4, 92, 32]</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>[0.7553806304931641, 2.353519916534424, 3.1355085372924805, 3.852335214614868, 2.665560245513916, 2.4172964096069336, 2.481671094894409]</t>
+          <t>[1.0150388479232788, 1.0873119831085205, 1.158658742904663, 1.3480218648910522, 1.4703971147537231, 1.486830234527588, 1.9255344867706299]</t>
         </is>
       </c>
       <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.9574594562897335</v>
+      </c>
+      <c r="W5" t="n">
         <v>5</v>
       </c>
-      <c r="V5" t="n">
-        <v>0.4168060123920441</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2</v>
-      </c>
       <c r="X5" t="n">
-        <v>0.5818640804157564</v>
+        <v>0.4341048247374583</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:18.643525</t>
+          <t>2025-10-27T20:44:27.566203</t>
         </is>
       </c>
     </row>
@@ -954,7 +946,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
@@ -965,11 +957,9 @@
       <c r="E6" t="n">
         <v>7</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.8433693214731602</v>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H6" t="n">
         <v>0.5916727785823274</v>
@@ -980,13 +970,13 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="b">
@@ -997,34 +987,34 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>[107, 77, 121, 7, 29, 169, 36]</t>
+          <t>[106, 75, 11, 52, 100, 93, 109]</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 1, 0, 1, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>[0.9198511242866516, 0.9164473414421082, 1.0153549909591675, 0.964373767375946, 1.1352434158325195, 1.3090776205062866, 1.209598422050476]</t>
+          <t>[0.28504446148872375, 0.2907591462135315, 0.3098526895046234, 0.4762324094772339, 0.6092221736907959, 0.6391661763191223, 0.6743265986442566]</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>[7, 121, 169, 139, 102, 58, 9]</t>
+          <t>[106, 109, 5, 41, 4, 92, 119]</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>[0.964373767375946, 1.0153549909591675, 1.3090776205062866, 1.624017596244812, 1.7274311780929565, 1.9255344867706299, 1.6671695709228516]</t>
+          <t>[0.28504446148872375, 0.6743265986442566, 0.8478673100471497, 1.0150388479232788, 1.2241731882095337, 1.3018968105316162, 1.6027143001556396]</t>
         </is>
       </c>
       <c r="U6" t="n">
         <v>4</v>
       </c>
       <c r="V6" t="n">
-        <v>0.7526718974113464</v>
+        <v>0.4762323939285542</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1033,7 +1023,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:18.643525</t>
+          <t>2025-10-27T20:44:27.566203</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1034,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
@@ -1055,11 +1045,9 @@
       <c r="E7" t="n">
         <v>7</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.8433693214731602</v>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H7" t="n">
         <v>0.5916727785823274</v>
@@ -1070,13 +1058,13 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="b">
@@ -1087,47 +1075,47 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>[48, 71, 155, 79, 83, 6, 103]</t>
+          <t>[4, 91, 116, 20, 3, 39, 111]</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>[1.0445706844329834, 0.7342439293861389, 1.3509747982025146, 0.9219695329666138, 0.9574594497680664, 1.027353048324585, 0.8839975595474243]</t>
+          <t>[0.3686896860599518, 0.5519679188728333, 0.735078752040863, 0.7528611421585083, 0.8294775485992432, 0.8319898843765259, 0.972034752368927]</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>[102, 139, 143, 9, 7, 121, 168]</t>
+          <t>[4, 32, 5, 106, 80, 109, 41]</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>[1.0150388479232788, 1.0873119831085205, 1.158658742904663, 1.3480218648910522, 1.4703971147537231, 1.486830234527588, 2.204462766647339]</t>
+          <t>[0.3686896860599518, 1.0153549909591675, 1.0848945379257202, 1.1840670108795166, 1.3018968105316162, 1.4751609563827515, 1.486830234527588]</t>
         </is>
       </c>
       <c r="U7" t="n">
         <v>4</v>
       </c>
       <c r="V7" t="n">
-        <v>0.8198584318161011</v>
+        <v>0.7528611773482429</v>
       </c>
       <c r="W7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X7" t="n">
-        <v>0.519579995762217</v>
+        <v>0.5325044568707964</v>
       </c>
       <c r="Y7" t="n">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:18.643525</t>
+          <t>2025-10-27T20:44:27.566203</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1126,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
@@ -1149,11 +1137,9 @@
       <c r="E8" t="n">
         <v>7</v>
       </c>
-      <c r="F8" t="n">
-        <v>0.8433693214731602</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H8" t="n">
         <v>0.5916727785823274</v>
@@ -1167,7 +1153,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L8" t="n">
         <v>0.5916727785823274</v>
@@ -1181,47 +1167,43 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>[97, 139, 17, 71, 132, 119, 79]</t>
+          <t>[80, 75, 100, 11, 93, 90, 56]</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>[0.2907591462135315, 0.28504446148872375, 0.3098526895046234, 0.4762324094772339, 0.6092221736907959, 0.693737268447876, 0.6997390985488892]</t>
+          <t>[0.28504446148872375, 0.36131569743156433, 0.36825448274612427, 0.38687416911125183, 0.5670149326324463, 0.5760982632637024, 0.5833657383918762]</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>[139, 143, 9, 58, 7, 121, 153]</t>
+          <t>[80, 109, 5, 41, 4, 92, 119]</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>[0.28504446148872375, 0.6743265986442566, 0.8478673100471497, 1.0150388479232788, 1.2241731882095337, 1.3018968105316162, 1.6027143001556396]</t>
+          <t>[0.28504446148872375, 0.6349484324455261, 0.7289791107177734, 1.0873119831085205, 1.126319169998169, 1.1840670108795166, 1.4750926494598389]</t>
         </is>
       </c>
       <c r="U8" t="n">
         <v>4</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5251497626304626</v>
+        <v>0.3868741489372836</v>
       </c>
       <c r="W8" t="n">
-        <v>2</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.4461787651244298</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:18.643525</t>
+          <t>2025-10-27T20:44:27.566203</t>
         </is>
       </c>
     </row>
@@ -1232,22 +1214,20 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
       </c>
-      <c r="F9" t="n">
-        <v>0.8433693214731602</v>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H9" t="n">
         <v>0.5916727785823274</v>
@@ -1258,60 +1238,64 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8631205685666311</v>
+        <v>0</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="b">
         <v>1</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>[7, 120, 150, 31, 45, 6, 137]</t>
+          <t>[44, 56, 85, 113, 86, 75, 10]</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 1, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>[0.3686896860599518, 0.5519679188728333, 0.735078752040863, 0.7528611421585083, 1.0153549909591675, 0.8294775485992432, 1.004456877708435]</t>
+          <t>[0.3796297311782837, 0.39794325828552246, 0.4668952524662018, 0.5109684467315674, 0.533180832862854, 0.5471352934837341, 0.5629119277000427]</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>[7, 45, 9, 139, 102, 58, 143]</t>
+          <t>[106, 5, 80, 119, 41, 92, 4]</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>[0.3686896860599518, 1.0153549909591675, 1.0848945379257202, 1.1840670108795166, 1.3018968105316162, 1.486830234527588, 1.4751609563827515]</t>
+          <t>[0.6349484324455261, 0.639224112033844, 0.6743265986442566, 1.1125237941741943, 1.158658742904663, 1.4751609563827515, 1.557084560394287]</t>
         </is>
       </c>
       <c r="U9" t="n">
         <v>4</v>
       </c>
       <c r="V9" t="n">
-        <v>0.7115849256515503</v>
+        <v>0.5109684448973792</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.5843748470046234</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>85</v>
+      </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:18.643525</t>
+          <t>2025-10-27T20:44:27.566203</t>
         </is>
       </c>
     </row>
@@ -1322,7 +1306,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
@@ -1333,11 +1317,9 @@
       <c r="E10" t="n">
         <v>7</v>
       </c>
-      <c r="F10" t="n">
-        <v>0.8433693214731602</v>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H10" t="n">
         <v>0.5916727785823274</v>
@@ -1348,13 +1330,13 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5916727785823274</v>
+        <v>0</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="b">
@@ -1365,47 +1347,47 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>[102, 97, 132, 17, 119, 84, 124]</t>
+          <t>[125, 54, 10, 86, 97, 44, 65]</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>[0.28504446148872375, 0.36131569743156433, 0.36825448274612427, 0.38687416911125183, 0.5760982632637024, 0.6288474202156067, 0.5670149326324463]</t>
+          <t>[0.7418535351753235, 0.8169267773628235, 0.8513126373291016, 0.9142948985099792, 0.9250989556312561, 0.9332956671714783, 0.9378286004066467]</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>[102, 143, 9, 58, 7, 121, 153]</t>
+          <t>[5, 109, 106, 80, 92, 41, 4]</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>[0.28504446148872375, 0.6349484324455261, 0.7289791107177734, 1.0873119831085205, 1.126319169998169, 1.1840670108795166, 1.4750926494598389]</t>
+          <t>[0.9712804555892944, 1.1125237941741943, 1.4750926494598389, 1.6027143001556396, 1.913097858428955, 2.070220708847046, 2.0944221019744873]</t>
         </is>
       </c>
       <c r="U10" t="n">
         <v>4</v>
       </c>
       <c r="V10" t="n">
-        <v>0.4208942651748657</v>
+        <v>0.9142948900894837</v>
       </c>
       <c r="W10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X10" t="n">
-        <v>0.4062626584911118</v>
+        <v>0.5550265646722229</v>
       </c>
       <c r="Y10" t="n">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:18.643525</t>
+          <t>2025-10-27T20:44:27.566203</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1398,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
@@ -1427,11 +1409,9 @@
       <c r="E11" t="n">
         <v>7</v>
       </c>
-      <c r="F11" t="n">
-        <v>0.8433693214731602</v>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H11" t="n">
         <v>0.5916727785823274</v>
@@ -1442,13 +1422,13 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5916727785823274</v>
+        <v>0</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="b">
@@ -1459,47 +1439,47 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>[76, 63, 97, 147, 110, 57, 9]</t>
+          <t>[55, 25, 18, 50, 53, 57, 95]</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>[0.39794325828552246, 0.3796297311782837, 0.5471352934837341, 0.5109684467315674, 0.4668952524662018, 0.5869107246398926, 0.639224112033844]</t>
+          <t>[0.8769850134849548, 0.9809556007385254, 0.998561441898346, 1.1135129928588867, 1.1277869939804077, 1.2100275754928589, 1.2619000673294067]</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>[139, 102, 9, 153, 58, 121, 7]</t>
+          <t>[32, 106, 92, 4, 5, 80, 109]</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>[0.6349484324455261, 0.6743265986442566, 0.639224112033844, 1.1125237941741943, 1.158658742904663, 1.4751609563827515, 1.557084560394287]</t>
+          <t>[1.3090776205062866, 1.981188416481018, 1.9998292922973633, 2.0157172679901123, 2.030216693878174, 2.1122682094573975, 2.1427667140960693]</t>
         </is>
       </c>
       <c r="U11" t="n">
         <v>4</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5561211705207825</v>
+        <v>1.11351302450828</v>
       </c>
       <c r="W11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X11" t="n">
-        <v>0.5219993315565241</v>
+        <v>0.439196572483829</v>
       </c>
       <c r="Y11" t="n">
-        <v>147</v>
+        <v>25</v>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:18.654814</t>
+          <t>2025-10-27T20:44:27.566203</t>
         </is>
       </c>
     </row>
@@ -1510,10 +1490,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>153</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -1521,14 +1501,12 @@
       <c r="E12" t="n">
         <v>7</v>
       </c>
-      <c r="F12" t="n">
-        <v>0.8433693214731602</v>
-      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5916727785823274</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1536,13 +1514,13 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5916727785823274</v>
+        <v>0</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="b">
@@ -1553,47 +1531,43 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>[66, 160, 82, 74, 9, 16, 76]</t>
+          <t>[70, 129, 68, 17, 23, 88, 102]</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 1, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>[1.022521734237671, 0.7418535351753235, 1.0917242765426636, 0.8169267773628235, 0.9712804555892944, 0.8513126373291016, 0.9974803328514099]</t>
+          <t>[0.6938520073890686, 0.7095147371292114, 1.1889803409576416, 1.2714117765426636, 1.3206110000610352, 1.4472988843917847, 1.5296647548675537]</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>[9, 143, 139, 102, 58, 121, 169]</t>
+          <t>[70, 129, 68, 17, 23, 88, 102]</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>[0.9712804555892944, 1.1125237941741943, 1.4750926494598389, 1.6027143001556396, 2.070220708847046, 1.913097858428955, 2.342046022415161]</t>
+          <t>[0.6938520073890686, 0.7095147371292114, 1.1889803409576416, 1.2714117765426636, 1.3206110000610352, 1.4472988843917847, 1.5296647548675537]</t>
         </is>
       </c>
       <c r="U12" t="n">
         <v>4</v>
       </c>
       <c r="V12" t="n">
-        <v>0.8371603488922119</v>
+        <v>1.271411754661674</v>
       </c>
       <c r="W12" t="n">
-        <v>3</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0.4028159645430169</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:18.654814</t>
+          <t>2025-10-27T20:44:27.570710</t>
         </is>
       </c>
     </row>
@@ -1604,10 +1578,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -1615,14 +1589,12 @@
       <c r="E13" t="n">
         <v>7</v>
       </c>
-      <c r="F13" t="n">
-        <v>0.8433693214731602</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5916727785823274</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1630,13 +1602,13 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5916727785823274</v>
+        <v>0</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="b">
@@ -1647,47 +1619,43 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>[4, 15, 106, 118, 27, 13, 89]</t>
+          <t>[82, 112, 94, 128, 96, 114, 17]</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>[1.961000919342041, 2.4762635231018066, 2.548816442489624, 3.9857804775238037, 2.8144288063049316, 2.781341075897217, 3.2413923740386963]</t>
+          <t>[1.1962192058563232, 1.4052584171295166, 1.5090450048446655, 1.5114425420761108, 1.5793581008911133, 1.7265819311141968, 2.42822527885437]</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>[15, 21, 168, 169, 45, 58, 7]</t>
+          <t>[82, 112, 94, 128, 96, 114, 17]</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>[2.4762635231018066, 3.852335214614868, 3.940241575241089, 3.849271774291992, 3.7356345653533936, 4.5531134605407715, 4.46036958694458]</t>
+          <t>[1.1962192058563232, 1.4052584171295166, 1.5090450048446655, 1.5114425420761108, 1.5793581008911133, 1.7265819311141968, 2.42822527885437]</t>
         </is>
       </c>
       <c r="U13" t="n">
         <v>4</v>
       </c>
       <c r="V13" t="n">
-        <v>0.9686715006828308</v>
+        <v>1.511442505829669</v>
       </c>
       <c r="W13" t="n">
-        <v>3</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0.4592547011408165</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:18.654814</t>
+          <t>2025-10-27T20:44:27.570710</t>
         </is>
       </c>
     </row>
@@ -1698,10 +1666,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1709,14 +1677,12 @@
       <c r="E14" t="n">
         <v>7</v>
       </c>
-      <c r="F14" t="n">
-        <v>0.8433693214731602</v>
-      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5916727785823274</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1724,13 +1690,13 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L14" t="n">
-        <v>0.5916727785823274</v>
+        <v>0</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="b">
@@ -1741,47 +1707,47 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>[1, 123, 21, 167, 161, 3, 53]</t>
+          <t>[88, 129, 23, 68, 48, 7, 70]</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>[0.4420248568058014, 0.4420248568058014, 0.7553806304931641, 0.8172926902770996, 1.0266729593276978, 1.2000261545181274, 1.2940304279327393]</t>
+          <t>[0.5247544646263123, 1.026412844657898, 1.0364985466003418, 1.042699933052063, 1.0627883672714233, 1.2714117765426636, 1.5825912952423096]</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>[21, 58, 15, 163, 7, 45, 121]</t>
+          <t>[88, 129, 23, 68, 48, 7, 70]</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>[0.7553806304931641, 2.204462766647339, 2.9099297523498535, 3.940241575241089, 2.5074117183685303, 2.7999069690704346, 2.5194039344787598]</t>
+          <t>[0.5247544646263123, 1.026412844657898, 1.0364985466003418, 1.042699933052063, 1.0627883672714233, 1.2714117765426636, 1.5825912952423096]</t>
         </is>
       </c>
       <c r="U14" t="n">
         <v>4</v>
       </c>
       <c r="V14" t="n">
-        <v>0.3984488546848297</v>
+        <v>1.042699980846424</v>
       </c>
       <c r="W14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X14" t="n">
-        <v>0.5930510614528276</v>
+        <v>0.4341048247374583</v>
       </c>
       <c r="Y14" t="n">
-        <v>167</v>
+        <v>23</v>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:18.654814</t>
+          <t>2025-10-27T20:44:27.570710</t>
         </is>
       </c>
     </row>
@@ -1792,10 +1758,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -1803,14 +1769,12 @@
       <c r="E15" t="n">
         <v>7</v>
       </c>
-      <c r="F15" t="n">
-        <v>0.8433693214731602</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5916727785823274</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1818,13 +1782,13 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0.5714285714285714</v>
       </c>
       <c r="L15" t="n">
-        <v>0.5916727785823274</v>
+        <v>0</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="b">
@@ -1835,47 +1799,47 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>[75, 36, 29, 107, 69, 73, 45]</t>
+          <t>[48, 88, 17, 68, 129, 7, 70]</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>[0.8769850134849548, 0.9809556007385254, 0.998561441898346, 1.3458682298660278, 1.1135129928588867, 1.1277869939804077, 1.3090776205062866]</t>
+          <t>[0.5955532789230347, 0.7853057980537415, 1.0364985466003418, 1.1688058376312256, 1.215668797492981, 1.3206110000610352, 1.6141602993011475]</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>[45, 15, 7, 153, 139, 121, 102]</t>
+          <t>[48, 88, 17, 68, 129, 7, 70]</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>[1.3090776205062866, 2.5544352531433105, 2.0157172679901123, 2.342046022415161, 1.981188416481018, 1.9998292922973633, 2.1122682094573975]</t>
+          <t>[0.5955532789230347, 0.7853057980537415, 1.0364985466003418, 1.1688058376312256, 1.215668797492981, 1.3206110000610352, 1.6141602993011475]</t>
         </is>
       </c>
       <c r="U15" t="n">
         <v>4</v>
       </c>
       <c r="V15" t="n">
-        <v>0.7320764660835266</v>
+        <v>1.1688058321666</v>
       </c>
       <c r="W15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X15" t="n">
-        <v>0.4918497783931735</v>
+        <v>0.5325044568707964</v>
       </c>
       <c r="Y15" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:18.655791</t>
+          <t>2025-10-27T20:44:27.570710</t>
         </is>
       </c>
     </row>
@@ -1886,10 +1850,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -1897,14 +1861,12 @@
       <c r="E16" t="n">
         <v>7</v>
       </c>
-      <c r="F16" t="n">
-        <v>0.7296286327427797</v>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9547012441673464</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1912,13 +1874,13 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5916727785823274</v>
+        <v>0</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="b">
@@ -1929,34 +1891,34 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>[122, 104, 114, 112, 59, 38, 134]</t>
+          <t>[88, 23, 17, 68, 129, 7, 114]</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>[3.548219919204712, 8.691213607788086, 5.758365631103516, 6.487487316131592, 9.90291976928711, 6.694366455078125, 5.858821868896484]</t>
+          <t>[0.5768178105354309, 0.5955532789230347, 1.0627883672714233, 1.151566743850708, 1.4561500549316406, 1.6920398473739624, 1.856772780418396]</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>[104, 94, 118, 156, 81, 87, 60]</t>
+          <t>[88, 23, 17, 68, 129, 7, 114]</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>[8.691213607788086, 7.731835842132568, 8.609739303588867, 8.581768989562988, 8.94638442993164, 9.074629783630371, 9.31938362121582]</t>
+          <t>[0.5768178105354309, 0.5955532789230347, 1.0627883672714233, 1.151566743850708, 1.4561500549316406, 1.6920398473739624, 1.856772780418396]</t>
         </is>
       </c>
       <c r="U16" t="n">
         <v>4</v>
       </c>
       <c r="V16" t="n">
-        <v>0.9896475076675415</v>
+        <v>1.151566835407635</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1965,7 +1927,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:18.688487</t>
+          <t>2025-10-27T20:44:27.570710</t>
         </is>
       </c>
     </row>
@@ -1976,10 +1938,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -1987,14 +1949,12 @@
       <c r="E17" t="n">
         <v>7</v>
       </c>
-      <c r="F17" t="n">
-        <v>0.7296286327427797</v>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9547012441673464</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -2002,13 +1962,13 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5916727785823274</v>
+        <v>0</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="b">
@@ -2019,43 +1979,47 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>[156, 109, 87, 81, 94, 162, 129]</t>
+          <t>[88, 17, 48, 23, 7, 70, 129]</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 0, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>[1.7238720655441284, 2.4434309005737305, 2.300889730453491, 2.6279022693634033, 2.213388204574585, 2.5505406856536865, 3.038969039916992]</t>
+          <t>[0.963847815990448, 1.042699933052063, 1.151566743850708, 1.1688058376312256, 1.1889803409576416, 1.2844855785369873, 1.2921749353408813]</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>[156, 87, 94, 109, 81, 129, 118]</t>
+          <t>[88, 17, 48, 23, 7, 70, 129]</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>[1.7238720655441284, 2.300889730453491, 2.213388204574585, 2.4434309005737305, 2.6279022693634033, 3.038969039916992, 6.031808853149414]</t>
+          <t>[0.963847815990448, 1.042699933052063, 1.151566743850708, 1.1688058376312256, 1.1889803409576416, 1.2844855785369873, 1.2921749353408813]</t>
         </is>
       </c>
       <c r="U17" t="n">
         <v>4</v>
       </c>
       <c r="V17" t="n">
-        <v>0.625898003578186</v>
+        <v>1.1688058321666</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.5939819704323989</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>88</v>
+      </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:18.688487</t>
+          <t>2025-10-27T20:44:27.570710</t>
         </is>
       </c>
     </row>
@@ -2066,10 +2030,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -2077,14 +2041,12 @@
       <c r="E18" t="n">
         <v>7</v>
       </c>
-      <c r="F18" t="n">
-        <v>0.7296286327427797</v>
-      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9547012441673464</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -2092,13 +2054,13 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>0.7142857142857143</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L18" t="n">
-        <v>0.8631205685666311</v>
+        <v>0</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="b">
@@ -2109,43 +2071,47 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>[157, 54, 108, 162, 60, 87, 96]</t>
+          <t>[7, 129, 68, 17, 23, 88, 102]</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 1, 1, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>[1.3550022840499878, 2.110875129699707, 2.9421937465667725, 2.3781371116638184, 2.6279022693634033, 2.9225618839263916, 3.3530654907226562]</t>
+          <t>[0.6938520073890686, 1.2321480512619019, 1.2844855785369873, 1.5825912952423096, 1.6141602993011475, 1.7865649461746216, 1.9720324277877808]</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>[60, 94, 87, 109, 156, 129, 118]</t>
+          <t>[7, 129, 68, 17, 23, 88, 102]</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>[2.6279022693634033, 2.7967379093170166, 2.9225618839263916, 3.6776535511016846, 3.725713014602661, 3.496691942214966, 5.9708662033081055]</t>
+          <t>[0.6938520073890686, 1.2321480512619019, 1.2844855785369873, 1.5825912952423096, 1.6141602993011475, 1.7865649461746216, 1.9720324277877808]</t>
         </is>
       </c>
       <c r="U18" t="n">
         <v>4</v>
       </c>
       <c r="V18" t="n">
-        <v>0.620091438293457</v>
+        <v>1.582591304528517</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.4990353820222541</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>17</v>
+      </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:18.688487</t>
+          <t>2025-10-27T20:44:27.570710</t>
         </is>
       </c>
     </row>
@@ -2156,25 +2122,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
       </c>
-      <c r="F19" t="n">
-        <v>0.7296286327427797</v>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9547012441673464</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -2185,48 +2149,48 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L19" t="n">
         <v>0.8631205685666311</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="b">
         <v>1</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>[109, 60, 94, 81, 19, 156, 62]</t>
+          <t>[17, 88, 131, 114, 115, 112, 129]</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 0, 1, 0]</t>
+          <t>[1, 1, 0, 1, 0, 1, 1]</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>[1.0273101329803467, 2.300889730453491, 2.022925615310669, 2.9225618839263916, 3.8935210704803467, 3.228111982345581, 4.250108242034912]</t>
+          <t>[2.0094025135040283, 2.0699026584625244, 2.1498682498931885, 2.195941925048828, 2.232712984085083, 2.265591859817505, 2.2751543521881104]</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>[109, 94, 60, 81, 156, 129, 118]</t>
+          <t>[17, 88, 114, 112, 129, 48, 68]</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>[1.0273101329803467, 2.022925615310669, 2.300889730453491, 2.9225618839263916, 3.228111982345581, 3.639315605163574, 5.8619890213012695]</t>
+          <t>[2.0094025135040283, 2.0699026584625244, 2.195941925048828, 2.265591859817505, 2.2751543521881104, 2.3073177337646484, 2.3077964782714844]</t>
         </is>
       </c>
       <c r="U19" t="n">
         <v>4</v>
       </c>
       <c r="V19" t="n">
-        <v>0.7060889005661011</v>
+        <v>2.195941782753044</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2235,7 +2199,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:18.688487</t>
+          <t>2025-10-27T20:44:27.578311</t>
         </is>
       </c>
     </row>
@@ -2246,25 +2210,23 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
       </c>
-      <c r="F20" t="n">
-        <v>0.7296286327427797</v>
-      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9547012441673464</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -2272,51 +2234,51 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>0.4285714285714285</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L20" t="n">
-        <v>0.9852281360342515</v>
+        <v>0</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="b">
         <v>1</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>[66, 87, 156, 60, 109, 157, 162]</t>
+          <t>[112, 94, 96, 128, 9, 114, 17]</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>[0, 1, 1, 1, 1, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>[1.2703914642333984, 2.022925615310669, 2.2484099864959717, 2.213388204574585, 2.7271506786346436, 2.191220998764038, 2.463343381881714]</t>
+          <t>[0.5542061924934387, 0.9788116216659546, 1.1553232669830322, 1.1788504123687744, 1.1962192058563232, 1.1968179941177368, 2.1950740814208984]</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>[87, 60, 156, 109, 81, 129, 118]</t>
+          <t>[112, 94, 96, 128, 9, 114, 17]</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>[2.022925615310669, 2.213388204574585, 2.2484099864959717, 2.7271506786346436, 2.7967379093170166, 3.532566547393799, 5.384163856506348]</t>
+          <t>[0.5542061924934387, 0.9788116216659546, 1.1553232669830322, 1.1788504123687744, 1.1962192058563232, 1.1968179941177368, 2.1950740814208984]</t>
         </is>
       </c>
       <c r="U20" t="n">
         <v>4</v>
       </c>
       <c r="V20" t="n">
-        <v>0.580000102519989</v>
+        <v>1.178850402878146</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2325,7 +2287,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:18.688487</t>
+          <t>2025-10-27T20:44:27.578311</t>
         </is>
       </c>
     </row>
@@ -2336,10 +2298,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -2347,14 +2309,12 @@
       <c r="E21" t="n">
         <v>7</v>
       </c>
-      <c r="F21" t="n">
-        <v>0.7296286327427797</v>
-      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9547012441673464</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -2362,13 +2322,13 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L21" t="n">
-        <v>0.5916727785823274</v>
+        <v>0</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="b">
@@ -2379,43 +2339,47 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>[25, 0, 122, 59, 114, 62, 38]</t>
+          <t>[17, 48, 23, 68, 129, 7, 114]</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>[8.691213607788086, 9.207416534423828, 8.894898414611816, 13.830842971801758, 10.461819648742676, 11.372812271118164, 9.74061107635498]</t>
+          <t>[0.5247544646263123, 0.5768178105354309, 0.7853057980537415, 0.963847815990448, 1.1512864828109741, 1.4472988843917847, 1.6623544692993164]</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>[25, 156, 94, 118, 109, 60, 87]</t>
+          <t>[17, 48, 23, 68, 129, 7, 114]</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>[8.691213607788086, 9.828558921813965, 9.933645248413086, 10.808511734008789, 11.14076042175293, 11.009100914001465, 10.901507377624512]</t>
+          <t>[0.5247544646263123, 0.5768178105354309, 0.7853057980537415, 0.963847815990448, 1.1512864828109741, 1.4472988843917847, 1.6623544692993164]</t>
         </is>
       </c>
       <c r="U21" t="n">
         <v>4</v>
       </c>
       <c r="V21" t="n">
-        <v>1.401852250099182</v>
+        <v>0.9638478712737514</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.4195344228012768</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>48</v>
+      </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:18.688487</t>
+          <t>2025-10-27T20:44:27.578311</t>
         </is>
       </c>
     </row>
@@ -2426,10 +2390,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -2437,14 +2401,12 @@
       <c r="E22" t="n">
         <v>7</v>
       </c>
-      <c r="F22" t="n">
-        <v>0.7296286327427797</v>
-      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9547012441673464</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -2452,13 +2414,13 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L22" t="n">
-        <v>0.8631205685666311</v>
+        <v>0</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="b">
@@ -2469,34 +2431,34 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>[87, 60, 19, 156, 94, 62, 81]</t>
+          <t>[128, 114, 96, 82, 112, 9, 88]</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 1, 1, 0, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>[1.0273101329803467, 2.4434309005737305, 3.7905890941619873, 3.322721242904663, 2.7271506786346436, 4.417076587677002, 3.6776535511016846]</t>
+          <t>[0.4555348753929138, 0.5437226295471191, 0.8630491495132446, 0.9788116216659546, 0.9866169691085815, 1.5090450048446655, 1.987839698791504]</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>[87, 60, 94, 156, 81, 129, 118]</t>
+          <t>[128, 114, 96, 82, 112, 9, 88]</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>[1.0273101329803467, 2.4434309005737305, 2.7271506786346436, 3.322721242904663, 3.6776535511016846, 3.9307637214660645, 6.2379069328308105]</t>
+          <t>[0.4555348753929138, 0.5437226295471191, 0.8630491495132446, 0.9788116216659546, 0.9866169691085815, 1.5090450048446655, 1.987839698791504]</t>
         </is>
       </c>
       <c r="U22" t="n">
         <v>4</v>
       </c>
       <c r="V22" t="n">
-        <v>0.7750979661941528</v>
+        <v>0.9788115939125684</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2505,7 +2467,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:18.688487</t>
+          <t>2025-10-27T20:44:27.578311</t>
         </is>
       </c>
     </row>
@@ -2516,10 +2478,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -2527,14 +2489,12 @@
       <c r="E23" t="n">
         <v>7</v>
       </c>
-      <c r="F23" t="n">
-        <v>0.7296286327427797</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9547012441673464</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -2542,13 +2502,13 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L23" t="n">
-        <v>0.5916727785823274</v>
+        <v>0</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="b">
@@ -2559,43 +2519,47 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>[62, 129, 163, 4, 151, 89, 59]</t>
+          <t>[94, 128, 114, 82, 112, 9, 68]</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>[3.9940896034240723, 3.612931966781616, 3.9857804775238037, 3.513723611831665, 3.133359909057617, 3.7720181941986084, 8.738912582397461]</t>
+          <t>[0.8630491495132446, 0.9548653364181519, 1.0304895639419556, 1.1553232669830322, 1.2386415004730225, 1.5793581008911133, 2.136317014694214]</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>[129, 94, 87, 81, 156, 60, 109]</t>
+          <t>[94, 128, 114, 82, 112, 9, 68]</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>[3.612931966781616, 5.384163856506348, 5.8619890213012695, 5.9708662033081055, 6.016942501068115, 6.031808853149414, 6.2379069328308105]</t>
+          <t>[0.8630491495132446, 0.9548653364181519, 1.0304895639419556, 1.1553232669830322, 1.2386415004730225, 1.5793581008911133, 2.136317014694214]</t>
         </is>
       </c>
       <c r="U23" t="n">
         <v>4</v>
       </c>
       <c r="V23" t="n">
-        <v>1.033775687217712</v>
+        <v>1.155323300337733</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.4278987721304084</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>114</v>
+      </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:18.688487</t>
+          <t>2025-10-27T20:44:27.578311</t>
         </is>
       </c>
     </row>
@@ -2606,25 +2570,23 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
       </c>
-      <c r="F24" t="n">
-        <v>0.7296286327427797</v>
-      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9547012441673464</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -2632,60 +2594,64 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>0.4285714285714285</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9852281360342515</v>
+        <v>0</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="b">
         <v>1</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>[62, 60, 118, 54, 89, 81, 109]</t>
+          <t>[129, 7, 17, 70, 88, 68, 23]</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>[0, 1, 1, 0, 0, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>[3.3579466342926025, 3.038969039916992, 3.612931966781616, 3.0922813415527344, 2.8238894939422607, 3.496691942214966, 3.9307637214660645]</t>
+          <t>[1.225460410118103, 1.5296647548675537, 1.7913583517074585, 1.9720324277877808, 2.007189989089966, 2.0494744777679443, 2.268449068069458]</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>[60, 81, 118, 87, 156, 94, 109]</t>
+          <t>[129, 7, 17, 70, 88, 68, 23]</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>[3.038969039916992, 3.496691942214966, 3.612931966781616, 3.639315605163574, 3.699251413345337, 3.532566547393799, 3.9307637214660645]</t>
+          <t>[1.225460410118103, 1.5296647548675537, 1.7913583517074585, 1.9720324277877808, 2.007189989089966, 2.0494744777679443, 2.268449068069458]</t>
         </is>
       </c>
       <c r="U24" t="n">
         <v>4</v>
       </c>
       <c r="V24" t="n">
-        <v>0.9430229663848877</v>
+        <v>1.972032394907995</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.5616794696232922</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>7</v>
+      </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:18.688487</t>
+          <t>2025-10-27T20:44:27.578311</t>
         </is>
       </c>
     </row>
@@ -2696,25 +2662,23 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
       </c>
-      <c r="F25" t="n">
-        <v>0.7296286327427797</v>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9547012441673464</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -2722,51 +2686,51 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>0.4285714285714285</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L25" t="n">
-        <v>0.9852281360342515</v>
+        <v>0</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="b">
         <v>1</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>[60, 94, 0, 109, 162, 87, 98]</t>
+          <t>[82, 94, 114, 128, 96, 9, 88]</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 1, 0, 1, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>[1.7238720655441284, 2.2484099864959717, 3.682757616043091, 3.322721242904663, 2.8477210998535156, 3.228111982345581, 3.136768102645874]</t>
+          <t>[0.5542061924934387, 0.9866169691085815, 1.0372637510299683, 1.1374363899230957, 1.2386415004730225, 1.4052584171295166, 2.102363109588623]</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>[60, 94, 109, 87, 81, 129, 118]</t>
+          <t>[82, 94, 114, 128, 96, 9, 88]</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>[1.7238720655441284, 2.2484099864959717, 3.322721242904663, 3.228111982345581, 3.725713014602661, 3.699251413345337, 6.016942501068115]</t>
+          <t>[0.5542061924934387, 0.9866169691085815, 1.0372637510299683, 1.1374363899230957, 1.2386415004730225, 1.4052584171295166, 2.102363109588623]</t>
         </is>
       </c>
       <c r="U25" t="n">
         <v>4</v>
       </c>
       <c r="V25" t="n">
-        <v>0.7318229079246521</v>
+        <v>1.137436331279849</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2775,7 +2739,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:18.688487</t>
+          <t>2025-10-27T20:44:27.578311</t>
         </is>
       </c>
     </row>
@@ -2786,7 +2750,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="C26" t="n">
         <v>7</v>
@@ -2797,11 +2761,9 @@
       <c r="E26" t="n">
         <v>7</v>
       </c>
-      <c r="F26" t="n">
-        <v>0.8211710098739295</v>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2812,10 +2774,10 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2829,47 +2791,47 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>[156, 109, 60, 104, 87, 23, 19]</t>
+          <t>[128, 94, 96, 112, 82, 88, 9]</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>[3.682757616043091, 5.021600246429443, 4.706303119659424, 9.207416534423828, 5.405718803405762, 8.388983726501465, 7.5876994132995605]</t>
+          <t>[0.49568384885787964, 0.5437226295471191, 1.0304895639419556, 1.0372637510299683, 1.1968179941177368, 1.6623544692993164, 1.7265819311141968]</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>[8, 122, 38, 114, 98, 112, 14]</t>
+          <t>[128, 94, 96, 112, 82, 88, 9]</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>[6.087997913360596, 7.964256763458252, 8.471141815185547, 7.782583713531494, 5.954493045806885, 9.602742195129395, 6.843430519104004]</t>
+          <t>[0.49568384885787964, 0.5437226295471191, 1.0304895639419556, 1.0372637510299683, 1.1968179941177368, 1.6623544692993164, 1.7265819311141968]</t>
         </is>
       </c>
       <c r="U26" t="n">
         <v>4</v>
       </c>
       <c r="V26" t="n">
-        <v>1.152107954025269</v>
+        <v>1.03726373057251</v>
       </c>
       <c r="W26" t="n">
         <v>1</v>
       </c>
       <c r="X26" t="n">
-        <v>0.4608484485919075</v>
+        <v>0.5570351922786028</v>
       </c>
       <c r="Y26" t="n">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:18.753063</t>
+          <t>2025-10-27T20:44:27.578311</t>
         </is>
       </c>
     </row>
@@ -2880,7 +2842,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="C27" t="n">
         <v>7</v>
@@ -2891,11 +2853,9 @@
       <c r="E27" t="n">
         <v>7</v>
       </c>
-      <c r="F27" t="n">
-        <v>0.8211710098739295</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2906,10 +2866,10 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2923,47 +2883,47 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>[46, 53, 3, 32, 130, 155, 142]</t>
+          <t>[94, 114, 96, 112, 82, 9, 88]</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>[0.8132038116455078, 1.586868405342102, 1.5875941514968872, 1.4857956171035767, 1.6002230644226074, 1.9224257469177246, 1.6309336423873901]</t>
+          <t>[0.4555348753929138, 0.49568384885787964, 0.9548653364181519, 1.1374363899230957, 1.1788504123687744, 1.5114425420761108, 2.0850367546081543]</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>[38, 98, 0, 112, 122, 14, 114]</t>
+          <t>[94, 114, 96, 112, 82, 9, 88]</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>[3.809053421020508, 3.489682912826538, 6.087997913360596, 5.247391700744629, 5.183218955993652, 4.85034704208374, 7.00767183303833]</t>
+          <t>[0.4555348753929138, 0.49568384885787964, 0.9548653364181519, 1.1374363899230957, 1.1788504123687744, 1.5114425420761108, 2.0850367546081543]</t>
         </is>
       </c>
       <c r="U27" t="n">
         <v>4</v>
       </c>
       <c r="V27" t="n">
-        <v>0.5981482863426208</v>
+        <v>1.137436331279849</v>
       </c>
       <c r="W27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X27" t="n">
-        <v>0.4850311748982489</v>
+        <v>0.5818640804157564</v>
       </c>
       <c r="Y27" t="n">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:18.753063</t>
+          <t>2025-10-27T20:44:27.578311</t>
         </is>
       </c>
     </row>
@@ -2974,7 +2934,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="C28" t="n">
         <v>7</v>
@@ -2985,11 +2945,9 @@
       <c r="E28" t="n">
         <v>7</v>
       </c>
-      <c r="F28" t="n">
-        <v>0.8211710098739295</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -3003,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -3017,7 +2975,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>[92, 166, 28, 134, 34, 88, 116]</t>
+          <t>[7, 17, 88, 23, 102, 70, 68]</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -3027,1890 +2985,42 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>[0.6938520073890686, 0.7095147371292114, 1.2714117765426636, 1.5296647548675537, 1.3206110000610352, 1.1889803409576416, 1.4472988843917847]</t>
+          <t>[0.7095147371292114, 1.026412844657898, 1.1512864828109741, 1.215668797492981, 1.225460410118103, 1.2321480512619019, 1.2921749353408813]</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>[92, 166, 28, 134, 34, 88, 116]</t>
+          <t>[7, 17, 88, 23, 102, 70, 68]</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>[0.6938520073890686, 0.7095147371292114, 1.2714117765426636, 1.5296647548675537, 1.3206110000610352, 1.1889803409576416, 1.4472988843917847]</t>
+          <t>[0.7095147371292114, 1.026412844657898, 1.1512864828109741, 1.215668797492981, 1.225460410118103, 1.2321480512619019, 1.2921749353408813]</t>
         </is>
       </c>
       <c r="U28" t="n">
         <v>4</v>
       </c>
       <c r="V28" t="n">
-        <v>0.8211709856987</v>
+        <v>1.21566882399522</v>
       </c>
       <c r="W28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X28" t="n">
-        <v>0.5719880813472641</v>
+        <v>0.4092900825439996</v>
       </c>
       <c r="Y28" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:18.754309</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>14</v>
-      </c>
-      <c r="C29" t="n">
-        <v>7</v>
-      </c>
-      <c r="D29" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" t="n">
-        <v>7</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.8211710098739295</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="b">
-        <v>1</v>
-      </c>
-      <c r="O29" t="b">
-        <v>1</v>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>[105, 146, 165, 125, 127, 148, 98]</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>[1.1962192058563232, 1.4052584171295166, 1.5114425420761108, 1.5090450048446655, 1.5793581008911133, 1.7265819311141968, 2.7678287029266357]</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>[105, 146, 165, 125, 127, 148, 98]</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>[1.1962192058563232, 1.4052584171295166, 1.5114425420761108, 1.5090450048446655, 1.5793581008911133, 1.7265819311141968, 2.7678287029266357]</t>
-        </is>
-      </c>
-      <c r="U29" t="n">
-        <v>4</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0.686858057975769</v>
-      </c>
-      <c r="W29" t="n">
-        <v>2</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0.4364472175576125</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>125</v>
-      </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:18.755313</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>28</v>
-      </c>
-      <c r="C30" t="n">
-        <v>7</v>
-      </c>
-      <c r="D30" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" t="n">
-        <v>7</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.8211710098739295</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="b">
-        <v>1</v>
-      </c>
-      <c r="O30" t="b">
-        <v>1</v>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>[116, 67, 34, 166, 88, 12, 92]</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>[0.5247544646263123, 1.0627883672714233, 1.0364985466003418, 1.026412844657898, 1.042699933052063, 1.2714117765426636, 1.5825912952423096]</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>[116, 67, 34, 166, 88, 12, 92]</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>[0.5247544646263123, 1.0627883672714233, 1.0364985466003418, 1.026412844657898, 1.042699933052063, 1.2714117765426636, 1.5825912952423096]</t>
-        </is>
-      </c>
-      <c r="U30" t="n">
-        <v>4</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0.7177563309669495</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:18.755313</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>34</v>
-      </c>
-      <c r="C31" t="n">
-        <v>7</v>
-      </c>
-      <c r="D31" t="b">
-        <v>1</v>
-      </c>
-      <c r="E31" t="n">
-        <v>7</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.8211710098739295</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="b">
-        <v>1</v>
-      </c>
-      <c r="O31" t="b">
-        <v>1</v>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>[67, 116, 28, 88, 12, 166, 92]</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>[0.5955532789230347, 0.7853057980537415, 1.0364985466003418, 1.1688058376312256, 1.3206110000610352, 1.215668797492981, 1.6141602993011475]</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>[67, 116, 28, 88, 12, 166, 92]</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>[0.5955532789230347, 0.7853057980537415, 1.0364985466003418, 1.1688058376312256, 1.3206110000610352, 1.215668797492981, 1.6141602993011475]</t>
-        </is>
-      </c>
-      <c r="U31" t="n">
-        <v>4</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0.8092978596687317</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0.4001557531682029</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>88</v>
-      </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:18.755313</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>38</v>
-      </c>
-      <c r="C32" t="n">
-        <v>7</v>
-      </c>
-      <c r="D32" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>7</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.8211710098739295</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J32" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.8631205685666311</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="b">
-        <v>0</v>
-      </c>
-      <c r="O32" t="b">
-        <v>1</v>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>[112, 72, 51, 122, 56, 157, 81]</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>[1, 0, 0, 1, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>[4.054708003997803, 2.8743762969970703, 3.549809217453003, 4.931705474853516, 3.940061569213867, 3.491143226623535, 4.050656318664551]</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>[8, 112, 122, 98, 0, 134, 14]</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>[3.809053421020508, 4.054708003997803, 4.931705474853516, 4.90034294128418, 8.471141815185547, 5.014385223388672, 5.741334438323975]</t>
-        </is>
-      </c>
-      <c r="U32" t="n">
-        <v>4</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.030341029167175</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:18.756311</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>67</v>
-      </c>
-      <c r="C33" t="n">
-        <v>7</v>
-      </c>
-      <c r="D33" t="b">
-        <v>1</v>
-      </c>
-      <c r="E33" t="n">
-        <v>7</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.8211710098739295</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="b">
-        <v>1</v>
-      </c>
-      <c r="O33" t="b">
-        <v>1</v>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>[116, 34, 28, 88, 166, 12, 148]</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>[0.5768178105354309, 0.5955532789230347, 1.0627883672714233, 1.151566743850708, 1.4561500549316406, 1.6920398473739624, 1.856772780418396]</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>[116, 34, 28, 88, 166, 12, 148]</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>[0.5768178105354309, 0.5955532789230347, 1.0627883672714233, 1.151566743850708, 1.4561500549316406, 1.6920398473739624, 1.856772780418396]</t>
-        </is>
-      </c>
-      <c r="U33" t="n">
-        <v>4</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0.7434453964233398</v>
-      </c>
-      <c r="W33" t="n">
-        <v>3</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0.5219993315565241</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>88</v>
-      </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:18.756311</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>88</v>
-      </c>
-      <c r="C34" t="n">
-        <v>7</v>
-      </c>
-      <c r="D34" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34" t="n">
-        <v>7</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.8211710098739295</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="b">
-        <v>1</v>
-      </c>
-      <c r="O34" t="b">
-        <v>1</v>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>[116, 28, 67, 92, 34, 12, 166]</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>[0.963847815990448, 1.042699933052063, 1.151566743850708, 1.2844855785369873, 1.1688058376312256, 1.1889803409576416, 1.2921749353408813]</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>[116, 28, 67, 92, 34, 12, 166]</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>[0.963847815990448, 1.042699933052063, 1.151566743850708, 1.2844855785369873, 1.1688058376312256, 1.1889803409576416, 1.2921749353408813]</t>
-        </is>
-      </c>
-      <c r="U34" t="n">
-        <v>4</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0.8046584129333496</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0.5689067697356303</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>116</v>
-      </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:18.756311</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>92</v>
-      </c>
-      <c r="C35" t="n">
-        <v>7</v>
-      </c>
-      <c r="D35" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" t="n">
-        <v>7</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.8211710098739295</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="b">
-        <v>1</v>
-      </c>
-      <c r="O35" t="b">
-        <v>1</v>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>[12, 166, 88, 28, 34, 134, 116]</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>[0.6938520073890686, 1.2321480512619019, 1.2844855785369873, 1.5825912952423096, 1.6141602993011475, 1.9720324277877808, 1.7865649461746216]</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>[12, 166, 88, 28, 34, 134, 116]</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>[0.6938520073890686, 1.2321480512619019, 1.2844855785369873, 1.5825912952423096, 1.6141602993011475, 1.9720324277877808, 1.7865649461746216]</t>
-        </is>
-      </c>
-      <c r="U35" t="n">
-        <v>4</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0.8958336114883423</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0.4130103185970559</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:18.756311</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>98</v>
-      </c>
-      <c r="C36" t="n">
-        <v>7</v>
-      </c>
-      <c r="D36" t="b">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>7</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.8211710098739295</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J36" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.8631205685666311</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="b">
-        <v>0</v>
-      </c>
-      <c r="O36" t="b">
-        <v>1</v>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>[146, 28, 105, 116, 170, 148, 51]</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 0, 1, 0]</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>[2.265591859817505, 2.0094025135040283, 2.374429702758789, 2.0699026584625244, 2.1498682498931885, 2.195941925048828, 2.633648633956909]</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>[146, 8, 28, 105, 116, 148, 165]</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>[2.265591859817505, 3.489682912826538, 2.0094025135040283, 2.374429702758789, 2.0699026584625244, 2.195941925048828, 2.442943572998047]</t>
-        </is>
-      </c>
-      <c r="U36" t="n">
-        <v>4</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.056791543960571</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:18.757312</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>105</v>
-      </c>
-      <c r="C37" t="n">
-        <v>7</v>
-      </c>
-      <c r="D37" t="b">
-        <v>1</v>
-      </c>
-      <c r="E37" t="n">
-        <v>7</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.8211710098739295</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="b">
-        <v>1</v>
-      </c>
-      <c r="O37" t="b">
-        <v>1</v>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>[146, 125, 14, 127, 165, 148, 134]</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>[0.5542061924934387, 0.9788116216659546, 1.1962192058563232, 1.1553232669830322, 1.1788504123687744, 1.1968179941177368, 2.302386522293091]</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>[146, 125, 14, 127, 165, 148, 134]</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>[0.5542061924934387, 0.9788116216659546, 1.1962192058563232, 1.1553232669830322, 1.1788504123687744, 1.1968179941177368, 2.302386522293091]</t>
-        </is>
-      </c>
-      <c r="U37" t="n">
-        <v>4</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0.5335143208503723</v>
-      </c>
-      <c r="W37" t="n">
-        <v>3</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0.5789654700855298</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>125</v>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:18.757312</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>112</v>
-      </c>
-      <c r="C38" t="n">
-        <v>7</v>
-      </c>
-      <c r="D38" t="b">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>7</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.8211710098739295</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J38" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.9852281360342515</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="b">
-        <v>0</v>
-      </c>
-      <c r="O38" t="b">
-        <v>1</v>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>[122, 38, 25, 114, 59, 56, 165]</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>[1, 1, 0, 1, 0, 0, 1]</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>[4.337198257446289, 4.054708003997803, 6.487487316131592, 5.44020938873291, 8.82075309753418, 5.109254360198975, 4.3913702964782715]</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>[38, 122, 8, 114, 165, 14, 127]</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>[4.054708003997803, 4.337198257446289, 5.247391700744629, 5.44020938873291, 4.3913702964782715, 4.788558006286621, 4.678295612335205]</t>
-        </is>
-      </c>
-      <c r="U38" t="n">
-        <v>4</v>
-      </c>
-      <c r="V38" t="n">
-        <v>1.229597210884094</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:18.757312</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>114</v>
-      </c>
-      <c r="C39" t="n">
-        <v>7</v>
-      </c>
-      <c r="D39" t="b">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>7</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.8211710098739295</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J39" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.5916727785823274</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="b">
-        <v>0</v>
-      </c>
-      <c r="O39" t="b">
-        <v>1</v>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>[122, 25, 14, 105, 112, 127, 165]</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>[1, 0, 1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>[4.087904453277588, 5.758365631103516, 3.762176036834717, 3.718254804611206, 5.44020938873291, 3.840088129043579, 3.842573881149292]</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>[122, 14, 112, 105, 127, 165, 125]</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>[4.087904453277588, 3.762176036834717, 5.44020938873291, 3.718254804611206, 3.840088129043579, 3.842573881149292, 3.7610156536102295]</t>
-        </is>
-      </c>
-      <c r="U39" t="n">
-        <v>4</v>
-      </c>
-      <c r="V39" t="n">
-        <v>1.24126410484314</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:18.757312</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>116</v>
-      </c>
-      <c r="C40" t="n">
-        <v>7</v>
-      </c>
-      <c r="D40" t="b">
-        <v>1</v>
-      </c>
-      <c r="E40" t="n">
-        <v>7</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.8211710098739295</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="b">
-        <v>1</v>
-      </c>
-      <c r="O40" t="b">
-        <v>1</v>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>[28, 67, 34, 88, 166, 12, 148]</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>[0.5247544646263123, 0.5768178105354309, 0.7853057980537415, 0.963847815990448, 1.1512864828109741, 1.4472988843917847, 1.6623544692993164]</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>[28, 67, 34, 88, 166, 12, 148]</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>[0.5247544646263123, 0.5768178105354309, 0.7853057980537415, 0.963847815990448, 1.1512864828109741, 1.4472988843917847, 1.6623544692993164]</t>
-        </is>
-      </c>
-      <c r="U40" t="n">
-        <v>4</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0.6576366424560547</v>
-      </c>
-      <c r="W40" t="n">
-        <v>2</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0.4918497783931735</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:18.757312</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>122</v>
-      </c>
-      <c r="C41" t="n">
-        <v>7</v>
-      </c>
-      <c r="D41" t="b">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>7</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.8211710098739295</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J41" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.8631205685666311</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="b">
-        <v>0</v>
-      </c>
-      <c r="O41" t="b">
-        <v>1</v>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>[25, 112, 114, 38, 104, 98, 14]</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>[0, 1, 1, 1, 0, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>[3.548219919204712, 4.337198257446289, 4.087904453277588, 4.931705474853516, 8.894898414611816, 4.53907585144043, 4.718254566192627]</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>[112, 114, 38, 8, 98, 14, 127]</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>[4.337198257446289, 4.087904453277588, 4.931705474853516, 5.183218955993652, 4.53907585144043, 4.718254566192627, 4.522115707397461]</t>
-        </is>
-      </c>
-      <c r="U41" t="n">
-        <v>4</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.227683782577515</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:18.758310</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>125</v>
-      </c>
-      <c r="C42" t="n">
-        <v>7</v>
-      </c>
-      <c r="D42" t="b">
-        <v>1</v>
-      </c>
-      <c r="E42" t="n">
-        <v>7</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.8211710098739295</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="b">
-        <v>1</v>
-      </c>
-      <c r="O42" t="b">
-        <v>1</v>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>[165, 148, 127, 105, 146, 14, 116]</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>[0.4555348753929138, 0.5437226295471191, 0.8630491495132446, 0.9788116216659546, 0.9866169691085815, 1.5090450048446655, 1.987839698791504]</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>[165, 148, 127, 105, 146, 14, 116]</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>[0.4555348753929138, 0.5437226295471191, 0.8630491495132446, 0.9788116216659546, 0.9866169691085815, 1.5090450048446655, 1.987839698791504]</t>
-        </is>
-      </c>
-      <c r="U42" t="n">
-        <v>4</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0.4685800969600677</v>
-      </c>
-      <c r="W42" t="n">
-        <v>1</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0.4046124850082832</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>127</v>
-      </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:18.758310</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>127</v>
-      </c>
-      <c r="C43" t="n">
-        <v>7</v>
-      </c>
-      <c r="D43" t="b">
-        <v>1</v>
-      </c>
-      <c r="E43" t="n">
-        <v>7</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.8211710098739295</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="b">
-        <v>1</v>
-      </c>
-      <c r="O43" t="b">
-        <v>1</v>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>[125, 165, 105, 148, 146, 14, 134]</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>[0.8630491495132446, 0.9548653364181519, 1.1553232669830322, 1.0304895639419556, 1.2386415004730225, 1.5793581008911133, 2.4712913036346436]</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>[125, 165, 105, 148, 146, 14, 134]</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>[0.8630491495132446, 0.9548653364181519, 1.1553232669830322, 1.0304895639419556, 1.2386415004730225, 1.5793581008911133, 2.4712913036346436]</t>
-        </is>
-      </c>
-      <c r="U43" t="n">
-        <v>4</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0.5365585684776306</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:18.758310</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>134</v>
-      </c>
-      <c r="C44" t="n">
-        <v>7</v>
-      </c>
-      <c r="D44" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44" t="n">
-        <v>7</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.8211710098739295</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="b">
-        <v>1</v>
-      </c>
-      <c r="O44" t="b">
-        <v>1</v>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>[166, 12, 92, 28, 105, 116, 127]</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>[1.225460410118103, 1.5296647548675537, 1.9720324277877808, 1.7913583517074585, 2.302386522293091, 2.007189989089966, 2.4712913036346436]</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>[166, 12, 92, 28, 105, 116, 127]</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>[1.225460410118103, 1.5296647548675537, 1.9720324277877808, 1.7913583517074585, 2.302386522293091, 2.007189989089966, 2.4712913036346436]</t>
-        </is>
-      </c>
-      <c r="U44" t="n">
-        <v>4</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0.9454391002655029</v>
-      </c>
-      <c r="W44" t="n">
-        <v>1</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0.5616794696232922</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>166</v>
-      </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:18.758310</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>146</v>
-      </c>
-      <c r="C45" t="n">
-        <v>7</v>
-      </c>
-      <c r="D45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E45" t="n">
-        <v>7</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.8211710098739295</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="b">
-        <v>1</v>
-      </c>
-      <c r="O45" t="b">
-        <v>1</v>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>[105, 125, 165, 148, 127, 14, 98]</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>[0.5542061924934387, 0.9866169691085815, 1.1374363899230957, 1.0372637510299683, 1.2386415004730225, 1.4052584171295166, 2.265591859817505]</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>[105, 125, 165, 148, 127, 14, 98]</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>[0.5542061924934387, 0.9866169691085815, 1.1374363899230957, 1.0372637510299683, 1.2386415004730225, 1.4052584171295166, 2.265591859817505]</t>
-        </is>
-      </c>
-      <c r="U45" t="n">
-        <v>4</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0.5444296002388</v>
-      </c>
-      <c r="W45" t="n">
-        <v>2</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0.4346729307015544</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>105</v>
-      </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:18.758310</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>148</v>
-      </c>
-      <c r="C46" t="n">
-        <v>7</v>
-      </c>
-      <c r="D46" t="b">
-        <v>1</v>
-      </c>
-      <c r="E46" t="n">
-        <v>7</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.8211710098739295</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="b">
-        <v>1</v>
-      </c>
-      <c r="O46" t="b">
-        <v>1</v>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>[165, 125, 127, 146, 105, 14, 116]</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>[0.49568384885787964, 0.5437226295471191, 1.0304895639419556, 1.0372637510299683, 1.1968179941177368, 1.7265819311141968, 1.6623544692993164]</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>[165, 125, 127, 146, 105, 14, 116]</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>[0.49568384885787964, 0.5437226295471191, 1.0304895639419556, 1.0372637510299683, 1.1968179941177368, 1.7265819311141968, 1.6623544692993164]</t>
-        </is>
-      </c>
-      <c r="U46" t="n">
-        <v>4</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0.5444296002388</v>
-      </c>
-      <c r="W46" t="n">
-        <v>2</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0.4653081537611671</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>125</v>
-      </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:18.759311</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>165</v>
-      </c>
-      <c r="C47" t="n">
-        <v>7</v>
-      </c>
-      <c r="D47" t="b">
-        <v>1</v>
-      </c>
-      <c r="E47" t="n">
-        <v>7</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.8211710098739295</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="b">
-        <v>1</v>
-      </c>
-      <c r="O47" t="b">
-        <v>1</v>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>[125, 148, 127, 146, 105, 14, 116]</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>[0.4555348753929138, 0.49568384885787964, 0.9548653364181519, 1.1374363899230957, 1.1788504123687744, 1.5114425420761108, 2.0850367546081543]</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>[125, 148, 127, 146, 105, 14, 98]</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>[0.4555348753929138, 0.49568384885787964, 0.9548653364181519, 1.1374363899230957, 1.1788504123687744, 1.5114425420761108, 2.442943572998047]</t>
-        </is>
-      </c>
-      <c r="U47" t="n">
-        <v>4</v>
-      </c>
-      <c r="V47" t="n">
-        <v>0.5432708263397217</v>
-      </c>
-      <c r="W47" t="n">
-        <v>0</v>
-      </c>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:18.759311</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>166</v>
-      </c>
-      <c r="C48" t="n">
-        <v>7</v>
-      </c>
-      <c r="D48" t="b">
-        <v>1</v>
-      </c>
-      <c r="E48" t="n">
-        <v>7</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.8211710098739295</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="b">
-        <v>1</v>
-      </c>
-      <c r="O48" t="b">
-        <v>1</v>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>[12, 134, 28, 92, 116, 34, 67]</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>[0.7095147371292114, 1.225460410118103, 1.026412844657898, 1.2321480512619019, 1.1512864828109741, 1.215668797492981, 1.4561500549316406]</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>[12, 134, 28, 92, 116, 34, 67]</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>[0.7095147371292114, 1.225460410118103, 1.026412844657898, 1.2321480512619019, 1.1512864828109741, 1.215668797492981, 1.4561500549316406]</t>
-        </is>
-      </c>
-      <c r="U48" t="n">
-        <v>4</v>
-      </c>
-      <c r="V48" t="n">
-        <v>0.7718718647956848</v>
-      </c>
-      <c r="W48" t="n">
-        <v>1</v>
-      </c>
-      <c r="X48" t="n">
-        <v>0.5550265646722229</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>134</v>
-      </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:18.759311</t>
+          <t>2025-10-27T20:44:27.578311</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:Z48">
+  <conditionalFormatting sqref="A2:Z28">
     <cfRule type="expression" priority="1" dxfId="0">
       <formula>=$D2=FALSE</formula>
     </cfRule>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D25_R50_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D25_R50_Pentropia.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z28"/>
+  <dimension ref="A1:Z69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,10 +582,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -595,10 +595,10 @@
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="b">
@@ -623,47 +623,43 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[92, 91, 116, 3, 20, 64, 90]</t>
+          <t>[71, 95, 22, 62, 36, 43, 18]</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 1, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[0.3686896860599518, 0.5712586641311646, 0.7188007235527039, 0.8161059021949768, 0.8208655714988708, 0.8525661826133728, 0.9072226285934448]</t>
+          <t>[0.5071632266044617, 0.5966512560844421, 0.7205927968025208, 0.9433731436729431, 0.9480506777763367, 1.0509742498397827, 1.0542911291122437]</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>[92, 32, 106, 5, 80, 41, 109]</t>
+          <t>[71, 95, 62, 36, 43, 110, 53]</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3686896860599518, 0.964373767375946, 1.126319169998169, 1.2196450233459473, 1.2241731882095337, 1.4703971147537231, 1.557084560394287]</t>
+          <t>[0.5071632266044617, 0.5966512560844421, 0.9433731436729431, 0.9480506777763367, 1.0509742498397827, 1.0991559028625488, 1.2639700174331665]</t>
         </is>
       </c>
       <c r="U2" t="n">
         <v>4</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8161059335608314</v>
+        <v>0.9433731505046881</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.4650660661526529</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:27.566203</t>
+          <t>2025-10-29T23:39:10.503351</t>
         </is>
       </c>
     </row>
@@ -674,10 +670,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -687,24 +683,24 @@
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
         <v>0.4285714285714285</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.5916727785823274</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
       <c r="K3" t="n">
         <v>0.5714285714285714</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="b">
@@ -715,47 +711,47 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[56, 10, 54, 26, 86, 44, 39]</t>
+          <t>[8, 15, 21, 79, 124, 36, 16]</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 1, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[0.29108816385269165, 0.3007749617099762, 0.5765426754951477, 0.5837634801864624, 0.60104900598526, 0.6279987692832947, 0.6349945664405823]</t>
+          <t>[0.12940865755081177, 0.22869402170181274, 1.2403351068496704, 1.4069324731826782, 1.5652273893356323, 1.5693738460540771, 1.850163459777832]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>[109, 106, 80, 119, 92, 4, 41]</t>
+          <t>[8, 15, 21, 36, 43, 110, 0]</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[0.639224112033844, 0.7289791107177734, 0.8478673100471497, 0.9712804555892944, 1.0848945379257202, 1.2196450233459473, 1.3480218648910522]</t>
+          <t>[0.12940865755081177, 0.22869402170181274, 1.2403351068496704, 1.5693738460540771, 2.1458137035369873, 2.154749870300293, 2.1779072284698486]</t>
         </is>
       </c>
       <c r="U3" t="n">
         <v>4</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5837635074955616</v>
+        <v>1.406932480354322</v>
       </c>
       <c r="W3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X3" t="n">
-        <v>0.5789654700855298</v>
+        <v>0.5664885281600843</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:27.566203</t>
+          <t>2025-10-29T23:39:10.503351</t>
         </is>
       </c>
     </row>
@@ -766,75 +762,75 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
         <v>0.4285714285714285</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.5916727785823274</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>0.7142857142857143</v>
-      </c>
       <c r="K4" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="b">
         <v>1</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[57, 83, 4, 92, 18, 91, 25]</t>
+          <t>[6, 15, 21, 79, 124, 36, 16]</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 1, 0, 0, 0]</t>
+          <t>[1, 1, 1, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[0.9164473414421082, 0.9198511242866516, 0.964373767375946, 1.0153549909591675, 1.1352434158325195, 1.147658109664917, 1.209598422050476]</t>
+          <t>[0.12940865755081177, 0.1698651760816574, 1.204719066619873, 1.415239691734314, 1.5662968158721924, 1.61668062210083, 1.8246427774429321]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>[4, 92, 130, 106, 5, 80, 41]</t>
+          <t>[6, 15, 21, 36, 110, 43, 0]</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>[0.964373767375946, 1.0153549909591675, 1.3090776205062866, 1.624017596244812, 1.6671695709228516, 1.7274311780929565, 1.9255344867706299]</t>
+          <t>[0.12940865755081177, 0.1698651760816574, 1.204719066619873, 1.61668062210083, 2.1947927474975586, 2.2005279064178467, 2.239325761795044]</t>
         </is>
       </c>
       <c r="U4" t="n">
         <v>4</v>
       </c>
       <c r="V4" t="n">
-        <v>1.015355025260908</v>
+        <v>1.415239633719637</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -843,7 +839,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:27.566203</t>
+          <t>2025-10-29T23:39:10.504351</t>
         </is>
       </c>
     </row>
@@ -854,10 +850,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -867,10 +863,10 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -878,13 +874,13 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K5" t="n">
         <v>0.5714285714285714</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="b">
@@ -895,47 +891,43 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[52, 81, 59, 63, 69, 80, 93]</t>
+          <t>[5, 54, 86, 56, 44, 89, 85]</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 1, 0]</t>
+          <t>[0, 1, 1, 0, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[0.7342439293861389, 0.8839975595474243, 0.9219695329666138, 0.9574594497680664, 0.9910978078842163, 1.0150388479232788, 1.0183871984481812]</t>
+          <t>[0.3007749617099762, 0.30740076303482056, 0.31928902864456177, 0.32229676842689514, 0.41656363010406494, 0.4304656386375427, 0.44089385867118835]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>[80, 106, 109, 5, 4, 92, 32]</t>
+          <t>[54, 86, 44, 89, 85, 49, 65]</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>[1.0150388479232788, 1.0873119831085205, 1.158658742904663, 1.3480218648910522, 1.4703971147537231, 1.486830234527588, 1.9255344867706299]</t>
+          <t>[0.30740076303482056, 0.31928902864456177, 0.41656363010406494, 0.4304656386375427, 0.44089385867118835, 0.5136011242866516, 0.5309708714485168]</t>
         </is>
       </c>
       <c r="U5" t="n">
         <v>4</v>
       </c>
       <c r="V5" t="n">
-        <v>0.9574594562897335</v>
+        <v>0.3222967493284813</v>
       </c>
       <c r="W5" t="n">
-        <v>5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.4341048247374583</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:27.566203</t>
+          <t>2025-10-29T23:39:10.505349</t>
         </is>
       </c>
     </row>
@@ -946,23 +938,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -970,51 +962,51 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="b">
         <v>1</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>[106, 75, 11, 52, 100, 93, 109]</t>
+          <t>[103, 127, 66, 55, 27, 71, 29]</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 1, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>[0.28504446148872375, 0.2907591462135315, 0.3098526895046234, 0.4762324094772339, 0.6092221736907959, 0.6391661763191223, 0.6743265986442566]</t>
+          <t>[0.3977104723453522, 0.4822434186935425, 0.6578987836837769, 0.7329282760620117, 0.799453854560852, 0.993069589138031, 1.203371286392212]</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>[106, 109, 5, 41, 4, 92, 119]</t>
+          <t>[103, 66, 71, 45, 0, 95, 36]</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>[0.28504446148872375, 0.6743265986442566, 0.8478673100471497, 1.0150388479232788, 1.2241731882095337, 1.3018968105316162, 1.6027143001556396]</t>
+          <t>[0.3977104723453522, 0.6578987836837769, 0.993069589138031, 1.2080645561218262, 1.3493456840515137, 1.5382733345031738, 1.6534603834152222]</t>
         </is>
       </c>
       <c r="U6" t="n">
         <v>4</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4762323939285542</v>
+        <v>0.732928243477449</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1023,7 +1015,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:27.566203</t>
+          <t>2025-10-29T23:39:10.505582</t>
         </is>
       </c>
     </row>
@@ -1034,10 +1026,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -1047,24 +1039,24 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
         <v>0.4285714285714285</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.5916727785823274</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>0.8571428571428571</v>
-      </c>
       <c r="K7" t="n">
         <v>0.5714285714285714</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="b">
@@ -1075,47 +1067,43 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>[4, 91, 116, 20, 3, 39, 111]</t>
+          <t>[8, 6, 21, 79, 36, 124, 16]</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 1, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>[0.3686896860599518, 0.5519679188728333, 0.735078752040863, 0.7528611421585083, 0.8294775485992432, 0.8319898843765259, 0.972034752368927]</t>
+          <t>[0.1698651760816574, 0.22869402170181274, 1.0758094787597656, 1.3599109649658203, 1.558606743812561, 1.5664656162261963, 1.704127550125122]</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>[4, 32, 5, 106, 80, 109, 41]</t>
+          <t>[8, 6, 21, 36, 43, 110, 0]</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>[0.3686896860599518, 1.0153549909591675, 1.0848945379257202, 1.1840670108795166, 1.3018968105316162, 1.4751609563827515, 1.486830234527588]</t>
+          <t>[0.1698651760816574, 0.22869402170181274, 1.0758094787597656, 1.558606743812561, 2.115539312362671, 2.1189422607421875, 2.213136672973633]</t>
         </is>
       </c>
       <c r="U7" t="n">
         <v>4</v>
       </c>
       <c r="V7" t="n">
-        <v>0.7528611773482429</v>
+        <v>1.359910952767607</v>
       </c>
       <c r="W7" t="n">
-        <v>8</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.5325044568707964</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:27.566203</t>
+          <t>2025-10-29T23:39:10.505582</t>
         </is>
       </c>
     </row>
@@ -1126,10 +1114,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -1139,10 +1127,10 @@
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -1150,7 +1138,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K8" t="n">
         <v>0.5714285714285714</v>
@@ -1167,34 +1155,34 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>[80, 75, 100, 11, 93, 90, 56]</t>
+          <t>[107, 26, 89, 85, 39, 49, 54]</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>[0.28504446148872375, 0.36131569743156433, 0.36825448274612427, 0.38687416911125183, 0.5670149326324463, 0.5760982632637024, 0.5833657383918762]</t>
+          <t>[0.5352326035499573, 0.5760443806648254, 0.7319240570068359, 0.7476316690444946, 0.7584215402603149, 0.7982650399208069, 0.8102375268936157]</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>[80, 109, 5, 41, 4, 92, 119]</t>
+          <t>[26, 89, 85, 39, 49, 54, 10]</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>[0.28504446148872375, 0.6349484324455261, 0.7289791107177734, 1.0873119831085205, 1.126319169998169, 1.1840670108795166, 1.4750926494598389]</t>
+          <t>[0.5760443806648254, 0.7319240570068359, 0.7476316690444946, 0.7584215402603149, 0.7982650399208069, 0.8102375268936157, 0.8236029148101807]</t>
         </is>
       </c>
       <c r="U8" t="n">
         <v>4</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3868741489372836</v>
+        <v>0.7476316654949211</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1203,7 +1191,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:27.566203</t>
+          <t>2025-10-29T23:39:10.505582</t>
         </is>
       </c>
     </row>
@@ -1214,10 +1202,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -1227,10 +1215,10 @@
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -1238,13 +1226,13 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="b">
@@ -1255,47 +1243,47 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>[44, 56, 85, 113, 86, 75, 10]</t>
+          <t>[15, 8, 6, 116, 91, 33, 79]</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>[0.3796297311782837, 0.39794325828552246, 0.4668952524662018, 0.5109684467315674, 0.533180832862854, 0.5471352934837341, 0.5629119277000427]</t>
+          <t>[1.0758094787597656, 1.204719066619873, 1.2403351068496704, 1.584985375404358, 1.6393439769744873, 1.6441137790679932, 1.7596209049224854]</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>[106, 5, 80, 119, 41, 92, 4]</t>
+          <t>[15, 8, 6, 116, 91, 108, 36]</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>[0.6349484324455261, 0.639224112033844, 0.6743265986442566, 1.1125237941741943, 1.158658742904663, 1.4751609563827515, 1.557084560394287]</t>
+          <t>[1.0758094787597656, 1.204719066619873, 1.2403351068496704, 1.584985375404358, 1.6393439769744873, 1.9486165046691895, 1.96759831905365]</t>
         </is>
       </c>
       <c r="U9" t="n">
         <v>4</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5109684448973792</v>
+        <v>1.584985424236251</v>
       </c>
       <c r="W9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>0.5843748470046234</v>
+        <v>0.5193700315892974</v>
       </c>
       <c r="Y9" t="n">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:27.566203</t>
+          <t>2025-10-29T23:39:10.506359</t>
         </is>
       </c>
     </row>
@@ -1306,10 +1294,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -1319,10 +1307,10 @@
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1330,13 +1318,13 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K10" t="n">
         <v>0.5714285714285714</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="b">
@@ -1347,47 +1335,43 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>[125, 54, 10, 86, 97, 44, 65]</t>
+          <t>[39, 93, 85, 52, 89, 81, 56]</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>[0.7418535351753235, 0.8169267773628235, 0.8513126373291016, 0.9142948985099792, 0.9250989556312561, 0.9332956671714783, 0.9378286004066467]</t>
+          <t>[0.26203104853630066, 0.3978515863418579, 0.5077478289604187, 0.5131158232688904, 0.5291309952735901, 0.5316541194915771, 0.5403203368186951]</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>[5, 109, 106, 80, 92, 41, 4]</t>
+          <t>[39, 93, 85, 52, 89, 19, 10]</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>[0.9712804555892944, 1.1125237941741943, 1.4750926494598389, 1.6027143001556396, 1.913097858428955, 2.070220708847046, 2.0944221019744873]</t>
+          <t>[0.26203104853630066, 0.3978515863418579, 0.5077478289604187, 0.5131158232688904, 0.5291309952735901, 0.5760443806648254, 0.5815709829330444]</t>
         </is>
       </c>
       <c r="U10" t="n">
         <v>4</v>
       </c>
       <c r="V10" t="n">
-        <v>0.9142948900894837</v>
+        <v>0.5131158097937026</v>
       </c>
       <c r="W10" t="n">
-        <v>6</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.5550265646722229</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:27.566203</t>
+          <t>2025-10-29T23:39:10.506359</t>
         </is>
       </c>
     </row>
@@ -1398,10 +1382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -1411,10 +1395,10 @@
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1422,10 +1406,10 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1439,47 +1423,43 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>[55, 25, 18, 50, 53, 57, 95]</t>
+          <t>[105, 97, 86, 44, 65, 85, 89]</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>[0.8769850134849548, 0.9809556007385254, 0.998561441898346, 1.1135129928588867, 1.1277869939804077, 1.2100275754928589, 1.2619000673294067]</t>
+          <t>[0.22816817462444305, 0.24486501514911652, 0.34273430705070496, 0.3655383288860321, 0.37045618891716003, 0.4037454128265381, 0.45551687479019165]</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>[32, 106, 92, 4, 5, 80, 109]</t>
+          <t>[105, 97, 86, 44, 65, 85, 89]</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>[1.3090776205062866, 1.981188416481018, 1.9998292922973633, 2.0157172679901123, 2.030216693878174, 2.1122682094573975, 2.1427667140960693]</t>
+          <t>[0.22816817462444305, 0.24486501514911652, 0.34273430705070496, 0.3655383288860321, 0.37045618891716003, 0.4037454128265381, 0.45551687479019165]</t>
         </is>
       </c>
       <c r="U11" t="n">
         <v>4</v>
       </c>
       <c r="V11" t="n">
-        <v>1.11351302450828</v>
+        <v>0.3655383410248123</v>
       </c>
       <c r="W11" t="n">
-        <v>3</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.439196572483829</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:27.566203</t>
+          <t>2025-10-29T23:39:10.506887</t>
         </is>
       </c>
     </row>
@@ -1490,10 +1470,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -1503,24 +1483,24 @@
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
         <v>0.4285714285714285</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
         <v>0.5714285714285714</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="b">
@@ -1531,34 +1511,34 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>[70, 129, 68, 17, 23, 88, 102]</t>
+          <t>[79, 99, 110, 22, 95, 71, 0]</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[0, 0, 1, 0, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>[0.6938520073890686, 0.7095147371292114, 1.1889803409576416, 1.2714117765426636, 1.3206110000610352, 1.4472988843917847, 1.5296647548675537]</t>
+          <t>[0.6700303554534912, 0.7245572209358215, 0.8207784295082092, 0.8380783796310425, 0.91129469871521, 0.9428142309188843, 0.9480506777763367]</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>[70, 129, 68, 17, 23, 88, 102]</t>
+          <t>[110, 95, 71, 0, 43, 53, 15]</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>[0.6938520073890686, 0.7095147371292114, 1.1889803409576416, 1.2714117765426636, 1.3206110000610352, 1.4472988843917847, 1.5296647548675537]</t>
+          <t>[0.8207784295082092, 0.91129469871521, 0.9428142309188843, 0.9480506777763367, 0.9742568731307983, 1.495444893836975, 1.558606743812561]</t>
         </is>
       </c>
       <c r="U12" t="n">
         <v>4</v>
       </c>
       <c r="V12" t="n">
-        <v>1.271411754661674</v>
+        <v>0.8380784010327121</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1567,7 +1547,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:27.570710</t>
+          <t>2025-10-29T23:39:10.507114</t>
         </is>
       </c>
     </row>
@@ -1578,10 +1558,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -1591,10 +1571,10 @@
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1602,13 +1582,13 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="b">
@@ -1619,34 +1599,34 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>[82, 112, 94, 128, 96, 114, 17]</t>
+          <t>[26, 93, 20, 81, 3, 111, 5]</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>[1.1962192058563232, 1.4052584171295166, 1.5090450048446655, 1.5114425420761108, 1.5793581008911133, 1.7265819311141968, 2.42822527885437]</t>
+          <t>[0.26203104853630066, 0.33407479524612427, 0.44496896862983704, 0.5353369116783142, 0.5808002948760986, 0.6220324635505676, 0.6349945664405823]</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>[82, 112, 94, 128, 96, 114, 17]</t>
+          <t>[26, 93, 89, 10, 52, 85, 44]</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>[1.1962192058563232, 1.4052584171295166, 1.5090450048446655, 1.5114425420761108, 1.5793581008911133, 1.7265819311141968, 2.42822527885437]</t>
+          <t>[0.26203104853630066, 0.33407479524612427, 0.6354897022247314, 0.6747813820838928, 0.6835541129112244, 0.6945022344589233, 0.725619375705719]</t>
         </is>
       </c>
       <c r="U13" t="n">
         <v>4</v>
       </c>
       <c r="V13" t="n">
-        <v>1.511442505829669</v>
+        <v>0.5353369046684139</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1655,7 +1635,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:27.570710</t>
+          <t>2025-10-29T23:39:10.507114</t>
         </is>
       </c>
     </row>
@@ -1666,10 +1646,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1679,10 +1659,10 @@
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1690,13 +1670,13 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K14" t="n">
         <v>0.5714285714285714</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="b">
@@ -1707,47 +1687,43 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>[88, 129, 23, 68, 48, 7, 70]</t>
+          <t>[69, 59, 52, 77, 81, 85, 11]</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>[0.5247544646263123, 1.026412844657898, 1.0364985466003418, 1.042699933052063, 1.0627883672714233, 1.2714117765426636, 1.5825912952423096]</t>
+          <t>[0.22162799537181854, 0.3359346091747284, 0.47105836868286133, 0.4770033061504364, 0.4871639609336853, 0.5272589921951294, 0.5433007478713989]</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>[88, 129, 23, 68, 48, 7, 70]</t>
+          <t>[69, 59, 52, 77, 85, 44, 26]</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>[0.5247544646263123, 1.026412844657898, 1.0364985466003418, 1.042699933052063, 1.0627883672714233, 1.2714117765426636, 1.5825912952423096]</t>
+          <t>[0.22162799537181854, 0.3359346091747284, 0.47105836868286133, 0.4770033061504364, 0.5272589921951294, 0.5959763526916504, 0.6228371858596802]</t>
         </is>
       </c>
       <c r="U14" t="n">
         <v>4</v>
       </c>
       <c r="V14" t="n">
-        <v>1.042699980846424</v>
+        <v>0.4770033128687343</v>
       </c>
       <c r="W14" t="n">
-        <v>2</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0.4341048247374583</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:27.570710</t>
+          <t>2025-10-29T23:39:10.507114</t>
         </is>
       </c>
     </row>
@@ -1758,10 +1734,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -1771,10 +1747,10 @@
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1782,13 +1758,13 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K15" t="n">
         <v>0.5714285714285714</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="b">
@@ -1799,47 +1775,43 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>[48, 88, 17, 68, 129, 7, 70]</t>
+          <t>[95, 110, 19, 36, 22, 0, 107]</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>[0.5955532789230347, 0.7853057980537415, 1.0364985466003418, 1.1688058376312256, 1.215668797492981, 1.3206110000610352, 1.6141602993011475]</t>
+          <t>[0.7968783378601074, 0.9135709404945374, 0.9677942991256714, 0.9742568731307983, 1.0217220783233643, 1.0509742498397827, 1.088165283203125]</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>[48, 88, 17, 68, 129, 7, 70]</t>
+          <t>[95, 110, 19, 36, 0, 26, 53]</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>[0.5955532789230347, 0.7853057980537415, 1.0364985466003418, 1.1688058376312256, 1.215668797492981, 1.3206110000610352, 1.6141602993011475]</t>
+          <t>[0.7968783378601074, 0.9135709404945374, 0.9677942991256714, 0.9742568731307983, 1.0509742498397827, 1.1017946004867554, 1.1369935274124146]</t>
         </is>
       </c>
       <c r="U15" t="n">
         <v>4</v>
       </c>
       <c r="V15" t="n">
-        <v>1.1688058321666</v>
+        <v>0.9742568721801119</v>
       </c>
       <c r="W15" t="n">
-        <v>3</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0.5325044568707964</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:27.570710</t>
+          <t>2025-10-29T23:39:10.507114</t>
         </is>
       </c>
     </row>
@@ -1850,10 +1822,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -1863,10 +1835,10 @@
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1874,13 +1846,13 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K16" t="n">
         <v>0.5714285714285714</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="b">
@@ -1891,34 +1863,34 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>[88, 23, 17, 68, 129, 7, 114]</t>
+          <t>[86, 85, 35, 89, 109, 54, 10]</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 0, 1, 1]</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>[0.5768178105354309, 0.5955532789230347, 1.0627883672714233, 1.151566743850708, 1.4561500549316406, 1.6920398473739624, 1.856772780418396]</t>
+          <t>[0.26537278294563293, 0.3534441888332367, 0.3655383288860321, 0.37331050634384155, 0.3796297311782837, 0.39677804708480835, 0.41656363010406494]</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>[88, 23, 17, 68, 129, 7, 114]</t>
+          <t>[86, 85, 35, 89, 54, 10, 97]</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>[0.5768178105354309, 0.5955532789230347, 1.0627883672714233, 1.151566743850708, 1.4561500549316406, 1.6920398473739624, 1.856772780418396]</t>
+          <t>[0.26537278294563293, 0.3534441888332367, 0.3655383288860321, 0.37331050634384155, 0.39677804708480835, 0.41656363010406494, 0.4334620237350464]</t>
         </is>
       </c>
       <c r="U16" t="n">
         <v>4</v>
       </c>
       <c r="V16" t="n">
-        <v>1.151566835407635</v>
+        <v>0.3733105129960202</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1927,7 +1899,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:27.570710</t>
+          <t>2025-10-29T23:39:10.507645</t>
         </is>
       </c>
     </row>
@@ -1938,10 +1910,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -1951,10 +1923,10 @@
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1962,13 +1934,13 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K17" t="n">
         <v>0.5714285714285714</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="b">
@@ -1979,47 +1951,43 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>[88, 17, 48, 23, 7, 70, 129]</t>
+          <t>[117, 127, 87, 104, 12, 27, 66]</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[0, 0, 0, 0, 1, 0, 1]</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>[0.963847815990448, 1.042699933052063, 1.151566743850708, 1.1688058376312256, 1.1889803409576416, 1.2844855785369873, 1.2921749353408813]</t>
+          <t>[0.7744289636611938, 0.9366227388381958, 1.1058002710342407, 1.2067434787750244, 1.2080645561218262, 1.2272772789001465, 1.2516870498657227]</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>[88, 17, 48, 23, 7, 70, 129]</t>
+          <t>[12, 66, 103, 71, 36, 0, 95]</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>[0.963847815990448, 1.042699933052063, 1.151566743850708, 1.1688058376312256, 1.1889803409576416, 1.2844855785369873, 1.2921749353408813]</t>
+          <t>[1.2080645561218262, 1.2516870498657227, 1.3304789066314697, 1.4364837408065796, 1.602185606956482, 1.6763319969177246, 2.035621166229248]</t>
         </is>
       </c>
       <c r="U17" t="n">
         <v>4</v>
       </c>
       <c r="V17" t="n">
-        <v>1.1688058321666</v>
+        <v>1.206743463810933</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0.5939819704323989</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:27.570710</t>
+          <t>2025-10-29T23:39:10.507645</t>
         </is>
       </c>
     </row>
@@ -2030,10 +1998,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -2043,10 +2011,10 @@
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -2071,7 +2039,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>[7, 129, 68, 17, 23, 88, 102]</t>
+          <t>[65, 97, 85, 86, 105, 89, 35]</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -2081,37 +2049,33 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>[0.6938520073890686, 1.2321480512619019, 1.2844855785369873, 1.5825912952423096, 1.6141602993011475, 1.7865649461746216, 1.9720324277877808]</t>
+          <t>[0.23407834768295288, 0.3419783413410187, 0.35677751898765564, 0.37327322363853455, 0.40499499440193176, 0.45675554871559143, 0.46399742364883423]</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>[7, 129, 68, 17, 23, 88, 102]</t>
+          <t>[65, 97, 85, 86, 105, 89, 35]</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>[0.6938520073890686, 1.2321480512619019, 1.2844855785369873, 1.5825912952423096, 1.6141602993011475, 1.7865649461746216, 1.9720324277877808]</t>
+          <t>[0.23407834768295288, 0.3419783413410187, 0.35677751898765564, 0.37327322363853455, 0.40499499440193176, 0.45675554871559143, 0.46399742364883423]</t>
         </is>
       </c>
       <c r="U18" t="n">
         <v>4</v>
       </c>
       <c r="V18" t="n">
-        <v>1.582591304528517</v>
+        <v>0.3732732400865162</v>
       </c>
       <c r="W18" t="n">
-        <v>4</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0.4990353820222541</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:27.570710</t>
+          <t>2025-10-29T23:39:10.507645</t>
         </is>
       </c>
     </row>
@@ -2122,75 +2086,75 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
         <v>0.4285714285714285</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J19" t="n">
-        <v>0.2857142857142857</v>
-      </c>
       <c r="K19" t="n">
         <v>0.5714285714285714</v>
       </c>
       <c r="L19" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="b">
         <v>1</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>[17, 88, 131, 114, 115, 112, 129]</t>
+          <t>[69, 59, 40, 80, 11, 81, 26]</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 1, 0, 1, 1]</t>
+          <t>[1, 1, 1, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>[2.0094025135040283, 2.0699026584625244, 2.1498682498931885, 2.195941925048828, 2.232712984085083, 2.265591859817505, 2.2751543521881104]</t>
+          <t>[0.40712061524391174, 0.4340638518333435, 0.47105836868286133, 0.4762324094772339, 0.48555275797843933, 0.5002703666687012, 0.5131158232688904]</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>[17, 88, 114, 112, 129, 48, 68]</t>
+          <t>[69, 59, 40, 26, 93, 75, 85]</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>[2.0094025135040283, 2.0699026584625244, 2.195941925048828, 2.265591859817505, 2.2751543521881104, 2.3073177337646484, 2.3077964782714844]</t>
+          <t>[0.40712061524391174, 0.4340638518333435, 0.47105836868286133, 0.5131158232688904, 0.5412389039993286, 0.5669599771499634, 0.6109216809272766]</t>
         </is>
       </c>
       <c r="U19" t="n">
         <v>4</v>
       </c>
       <c r="V19" t="n">
-        <v>2.195941782753044</v>
+        <v>0.4762323939285542</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2199,7 +2163,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:27.578311</t>
+          <t>2025-10-29T23:39:10.507645</t>
         </is>
       </c>
     </row>
@@ -2210,10 +2174,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -2223,10 +2187,10 @@
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -2234,13 +2198,13 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="b">
@@ -2251,43 +2215,47 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>[112, 94, 96, 128, 9, 114, 17]</t>
+          <t>[50, 25, 28, 18, 95, 120, 101]</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[0, 0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>[0.5542061924934387, 0.9788116216659546, 1.1553232669830322, 1.1788504123687744, 1.1962192058563232, 1.1968179941177368, 2.1950740814208984]</t>
+          <t>[0.7071465253829956, 0.796012818813324, 0.7980440855026245, 0.8044586777687073, 0.8550234436988831, 0.874969482421875, 0.9194134473800659]</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>[112, 94, 96, 128, 9, 114, 17]</t>
+          <t>[95, 39, 26, 44, 93, 43, 10]</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>[0.5542061924934387, 0.9788116216659546, 1.1553232669830322, 1.1788504123687744, 1.1962192058563232, 1.1968179941177368, 2.1950740814208984]</t>
+          <t>[0.8550234436988831, 0.9730480909347534, 1.0704206228256226, 1.1138153076171875, 1.1355130672454834, 1.1369935274124146, 1.139632225036621]</t>
         </is>
       </c>
       <c r="U20" t="n">
         <v>4</v>
       </c>
       <c r="V20" t="n">
-        <v>1.178850402878146</v>
+        <v>0.8044586702540022</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.4116167224336399</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>28</v>
+      </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:27.578311</t>
+          <t>2025-10-29T23:39:10.507645</t>
         </is>
       </c>
     </row>
@@ -2298,10 +2266,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -2311,10 +2279,10 @@
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -2325,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2339,7 +2307,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>[17, 48, 23, 68, 129, 7, 114]</t>
+          <t>[86, 10, 89, 125, 44, 65, 97]</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -2349,37 +2317,33 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>[0.5247544646263123, 0.5768178105354309, 0.7853057980537415, 0.963847815990448, 1.1512864828109741, 1.4472988843917847, 1.6623544692993164]</t>
+          <t>[0.2745113968849182, 0.30740076303482056, 0.3631272315979004, 0.3868076205253601, 0.39677804708480835, 0.4322109818458557, 0.4546579122543335]</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>[17, 48, 23, 68, 129, 7, 114]</t>
+          <t>[86, 10, 89, 125, 44, 65, 97]</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>[0.5247544646263123, 0.5768178105354309, 0.7853057980537415, 0.963847815990448, 1.1512864828109741, 1.4472988843917847, 1.6623544692993164]</t>
+          <t>[0.2745113968849182, 0.30740076303482056, 0.3631272315979004, 0.3868076205253601, 0.39677804708480835, 0.4322109818458557, 0.4546579122543335]</t>
         </is>
       </c>
       <c r="U21" t="n">
         <v>4</v>
       </c>
       <c r="V21" t="n">
-        <v>0.9638478712737514</v>
+        <v>0.3868076183282226</v>
       </c>
       <c r="W21" t="n">
-        <v>1</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0.4195344228012768</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:27.578311</t>
+          <t>2025-10-29T23:39:10.507645</t>
         </is>
       </c>
     </row>
@@ -2390,10 +2354,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -2403,10 +2367,10 @@
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -2414,13 +2378,13 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="b">
@@ -2431,43 +2395,47 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>[128, 114, 96, 82, 112, 9, 88]</t>
+          <t>[69, 40, 52, 81, 11, 77, 93]</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 0, 0, 1, 1]</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>[0.4555348753929138, 0.5437226295471191, 0.8630491495132446, 0.9788116216659546, 0.9866169691085815, 1.5090450048446655, 1.987839698791504]</t>
+          <t>[0.2998863458633423, 0.3359346091747284, 0.4340638518333435, 0.4363320767879486, 0.5034973621368408, 0.5981711745262146, 0.6567560434341431]</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>[128, 114, 96, 82, 112, 9, 88]</t>
+          <t>[69, 40, 52, 77, 93, 26, 85]</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>[0.4555348753929138, 0.5437226295471191, 0.8630491495132446, 0.9788116216659546, 0.9866169691085815, 1.5090450048446655, 1.987839698791504]</t>
+          <t>[0.2998863458633423, 0.3359346091747284, 0.4340638518333435, 0.5981711745262146, 0.6567560434341431, 0.7232784032821655, 0.7322577238082886]</t>
         </is>
       </c>
       <c r="U22" t="n">
         <v>4</v>
       </c>
       <c r="V22" t="n">
-        <v>0.9788115939125684</v>
+        <v>0.4363320610366268</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.4608484485919075</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>69</v>
+      </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:27.578311</t>
+          <t>2025-10-29T23:39:10.508639</t>
         </is>
       </c>
     </row>
@@ -2478,10 +2446,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C23" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -2491,10 +2459,10 @@
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -2505,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2519,7 +2487,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>[94, 128, 114, 82, 112, 9, 68]</t>
+          <t>[125, 97, 35, 105, 44, 65, 54]</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -2529,37 +2497,37 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>[0.8630491495132446, 0.9548653364181519, 1.0304895639419556, 1.1553232669830322, 1.2386415004730225, 1.5793581008911133, 2.136317014694214]</t>
+          <t>[0.7024815082550049, 0.7791270613670349, 0.782824695110321, 0.8669902086257935, 0.8682761192321777, 0.8756409883499146, 0.8760532736778259]</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>[94, 128, 114, 82, 112, 9, 68]</t>
+          <t>[125, 97, 35, 105, 44, 65, 54]</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>[0.8630491495132446, 0.9548653364181519, 1.0304895639419556, 1.1553232669830322, 1.2386415004730225, 1.5793581008911133, 2.136317014694214]</t>
+          <t>[0.7024815082550049, 0.7791270613670349, 0.782824695110321, 0.8669902086257935, 0.8682761192321777, 0.8756409883499146, 0.8760532736778259]</t>
         </is>
       </c>
       <c r="U23" t="n">
         <v>4</v>
       </c>
       <c r="V23" t="n">
-        <v>1.155323300337733</v>
+        <v>0.8669902091335228</v>
       </c>
       <c r="W23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>0.4278987721304084</v>
+        <v>0.4863890037284231</v>
       </c>
       <c r="Y23" t="n">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:27.578311</t>
+          <t>2025-10-29T23:39:10.508639</t>
         </is>
       </c>
     </row>
@@ -2570,10 +2538,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="C24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -2583,10 +2551,10 @@
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -2597,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -2611,7 +2579,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>[129, 7, 17, 70, 88, 68, 23]</t>
+          <t>[49, 97, 86, 105, 35, 54, 85]</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -2621,37 +2589,33 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>[1.225460410118103, 1.5296647548675537, 1.7913583517074585, 1.9720324277877808, 2.007189989089966, 2.0494744777679443, 2.268449068069458]</t>
+          <t>[0.23407834768295288, 0.2518826425075531, 0.31941407918930054, 0.35915279388427734, 0.37045618891716003, 0.4322109818458557, 0.4433661103248596]</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>[129, 7, 17, 70, 88, 68, 23]</t>
+          <t>[49, 97, 86, 105, 35, 54, 85]</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>[1.225460410118103, 1.5296647548675537, 1.7913583517074585, 1.9720324277877808, 2.007189989089966, 2.0494744777679443, 2.268449068069458]</t>
+          <t>[0.23407834768295288, 0.2518826425075531, 0.31941407918930054, 0.35915279388427734, 0.37045618891716003, 0.4322109818458557, 0.4433661103248596]</t>
         </is>
       </c>
       <c r="U24" t="n">
         <v>4</v>
       </c>
       <c r="V24" t="n">
-        <v>1.972032394907995</v>
+        <v>0.3591527973525735</v>
       </c>
       <c r="W24" t="n">
-        <v>5</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0.5616794696232922</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:27.578311</t>
+          <t>2025-10-29T23:39:10.508639</t>
         </is>
       </c>
     </row>
@@ -2662,10 +2626,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="C25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -2675,10 +2639,10 @@
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -2686,13 +2650,13 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="b">
@@ -2703,43 +2667,47 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>[82, 94, 114, 128, 96, 9, 88]</t>
+          <t>[103, 127, 55, 12, 38, 27, 45]</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[1, 0, 0, 1, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>[0.5542061924934387, 0.9866169691085815, 1.0372637510299683, 1.1374363899230957, 1.2386415004730225, 1.4052584171295166, 2.102363109588623]</t>
+          <t>[0.41570061445236206, 0.48236414790153503, 0.5884926915168762, 0.6578987836837769, 0.9539618492126465, 1.042965054512024, 1.2516870498657227]</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>[82, 94, 114, 128, 96, 9, 88]</t>
+          <t>[103, 12, 45, 71, 0, 95, 36]</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>[0.5542061924934387, 0.9866169691085815, 1.0372637510299683, 1.1374363899230957, 1.2386415004730225, 1.4052584171295166, 2.102363109588623]</t>
+          <t>[0.41570061445236206, 0.6578987836837769, 1.2516870498657227, 1.3337684869766235, 1.5819833278656006, 1.7497435808181763, 1.822658658027649]</t>
         </is>
       </c>
       <c r="U25" t="n">
         <v>4</v>
       </c>
       <c r="V25" t="n">
-        <v>1.137436331279849</v>
+        <v>0.6578987726722592</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.4041168988591605</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>55</v>
+      </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:27.578311</t>
+          <t>2025-10-29T23:39:10.508639</t>
         </is>
       </c>
     </row>
@@ -2750,10 +2718,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="C26" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -2763,10 +2731,10 @@
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -2774,13 +2742,13 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K26" t="n">
         <v>0.5714285714285714</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="b">
@@ -2791,47 +2759,43 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>[128, 94, 96, 112, 82, 88, 9]</t>
+          <t>[40, 59, 77, 52, 85, 81, 11]</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>[0.49568384885787964, 0.5437226295471191, 1.0304895639419556, 1.0372637510299683, 1.1968179941177368, 1.6623544692993164, 1.7265819311141968]</t>
+          <t>[0.22162799537181854, 0.2998863458633423, 0.32982856035232544, 0.40712061524391174, 0.5196176767349243, 0.5489755272865295, 0.5727618932723999]</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>[128, 94, 96, 112, 82, 88, 9]</t>
+          <t>[40, 59, 77, 52, 85, 105, 35]</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>[0.49568384885787964, 0.5437226295471191, 1.0304895639419556, 1.0372637510299683, 1.1968179941177368, 1.6623544692993164, 1.7265819311141968]</t>
+          <t>[0.22162799537181854, 0.2998863458633423, 0.32982856035232544, 0.40712061524391174, 0.5196176767349243, 0.6713021397590637, 0.6792292594909668]</t>
         </is>
       </c>
       <c r="U26" t="n">
         <v>4</v>
       </c>
       <c r="V26" t="n">
-        <v>1.03726373057251</v>
+        <v>0.4071206196055541</v>
       </c>
       <c r="W26" t="n">
-        <v>1</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0.5570351922786028</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:27.578311</t>
+          <t>2025-10-29T23:39:10.508639</t>
         </is>
       </c>
     </row>
@@ -2842,10 +2806,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="C27" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2855,24 +2819,24 @@
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
         <v>0.4285714285714285</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
       <c r="K27" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="b">
@@ -2883,47 +2847,43 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>[94, 114, 96, 112, 82, 9, 88]</t>
+          <t>[0, 95, 22, 27, 36, 55, 12]</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 0, 0, 1, 0, 1]</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>[0.4555348753929138, 0.49568384885787964, 0.9548653364181519, 1.1374363899230957, 1.1788504123687744, 1.5114425420761108, 2.0850367546081543]</t>
+          <t>[0.5071632266044617, 0.7265123724937439, 0.7333554625511169, 0.9368272423744202, 0.9428142309188843, 0.968704879283905, 0.993069589138031]</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>[94, 114, 96, 112, 82, 9, 88]</t>
+          <t>[0, 95, 36, 12, 110, 103, 43]</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>[0.4555348753929138, 0.49568384885787964, 0.9548653364181519, 1.1374363899230957, 1.1788504123687744, 1.5114425420761108, 2.0850367546081543]</t>
+          <t>[0.5071632266044617, 0.7265123724937439, 0.9428142309188843, 0.993069589138031, 1.0671149492263794, 1.1467154026031494, 1.199483871459961]</t>
         </is>
       </c>
       <c r="U27" t="n">
         <v>4</v>
       </c>
       <c r="V27" t="n">
-        <v>1.137436331279849</v>
+        <v>0.9368272560976266</v>
       </c>
       <c r="W27" t="n">
-        <v>1</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0.5818640804157564</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:27.578311</t>
+          <t>2025-10-29T23:39:10.509641</t>
         </is>
       </c>
     </row>
@@ -2934,10 +2894,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="C28" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -2947,10 +2907,10 @@
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -2958,13 +2918,13 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K28" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="b">
@@ -2975,52 +2935,3752 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
+          <t>[80, 106, 11, 109, 56, 52, 100]</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 1, 0]</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>[0.2907591462135315, 0.36131569743156433, 0.5027523040771484, 0.5471352934837341, 0.5626423954963684, 0.5669599771499634, 0.6795096397399902]</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>[52, 26, 93, 69, 40, 85, 59]</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>[0.5669599771499634, 0.7496925592422485, 0.7641997933387756, 0.8085055947303772, 0.8183553218841553, 0.8394302129745483, 0.8566558361053467]</t>
+        </is>
+      </c>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.5471353051673804</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.509641</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>77</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>7</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="b">
+        <v>1</v>
+      </c>
+      <c r="O29" t="b">
+        <v>1</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>[69, 40, 105, 85, 35, 59, 52]</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>[0.32982856035232544, 0.4770033061504364, 0.4832967221736908, 0.5505309700965881, 0.5646175146102905, 0.5981711745262146, 0.6512867212295532]</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>[69, 40, 105, 85, 35, 59, 52]</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>[0.32982856035232544, 0.4770033061504364, 0.4832967221736908, 0.5505309700965881, 0.5646175146102905, 0.5981711745262146, 0.6512867212295532]</t>
+        </is>
+      </c>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.5505309711884273</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.509641</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>85</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>7</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="b">
+        <v>1</v>
+      </c>
+      <c r="O30" t="b">
+        <v>1</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>[86, 89, 44, 49, 35, 10, 105]</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>[0.27714383602142334, 0.3162791132926941, 0.3534441888332367, 0.35677751898765564, 0.4037454128265381, 0.44089385867118835, 0.4411514699459076]</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>[86, 89, 44, 49, 35, 10, 105]</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>[0.27714383602142334, 0.3162791132926941, 0.3534441888332367, 0.35677751898765564, 0.4037454128265381, 0.44089385867118835, 0.4411514699459076]</t>
+        </is>
+      </c>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.3567774916675154</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.509641</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>86</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>7</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="b">
+        <v>1</v>
+      </c>
+      <c r="O31" t="b">
+        <v>1</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>[44, 54, 85, 89, 10, 65, 35]</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>[0.26537278294563293, 0.2745113968849182, 0.27714383602142334, 0.2821160852909088, 0.31928902864456177, 0.31941407918930054, 0.34273430705070496]</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>[44, 54, 85, 89, 10, 65, 35]</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>[0.26537278294563293, 0.2745113968849182, 0.27714383602142334, 0.2821160852909088, 0.31928902864456177, 0.31941407918930054, 0.34273430705070496]</t>
+        </is>
+      </c>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.2821160786001113</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.509641</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>89</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>7</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="b">
+        <v>1</v>
+      </c>
+      <c r="O32" t="b">
+        <v>1</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>[86, 85, 54, 44, 10, 35, 49]</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>[0.2821160852909088, 0.3162791132926941, 0.3631272315979004, 0.37331050634384155, 0.4304656386375427, 0.45551687479019165, 0.45675554871559143]</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>[86, 85, 54, 44, 10, 35, 49]</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>[0.2821160852909088, 0.3162791132926941, 0.3631272315979004, 0.37331050634384155, 0.4304656386375427, 0.45551687479019165, 0.45675554871559143]</t>
+        </is>
+      </c>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.3733105129960202</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.509641</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>91</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>7</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="b">
+        <v>1</v>
+      </c>
+      <c r="O33" t="b">
+        <v>1</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>[116, 92, 4, 20, 3, 108, 63]</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>[1, 0, 0, 0, 0, 1, 0]</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>[0.33845314383506775, 0.5519679188728333, 0.5712586641311646, 0.8188854455947876, 0.8335397839546204, 0.858685314655304, 1.0835047960281372]</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>[116, 108, 39, 93, 26, 19, 52]</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>[0.33845314383506775, 0.858685314655304, 1.104374885559082, 1.175501823425293, 1.2120747566223145, 1.34324312210083, 1.4339545965194702]</t>
+        </is>
+      </c>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.8188854621950999</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.509641</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>93</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>7</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="b">
+        <v>1</v>
+      </c>
+      <c r="O34" t="b">
+        <v>1</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>[39, 81, 26, 20, 63, 3, 52]</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>[1, 0, 1, 0, 0, 0, 1]</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>[0.33407479524612427, 0.34904465079307556, 0.3978515863418579, 0.4106251895427704, 0.4616753160953522, 0.5046165585517883, 0.5412389039993286]</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>[39, 26, 52, 40, 59, 85, 89]</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>[0.33407479524612427, 0.3978515863418579, 0.5412389039993286, 0.6373316049575806, 0.6567560434341431, 0.658723771572113, 0.670596718788147]</t>
+        </is>
+      </c>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.4106251876981139</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.509641</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>95</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>7</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="b">
+        <v>1</v>
+      </c>
+      <c r="O35" t="b">
+        <v>1</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>[0, 22, 110, 71, 50, 43, 18]</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>[1, 0, 1, 1, 0, 1, 0]</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>[0.5966512560844421, 0.6207886338233948, 0.6502023935317993, 0.7265123724937439, 0.773938775062561, 0.7968783378601074, 0.8528220653533936]</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>[0, 110, 71, 43, 53, 36, 62]</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>[0.5966512560844421, 0.6502023935317993, 0.7265123724937439, 0.7968783378601074, 0.8550234436988831, 0.91129469871521, 0.9133409261703491]</t>
+        </is>
+      </c>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.7265123364488836</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.510641</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>97</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>7</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="b">
+        <v>1</v>
+      </c>
+      <c r="O36" t="b">
+        <v>1</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>[105, 35, 65, 49, 86, 44, 85]</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>[0.24105988442897797, 0.24486501514911652, 0.2518826425075531, 0.3419783413410187, 0.3526051342487335, 0.4334620237350464, 0.4467275142669678]</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>[105, 35, 65, 49, 86, 44, 85]</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>[0.24105988442897797, 0.24486501514911652, 0.2518826425075531, 0.3419783413410187, 0.3526051342487335, 0.4334620237350464, 0.4467275142669678]</t>
+        </is>
+      </c>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.3419783214518092</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.510641</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>103</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>7</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="b">
+        <v>1</v>
+      </c>
+      <c r="O37" t="b">
+        <v>1</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>[12, 66, 127, 55, 27, 71, 29]</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>[1, 1, 0, 0, 0, 1, 0]</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>[0.3977104723453522, 0.41570061445236206, 0.5201490521430969, 0.6098141074180603, 0.8260360956192017, 1.1467154026031494, 1.188522219657898]</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>[12, 66, 71, 45, 0, 95, 36]</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>[0.3977104723453522, 0.41570061445236206, 1.1467154026031494, 1.3304789066314697, 1.4060176610946655, 1.6097038984298706, 1.8012545108795166]</t>
+        </is>
+      </c>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.6098140912976288</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.510641</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>105</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>7</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="b">
+        <v>1</v>
+      </c>
+      <c r="O38" t="b">
+        <v>1</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>[35, 97, 65, 49, 85, 86, 77]</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>[0.22816817462444305, 0.24105988442897797, 0.35915279388427734, 0.40499499440193176, 0.4411514699459076, 0.4502352178096771, 0.4832967221736908]</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>[35, 97, 65, 49, 85, 86, 77]</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>[0.22816817462444305, 0.24105988442897797, 0.35915279388427734, 0.40499499440193176, 0.4411514699459076, 0.4502352178096771, 0.4832967221736908]</t>
+        </is>
+      </c>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.404995012937736</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.511650</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>108</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>7</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="b">
+        <v>1</v>
+      </c>
+      <c r="O39" t="b">
+        <v>1</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>[116, 91, 4, 3, 63, 20, 92]</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>[0.7838481068611145, 0.858685314655304, 0.9159262180328369, 0.9295939803123474, 1.0941393375396729, 1.0978443622589111, 1.107514500617981]</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>[116, 91, 39, 93, 26, 52, 59]</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>[0.7838481068611145, 0.858685314655304, 1.3248116970062256, 1.3398164510726929, 1.4458744525909424, 1.5137344598770142, 1.5375972986221313]</t>
+        </is>
+      </c>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.9295939763398792</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.4363649934414202</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>91</v>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.511650</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>110</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>7</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="b">
+        <v>1</v>
+      </c>
+      <c r="O40" t="b">
+        <v>1</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>[95, 99, 22, 25, 36, 57, 43]</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>[1, 0, 0, 0, 1, 0, 1]</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>[0.6502023935317993, 0.6648515462875366, 0.6818861365318298, 0.8169336915016174, 0.8207784295082092, 0.8275083303451538, 0.9135709404945374]</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>[95, 36, 43, 71, 0, 52, 59]</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>[0.6502023935317993, 0.8207784295082092, 0.9135709404945374, 1.0671149492263794, 1.0991559028625488, 1.1585712432861328, 1.1806111335754395]</t>
+        </is>
+      </c>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.8169336896403393</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.5901428612819832</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.511650</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>116</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>7</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="b">
+        <v>1</v>
+      </c>
+      <c r="O41" t="b">
+        <v>1</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>[91, 4, 92, 20, 108, 3, 63]</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>[1, 0, 0, 0, 1, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>[0.33845314383506775, 0.7188007235527039, 0.735078752040863, 0.7749160528182983, 0.7838481068611145, 0.7853907942771912, 0.9394863247871399]</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>[91, 108, 39, 93, 26, 19, 52]</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>[0.33845314383506775, 0.7838481068611145, 1.050995111465454, 1.0834901332855225, 1.107613205909729, 1.2154450416564941, 1.2523788213729858]</t>
+        </is>
+      </c>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.7749160760948841</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.511650</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>125</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>7</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="b">
+        <v>1</v>
+      </c>
+      <c r="O42" t="b">
+        <v>1</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>[54, 86, 44, 97, 35, 89, 65]</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>[0.3868076205253601, 0.48461422324180603, 0.4862489402294159, 0.5136907696723938, 0.5301670432090759, 0.5777832865715027, 0.5901980400085449]</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>[54, 86, 44, 97, 35, 89, 65]</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>[0.3868076205253601, 0.48461422324180603, 0.4862489402294159, 0.5136907696723938, 0.5301670432090759, 0.5777832865715027, 0.5901980400085449]</t>
+        </is>
+      </c>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.5136907616624699</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.512640</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>4</v>
+      </c>
+      <c r="C43" t="n">
+        <v>3</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>7</v>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.5916727785823274</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.5916727785823274</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="b">
+        <v>1</v>
+      </c>
+      <c r="O43" t="b">
+        <v>1</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>[92, 91, 116, 3, 20, 64, 90]</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>[0.3686896860599518, 0.5712586641311646, 0.7188007235527039, 0.8161059021949768, 0.8208655714988708, 0.8525661826133728, 0.9072226285934448]</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>[92, 32, 106, 5, 80, 41, 109]</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>[0.3686896860599518, 0.964373767375946, 1.126319169998169, 1.2196450233459473, 1.2241731882095337, 1.4703971147537231, 1.557084560394287]</t>
+        </is>
+      </c>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.8161059335608314</v>
+      </c>
+      <c r="W43" t="n">
+        <v>6</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.4148089303468181</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>116</v>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.539182</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>5</v>
+      </c>
+      <c r="C44" t="n">
+        <v>3</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>7</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.5916727785823274</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="b">
+        <v>1</v>
+      </c>
+      <c r="O44" t="b">
+        <v>1</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>[56, 10, 54, 26, 86, 44, 39]</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>[0.29108816385269165, 0.3007749617099762, 0.5765426754951477, 0.5837634801864624, 0.60104900598526, 0.6279987692832947, 0.6349945664405823]</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>[109, 106, 80, 119, 92, 4, 41]</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>[0.639224112033844, 0.7289791107177734, 0.8478673100471497, 0.9712804555892944, 1.0848945379257202, 1.2196450233459473, 1.3480218648910522]</t>
+        </is>
+      </c>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.5837635074955616</v>
+      </c>
+      <c r="W44" t="n">
+        <v>3</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.5789654700855298</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.539182</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>32</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>7</v>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.5916727785823274</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="b">
+        <v>0</v>
+      </c>
+      <c r="O45" t="b">
+        <v>1</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>[57, 83, 4, 92, 18, 91, 25]</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>[0, 0, 1, 1, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>[0.9164473414421082, 0.9198511242866516, 0.964373767375946, 1.0153549909591675, 1.1352434158325195, 1.147658109664917, 1.209598422050476]</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>[4, 92, 130, 106, 5, 80, 41]</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>[0.964373767375946, 1.0153549909591675, 1.3090776205062866, 1.624017596244812, 1.6671695709228516, 1.7274311780929565, 1.9255344867706299]</t>
+        </is>
+      </c>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.015355025260908</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.539182</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>41</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>7</v>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.5916727785823274</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.5916727785823274</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="b">
+        <v>1</v>
+      </c>
+      <c r="O46" t="b">
+        <v>1</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>[52, 81, 59, 63, 69, 80, 93]</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 1, 0]</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>[0.7342439293861389, 0.8839975595474243, 0.9219695329666138, 0.9574594497680664, 0.9910978078842163, 1.0150388479232788, 1.0183871984481812]</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>[80, 106, 109, 5, 4, 92, 32]</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>[1.0150388479232788, 1.0873119831085205, 1.158658742904663, 1.3480218648910522, 1.4703971147537231, 1.486830234527588, 1.9255344867706299]</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.9574594562897335</v>
+      </c>
+      <c r="W46" t="n">
+        <v>5</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.4341048247374583</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>59</v>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.540181</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>80</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>7</v>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.5916727785823274</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="b">
+        <v>0</v>
+      </c>
+      <c r="O47" t="b">
+        <v>1</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>[106, 75, 11, 52, 100, 93, 109]</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>[0.28504446148872375, 0.2907591462135315, 0.3098526895046234, 0.4762324094772339, 0.6092221736907959, 0.6391661763191223, 0.6743265986442566]</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>[106, 109, 5, 41, 4, 92, 119]</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>[0.28504446148872375, 0.6743265986442566, 0.8478673100471497, 1.0150388479232788, 1.2241731882095337, 1.3018968105316162, 1.6027143001556396]</t>
+        </is>
+      </c>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.4762323939285542</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.540181</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>92</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>7</v>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.5916727785823274</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.5916727785823274</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="b">
+        <v>1</v>
+      </c>
+      <c r="O48" t="b">
+        <v>1</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>[4, 91, 116, 20, 3, 39, 111]</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>[0.3686896860599518, 0.5519679188728333, 0.735078752040863, 0.7528611421585083, 0.8294775485992432, 0.8319898843765259, 0.972034752368927]</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>[4, 32, 5, 106, 80, 109, 41]</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>[0.3686896860599518, 1.0153549909591675, 1.0848945379257202, 1.1840670108795166, 1.3018968105316162, 1.4751609563827515, 1.486830234527588]</t>
+        </is>
+      </c>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.7528611773482429</v>
+      </c>
+      <c r="W48" t="n">
+        <v>9</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.5085392166316497</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.540181</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>106</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3</v>
+      </c>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>7</v>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.5916727785823274</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.5916727785823274</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="b">
+        <v>1</v>
+      </c>
+      <c r="O49" t="b">
+        <v>1</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>[80, 75, 100, 11, 93, 90, 56]</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>[0.28504446148872375, 0.36131569743156433, 0.36825448274612427, 0.38687416911125183, 0.5670149326324463, 0.5760982632637024, 0.5833657383918762]</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>[80, 109, 5, 41, 4, 92, 119]</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>[0.28504446148872375, 0.6349484324455261, 0.7289791107177734, 1.0873119831085205, 1.126319169998169, 1.1840670108795166, 1.4750926494598389]</t>
+        </is>
+      </c>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.3868741489372836</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.4713506653387178</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.540181</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>109</v>
+      </c>
+      <c r="C50" t="n">
+        <v>3</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>7</v>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.5916727785823274</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="b">
+        <v>1</v>
+      </c>
+      <c r="O50" t="b">
+        <v>1</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>[44, 56, 85, 113, 86, 75, 10]</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>[0.3796297311782837, 0.39794325828552246, 0.4668952524662018, 0.5109684467315674, 0.533180832862854, 0.5471352934837341, 0.5629119277000427]</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>[106, 5, 80, 119, 41, 92, 4]</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>[0.6349484324455261, 0.639224112033844, 0.6743265986442566, 1.1125237941741943, 1.158658742904663, 1.4751609563827515, 1.557084560394287]</t>
+        </is>
+      </c>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0.5109684448973792</v>
+      </c>
+      <c r="W50" t="n">
+        <v>3</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.5843748470046234</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>85</v>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.540181</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>119</v>
+      </c>
+      <c r="C51" t="n">
+        <v>3</v>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>7</v>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.5916727785823274</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="b">
+        <v>1</v>
+      </c>
+      <c r="O51" t="b">
+        <v>1</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>[125, 54, 10, 86, 97, 44, 65]</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>[0.7418535351753235, 0.8169267773628235, 0.8513126373291016, 0.9142948985099792, 0.9250989556312561, 0.9332956671714783, 0.9378286004066467]</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>[5, 109, 106, 80, 92, 41, 4]</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>[0.9712804555892944, 1.1125237941741943, 1.4750926494598389, 1.6027143001556396, 1.913097858428955, 2.070220708847046, 2.0944221019744873]</t>
+        </is>
+      </c>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.9142948900894837</v>
+      </c>
+      <c r="W51" t="n">
+        <v>7</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0.423173811905026</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>54</v>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.541179</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>130</v>
+      </c>
+      <c r="C52" t="n">
+        <v>3</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" t="n">
+        <v>7</v>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.5916727785823274</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="b">
+        <v>1</v>
+      </c>
+      <c r="O52" t="b">
+        <v>1</v>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>[55, 25, 18, 50, 53, 57, 95]</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>[0.8769850134849548, 0.9809556007385254, 0.998561441898346, 1.1135129928588867, 1.1277869939804077, 1.2100275754928589, 1.2619000673294067]</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>[32, 106, 92, 4, 5, 80, 109]</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>[1.3090776205062866, 1.981188416481018, 1.9998292922973633, 2.0157172679901123, 2.030216693878174, 2.1122682094573975, 2.1427667140960693]</t>
+        </is>
+      </c>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1.11351302450828</v>
+      </c>
+      <c r="W52" t="n">
+        <v>6</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.5630922856909668</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.541179</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>7</v>
+      </c>
+      <c r="C53" t="n">
+        <v>7</v>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" t="n">
+        <v>7</v>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="b">
+        <v>1</v>
+      </c>
+      <c r="O53" t="b">
+        <v>1</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>[70, 129, 68, 17, 23, 88, 102]</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>[0.6938520073890686, 0.7095147371292114, 1.1889803409576416, 1.2714117765426636, 1.3206110000610352, 1.4472988843917847, 1.5296647548675537]</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>[70, 129, 68, 17, 23, 88, 102]</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>[0.6938520073890686, 0.7095147371292114, 1.1889803409576416, 1.2714117765426636, 1.3206110000610352, 1.4472988843917847, 1.5296647548675537]</t>
+        </is>
+      </c>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1.271411754661674</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.578976</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>9</v>
+      </c>
+      <c r="C54" t="n">
+        <v>7</v>
+      </c>
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>7</v>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="b">
+        <v>1</v>
+      </c>
+      <c r="O54" t="b">
+        <v>1</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>[82, 112, 94, 128, 96, 114, 17]</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>[1.1962192058563232, 1.4052584171295166, 1.5090450048446655, 1.5114425420761108, 1.5793581008911133, 1.7265819311141968, 2.42822527885437]</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>[82, 112, 94, 128, 96, 114, 17]</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>[1.1962192058563232, 1.4052584171295166, 1.5090450048446655, 1.5114425420761108, 1.5793581008911133, 1.7265819311141968, 2.42822527885437]</t>
+        </is>
+      </c>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1.511442505829669</v>
+      </c>
+      <c r="W54" t="n">
+        <v>2</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.5789654700855298</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>112</v>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.578976</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>17</v>
+      </c>
+      <c r="C55" t="n">
+        <v>7</v>
+      </c>
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" t="n">
+        <v>7</v>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="b">
+        <v>1</v>
+      </c>
+      <c r="O55" t="b">
+        <v>1</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>[88, 129, 23, 68, 48, 7, 70]</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>[0.5247544646263123, 1.026412844657898, 1.0364985466003418, 1.042699933052063, 1.0627883672714233, 1.2714117765426636, 1.5825912952423096]</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>[88, 129, 23, 68, 48, 7, 70]</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>[0.5247544646263123, 1.026412844657898, 1.0364985466003418, 1.042699933052063, 1.0627883672714233, 1.2714117765426636, 1.5825912952423096]</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1.042699980846424</v>
+      </c>
+      <c r="W55" t="n">
+        <v>2</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.4341048247374583</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.578976</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>23</v>
+      </c>
+      <c r="C56" t="n">
+        <v>7</v>
+      </c>
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" t="n">
+        <v>7</v>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="b">
+        <v>1</v>
+      </c>
+      <c r="O56" t="b">
+        <v>1</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>[48, 88, 17, 68, 129, 7, 70]</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>[0.5955532789230347, 0.7853057980537415, 1.0364985466003418, 1.1688058376312256, 1.215668797492981, 1.3206110000610352, 1.6141602993011475]</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>[48, 88, 17, 68, 129, 7, 70]</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>[0.5955532789230347, 0.7853057980537415, 1.0364985466003418, 1.1688058376312256, 1.215668797492981, 1.3206110000610352, 1.6141602993011475]</t>
+        </is>
+      </c>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1.1688058321666</v>
+      </c>
+      <c r="W56" t="n">
+        <v>3</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.5325044568707964</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>88</v>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.578976</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>48</v>
+      </c>
+      <c r="C57" t="n">
+        <v>7</v>
+      </c>
+      <c r="D57" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" t="n">
+        <v>7</v>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="b">
+        <v>1</v>
+      </c>
+      <c r="O57" t="b">
+        <v>1</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>[88, 23, 17, 68, 129, 7, 114]</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>[0.5768178105354309, 0.5955532789230347, 1.0627883672714233, 1.151566743850708, 1.4561500549316406, 1.6920398473739624, 1.856772780418396]</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>[88, 23, 17, 68, 129, 7, 114]</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>[0.5768178105354309, 0.5955532789230347, 1.0627883672714233, 1.151566743850708, 1.4561500549316406, 1.6920398473739624, 1.856772780418396]</t>
+        </is>
+      </c>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1.151566835407635</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.4713506653387178</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>68</v>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.578976</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>68</v>
+      </c>
+      <c r="C58" t="n">
+        <v>7</v>
+      </c>
+      <c r="D58" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" t="n">
+        <v>7</v>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="b">
+        <v>1</v>
+      </c>
+      <c r="O58" t="b">
+        <v>1</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>[88, 17, 48, 23, 7, 70, 129]</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>[0.963847815990448, 1.042699933052063, 1.151566743850708, 1.1688058376312256, 1.1889803409576416, 1.2844855785369873, 1.2921749353408813]</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>[88, 17, 48, 23, 7, 70, 129]</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>[0.963847815990448, 1.042699933052063, 1.151566743850708, 1.1688058376312256, 1.1889803409576416, 1.2844855785369873, 1.2921749353408813]</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1.1688058321666</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.5939819704323989</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>88</v>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.578976</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>70</v>
+      </c>
+      <c r="C59" t="n">
+        <v>7</v>
+      </c>
+      <c r="D59" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" t="n">
+        <v>7</v>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="b">
+        <v>1</v>
+      </c>
+      <c r="O59" t="b">
+        <v>1</v>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>[7, 129, 68, 17, 23, 88, 102]</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>[0.6938520073890686, 1.2321480512619019, 1.2844855785369873, 1.5825912952423096, 1.6141602993011475, 1.7865649461746216, 1.9720324277877808]</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>[7, 129, 68, 17, 23, 88, 102]</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>[0.6938520073890686, 1.2321480512619019, 1.2844855785369873, 1.5825912952423096, 1.6141602993011475, 1.7865649461746216, 1.9720324277877808]</t>
+        </is>
+      </c>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1.582591304528517</v>
+      </c>
+      <c r="W59" t="n">
+        <v>4</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.4990353820222541</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.580033</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>76</v>
+      </c>
+      <c r="C60" t="n">
+        <v>7</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>7</v>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="b">
+        <v>0</v>
+      </c>
+      <c r="O60" t="b">
+        <v>1</v>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>[17, 88, 131, 114, 115, 112, 129]</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>[1, 1, 0, 1, 0, 1, 1]</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>[2.0094025135040283, 2.0699026584625244, 2.1498682498931885, 2.195941925048828, 2.232712984085083, 2.265591859817505, 2.2751543521881104]</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>[17, 88, 114, 112, 129, 48, 68]</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>[2.0094025135040283, 2.0699026584625244, 2.195941925048828, 2.265591859817505, 2.2751543521881104, 2.3073177337646484, 2.3077964782714844]</t>
+        </is>
+      </c>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>2.195941782753044</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.580033</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>82</v>
+      </c>
+      <c r="C61" t="n">
+        <v>7</v>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" t="n">
+        <v>7</v>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="b">
+        <v>1</v>
+      </c>
+      <c r="O61" t="b">
+        <v>1</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>[112, 94, 96, 128, 9, 114, 17]</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>[0.5542061924934387, 0.9788116216659546, 1.1553232669830322, 1.1788504123687744, 1.1962192058563232, 1.1968179941177368, 2.1950740814208984]</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>[112, 94, 96, 128, 9, 114, 17]</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>[0.5542061924934387, 0.9788116216659546, 1.1553232669830322, 1.1788504123687744, 1.1962192058563232, 1.1968179941177368, 2.1950740814208984]</t>
+        </is>
+      </c>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>1.178850402878146</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.439196572483829</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>94</v>
+      </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.580218</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>88</v>
+      </c>
+      <c r="C62" t="n">
+        <v>7</v>
+      </c>
+      <c r="D62" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" t="n">
+        <v>7</v>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="b">
+        <v>1</v>
+      </c>
+      <c r="O62" t="b">
+        <v>1</v>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>[17, 48, 23, 68, 129, 7, 114]</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>[0.5247544646263123, 0.5768178105354309, 0.7853057980537415, 0.963847815990448, 1.1512864828109741, 1.4472988843917847, 1.6623544692993164]</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>[17, 48, 23, 68, 129, 7, 114]</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>[0.5247544646263123, 0.5768178105354309, 0.7853057980537415, 0.963847815990448, 1.1512864828109741, 1.4472988843917847, 1.6623544692993164]</t>
+        </is>
+      </c>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.9638478712737514</v>
+      </c>
+      <c r="W62" t="n">
+        <v>2</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.4650660661526529</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>48</v>
+      </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.580218</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>94</v>
+      </c>
+      <c r="C63" t="n">
+        <v>7</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" t="n">
+        <v>7</v>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="b">
+        <v>1</v>
+      </c>
+      <c r="O63" t="b">
+        <v>1</v>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>[128, 114, 96, 82, 112, 9, 88]</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>[0.4555348753929138, 0.5437226295471191, 0.8630491495132446, 0.9788116216659546, 0.9866169691085815, 1.5090450048446655, 1.987839698791504]</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>[128, 114, 96, 82, 112, 9, 88]</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>[0.4555348753929138, 0.5437226295471191, 0.8630491495132446, 0.9788116216659546, 0.9866169691085815, 1.5090450048446655, 1.987839698791504]</t>
+        </is>
+      </c>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0.9788115939125684</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0.4369708911051055</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>82</v>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.580218</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>96</v>
+      </c>
+      <c r="C64" t="n">
+        <v>7</v>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" t="n">
+        <v>7</v>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="b">
+        <v>1</v>
+      </c>
+      <c r="O64" t="b">
+        <v>1</v>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>[94, 128, 114, 82, 112, 9, 68]</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>[0.8630491495132446, 0.9548653364181519, 1.0304895639419556, 1.1553232669830322, 1.2386415004730225, 1.5793581008911133, 2.136317014694214]</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>[94, 128, 114, 82, 112, 9, 68]</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>[0.8630491495132446, 0.9548653364181519, 1.0304895639419556, 1.1553232669830322, 1.2386415004730225, 1.5793581008911133, 2.136317014694214]</t>
+        </is>
+      </c>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>1.155323300337733</v>
+      </c>
+      <c r="W64" t="n">
+        <v>3</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0.4278987721304084</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>114</v>
+      </c>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.580218</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>102</v>
+      </c>
+      <c r="C65" t="n">
+        <v>7</v>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" t="n">
+        <v>7</v>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="b">
+        <v>1</v>
+      </c>
+      <c r="O65" t="b">
+        <v>1</v>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>[129, 7, 17, 70, 88, 68, 23]</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>[1.225460410118103, 1.5296647548675537, 1.7913583517074585, 1.9720324277877808, 2.007189989089966, 2.0494744777679443, 2.268449068069458]</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>[129, 7, 17, 70, 88, 68, 23]</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>[1.225460410118103, 1.5296647548675537, 1.7913583517074585, 1.9720324277877808, 2.007189989089966, 2.0494744777679443, 2.268449068069458]</t>
+        </is>
+      </c>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>1.972032394907995</v>
+      </c>
+      <c r="W65" t="n">
+        <v>6</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0.5085392166316497</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.580218</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>112</v>
+      </c>
+      <c r="C66" t="n">
+        <v>7</v>
+      </c>
+      <c r="D66" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" t="n">
+        <v>7</v>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="b">
+        <v>1</v>
+      </c>
+      <c r="O66" t="b">
+        <v>1</v>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>[82, 94, 114, 128, 96, 9, 88]</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>[0.5542061924934387, 0.9866169691085815, 1.0372637510299683, 1.1374363899230957, 1.2386415004730225, 1.4052584171295166, 2.102363109588623]</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>[82, 94, 114, 128, 96, 9, 88]</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>[0.5542061924934387, 0.9866169691085815, 1.0372637510299683, 1.1374363899230957, 1.2386415004730225, 1.4052584171295166, 2.102363109588623]</t>
+        </is>
+      </c>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>1.137436331279849</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.580218</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>114</v>
+      </c>
+      <c r="C67" t="n">
+        <v>7</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" t="n">
+        <v>7</v>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="b">
+        <v>1</v>
+      </c>
+      <c r="O67" t="b">
+        <v>1</v>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>[128, 94, 96, 112, 82, 88, 9]</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>[0.49568384885787964, 0.5437226295471191, 1.0304895639419556, 1.0372637510299683, 1.1968179941177368, 1.6623544692993164, 1.7265819311141968]</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>[128, 94, 96, 112, 82, 88, 9]</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>[0.49568384885787964, 0.5437226295471191, 1.0304895639419556, 1.0372637510299683, 1.1968179941177368, 1.6623544692993164, 1.7265819311141968]</t>
+        </is>
+      </c>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>1.03726373057251</v>
+      </c>
+      <c r="W67" t="n">
+        <v>2</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.5843748470046234</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>96</v>
+      </c>
+      <c r="Z67" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.580218</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>128</v>
+      </c>
+      <c r="C68" t="n">
+        <v>7</v>
+      </c>
+      <c r="D68" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" t="n">
+        <v>7</v>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="b">
+        <v>1</v>
+      </c>
+      <c r="O68" t="b">
+        <v>1</v>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>[94, 114, 96, 112, 82, 9, 88]</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>[0.4555348753929138, 0.49568384885787964, 0.9548653364181519, 1.1374363899230957, 1.1788504123687744, 1.5114425420761108, 2.0850367546081543]</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>[94, 114, 96, 112, 82, 9, 88]</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>[0.4555348753929138, 0.49568384885787964, 0.9548653364181519, 1.1374363899230957, 1.1788504123687744, 1.5114425420761108, 2.0850367546081543]</t>
+        </is>
+      </c>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>1.137436331279849</v>
+      </c>
+      <c r="W68" t="n">
+        <v>2</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0.5550265646722229</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>114</v>
+      </c>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.580218</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>129</v>
+      </c>
+      <c r="C69" t="n">
+        <v>7</v>
+      </c>
+      <c r="D69" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" t="n">
+        <v>7</v>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="b">
+        <v>1</v>
+      </c>
+      <c r="O69" t="b">
+        <v>1</v>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
           <t>[7, 17, 88, 23, 102, 70, 68]</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="Q69" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr">
+      <c r="R69" t="inlineStr">
         <is>
           <t>[0.7095147371292114, 1.026412844657898, 1.1512864828109741, 1.215668797492981, 1.225460410118103, 1.2321480512619019, 1.2921749353408813]</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr">
+      <c r="S69" t="inlineStr">
         <is>
           <t>[7, 17, 88, 23, 102, 70, 68]</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
+      <c r="T69" t="inlineStr">
         <is>
           <t>[0.7095147371292114, 1.026412844657898, 1.1512864828109741, 1.215668797492981, 1.225460410118103, 1.2321480512619019, 1.2921749353408813]</t>
         </is>
       </c>
-      <c r="U28" t="n">
-        <v>4</v>
-      </c>
-      <c r="V28" t="n">
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
         <v>1.21566882399522</v>
       </c>
-      <c r="W28" t="n">
-        <v>2</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0.4092900825439996</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>2025-10-27T20:44:27.578311</t>
+      <c r="W69" t="n">
+        <v>3</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0.4542698063547792</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>2025-10-29T23:39:10.580218</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:Z28">
+  <conditionalFormatting sqref="A2:Z69">
     <cfRule type="expression" priority="1" dxfId="0">
       <formula>=$D2=FALSE</formula>
     </cfRule>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D25_R50_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D25_R50_Pentropia.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z94"/>
+  <dimension ref="A1:Z102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,7 +598,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K2" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="b">
@@ -623,34 +623,34 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[123, 168, 167, 21, 161, 3, 53]</t>
+          <t>[1, 167, 163, 157, 3, 32, 53]</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 1, 1, 1]</t>
+          <t>[1, 0, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[0.0, 0.4420248568058014, 0.8503342866897583, 0.8820913434028625, 1.058899164199829, 1.4505605697631836, 1.4763151407241821]</t>
+          <t>[0.0, 0.48484399914741516, 0.9375274181365967, 1.210782527923584, 1.4197405576705933, 1.4914908409118652, 1.5236177444458008]</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>[123, 167, 161, 3, 53, 32, 24]</t>
+          <t>[122, 163, 157, 3, 32, 53, 24]</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.0, 0.8503342866897583, 1.058899164199829, 1.4505605697631836, 1.4763151407241821, 1.4821938276290894, 1.6584436893463135]</t>
+          <t>[0.0, 0.9375274181365967, 1.210782527923584, 1.4197405576705933, 1.4914908409118652, 1.5236177444458008, 1.657482385635376]</t>
         </is>
       </c>
       <c r="U2" t="n">
         <v>5</v>
       </c>
       <c r="V2" t="n">
-        <v>1.254729898305918</v>
+        <v>1.455615620282754</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -659,7 +659,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.750540</t>
+          <t>2025-11-12T07:22:17.180142</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -694,13 +694,13 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K3" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="b">
@@ -711,34 +711,34 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[93, 126, 33, 18, 82, 50, 61]</t>
+          <t>[93, 125, 135, 18, 50, 82, 76]</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 1, 1, 1, 1]</t>
+          <t>[1, 1, 0, 1, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[0.5071632266044617, 0.5966512560844421, 0.7205927968025208, 0.9068948030471802, 0.9433731436729431, 0.9480506777763367, 1.0509742498397827]</t>
+          <t>[0.5625253915786743, 0.6119475960731506, 0.7835078835487366, 0.8744251132011414, 0.9309601187705994, 0.9353270530700684, 1.0167852640151978]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>[93, 126, 18, 82, 50, 61, 144]</t>
+          <t>[93, 125, 18, 50, 82, 61, 143]</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[0.5071632266044617, 0.5966512560844421, 0.9068948030471802, 0.9433731436729431, 0.9480506777763367, 1.0509742498397827, 1.0991559028625488]</t>
+          <t>[0.5625253915786743, 0.6119475960731506, 0.8744251132011414, 0.9309601187705994, 0.9353270530700684, 1.0463417768478394, 1.07241690158844]</t>
         </is>
       </c>
       <c r="U3" t="n">
         <v>5</v>
       </c>
       <c r="V3" t="n">
-        <v>0.9457119417515754</v>
+        <v>0.9331435854608574</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758010</t>
+          <t>2025-11-12T07:22:17.181150</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[53, 32, 168, 24, 130, 123, 1]</t>
+          <t>[53, 32, 167, 24, 163, 1, 122]</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -809,37 +809,33 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[0.455355167388916, 0.8921074271202087, 1.2000261545181274, 1.298391342163086, 1.401395559310913, 1.4505605697631836, 1.4505605697631836]</t>
+          <t>[0.4891885817050934, 0.9434683322906494, 1.1785125732421875, 1.336492896080017, 1.3964189291000366, 1.4197405576705933, 1.4197405576705933]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>[53, 32, 24, 130, 123, 1, 167]</t>
+          <t>[53, 32, 24, 163, 122, 1, 26]</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>[0.455355167388916, 0.8921074271202087, 1.298391342163086, 1.401395559310913, 1.4505605697631836, 1.4505605697631836, 1.4730157852172852]</t>
+          <t>[0.4891885817050934, 0.9434683322906494, 1.336492896080017, 1.3964189291000366, 1.4197405576705933, 1.4197405576705933, 1.70027756690979]</t>
         </is>
       </c>
       <c r="U4" t="n">
         <v>5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.425978078504997</v>
+        <v>1.408079753538835</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.5939819704323989</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758010</t>
+          <t>2025-11-12T07:22:17.181150</t>
         </is>
       </c>
     </row>
@@ -866,7 +862,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -874,13 +870,13 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K5" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="b">
@@ -891,34 +887,34 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[13, 26, 24, 32, 101, 106, 15]</t>
+          <t>[13, 26, 24, 32, 106, 53, 7]</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 0, 1, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[0.12940865755081177, 0.22869402170181274, 1.1170023679733276, 1.2403351068496704, 1.4069324731826782, 1.4521453380584717, 1.5354762077331543]</t>
+          <t>[0.129868745803833, 0.23471945524215698, 1.1081690788269043, 1.2076411247253418, 1.5057982206344604, 1.643641710281372, 1.7287124395370483]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>[13, 26, 24, 32, 106, 50, 53]</t>
+          <t>[13, 26, 24, 32, 106, 53, 3]</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>[0.12940865755081177, 0.22869402170181274, 1.1170023679733276, 1.2403351068496704, 1.4521453380584717, 1.5693738460540771, 1.6345467567443848]</t>
+          <t>[0.129868745803833, 0.23471945524215698, 1.1081690788269043, 1.2076411247253418, 1.5057982206344604, 1.643641710281372, 1.8078194856643677]</t>
         </is>
       </c>
       <c r="U5" t="n">
         <v>5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.429538894099388</v>
+        <v>1.574719990280985</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -927,7 +923,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758010</t>
+          <t>2025-11-12T07:22:17.182154</t>
         </is>
       </c>
     </row>
@@ -944,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -954,7 +950,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -972,14 +968,14 @@
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="b">
         <v>1</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>[136, 39, 140, 18, 93, 20, 64]</t>
+          <t>[153, 77, 100, 18, 64, 93, 2]</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -989,24 +985,24 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>[0.6077335476875305, 0.9027080535888672, 1.1331326961517334, 1.2805808782577515, 1.3264669179916382, 1.3311595916748047, 1.3371775150299072]</t>
+          <t>[0.6378631591796875, 0.935165524482727, 1.3095982074737549, 1.330820918083191, 1.3600478172302246, 1.4256715774536133, 1.499076008796692]</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>[18, 93, 20, 64, 135, 2, 86]</t>
+          <t>[18, 64, 93, 2, 20, 134, 50]</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>[1.2805808782577515, 1.3264669179916382, 1.3311595916748047, 1.3371775150299072, 1.4199833869934082, 1.4782922267913818, 1.6632344722747803]</t>
+          <t>[1.330820918083191, 1.3600478172302246, 1.4256715774536133, 1.499076008796692, 1.6188528537750244, 1.7159433364868164, 1.8405978679656982]</t>
         </is>
       </c>
       <c r="U6" t="n">
         <v>5</v>
       </c>
       <c r="V6" t="n">
-        <v>1.328813223312554</v>
+        <v>1.392859696984818</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1015,7 +1011,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.182154</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1038,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -1050,13 +1046,13 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K7" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="b">
@@ -1067,34 +1063,34 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>[10, 26, 24, 32, 106, 101, 159]</t>
+          <t>[10, 26, 24, 32, 106, 53, 7]</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>[0.12940865755081177, 0.1698651760816574, 1.0425567626953125, 1.204719066619873, 1.3908840417861938, 1.415239691734314, 1.5662968158721924]</t>
+          <t>[0.129868745803833, 0.17742449045181274, 1.032532811164856, 1.1707662343978882, 1.4463818073272705, 1.6146537065505981, 1.7653979063034058]</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>[10, 26, 24, 32, 106, 53, 50]</t>
+          <t>[10, 26, 24, 32, 106, 53, 3]</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>[0.12940865755081177, 0.1698651760816574, 1.0425567626953125, 1.204719066619873, 1.3908840417861938, 1.6056026220321655, 1.61668062210083]</t>
+          <t>[0.129868745803833, 0.17742449045181274, 1.032532811164856, 1.1707662343978882, 1.4463818073272705, 1.6146537065505981, 1.7815049886703491]</t>
         </is>
       </c>
       <c r="U7" t="n">
         <v>5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.4030618540358</v>
+        <v>1.530517795247658</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1103,7 +1099,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.182154</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1126,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -1155,7 +1151,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>[9, 74, 111, 76, 63, 117, 110]</t>
+          <t>[165, 74, 111, 40, 110, 63, 117]</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1165,24 +1161,24 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>[0.3007749617099762, 0.30740076303482056, 0.31928902864456177, 0.32229676842689514, 0.41656363010406494, 0.4304656386375427, 0.44089385867118835]</t>
+          <t>[0.31967228651046753, 0.3256034255027771, 0.3461134135723114, 0.34972861409187317, 0.4679355025291443, 0.4780178666114807, 0.5141596794128418]</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>[74, 111, 63, 117, 110, 68, 85]</t>
+          <t>[74, 111, 110, 63, 117, 37, 85]</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>[0.30740076303482056, 0.31928902864456177, 0.41656363010406494, 0.4304656386375427, 0.44089385867118835, 0.5136011242866516, 0.5309708714485168]</t>
+          <t>[0.3256034255027771, 0.3461134135723114, 0.4679355025291443, 0.4780178666114807, 0.5141596794128418, 0.5391674637794495, 0.5569250583648682]</t>
         </is>
       </c>
       <c r="U8" t="n">
         <v>5</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4235146488785079</v>
+        <v>0.4729766944833479</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1191,7 +1187,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.183145</t>
         </is>
       </c>
     </row>
@@ -1208,7 +1204,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1218,59 +1214,59 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H9" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L9" t="n">
         <v>0.9852281360342515</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.8631205685666311</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="b">
         <v>1</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>[93, 164, 39, 64, 2, 50, 20]</t>
+          <t>[93, 76, 64, 2, 50, 77, 155]</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1, 1, 1, 1]</t>
+          <t>[1, 0, 1, 1, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>[0.6627287864685059, 0.6960263848304749, 0.8507265448570251, 0.8726915717124939, 0.9068948030471802, 0.919141948223114, 0.9360898733139038]</t>
+          <t>[0.6616442203521729, 0.8298359513282776, 0.8517654538154602, 0.8744251132011414, 0.9215759038925171, 0.9406828880310059, 1.091102123260498]</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>[93, 64, 2, 50, 20, 135, 86]</t>
+          <t>[93, 64, 2, 50, 20, 125, 134]</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>[0.6627287864685059, 0.8726915717124939, 0.9068948030471802, 0.919141948223114, 0.9360898733139038, 1.0953865051269531, 1.139807105064392]</t>
+          <t>[0.6616442203521729, 0.8517654538154602, 0.8744251132011414, 0.9215759038925171, 1.101119875907898, 1.1768168210983276, 1.2739721536636353]</t>
         </is>
       </c>
       <c r="U9" t="n">
         <v>5</v>
       </c>
       <c r="V9" t="n">
-        <v>0.9130183614339276</v>
+        <v>0.9311293830279057</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1279,7 +1275,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.183145</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1302,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1314,13 +1310,13 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K10" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="b">
@@ -1331,34 +1327,34 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>[135, 164, 86, 75, 39, 18, 93]</t>
+          <t>[134, 86, 43, 77, 93, 18, 64]</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 1, 1]</t>
+          <t>[1, 1, 0, 0, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>[0.3977104723453522, 0.4822434186935425, 0.6578987836837769, 0.7329282760620117, 0.799453854560852, 0.9360898733139038, 0.993069589138031]</t>
+          <t>[0.4291931390762329, 0.7041640281677246, 0.7866758108139038, 1.0205904245376587, 1.092565894126892, 1.101119875907898, 1.4140686988830566]</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>[135, 86, 18, 93, 64, 11, 2]</t>
+          <t>[134, 86, 93, 18, 64, 2, 125]</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>[0.3977104723453522, 0.6578987836837769, 0.9360898733139038, 0.993069589138031, 1.2080645561218262, 1.3311595916748047, 1.3493456840515137]</t>
+          <t>[0.4291931390762329, 0.7041640281677246, 1.092565894126892, 1.101119875907898, 1.4140686988830566, 1.4764940738677979, 1.5760524272918701]</t>
         </is>
       </c>
       <c r="U10" t="n">
         <v>5</v>
       </c>
       <c r="V10" t="n">
-        <v>0.8677718825175385</v>
+        <v>1.096842903314871</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,7 +1363,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.184145</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1390,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1429,7 +1425,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>[0.5182933211326599, 0.9262551069259644, 1.0425567626953125, 1.1170023679733276, 1.1228587627410889, 1.1462832689285278, 1.298391342163086]</t>
+          <t>[0.5184880495071411, 0.9225032329559326, 1.032532811164856, 1.1081690788269043, 1.2583378553390503, 1.3292838335037231, 1.336492896080017]</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1439,14 +1435,14 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>[0.5182933211326599, 0.9262551069259644, 1.0425567626953125, 1.1170023679733276, 1.1228587627410889, 1.1462832689285278, 1.298391342163086]</t>
+          <t>[0.5184880495071411, 0.9225032329559326, 1.032532811164856, 1.1081690788269043, 1.2583378553390503, 1.3292838335037231, 1.336492896080017]</t>
         </is>
       </c>
       <c r="U11" t="n">
         <v>5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.134570996818142</v>
+        <v>1.293810808621087</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1455,7 +1451,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.184145</t>
         </is>
       </c>
     </row>
@@ -1482,7 +1478,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1490,13 +1486,13 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5916727785823274</v>
+        <v>0</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="b">
@@ -1507,34 +1503,34 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>[13, 10, 24, 32, 101, 106, 53]</t>
+          <t>[13, 10, 24, 32, 106, 53, 3]</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 0, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>[0.1698651760816574, 0.22869402170181274, 0.9262551069259644, 1.0758094787597656, 1.3599109649658203, 1.37345290184021, 1.506775975227356]</t>
+          <t>[0.17742449045181274, 0.23471945524215698, 0.9225032329559326, 1.0498614311218262, 1.4604705572128296, 1.535957932472229, 1.70027756690979]</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>[13, 10, 24, 32, 106, 53, 50]</t>
+          <t>[13, 10, 24, 32, 106, 53, 3]</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>[0.1698651760816574, 0.22869402170181274, 0.9262551069259644, 1.0758094787597656, 1.37345290184021, 1.506775975227356, 1.558606743812561]</t>
+          <t>[0.17742449045181274, 0.23471945524215698, 0.9225032329559326, 1.0498614311218262, 1.4604705572128296, 1.535957932472229, 1.70027756690979]</t>
         </is>
       </c>
       <c r="U12" t="n">
         <v>5</v>
       </c>
       <c r="V12" t="n">
-        <v>1.366681929109135</v>
+        <v>1.498214223412375</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1543,7 +1539,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.184145</t>
         </is>
       </c>
     </row>
@@ -1570,7 +1566,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1595,7 +1591,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>[141, 37, 117, 110, 55, 68, 74]</t>
+          <t>[115, 37, 74, 68, 16, 110, 117]</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1605,24 +1601,24 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>[0.5352326035499573, 0.5760443806648254, 0.7319240570068359, 0.7476316690444946, 0.7584215402603149, 0.7982650399208069, 0.8102375268936157]</t>
+          <t>[0.5536484122276306, 0.7241610288619995, 0.8312468528747559, 0.8535651564598083, 0.8906875848770142, 0.9061747193336487, 0.9066646099090576]</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>[37, 117, 110, 55, 68, 74, 16]</t>
+          <t>[37, 74, 68, 16, 110, 117, 61]</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>[0.5760443806648254, 0.7319240570068359, 0.7476316690444946, 0.7584215402603149, 0.7982650399208069, 0.8102375268936157, 0.8236029148101807]</t>
+          <t>[0.7241610288619995, 0.8312468528747559, 0.8535651564598083, 0.8906875848770142, 0.9061747193336487, 0.9066646099090576, 0.9517606496810913]</t>
         </is>
       </c>
       <c r="U13" t="n">
         <v>5</v>
       </c>
       <c r="V13" t="n">
-        <v>0.7783432860144076</v>
+        <v>0.898431150527495</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1631,7 +1627,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.185146</t>
         </is>
       </c>
     </row>
@@ -1658,7 +1654,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1683,34 +1679,34 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>[24, 53, 3, 26, 13, 168, 130]</t>
+          <t>[24, 53, 3, 26, 13, 10, 167]</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 0, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>[0.5182933211326599, 0.7708574533462524, 0.8921074271202087, 1.0758094787597656, 1.204719066619873, 1.2284033298492432, 1.238690733909607]</t>
+          <t>[0.5184880495071411, 0.9351325631141663, 0.9434683322906494, 1.0498614311218262, 1.1707662343978882, 1.2076411247253418, 1.2328144311904907]</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>[24, 53, 3, 26, 13, 130, 10]</t>
+          <t>[24, 53, 3, 26, 13, 10, 163]</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>[0.5182933211326599, 0.7708574533462524, 0.8921074271202087, 1.0758094787597656, 1.204719066619873, 1.238690733909607, 1.2403351068496704]</t>
+          <t>[0.5184880495071411, 0.9351325631141663, 0.9434683322906494, 1.0498614311218262, 1.1707662343978882, 1.2076411247253418, 1.4274630546569824]</t>
         </is>
       </c>
       <c r="U14" t="n">
         <v>5</v>
       </c>
       <c r="V14" t="n">
-        <v>1.216561173308878</v>
+        <v>1.189203738877948</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1719,7 +1715,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.185146</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1742,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1754,13 +1750,13 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K15" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L15" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="b">
@@ -1771,34 +1767,34 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>[55, 124, 110, 71, 117, 103, 76]</t>
+          <t>[55, 123, 117, 110, 16, 40, 71]</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 0, 1]</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>[0.26203104853630066, 0.3978515863418579, 0.5077478289604187, 0.5131158232688904, 0.5291309952735901, 0.5316541194915771, 0.5403203368186951]</t>
+          <t>[0.3100268542766571, 0.5126516819000244, 0.516476035118103, 0.5181021094322205, 0.5391674637794495, 0.5674997568130493, 0.5835224986076355]</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>[55, 124, 110, 71, 117, 30, 16]</t>
+          <t>[55, 123, 117, 110, 16, 71, 63]</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>[0.26203104853630066, 0.3978515863418579, 0.5077478289604187, 0.5131158232688904, 0.5291309952735901, 0.5760443806648254, 0.5815709829330444]</t>
+          <t>[0.3100268542766571, 0.5126516819000244, 0.516476035118103, 0.5181021094322205, 0.5391674637794495, 0.5835224986076355, 0.5938102006912231]</t>
         </is>
       </c>
       <c r="U15" t="n">
         <v>5</v>
       </c>
       <c r="V15" t="n">
-        <v>0.5303925546210846</v>
+        <v>0.5533335965157559</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1807,7 +1803,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.186140</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1830,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1842,13 +1838,13 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K16" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="b">
@@ -1859,34 +1855,34 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>[20, 135, 86, 164, 52, 64, 39]</t>
+          <t>[20, 134, 86, 77, 64, 43, 18]</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 0, 1, 0]</t>
+          <t>[1, 1, 1, 0, 1, 0, 1]</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>[1.6075495481491089, 1.7058182954788208, 1.7214041948318481, 1.7413958311080933, 1.8856606483459473, 1.941575050354004, 1.985748291015625]</t>
+          <t>[1.8015823364257812, 1.9035998582839966, 1.96121084690094, 2.2015280723571777, 2.255298137664795, 2.321388006210327, 2.3546102046966553]</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>[20, 135, 86, 64, 18, 93, 11]</t>
+          <t>[20, 134, 86, 64, 18, 93, 11]</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>[1.6075495481491089, 1.7058182954788208, 1.7214041948318481, 1.941575050354004, 2.099283218383789, 2.3223049640655518, 2.413166046142578]</t>
+          <t>[1.8015823364257812, 1.9035998582839966, 1.96121084690094, 2.255298137664795, 2.3546102046966553, 2.5247254371643066, 2.6951305866241455]</t>
         </is>
       </c>
       <c r="U16" t="n">
         <v>5</v>
       </c>
       <c r="V16" t="n">
-        <v>1.913617831685669</v>
+        <v>2.288343087707235</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1895,7 +1891,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.186140</t>
         </is>
       </c>
     </row>
@@ -1922,7 +1918,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1947,34 +1943,34 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>[137, 150, 142, 130, 120, 58, 6]</t>
+          <t>[129, 136, 84, 146, 120, 141, 70]</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 0, 0]</t>
+          <t>[1, 1, 0, 1, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>[0.8904705047607422, 0.9498926997184753, 0.9758562445640564, 1.0015952587127686, 1.0113223791122437, 1.0445706844329834, 1.1344202756881714]</t>
+          <t>[1.076499581336975, 1.0836451053619385, 1.1043514013290405, 1.1855159997940063, 1.2097294330596924, 1.308249831199646, 1.4837433099746704]</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>[137, 150, 142, 130, 120, 32, 124]</t>
+          <t>[129, 136, 146, 120, 141, 32, 71]</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>[0.8904705047607422, 0.9498926997184753, 0.9758562445640564, 1.0015952587127686, 1.0113223791122437, 1.4676250219345093, 1.4949976205825806]</t>
+          <t>[1.076499581336975, 1.0836451053619385, 1.1855159997940063, 1.2097294330596924, 1.308249831199646, 1.676308274269104, 1.6889221668243408]</t>
         </is>
       </c>
       <c r="U17" t="n">
         <v>5</v>
       </c>
       <c r="V17" t="n">
-        <v>1.027946549457562</v>
+        <v>1.25898959261418</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1983,7 +1979,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.186140</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2006,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -2035,7 +2031,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>[138, 128, 111, 63, 85, 110, 117]</t>
+          <t>[137, 127, 111, 63, 110, 85, 117]</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -2045,24 +2041,24 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>[0.22816817462444305, 0.24486501514911652, 0.34273430705070496, 0.3655383288860321, 0.37045618891716003, 0.4037454128265381, 0.45551687479019165]</t>
+          <t>[0.285773366689682, 0.32066431641578674, 0.37676939368247986, 0.3915724754333496, 0.4206562042236328, 0.4584267735481262, 0.47806188464164734]</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>[138, 128, 111, 63, 85, 110, 117]</t>
+          <t>[137, 127, 111, 63, 110, 85, 117]</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>[0.22816817462444305, 0.24486501514911652, 0.34273430705070496, 0.3655383288860321, 0.37045618891716003, 0.4037454128265381, 0.45551687479019165]</t>
+          <t>[0.285773366689682, 0.32066431641578674, 0.37676939368247986, 0.3915724754333496, 0.4206562042236328, 0.4584267735481262, 0.47806188464164734]</t>
         </is>
       </c>
       <c r="U18" t="n">
         <v>5</v>
       </c>
       <c r="V18" t="n">
-        <v>0.3871007922881953</v>
+        <v>0.4395414765052859</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2071,7 +2067,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.187140</t>
         </is>
       </c>
     </row>
@@ -2098,7 +2094,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -2106,13 +2102,13 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K19" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L19" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="b">
@@ -2123,34 +2119,34 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>[101, 131, 144, 33, 126, 18, 93]</t>
+          <t>[76, 78, 6, 18, 135, 2, 155]</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 1, 1, 1]</t>
+          <t>[0, 0, 0, 1, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>[0.6700303554534912, 0.7245572209358215, 0.8207784295082092, 0.8380783796310425, 0.91129469871521, 0.919141948223114, 0.9428142309188843]</t>
+          <t>[0.5962927341461182, 0.7323093414306641, 0.8878015875816345, 0.9215759038925171, 0.9274415373802185, 0.9309601187705994, 0.9559453129768372]</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>[144, 126, 18, 93, 2, 61, 73]</t>
+          <t>[18, 2, 143, 61, 125, 93, 64]</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>[0.8207784295082092, 0.91129469871521, 0.919141948223114, 0.9428142309188843, 0.9480506777763367, 0.9742568731307983, 1.495444893836975]</t>
+          <t>[0.9215759038925171, 0.9309601187705994, 0.9594192504882812, 1.0059380531311035, 1.0131018161773682, 1.0313117504119873, 1.5527194738388062]</t>
         </is>
       </c>
       <c r="U19" t="n">
         <v>5</v>
       </c>
       <c r="V19" t="n">
-        <v>0.9152183341948804</v>
+        <v>0.9292008317011637</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2159,7 +2155,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.187140</t>
         </is>
       </c>
     </row>
@@ -2186,7 +2182,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -2211,7 +2207,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>[3, 32, 24, 168, 167, 1, 123]</t>
+          <t>[3, 32, 24, 167, 163, 122, 1]</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2221,37 +2217,33 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>[0.455355167388916, 0.7708574533462524, 1.1228587627410889, 1.2940304279327393, 1.4607783555984497, 1.4763151407241821, 1.4763151407241821]</t>
+          <t>[0.4891885817050934, 0.9351325631141663, 1.2583378553390503, 1.366477608680725, 1.4423130750656128, 1.5236177444458008, 1.5236177444458008]</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>[3, 32, 24, 167, 123, 1, 26]</t>
+          <t>[3, 32, 24, 163, 122, 1, 26]</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>[0.455355167388916, 0.7708574533462524, 1.1228587627410889, 1.4607783555984497, 1.4763151407241821, 1.4763151407241821, 1.506775975227356]</t>
+          <t>[0.4891885817050934, 0.9351325631141663, 1.2583378553390503, 1.4423130750656128, 1.5236177444458008, 1.5236177444458008, 1.535957932472229]</t>
         </is>
       </c>
       <c r="U20" t="n">
         <v>5</v>
       </c>
       <c r="V20" t="n">
-        <v>1.46854679165838</v>
+        <v>1.482965390743993</v>
       </c>
       <c r="W20" t="n">
-        <v>1</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0.4918497783931735</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.187140</t>
         </is>
       </c>
     </row>
@@ -2268,7 +2260,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
@@ -2278,59 +2270,59 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H21" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L21" t="n">
         <v>0.9852281360342515</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J21" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.8631205685666311</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="b">
         <v>1</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>[37, 124, 31, 103, 6, 145, 9]</t>
+          <t>[37, 123, 70, 117, 75, 69, 16]</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 1, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>[0.26203104853630066, 0.33407479524612427, 0.44496896862983704, 0.5353369116783142, 0.5808002948760986, 0.6220324635505676, 0.6349945664405823]</t>
+          <t>[0.3100268542766571, 0.4077055752277374, 0.47035497426986694, 0.6203934550285339, 0.6287567019462585, 0.6307176947593689, 0.6865298748016357]</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>[37, 124, 117, 16, 71, 110, 63]</t>
+          <t>[37, 123, 117, 16, 63, 110, 71]</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>[0.26203104853630066, 0.33407479524612427, 0.6354897022247314, 0.6747813820838928, 0.6835541129112244, 0.6945022344589233, 0.725619375705719]</t>
+          <t>[0.3100268542766571, 0.4077055752277374, 0.6203934550285339, 0.6865298748016357, 0.7180225849151611, 0.7294154763221741, 0.7597788572311401]</t>
         </is>
       </c>
       <c r="U21" t="n">
         <v>5</v>
       </c>
       <c r="V21" t="n">
-        <v>0.601416360487085</v>
+        <v>0.6297371756543032</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2339,7 +2331,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.187903</t>
         </is>
       </c>
     </row>
@@ -2366,7 +2358,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -2391,34 +2383,34 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>[90, 79, 71, 99, 103, 110, 17]</t>
+          <t>[90, 79, 69, 99, 71, 17, 63]</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 0, 1, 0]</t>
+          <t>[1, 1, 0, 1, 1, 0, 1]</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>[0.22162799537181854, 0.3359346091747284, 0.47105836868286133, 0.4770033061504364, 0.4871639609336853, 0.5272589921951294, 0.5433007478713989]</t>
+          <t>[0.2648962140083313, 0.3291603624820709, 0.5103800892829895, 0.53846275806427, 0.5723572969436646, 0.5968208312988281, 0.6341315507888794]</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>[90, 79, 71, 99, 110, 63, 37]</t>
+          <t>[90, 79, 99, 71, 63, 110, 49]</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>[0.22162799537181854, 0.3359346091747284, 0.47105836868286133, 0.4770033061504364, 0.5272589921951294, 0.5959763526916504, 0.6228371858596802]</t>
+          <t>[0.2648962140083313, 0.3291603624820709, 0.53846275806427, 0.5723572969436646, 0.6341315507888794, 0.6482275128364563, 0.6494924426078796]</t>
         </is>
       </c>
       <c r="U22" t="n">
         <v>5</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5072114582915412</v>
+        <v>0.584589039690414</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2427,7 +2419,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.188452</t>
         </is>
       </c>
     </row>
@@ -2454,7 +2446,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -2462,13 +2454,13 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K23" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L23" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="b">
@@ -2479,43 +2471,47 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>[126, 144, 30, 50, 33, 2, 141]</t>
+          <t>[30, 125, 50, 2, 115, 143, 37]</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 0, 1, 0]</t>
+          <t>[1, 1, 1, 1, 0, 1, 1]</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>[0.7968783378601074, 0.9135709404945374, 0.9677942991256714, 0.9742568731307983, 1.0217220783233643, 1.0509742498397827, 1.088165283203125]</t>
+          <t>[0.9517606496810913, 0.9638957381248474, 1.0059380531311035, 1.0463417768478394, 1.0661730766296387, 1.1271377801895142, 1.1515058279037476]</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>[126, 144, 30, 50, 2, 37, 73]</t>
+          <t>[30, 125, 50, 2, 143, 37, 82]</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>[0.7968783378601074, 0.9135709404945374, 0.9677942991256714, 0.9742568731307983, 1.0509742498397827, 1.1017946004867554, 1.1369935274124146]</t>
+          <t>[0.9517606496810913, 0.9638957381248474, 1.0059380531311035, 1.0463417768478394, 1.1271377801895142, 1.1515058279037476, 1.1925890445709229]</t>
         </is>
       </c>
       <c r="U23" t="n">
         <v>5</v>
       </c>
       <c r="V23" t="n">
-        <v>1.036348183667951</v>
+        <v>1.096655438561091</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.4918497783931735</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>50</v>
+      </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.188599</t>
         </is>
       </c>
     </row>
@@ -2542,7 +2538,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -2567,34 +2563,34 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>[111, 110, 49, 117, 143, 74, 16]</t>
+          <t>[111, 49, 110, 9, 117, 16, 156]</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 0, 1, 1]</t>
+          <t>[1, 1, 1, 0, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>[0.26537278294563293, 0.3534441888332367, 0.3655383288860321, 0.37331050634384155, 0.3796297311782837, 0.39677804708480835, 0.41656363010406494]</t>
+          <t>[0.3099047541618347, 0.3915724754333496, 0.4099559187889099, 0.42432305216789246, 0.42900988459587097, 0.4780178666114807, 0.48099973797798157]</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>[111, 110, 49, 117, 74, 16, 128]</t>
+          <t>[111, 49, 110, 117, 16, 156, 74]</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>[0.26537278294563293, 0.3534441888332367, 0.3655383288860321, 0.37331050634384155, 0.39677804708480835, 0.41656363010406494, 0.4334620237350464]</t>
+          <t>[0.3099047541618347, 0.3915724754333496, 0.4099559187889099, 0.42900988459587097, 0.4780178666114807, 0.48099973797798157, 0.4831402599811554]</t>
         </is>
       </c>
       <c r="U24" t="n">
         <v>5</v>
       </c>
       <c r="V24" t="n">
-        <v>0.3882038961444785</v>
+        <v>0.4535138931547853</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2603,7 +2599,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.189132</t>
         </is>
       </c>
     </row>
@@ -2630,7 +2626,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -2655,34 +2651,34 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>[151, 18, 164, 115, 136, 20, 39]</t>
+          <t>[52, 18, 39, 153, 77, 155, 11]</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 0, 1, 0]</t>
+          <t>[0, 1, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>[0.7744289636611938, 0.8726915717124939, 0.9366227388381958, 1.1058002710342407, 1.2067434787750244, 1.2080645561218262, 1.2272772789001465]</t>
+          <t>[0.7759283781051636, 0.8517654538154602, 1.119865894317627, 1.1665688753128052, 1.2623952627182007, 1.2731965780258179, 1.3600478172302246]</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>[18, 20, 86, 135, 11, 93, 50]</t>
+          <t>[18, 11, 20, 93, 86, 50, 134]</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>[0.8726915717124939, 1.2080645561218262, 1.2516870498657227, 1.3304789066314697, 1.3371775150299072, 1.4364837408065796, 1.602185606956482]</t>
+          <t>[0.8517654538154602, 1.3600478172302246, 1.4140686988830566, 1.4452286958694458, 1.5044609308242798, 1.5527194738388062, 1.5550521612167358]</t>
         </is>
       </c>
       <c r="U25" t="n">
         <v>5</v>
       </c>
       <c r="V25" t="n">
-        <v>1.207404005595429</v>
+        <v>1.267795875594791</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2691,7 +2687,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.189132</t>
         </is>
       </c>
     </row>
@@ -2718,7 +2714,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -2743,7 +2739,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>[85, 128, 110, 111, 138, 117, 49]</t>
+          <t>[85, 127, 110, 111, 137, 74, 16]</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -2753,24 +2749,24 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>[0.23407834768295288, 0.3419783413410187, 0.35677751898765564, 0.37327322363853455, 0.40499499440193176, 0.45675554871559143, 0.46399742364883423]</t>
+          <t>[0.24307456612586975, 0.3812859058380127, 0.4107741117477417, 0.4541611671447754, 0.46767961978912354, 0.5492041110992432, 0.5670666098594666]</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>[85, 128, 110, 111, 138, 117, 49]</t>
+          <t>[85, 127, 110, 111, 137, 74, 16]</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>[0.23407834768295288, 0.3419783413410187, 0.35677751898765564, 0.37327322363853455, 0.40499499440193176, 0.45675554871559143, 0.46399742364883423]</t>
+          <t>[0.24307456612586975, 0.3812859058380127, 0.4107741117477417, 0.4541611671447754, 0.46767961978912354, 0.5492041110992432, 0.5670666098594666]</t>
         </is>
       </c>
       <c r="U26" t="n">
         <v>5</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4308752930835846</v>
+        <v>0.5084418717348278</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2779,7 +2775,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.189132</t>
         </is>
       </c>
     </row>
@@ -2806,7 +2802,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -2814,13 +2810,13 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K27" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L27" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="b">
@@ -2831,34 +2827,34 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>[90, 79, 57, 102, 17, 103, 37]</t>
+          <t>[90, 15, 79, 57, 37, 9, 123]</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 0, 0, 1]</t>
+          <t>[1, 0, 1, 1, 1, 0, 1]</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>[0.40712061524391174, 0.4340638518333435, 0.47105836868286133, 0.4762324094772339, 0.48555275797843933, 0.5002703666687012, 0.5131158232688904]</t>
+          <t>[0.4762190580368042, 0.5496227741241455, 0.5667364001274109, 0.5723572969436646, 0.5835224986076355, 0.5945829749107361, 0.5980291366577148]</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>[90, 79, 57, 37, 124, 97, 110]</t>
+          <t>[90, 79, 57, 37, 123, 110, 97]</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>[0.40712061524391174, 0.4340638518333435, 0.47105836868286133, 0.5131158232688904, 0.5412389039993286, 0.5669599771499634, 0.6109216809272766]</t>
+          <t>[0.4762190580368042, 0.5667364001274109, 0.5723572969436646, 0.5835224986076355, 0.5980291366577148, 0.613896369934082, 0.6567456126213074]</t>
         </is>
       </c>
       <c r="U27" t="n">
         <v>5</v>
       </c>
       <c r="V27" t="n">
-        <v>0.4929115494357106</v>
+        <v>0.5890527358473263</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2867,7 +2863,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.190133</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2890,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H28" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -2919,34 +2915,34 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>[69, 36, 40, 29, 126, 154, 133]</t>
+          <t>[130, 72, 140, 36, 150, 125, 95]</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 1, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>[0.7071465253829956, 0.796012818813324, 0.7980440855026245, 0.8044586777687073, 0.8550234436988831, 0.874969482421875, 0.9194134473800659]</t>
+          <t>[0.8359204530715942, 0.8565196394920349, 0.8603360056877136, 0.87565678358078, 0.9158304333686829, 0.9292263388633728, 0.9690621495246887]</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>[126, 55, 37, 63, 124, 61, 16]</t>
+          <t>[125, 55, 37, 63, 156, 123, 74]</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>[0.8550234436988831, 0.9730480909347534, 1.0704206228256226, 1.1138153076171875, 1.1355130672454834, 1.1369935274124146, 1.139632225036621]</t>
+          <t>[0.9292263388633728, 1.0104994773864746, 1.138222336769104, 1.1701632738113403, 1.1911569833755493, 1.2203271389007568, 1.2235807180404663]</t>
         </is>
       </c>
       <c r="U28" t="n">
         <v>5</v>
       </c>
       <c r="V28" t="n">
-        <v>0.8649964673847084</v>
+        <v>0.9225283887616631</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2955,7 +2951,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.190133</t>
         </is>
       </c>
     </row>
@@ -2982,7 +2978,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -3007,7 +3003,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>[111, 16, 117, 160, 63, 85, 128]</t>
+          <t>[16, 111, 156, 117, 85, 63, 127]</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -3017,24 +3013,24 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>[0.2745113968849182, 0.30740076303482056, 0.3631272315979004, 0.3868076205253601, 0.39677804708480835, 0.4322109818458557, 0.4546579122543335]</t>
+          <t>[0.3256034255027771, 0.32647669315338135, 0.43169161677360535, 0.4518955945968628, 0.48287177085876465, 0.4831402599811554, 0.4947105944156647]</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>[111, 16, 117, 160, 63, 85, 128]</t>
+          <t>[16, 111, 156, 117, 85, 63, 127]</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>[0.2745113968849182, 0.30740076303482056, 0.3631272315979004, 0.3868076205253601, 0.39677804708480835, 0.4322109818458557, 0.4546579122543335]</t>
+          <t>[0.3256034255027771, 0.32647669315338135, 0.43169161677360535, 0.4518955945968628, 0.48287177085876465, 0.4831402599811554, 0.4947105944156647]</t>
         </is>
       </c>
       <c r="U29" t="n">
         <v>5</v>
       </c>
       <c r="V29" t="n">
-        <v>0.4144945139202602</v>
+        <v>0.4830059997314791</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -3043,7 +3039,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.190133</t>
         </is>
       </c>
     </row>
@@ -3070,7 +3066,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -3095,34 +3091,34 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>[90, 57, 71, 103, 17, 99, 124]</t>
+          <t>[90, 57, 69, 71, 17, 99, 123]</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 0, 1, 1]</t>
+          <t>[1, 1, 0, 1, 0, 1, 1]</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>[0.2998863458633423, 0.3359346091747284, 0.4340638518333435, 0.4363320767879486, 0.5034973621368408, 0.5981711745262146, 0.6567560434341431]</t>
+          <t>[0.3078397512435913, 0.3291603624820709, 0.46731218695640564, 0.5667364001274109, 0.5690552592277527, 0.6081991195678711, 0.6721161007881165]</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>[90, 57, 71, 99, 124, 37, 110]</t>
+          <t>[90, 57, 71, 99, 123, 110, 37]</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>[0.2998863458633423, 0.3359346091747284, 0.4340638518333435, 0.5981711745262146, 0.6567560434341431, 0.7232784032821655, 0.7322577238082886]</t>
+          <t>[0.3078397512435913, 0.3291603624820709, 0.5667364001274109, 0.6081991195678711, 0.6721161007881165, 0.7963089346885681, 0.8715474009513855]</t>
         </is>
       </c>
       <c r="U30" t="n">
         <v>5</v>
       </c>
       <c r="V30" t="n">
-        <v>0.5508342674028873</v>
+        <v>0.5886271749731768</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -3131,7 +3127,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.191130</t>
         </is>
       </c>
     </row>
@@ -3158,7 +3154,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -3183,7 +3179,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>[160, 128, 49, 138, 63, 85, 74]</t>
+          <t>[156, 49, 127, 63, 111, 125, 74]</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -3193,24 +3189,24 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>[0.7024815082550049, 0.7791270613670349, 0.782824695110321, 0.8669902086257935, 0.8682761192321777, 0.8756409883499146, 0.8760532736778259]</t>
+          <t>[0.6921119093894958, 0.7866690754890442, 0.7912662625312805, 0.8496972322463989, 0.8651047945022583, 0.8794010281562805, 0.88278728723526]</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>[160, 128, 49, 138, 63, 85, 74]</t>
+          <t>[156, 49, 127, 63, 111, 125, 74]</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>[0.7024815082550049, 0.7791270613670349, 0.782824695110321, 0.8669902086257935, 0.8682761192321777, 0.8756409883499146, 0.8760532736778259]</t>
+          <t>[0.6921119093894958, 0.7866690754890442, 0.7912662625312805, 0.8496972322463989, 0.8651047945022583, 0.8794010281562805, 0.88278728723526]</t>
         </is>
       </c>
       <c r="U31" t="n">
         <v>5</v>
       </c>
       <c r="V31" t="n">
-        <v>0.8719585240049815</v>
+        <v>0.8722529102781014</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3219,7 +3215,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.191130</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3242,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -3271,7 +3267,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>[68, 128, 111, 138, 49, 74, 110]</t>
+          <t>[68, 127, 111, 137, 110, 49, 74]</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -3281,24 +3277,24 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>[0.23407834768295288, 0.2518826425075531, 0.31941407918930054, 0.35915279388427734, 0.37045618891716003, 0.4322109818458557, 0.4433661103248596]</t>
+          <t>[0.24307456612586975, 0.2721707820892334, 0.3576032519340515, 0.38400450348854065, 0.4392389953136444, 0.4584267735481262, 0.48287177085876465]</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>[68, 128, 111, 138, 49, 74, 110]</t>
+          <t>[68, 127, 111, 137, 110, 49, 74]</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>[0.23407834768295288, 0.2518826425075531, 0.31941407918930054, 0.35915279388427734, 0.37045618891716003, 0.4322109818458557, 0.4433661103248596]</t>
+          <t>[0.24307456612586975, 0.2721707820892334, 0.3576032519340515, 0.38400450348854065, 0.4392389953136444, 0.4584267735481262, 0.48287177085876465]</t>
         </is>
       </c>
       <c r="U32" t="n">
         <v>5</v>
       </c>
       <c r="V32" t="n">
-        <v>0.4013335738709783</v>
+        <v>0.4488328825010381</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3307,7 +3303,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.191486</t>
         </is>
       </c>
     </row>
@@ -3324,7 +3320,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>7</v>
@@ -3334,7 +3330,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -3342,7 +3338,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K33" t="n">
         <v>0.7142857142857143</v>
@@ -3352,41 +3348,41 @@
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" t="b">
         <v>1</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>[135, 164, 75, 20, 52, 39, 18]</t>
+          <t>[134, 43, 20, 77, 67, 18, 93]</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1, 0, 0, 1]</t>
+          <t>[1, 0, 1, 0, 0, 1, 1]</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>[0.41570061445236206, 0.48236414790153503, 0.5884926915168762, 0.6578987836837769, 0.9539618492126465, 1.042965054512024, 1.139807105064392]</t>
+          <t>[0.42311567068099976, 0.5854349136352539, 0.7041640281677246, 1.2230292558670044, 1.2901464700698853, 1.321805715560913, 1.4345275163650513]</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>[135, 20, 18, 64, 93, 2, 11]</t>
+          <t>[134, 20, 18, 93, 64, 2, 125]</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>[0.41570061445236206, 0.6578987836837769, 1.139807105064392, 1.2516870498657227, 1.3337684869766235, 1.5819833278656006, 1.6632344722747803]</t>
+          <t>[0.42311567068099976, 0.7041640281677246, 1.321805715560913, 1.4345275163650513, 1.5044609308242798, 1.7105435132980347, 1.7833822965621948]</t>
         </is>
       </c>
       <c r="U33" t="n">
         <v>5</v>
       </c>
       <c r="V33" t="n">
-        <v>0.9984634206398195</v>
+        <v>1.305976154716575</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3395,7 +3391,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.192130</t>
         </is>
       </c>
     </row>
@@ -3422,7 +3418,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -3447,7 +3443,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>[57, 79, 99, 71, 110, 103, 17]</t>
+          <t>[57, 79, 99, 71, 110, 69, 17]</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -3457,24 +3453,24 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>[0.22162799537181854, 0.2998863458633423, 0.32982856035232544, 0.40712061524391174, 0.5196176767349243, 0.5489755272865295, 0.5727618932723999]</t>
+          <t>[0.2648962140083313, 0.3078397512435913, 0.33964914083480835, 0.4762190580368042, 0.5851075649261475, 0.5878771543502808, 0.6303510069847107]</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>[57, 79, 99, 71, 110, 138, 49]</t>
+          <t>[57, 79, 99, 71, 110, 49, 137]</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>[0.22162799537181854, 0.2998863458633423, 0.32982856035232544, 0.40712061524391174, 0.5196176767349243, 0.6713021397590637, 0.6792292594909668]</t>
+          <t>[0.2648962140083313, 0.3078397512435913, 0.33964914083480835, 0.4762190580368042, 0.5851075649261475, 0.6484301090240479, 0.6915300488471985]</t>
         </is>
       </c>
       <c r="U34" t="n">
         <v>5</v>
       </c>
       <c r="V34" t="n">
-        <v>0.534296586047466</v>
+        <v>0.5864923452139391</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3483,7 +3479,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.192130</t>
         </is>
       </c>
     </row>
@@ -3500,7 +3496,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>7</v>
@@ -3510,7 +3506,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -3528,41 +3524,41 @@
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" t="b">
         <v>1</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>[2, 18, 126, 33, 39, 50, 75]</t>
+          <t>[2, 18, 125, 135, 76, 77, 143]</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 0, 1, 0]</t>
+          <t>[1, 1, 1, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>[0.5071632266044617, 0.6627287864685059, 0.7265123724937439, 0.7333554625511169, 0.9368272423744202, 0.9428142309188843, 0.968704879283905]</t>
+          <t>[0.5625253915786743, 0.6616442203521729, 0.716044545173645, 0.7597164511680603, 0.8705536127090454, 1.0153090953826904, 1.0182502269744873]</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>[2, 18, 126, 50, 20, 144, 135]</t>
+          <t>[2, 18, 125, 143, 50, 20, 82]</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>[0.5071632266044617, 0.6627287864685059, 0.7265123724937439, 0.9428142309188843, 0.993069589138031, 1.0671149492263794, 1.1467154026031494]</t>
+          <t>[0.5625253915786743, 0.6616442203521729, 0.716044545173645, 1.0182502269744873, 1.0313117504119873, 1.092565894126892, 1.2163811922073364]</t>
         </is>
       </c>
       <c r="U35" t="n">
         <v>5</v>
       </c>
       <c r="V35" t="n">
-        <v>0.9398207342871636</v>
+        <v>0.942931366257372</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3571,7 +3567,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.192130</t>
         </is>
       </c>
     </row>
@@ -3598,7 +3594,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -3623,34 +3619,34 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>[102, 139, 17, 143, 76, 71, 132]</t>
+          <t>[15, 142, 9, 40, 71, 17, 165]</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 1, 0]</t>
+          <t>[0, 0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>[0.2907591462135315, 0.36131569743156433, 0.5027523040771484, 0.5471352934837341, 0.5626423954963684, 0.5669599771499634, 0.6795096397399902]</t>
+          <t>[0.3629477918148041, 0.4464878439903259, 0.5542144179344177, 0.5605212450027466, 0.6567456126213074, 0.676491916179657, 0.7788563966751099]</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>[71, 37, 124, 90, 57, 110, 79]</t>
+          <t>[71, 37, 16, 63, 123, 110, 90]</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>[0.5669599771499634, 0.7496925592422485, 0.7641997933387756, 0.8085055947303772, 0.8183553218841553, 0.8394302129745483, 0.8566558361053467]</t>
+          <t>[0.6567456126213074, 0.864593505859375, 0.8902422189712524, 0.8947917222976685, 0.9094892740249634, 0.912184476852417, 0.9445837140083313]</t>
         </is>
       </c>
       <c r="U36" t="n">
         <v>5</v>
       </c>
       <c r="V36" t="n">
-        <v>0.5648011751864046</v>
+        <v>0.6666187500595644</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3659,7 +3655,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.193133</t>
         </is>
       </c>
     </row>
@@ -3686,7 +3682,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -3711,7 +3707,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>[90, 57, 138, 110, 49, 79, 71]</t>
+          <t>[90, 137, 57, 49, 79, 110, 71]</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -3721,24 +3717,24 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>[0.32982856035232544, 0.4770033061504364, 0.4832967221736908, 0.5505309700965881, 0.5646175146102905, 0.5981711745262146, 0.6512867212295532]</t>
+          <t>[0.33964914083480835, 0.5274621844291687, 0.53846275806427, 0.5779021978378296, 0.6081991195678711, 0.6306753158569336, 0.6779243350028992]</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>[90, 57, 138, 110, 49, 79, 71]</t>
+          <t>[90, 137, 57, 49, 79, 110, 71]</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>[0.32982856035232544, 0.4770033061504364, 0.4832967221736908, 0.5505309700965881, 0.5646175146102905, 0.5981711745262146, 0.6512867212295532]</t>
+          <t>[0.33964914083480835, 0.5274621844291687, 0.53846275806427, 0.5779021978378296, 0.6081991195678711, 0.6306753158569336, 0.6779243350028992]</t>
         </is>
       </c>
       <c r="U37" t="n">
         <v>5</v>
       </c>
       <c r="V37" t="n">
-        <v>0.5813943635597796</v>
+        <v>0.6194372159241528</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3747,7 +3743,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.193133</t>
         </is>
       </c>
     </row>
@@ -3774,7 +3770,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -3799,7 +3795,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>[24, 26, 13, 32, 113, 10, 53]</t>
+          <t>[24, 13, 26, 10, 32, 53, 113]</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -3809,24 +3805,24 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>[1.1462832689285278, 1.37345290184021, 1.3908840417861938, 1.4242830276489258, 1.4346752166748047, 1.4521453380584717, 1.596053957939148]</t>
+          <t>[1.3292838335037231, 1.4463818073272705, 1.4604705572128296, 1.5057982206344604, 1.5469945669174194, 1.5880179405212402, 1.6002311706542969]</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>[24, 26, 13, 32, 113, 10, 53]</t>
+          <t>[24, 13, 26, 10, 32, 53, 113]</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>[1.1462832689285278, 1.37345290184021, 1.3908840417861938, 1.4242830276489258, 1.4346752166748047, 1.4521453380584717, 1.596053957939148]</t>
+          <t>[1.3292838335037231, 1.4463818073272705, 1.4604705572128296, 1.5057982206344604, 1.5469945669174194, 1.5880179405212402, 1.6002311706542969]</t>
         </is>
       </c>
       <c r="U38" t="n">
         <v>5</v>
       </c>
       <c r="V38" t="n">
-        <v>1.443410296170278</v>
+        <v>1.567506285163991</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3835,7 +3831,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.193133</t>
         </is>
       </c>
     </row>
@@ -3862,7 +3858,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H39" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -3887,7 +3883,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>[111, 117, 63, 68, 49, 16, 138]</t>
+          <t>[111, 117, 63, 68, 49, 127, 85]</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
@@ -3897,24 +3893,24 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>[0.27714383602142334, 0.3162791132926941, 0.3534441888332367, 0.35677751898765564, 0.4037454128265381, 0.44089385867118835, 0.4411514699459076]</t>
+          <t>[0.2747569680213928, 0.35930612683296204, 0.4099559187889099, 0.4107741117477417, 0.4206562042236328, 0.4358758330345154, 0.4392389953136444]</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>[111, 117, 63, 68, 49, 16, 138]</t>
+          <t>[111, 117, 63, 68, 49, 127, 85]</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>[0.27714383602142334, 0.3162791132926941, 0.3534441888332367, 0.35677751898765564, 0.4037454128265381, 0.44089385867118835, 0.4411514699459076]</t>
+          <t>[0.2747569680213928, 0.35930612683296204, 0.4099559187889099, 0.4107741117477417, 0.4206562042236328, 0.4358758330345154, 0.4392389953136444]</t>
         </is>
       </c>
       <c r="U39" t="n">
         <v>5</v>
       </c>
       <c r="V39" t="n">
-        <v>0.4223196336363977</v>
+        <v>0.428266027240047</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3923,7 +3919,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.194132</t>
         </is>
       </c>
     </row>
@@ -3950,7 +3946,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -3975,7 +3971,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>[63, 74, 110, 117, 16, 85, 49]</t>
+          <t>[110, 63, 117, 74, 16, 85, 127]</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
@@ -3985,37 +3981,33 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>[0.26537278294563293, 0.2745113968849182, 0.27714383602142334, 0.2821160852909088, 0.31928902864456177, 0.31941407918930054, 0.34273430705070496]</t>
+          <t>[0.2747569680213928, 0.3099047541618347, 0.3248119056224823, 0.32647669315338135, 0.3461134135723114, 0.3576032519340515, 0.36764371395111084]</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>[63, 74, 110, 117, 16, 85, 49]</t>
+          <t>[110, 63, 117, 74, 16, 85, 127]</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>[0.26537278294563293, 0.2745113968849182, 0.27714383602142334, 0.2821160852909088, 0.31928902864456177, 0.31941407918930054, 0.34273430705070496]</t>
+          <t>[0.2747569680213928, 0.3099047541618347, 0.3248119056224823, 0.32647669315338135, 0.3461134135723114, 0.3576032519340515, 0.36764371395111084]</t>
         </is>
       </c>
       <c r="U40" t="n">
         <v>5</v>
       </c>
       <c r="V40" t="n">
-        <v>0.3193515556102143</v>
+        <v>0.3518583448021626</v>
       </c>
       <c r="W40" t="n">
-        <v>1</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0.5901428612819832</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.194132</t>
         </is>
       </c>
     </row>
@@ -4042,7 +4034,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -4053,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -4067,7 +4059,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>[106, 53, 167, 24, 32, 1, 123]</t>
+          <t>[106, 53, 163, 24, 1, 122, 32]</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -4077,24 +4069,24 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>[1.4346752166748047, 1.765783667564392, 1.8253971338272095, 1.8384422063827515, 1.9259189367294312, 1.9320298433303833, 1.9320298433303833]</t>
+          <t>[1.6002311706542969, 1.8835901021957397, 2.001023769378662, 2.094367742538452, 2.1351096630096436, 2.1351096630096436, 2.1565535068511963]</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>[106, 53, 167, 24, 32, 123, 1]</t>
+          <t>[106, 53, 163, 24, 122, 1, 32]</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>[1.4346752166748047, 1.765783667564392, 1.8253971338272095, 1.8384422063827515, 1.9259189367294312, 1.9320298433303833, 1.9320298433303833]</t>
+          <t>[1.6002311706542969, 1.8835901021957397, 2.001023769378662, 2.094367742538452, 2.1351096630096436, 2.1351096630096436, 2.1565535068511963]</t>
         </is>
       </c>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V41" t="n">
-        <v>1.928974431555331</v>
+        <v>2.135109552861643</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -4103,7 +4095,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.195056</t>
         </is>
       </c>
     </row>
@@ -4130,7 +4122,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -4155,7 +4147,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>[111, 110, 74, 63, 16, 49, 68]</t>
+          <t>[111, 110, 63, 74, 49, 16, 37]</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -4165,33 +4157,37 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>[0.2821160852909088, 0.3162791132926941, 0.3631272315979004, 0.37331050634384155, 0.4304656386375427, 0.45551687479019165, 0.45675554871559143]</t>
+          <t>[0.3248119056224823, 0.35930612683296204, 0.42900988459587097, 0.4518955945968628, 0.47806188464164734, 0.5141596794128418, 0.516476035118103]</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>[111, 110, 74, 63, 16, 49, 68]</t>
+          <t>[111, 110, 63, 74, 49, 16, 37]</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>[0.2821160852909088, 0.3162791132926941, 0.3631272315979004, 0.37331050634384155, 0.4304656386375427, 0.45551687479019165, 0.45675554871559143]</t>
+          <t>[0.3248119056224823, 0.35930612683296204, 0.42900988459587097, 0.4518955945968628, 0.47806188464164734, 0.5141596794128418, 0.516476035118103]</t>
         </is>
       </c>
       <c r="U42" t="n">
         <v>5</v>
       </c>
       <c r="V42" t="n">
-        <v>0.4429912674299687</v>
+        <v>0.4961108020051864</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.4041168988591605</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>63</v>
+      </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.195128</t>
         </is>
       </c>
     </row>
@@ -4208,7 +4204,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>7</v>
@@ -4218,7 +4214,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -4236,41 +4232,41 @@
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" t="b">
         <v>1</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>[150, 121, 7, 137, 31, 6, 142]</t>
+          <t>[146, 136, 58, 121, 70, 141, 132]</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1, 0, 0, 1]</t>
+          <t>[1, 1, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>[0.33845314383506775, 0.5519679188728333, 0.5712586641311646, 0.5971319079399109, 0.8188854455947876, 0.8335397839546204, 0.858685314655304]</t>
+          <t>[0.3732612431049347, 0.5483347177505493, 0.5994579792022705, 0.6728370189666748, 0.9534091353416443, 0.9893097281455994, 1.1328985691070557]</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>[150, 137, 142, 48, 55, 124, 37]</t>
+          <t>[146, 136, 141, 48, 55, 37, 30]</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>[0.33845314383506775, 0.5971319079399109, 0.858685314655304, 1.0113223791122437, 1.104374885559082, 1.175501823425293, 1.2120747566223145]</t>
+          <t>[0.3732612431049347, 0.5483347177505493, 0.9893097281455994, 1.2097294330596924, 1.2158509492874146, 1.275368094444275, 1.3452484607696533]</t>
         </is>
       </c>
       <c r="U43" t="n">
         <v>5</v>
       </c>
       <c r="V43" t="n">
-        <v>0.8262126249408769</v>
+        <v>0.9713594235765153</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -4279,7 +4275,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.197135</t>
         </is>
       </c>
     </row>
@@ -4290,7 +4286,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
@@ -4306,7 +4302,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -4314,13 +4310,13 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K44" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L44" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="b">
@@ -4331,47 +4327,43 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>[123, 168, 167, 21, 161, 3, 53]</t>
+          <t>[1, 167, 163, 157, 3, 32, 53]</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 1, 1, 1]</t>
+          <t>[1, 0, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>[0.0, 0.4420248568058014, 0.8503342866897583, 0.8820913434028625, 1.058899164199829, 1.4505605697631836, 1.4763151407241821]</t>
+          <t>[0.0, 0.48484399914741516, 0.9375274181365967, 1.210782527923584, 1.4197405576705933, 1.4914908409118652, 1.5236177444458008]</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>[123, 167, 161, 3, 53, 32, 24]</t>
+          <t>[122, 163, 157, 3, 32, 53, 24]</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>[0.0, 0.8503342866897583, 1.058899164199829, 1.4505605697631836, 1.4763151407241821, 1.4821938276290894, 1.6584436893463135]</t>
+          <t>[0.0, 0.9375274181365967, 1.210782527923584, 1.4197405576705933, 1.4914908409118652, 1.5236177444458008, 1.657482385635376]</t>
         </is>
       </c>
       <c r="U44" t="n">
         <v>5</v>
       </c>
       <c r="V44" t="n">
-        <v>1.254729898305918</v>
+        <v>1.455615620282754</v>
       </c>
       <c r="W44" t="n">
-        <v>1</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0.5193700315892974</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>161</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.198146</t>
         </is>
       </c>
     </row>
@@ -4382,13 +4374,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
       </c>
       <c r="D45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>7</v>
@@ -4398,7 +4390,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -4416,41 +4408,41 @@
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O45" t="b">
         <v>1</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>[55, 103, 37, 31, 83, 6, 71]</t>
+          <t>[69, 55, 70, 37, 132, 71, 75]</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 1]</t>
+          <t>[0, 1, 0, 1, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>[0.33407479524612427, 0.34904465079307556, 0.3978515863418579, 0.4106251895427704, 0.4616753160953522, 0.5046165585517883, 0.5412389039993286]</t>
+          <t>[0.3732745945453644, 0.4077055752277374, 0.47033438086509705, 0.5126516819000244, 0.5561764240264893, 0.5980291366577148, 0.6334537863731384]</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>[55, 37, 71, 57, 79, 110, 117]</t>
+          <t>[55, 37, 71, 57, 79, 117, 110]</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>[0.33407479524612427, 0.3978515863418579, 0.5412389039993286, 0.6373316049575806, 0.6567560434341431, 0.658723771572113, 0.670596718788147]</t>
+          <t>[0.4077055752277374, 0.5126516819000244, 0.5980291366577148, 0.6555585861206055, 0.6721161007881165, 0.6756170392036438, 0.7112769484519958]</t>
         </is>
       </c>
       <c r="U45" t="n">
         <v>5</v>
       </c>
       <c r="V45" t="n">
-        <v>0.4831459597857863</v>
+        <v>0.5771027589527425</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4459,7 +4451,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.199134</t>
         </is>
       </c>
     </row>
@@ -4470,13 +4462,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
       </c>
       <c r="D46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>7</v>
@@ -4486,7 +4478,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -4504,41 +4496,41 @@
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" t="b">
         <v>1</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>[2, 33, 144, 93, 69, 61, 29]</t>
+          <t>[2, 143, 135, 93, 82, 72, 140]</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 1, 0, 1, 0]</t>
+          <t>[1, 1, 0, 1, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>[0.5966512560844421, 0.6207886338233948, 0.6502023935317993, 0.7265123724937439, 0.773938775062561, 0.7968783378601074, 0.8528220653533936]</t>
+          <t>[0.6119475960731506, 0.6453480124473572, 0.7034977674484253, 0.716044545173645, 0.8794010281562805, 0.9193761944770813, 0.9198389649391174]</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>[2, 144, 93, 61, 73, 50, 82]</t>
+          <t>[2, 143, 93, 82, 73, 61, 50]</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>[0.5966512560844421, 0.6502023935317993, 0.7265123724937439, 0.7968783378601074, 0.8550234436988831, 0.91129469871521, 0.9133409261703491]</t>
+          <t>[0.6119475960731506, 0.6453480124473572, 0.716044545173645, 0.8794010281562805, 0.9292263388633728, 0.9638957381248474, 1.0131018161773682]</t>
         </is>
       </c>
       <c r="U46" t="n">
         <v>5</v>
       </c>
       <c r="V46" t="n">
-        <v>0.785408603988754</v>
+        <v>0.8993885986922474</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4547,7 +4539,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.200133</t>
         </is>
       </c>
     </row>
@@ -4558,7 +4550,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
@@ -4574,7 +4566,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -4599,7 +4591,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>[138, 49, 85, 68, 111, 63, 110]</t>
+          <t>[137, 85, 49, 111, 68, 110, 63]</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
@@ -4609,24 +4601,24 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>[0.24105988442897797, 0.24486501514911652, 0.2518826425075531, 0.3419783413410187, 0.3526051342487335, 0.4334620237350464, 0.4467275142669678]</t>
+          <t>[0.25396960973739624, 0.2721707820892334, 0.32066431641578674, 0.36764371395111084, 0.3812859058380127, 0.4358758330345154, 0.4874739944934845]</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>[138, 49, 85, 68, 111, 63, 110]</t>
+          <t>[137, 85, 49, 111, 68, 110, 63]</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>[0.24105988442897797, 0.24486501514911652, 0.2518826425075531, 0.3419783413410187, 0.3526051342487335, 0.4334620237350464, 0.4467275142669678]</t>
+          <t>[0.25396960973739624, 0.2721707820892334, 0.32066431641578674, 0.36764371395111084, 0.3812859058380127, 0.4358758330345154, 0.4874739944934845]</t>
         </is>
       </c>
       <c r="U47" t="n">
         <v>5</v>
       </c>
       <c r="V47" t="n">
-        <v>0.3930335979690299</v>
+        <v>0.4085808881939881</v>
       </c>
       <c r="W47" t="n">
         <v>0</v>
@@ -4635,7 +4627,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.200543</t>
         </is>
       </c>
     </row>
@@ -4646,7 +4638,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
@@ -4662,7 +4654,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -4670,13 +4662,13 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L48" t="n">
-        <v>0.5916727785823274</v>
+        <v>0</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="b">
@@ -4687,43 +4679,47 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>[48, 32, 21, 161, 137, 120, 3]</t>
+          <t>[48, 157, 32, 136, 120, 24, 163]</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>[1.0015952587127686, 1.238690733909607, 1.2559460401535034, 1.2840633392333984, 1.2904675006866455, 1.3656710386276245, 1.401395559310913]</t>
+          <t>[1.076499581336975, 1.3025766611099243, 1.4632848501205444, 1.490759253501892, 1.6197394132614136, 1.6255531311035156, 1.652222752571106]</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>[48, 32, 161, 137, 120, 3, 150]</t>
+          <t>[48, 157, 32, 136, 120, 24, 163]</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>[1.0015952587127686, 1.238690733909607, 1.2840633392333984, 1.2904675006866455, 1.3656710386276245, 1.401395559310913, 1.4060472249984741]</t>
+          <t>[1.076499581336975, 1.3025766611099243, 1.4632848501205444, 1.490759253501892, 1.6197394132614136, 1.6255531311035156, 1.652222752571106]</t>
         </is>
       </c>
       <c r="U48" t="n">
         <v>5</v>
       </c>
       <c r="V48" t="n">
-        <v>1.328069298728815</v>
+        <v>1.622646245406396</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
-      </c>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.5901428612819832</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>136</v>
+      </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.201147</t>
         </is>
       </c>
     </row>
@@ -4734,13 +4730,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
       </c>
       <c r="D49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
         <v>7</v>
@@ -4750,7 +4746,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H49" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -4768,41 +4764,41 @@
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O49" t="b">
         <v>1</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>[20, 86, 164, 75, 39, 18, 93]</t>
+          <t>[86, 20, 43, 77, 93, 18, 67]</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 1, 1]</t>
+          <t>[1, 1, 0, 0, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>[0.3977104723453522, 0.41570061445236206, 0.5201490521430969, 0.6098141074180603, 0.8260360956192017, 1.0953865051269531, 1.1467154026031494]</t>
+          <t>[0.42311567068099976, 0.4291931390762329, 0.6260313987731934, 1.0338630676269531, 1.2624551057815552, 1.2739721536636353, 1.4244818687438965]</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>[20, 86, 18, 93, 64, 2, 11]</t>
+          <t>[86, 20, 93, 18, 2, 64, 125]</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>[0.3977104723453522, 0.41570061445236206, 1.0953865051269531, 1.1467154026031494, 1.3304789066314697, 1.4060176610946655, 1.4199833869934082]</t>
+          <t>[0.42311567068099976, 0.4291931390762329, 1.2624551057815552, 1.2739721536636353, 1.5523948669433594, 1.5550521612167358, 1.6520624160766602]</t>
         </is>
       </c>
       <c r="U49" t="n">
         <v>5</v>
       </c>
       <c r="V49" t="n">
-        <v>0.9607112981001729</v>
+        <v>1.268213627116583</v>
       </c>
       <c r="W49" t="n">
         <v>0</v>
@@ -4811,7 +4807,7 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.201695</t>
         </is>
       </c>
     </row>
@@ -4822,13 +4818,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
       </c>
       <c r="D50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
         <v>7</v>
@@ -4838,7 +4834,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -4856,41 +4852,41 @@
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" t="b">
         <v>1</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>[142, 120, 150, 7, 48, 121, 6]</t>
+          <t>[120, 146, 141, 121, 58, 48, 70]</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 1, 0, 0]</t>
+          <t>[1, 1, 1, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>[0.5809686779975891, 0.5971319079399109, 0.6238307356834412, 0.8399618864059448, 0.8904705047607422, 1.004456877708435, 1.0819703340530396]</t>
+          <t>[0.5483347177505493, 0.5950375199317932, 0.6821667551994324, 0.8649263978004456, 0.9897977709770203, 1.0836451053619385, 1.1551886796951294]</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>[142, 120, 150, 48, 130, 55, 124]</t>
+          <t>[120, 146, 141, 48, 55, 129, 123]</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>[0.5809686779975891, 0.5971319079399109, 0.6238307356834412, 0.8904705047607422, 1.2904675006866455, 1.4682962894439697, 1.4901363849639893]</t>
+          <t>[0.5483347177505493, 0.5950375199317932, 0.6821667551994324, 1.0836451053619385, 1.4556727409362793, 1.490759253501892, 1.5269689559936523]</t>
         </is>
       </c>
       <c r="U50" t="n">
         <v>5</v>
       </c>
       <c r="V50" t="n">
-        <v>0.9474636664537425</v>
+        <v>1.036721463404266</v>
       </c>
       <c r="W50" t="n">
         <v>0</v>
@@ -4899,7 +4895,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.201695</t>
         </is>
       </c>
     </row>
@@ -4910,7 +4906,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
@@ -4926,7 +4922,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -4951,7 +4947,7 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>[49, 128, 85, 68, 110, 111, 99]</t>
+          <t>[127, 49, 85, 110, 68, 111, 99]</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
@@ -4961,24 +4957,24 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>[0.22816817462444305, 0.24105988442897797, 0.35915279388427734, 0.40499499440193176, 0.4411514699459076, 0.4502352178096771, 0.4832967221736908]</t>
+          <t>[0.25396960973739624, 0.285773366689682, 0.38400450348854065, 0.4596148133277893, 0.46767961978912354, 0.47871172428131104, 0.5274621844291687]</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>[49, 128, 85, 68, 110, 111, 99]</t>
+          <t>[127, 49, 85, 110, 68, 111, 99]</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>[0.22816817462444305, 0.24105988442897797, 0.35915279388427734, 0.40499499440193176, 0.4411514699459076, 0.4502352178096771, 0.4832967221736908]</t>
+          <t>[0.25396960973739624, 0.285773366689682, 0.38400450348854065, 0.4596148133277893, 0.46767961978912354, 0.47871172428131104, 0.5274621844291687]</t>
         </is>
       </c>
       <c r="U51" t="n">
         <v>5</v>
       </c>
       <c r="V51" t="n">
-        <v>0.4456933486343732</v>
+        <v>0.4731956726168777</v>
       </c>
       <c r="W51" t="n">
         <v>0</v>
@@ -4987,7 +4983,7 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.201695</t>
         </is>
       </c>
     </row>
@@ -4998,13 +4994,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
       </c>
       <c r="D52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
         <v>7</v>
@@ -5014,7 +5010,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H52" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -5022,7 +5018,7 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K52" t="n">
         <v>0.7142857142857143</v>
@@ -5032,41 +5028,41 @@
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52" t="b">
         <v>1</v>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>[137, 150, 120, 7, 6, 48, 83]</t>
+          <t>[136, 146, 120, 70, 121, 58, 132]</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 0, 1, 0]</t>
+          <t>[1, 1, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>[0.5809686779975891, 0.7838481068611145, 0.858685314655304, 0.9159262180328369, 0.9295939803123474, 0.9758562445640564, 1.0941393375396729]</t>
+          <t>[0.6821667551994324, 0.912260890007019, 0.9893097281455994, 1.0079094171524048, 1.010299801826477, 1.2035614252090454, 1.25728178024292]</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>[137, 150, 120, 48, 55, 124, 37]</t>
+          <t>[136, 146, 120, 55, 123, 48, 37]</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>[0.5809686779975891, 0.7838481068611145, 0.858685314655304, 0.9758562445640564, 1.3248116970062256, 1.3398164510726929, 1.4458744525909424]</t>
+          <t>[0.6821667551994324, 0.912260890007019, 0.9893097281455994, 1.2583085298538208, 1.2837227582931519, 1.308249831199646, 1.408244013786316]</t>
         </is>
       </c>
       <c r="U52" t="n">
         <v>5</v>
       </c>
       <c r="V52" t="n">
-        <v>0.9527251019391398</v>
+        <v>1.106930679195617</v>
       </c>
       <c r="W52" t="n">
         <v>0</v>
@@ -5075,7 +5071,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.202688</t>
         </is>
       </c>
     </row>
@@ -5086,7 +5082,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -5102,7 +5098,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -5110,13 +5106,13 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K53" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L53" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="b">
@@ -5127,34 +5123,34 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>[126, 131, 33, 36, 50, 77, 61]</t>
+          <t>[125, 135, 6, 76, 103, 36, 50]</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 1, 0, 1]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>[0.6502023935317993, 0.6648515462875366, 0.6818861365318298, 0.8169336915016174, 0.8207784295082092, 0.8275083303451538, 0.9135709404945374]</t>
+          <t>[0.6453480124473572, 0.6670486927032471, 0.7187033891677856, 0.8061776757240295, 0.8742650747299194, 0.9452868700027466, 0.9594192504882812]</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>[126, 50, 61, 93, 2, 71, 79]</t>
+          <t>[125, 50, 93, 2, 61, 71, 123]</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>[0.6502023935317993, 0.8207784295082092, 0.9135709404945374, 1.0671149492263794, 1.0991559028625488, 1.1585712432861328, 1.1806111335754395]</t>
+          <t>[0.6453480124473572, 0.9594192504882812, 1.0182502269744873, 1.07241690158844, 1.1271377801895142, 1.143081545829773, 1.166255235671997]</t>
         </is>
       </c>
       <c r="U53" t="n">
         <v>5</v>
       </c>
       <c r="V53" t="n">
-        <v>0.8241433766994429</v>
+        <v>0.9097759861194641</v>
       </c>
       <c r="W53" t="n">
         <v>0</v>
@@ -5163,7 +5159,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.203017</t>
         </is>
       </c>
     </row>
@@ -5174,13 +5170,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
       </c>
       <c r="D54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
         <v>7</v>
@@ -5190,7 +5186,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H54" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -5208,14 +5204,14 @@
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O54" t="b">
         <v>1</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>[120, 137, 7, 121, 31, 142, 6]</t>
+          <t>[120, 136, 58, 121, 70, 141, 132]</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -5225,37 +5221,33 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>[0.33845314383506775, 0.6238307356834412, 0.7188007235527039, 0.735078752040863, 0.7749160528182983, 0.7838481068611145, 0.7853907942771912]</t>
+          <t>[0.3732612431049347, 0.5950375199317932, 0.8128604292869568, 0.8290613293647766, 0.8721975684165955, 0.912260890007019, 1.003827452659607]</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>[120, 137, 142, 48, 55, 124, 37]</t>
+          <t>[120, 136, 141, 55, 37, 48, 30]</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>[0.33845314383506775, 0.6238307356834412, 0.7838481068611145, 0.9498926997184753, 1.050995111465454, 1.0834901332855225, 1.107613205909729]</t>
+          <t>[0.3732612431049347, 0.5950375199317932, 0.912260890007019, 1.1423676013946533, 1.149321436882019, 1.1855159997940063, 1.209291934967041]</t>
         </is>
       </c>
       <c r="U54" t="n">
         <v>5</v>
       </c>
       <c r="V54" t="n">
-        <v>0.7793820953596646</v>
+        <v>0.8922292285550151</v>
       </c>
       <c r="W54" t="n">
-        <v>1</v>
-      </c>
-      <c r="X54" t="n">
-        <v>0.4285733635843882</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>121</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.203017</t>
         </is>
       </c>
     </row>
@@ -5266,7 +5258,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
@@ -5282,7 +5274,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -5307,7 +5299,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>[74, 111, 63, 128, 49, 117, 85]</t>
+          <t>[74, 63, 111, 49, 127, 117, 16]</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -5317,24 +5309,24 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>[0.3868076205253601, 0.48461422324180603, 0.4862489402294159, 0.5136907696723938, 0.5301670432090759, 0.5777832865715027, 0.5901980400085449]</t>
+          <t>[0.43169161677360535, 0.48099973797798157, 0.499126136302948, 0.5701435804367065, 0.5753060579299927, 0.5882967710494995, 0.6560044288635254]</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>[74, 111, 63, 128, 49, 117, 85]</t>
+          <t>[74, 63, 111, 49, 127, 117, 16]</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>[0.3868076205253601, 0.48461422324180603, 0.4862489402294159, 0.5136907696723938, 0.5301670432090759, 0.5777832865715027, 0.5901980400085449]</t>
+          <t>[0.43169161677360535, 0.48099973797798157, 0.499126136302948, 0.5701435804367065, 0.5753060579299927, 0.5882967710494995, 0.6560044288635254]</t>
         </is>
       </c>
       <c r="U55" t="n">
         <v>5</v>
       </c>
       <c r="V55" t="n">
-        <v>0.553975155318016</v>
+        <v>0.5818014269493239</v>
       </c>
       <c r="W55" t="n">
         <v>0</v>
@@ -5343,7 +5335,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.203607</t>
         </is>
       </c>
     </row>
@@ -5354,7 +5346,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
@@ -5370,7 +5362,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -5378,13 +5370,13 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K56" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L56" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="b">
@@ -5395,43 +5387,47 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>[21, 167, 168, 1, 123, 130, 32]</t>
+          <t>[163, 167, 122, 1, 129, 32, 24]</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 1, 1, 1, 1]</t>
+          <t>[1, 0, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>[0.4618493616580963, 0.5588918924331665, 1.0266729593276978, 1.058899164199829, 1.058899164199829, 1.2840633392333984, 1.5850708484649658]</t>
+          <t>[0.7537067532539368, 1.1573588848114014, 1.210782527923584, 1.210782527923584, 1.3025766611099243, 1.5372151136398315, 1.6025569438934326]</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>[167, 123, 1, 130, 32, 48, 24]</t>
+          <t>[163, 122, 1, 129, 32, 24, 48]</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>[0.5588918924331665, 1.058899164199829, 1.058899164199829, 1.2840633392333984, 1.5850708484649658, 1.6029987335205078, 1.6661120653152466]</t>
+          <t>[0.7537067532539368, 1.210782527923584, 1.210782527923584, 1.3025766611099243, 1.5372151136398315, 1.6025569438934326, 1.7239761352539062]</t>
         </is>
       </c>
       <c r="U56" t="n">
         <v>5</v>
       </c>
       <c r="V56" t="n">
-        <v>1.1714812562562</v>
+        <v>1.419895926803763</v>
       </c>
       <c r="W56" t="n">
-        <v>0</v>
-      </c>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.5193700315892974</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>129</v>
+      </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.204183</t>
         </is>
       </c>
     </row>
@@ -5442,7 +5438,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
@@ -5458,7 +5454,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H57" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -5466,13 +5462,13 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K57" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L57" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="b">
@@ -5483,34 +5479,34 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>[21, 161, 168, 123, 1, 130, 53]</t>
+          <t>[157, 167, 122, 1, 3, 32, 53]</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 1, 1, 1, 1]</t>
+          <t>[1, 0, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>[0.46296268701553345, 0.5588918924331665, 0.8172926902770996, 0.8503342866897583, 0.8503342866897583, 1.4101918935775757, 1.4607783555984497]</t>
+          <t>[0.7537067532539368, 0.8827974796295166, 0.9375274181365967, 0.9375274181365967, 1.3964189291000366, 1.4274630546569824, 1.4423130750656128]</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>[161, 1, 123, 130, 53, 32, 3]</t>
+          <t>[157, 1, 122, 3, 32, 53, 24]</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>[0.5588918924331665, 0.8503342866897583, 0.8503342866897583, 1.4101918935775757, 1.4607783555984497, 1.4623284339904785, 1.4730157852172852]</t>
+          <t>[0.7537067532539368, 0.9375274181365967, 0.9375274181365967, 1.3964189291000366, 1.4274630546569824, 1.4423130750656128, 1.5444222688674927]</t>
         </is>
       </c>
       <c r="U57" t="n">
         <v>5</v>
       </c>
       <c r="V57" t="n">
-        <v>1.130263068137052</v>
+        <v>1.411941033700164</v>
       </c>
       <c r="W57" t="n">
         <v>0</v>
@@ -5519,7 +5515,7 @@
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.758713</t>
+          <t>2025-11-12T07:22:17.204765</t>
         </is>
       </c>
     </row>
@@ -5546,7 +5542,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H58" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -5554,13 +5550,13 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="K58" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L58" t="n">
-        <v>0.5916727785823274</v>
+        <v>0</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="b">
@@ -5571,47 +5567,43 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>[121, 120, 150, 6, 31, 137, 84]</t>
+          <t>[76, 50, 155, 10, 13, 78, 26]</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>[0.3686896860599518, 0.5712586641311646, 0.7188007235527039, 0.8161059021949768, 0.8208655714988708, 0.8399618864059448, 0.8525661826133728]</t>
+          <t>[1.5519968271255493, 1.6356598138809204, 1.6394151449203491, 1.7287124395370483, 1.7653979063034058, 1.7666444778442383, 1.7869830131530762]</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>[121, 45, 139, 9, 102, 58, 143]</t>
+          <t>[102, 84, 149, 67, 167, 9, 15]</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>[0.3686896860599518, 0.964373767375946, 1.126319169998169, 1.2196450233459473, 1.2241731882095337, 1.4703971147537231, 1.557084560394287]</t>
+          <t>[2.499774217605591, 2.647575616836548, 2.873223066329956, 2.904775619506836, 2.9328017234802246, 3.110893964767456, 3.119560480117798]</t>
         </is>
       </c>
       <c r="U58" t="n">
         <v>5</v>
       </c>
       <c r="V58" t="n">
-        <v>0.8304137197641503</v>
+        <v>1.766021166348298</v>
       </c>
       <c r="W58" t="n">
-        <v>1</v>
-      </c>
-      <c r="X58" t="n">
-        <v>0.5973773873201034</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>121</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.961209</t>
+          <t>2025-11-12T07:22:17.907211</t>
         </is>
       </c>
     </row>
@@ -5638,7 +5630,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H59" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -5663,7 +5655,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>[76, 16, 74, 37, 111, 63, 55]</t>
+          <t>[40, 63, 110, 97, 111, 16, 71]</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
@@ -5673,24 +5665,24 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>[0.29108816385269165, 0.3007749617099762, 0.5765426754951477, 0.5837634801864624, 0.60104900598526, 0.6279987692832947, 0.6349945664405823]</t>
+          <t>[0.402721107006073, 0.42432305216789246, 0.5533663034439087, 0.5542144179344177, 0.5740547180175781, 0.5878986120223999, 0.5945829749107361]</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>[143, 139, 102, 153, 121, 7, 58]</t>
+          <t>[142, 165, 15, 159, 84, 58, 121]</t>
         </is>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>[0.639224112033844, 0.7289791107177734, 0.8478673100471497, 0.9712804555892944, 1.0848945379257202, 1.2196450233459473, 1.3480218648910522]</t>
+          <t>[0.6595668792724609, 0.6770656108856201, 0.6839199662208557, 0.9870123863220215, 1.2701534032821655, 1.5826369524002075, 1.5920535326004028]</t>
         </is>
       </c>
       <c r="U59" t="n">
         <v>5</v>
       </c>
       <c r="V59" t="n">
-        <v>0.6145239107281864</v>
+        <v>0.580976693295874</v>
       </c>
       <c r="W59" t="n">
         <v>6</v>
@@ -5703,7 +5695,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.961209</t>
+          <t>2025-11-12T07:22:17.908213</t>
         </is>
       </c>
     </row>
@@ -5730,7 +5722,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H60" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -5738,13 +5730,13 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K60" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="b">
@@ -5755,34 +5747,34 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>[50, 159, 10, 13, 26, 115, 101]</t>
+          <t>[142, 97, 17, 71, 40, 9, 123]</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>[1.5119760036468506, 1.5182515382766724, 1.5354762077331543, 1.5763767957687378, 1.6015644073486328, 1.645581841468811, 1.6571449041366577]</t>
+          <t>[0.3143204152584076, 0.3629477918148041, 0.39077892899513245, 0.5496227741241455, 0.6686309576034546, 0.6839199662208557, 0.7075404524803162]</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>[163, 169, 58, 45, 168, 102, 143]</t>
+          <t>[142, 9, 165, 84, 121, 159, 58]</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>[2.4762635231018066, 2.5544352531433105, 2.66167950630188, 2.662851095199585, 2.9099297523498535, 2.9838945865631104, 3.0432541370391846]</t>
+          <t>[0.3143204152584076, 0.6839199662208557, 0.8948940634727478, 1.270548701286316, 1.3683058023452759, 1.4321900606155396, 1.5261261463165283]</t>
         </is>
       </c>
       <c r="U60" t="n">
         <v>5</v>
       </c>
       <c r="V60" t="n">
-        <v>1.62357313323996</v>
+        <v>0.6762754645114269</v>
       </c>
       <c r="W60" t="n">
         <v>5</v>
@@ -5791,11 +5783,11 @@
         <v>0.4628711962152653</v>
       </c>
       <c r="Y60" t="n">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.961209</t>
+          <t>2025-11-12T07:22:17.908213</t>
         </is>
       </c>
     </row>
@@ -5806,7 +5798,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="C61" t="n">
         <v>3</v>
@@ -5822,7 +5814,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H61" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -5830,13 +5822,13 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K61" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L61" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="b">
@@ -5847,34 +5839,34 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>[161, 167, 168, 1, 123, 130, 48]</t>
+          <t>[121, 120, 146, 70, 55, 136, 149]</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>[0.4618493616580963, 0.46296268701553345, 0.7553806304931641, 0.8820913434028625, 0.8820913434028625, 1.2559460401535034, 1.4534846544265747]</t>
+          <t>[0.4039050042629242, 0.5994579792022705, 0.8128604292869568, 0.9301779866218567, 0.9707828760147095, 0.9897977709770203, 1.0060019493103027]</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>[168, 58, 7, 121, 45, 102, 139]</t>
+          <t>[121, 149, 165, 142, 15, 9, 84]</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>[0.7553806304931641, 2.353519916534424, 2.4172964096069336, 2.481671094894409, 2.665560245513916, 2.956145763397217, 3.033751964569092]</t>
+          <t>[0.4039050042629242, 1.0060019493103027, 1.1279429197311401, 1.3966552019119263, 1.5261261463165283, 1.5826369524002075, 1.7087055444717407]</t>
         </is>
       </c>
       <c r="U61" t="n">
         <v>5</v>
       </c>
       <c r="V61" t="n">
-        <v>1.069018702257272</v>
+        <v>0.9802903385824179</v>
       </c>
       <c r="W61" t="n">
         <v>2</v>
@@ -5883,11 +5875,11 @@
         <v>0.449858445829775</v>
       </c>
       <c r="Y61" t="n">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.961209</t>
+          <t>2025-11-12T07:22:17.908213</t>
         </is>
       </c>
     </row>
@@ -5898,13 +5890,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C62" t="n">
         <v>3</v>
       </c>
       <c r="D62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
         <v>7</v>
@@ -5914,7 +5906,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H62" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -5922,60 +5914,64 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="K62" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L62" t="n">
-        <v>0.8631205685666311</v>
+        <v>0</v>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62" t="b">
         <v>1</v>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>[77, 107, 7, 121, 29, 120, 36]</t>
+          <t>[43, 36, 72, 73, 140, 86, 103]</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 1, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>[0.9164473414421082, 0.9198511242866516, 0.964373767375946, 1.0153549909591675, 1.1352434158325195, 1.147658109664917, 1.209598422050476]</t>
+          <t>[0.9282412528991699, 1.0279396772384644, 1.0952517986297607, 1.1150379180908203, 1.1693755388259888, 1.2901464700698853, 1.304693579673767]</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>[7, 121, 169, 139, 9, 102, 58]</t>
+          <t>[149, 142, 121, 58, 165, 15, 9]</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>[0.964373767375946, 1.0153549909591675, 1.3090776205062866, 1.624017596244812, 1.6671695709228516, 1.7274311780929565, 1.9255344867706299]</t>
+          <t>[1.36075758934021, 1.995439887046814, 2.0200612545013428, 2.062119245529175, 2.074335813522339, 2.1553142070770264, 2.1859750747680664]</t>
         </is>
       </c>
       <c r="U62" t="n">
         <v>5</v>
       </c>
       <c r="V62" t="n">
-        <v>1.141450774788637</v>
+        <v>1.22976109015098</v>
       </c>
       <c r="W62" t="n">
-        <v>0</v>
-      </c>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.5368466053024313</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>36</v>
+      </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.961209</t>
+          <t>2025-11-12T07:22:17.909208</t>
         </is>
       </c>
     </row>
@@ -5986,7 +5982,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C63" t="n">
         <v>3</v>
@@ -6002,7 +5998,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H63" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -6010,13 +6006,13 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L63" t="n">
-        <v>0.5916727785823274</v>
+        <v>0</v>
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="b">
@@ -6027,47 +6023,47 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>[71, 103, 79, 83, 90, 102, 124]</t>
+          <t>[71, 48, 69, 90, 37, 123, 79]</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 1, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>[0.7342439293861389, 0.8839975595474243, 0.9219695329666138, 0.9574594497680664, 0.9910978078842163, 1.0150388479232788, 1.0183871984481812]</t>
+          <t>[0.9124700427055359, 1.1043514013290405, 1.1217710971832275, 1.2213666439056396, 1.223305583000183, 1.228980302810669, 1.2297050952911377]</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>[102, 139, 143, 9, 7, 121, 45]</t>
+          <t>[9, 15, 142, 165, 121, 58, 159]</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>[1.0150388479232788, 1.0873119831085205, 1.158658742904663, 1.3480218648910522, 1.4703971147537231, 1.486830234527588, 1.9255344867706299]</t>
+          <t>[1.2701534032821655, 1.270548701286316, 1.3194403648376465, 1.4698435068130493, 1.6791744232177734, 1.7087055444717407, 2.004002094268799]</t>
         </is>
       </c>
       <c r="U63" t="n">
         <v>5</v>
       </c>
       <c r="V63" t="n">
-        <v>1.003068290963726</v>
+        <v>1.226142980371287</v>
       </c>
       <c r="W63" t="n">
         <v>1</v>
       </c>
       <c r="X63" t="n">
-        <v>0.5368466053024313</v>
+        <v>0.5135400655639983</v>
       </c>
       <c r="Y63" t="n">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.961209</t>
+          <t>2025-11-12T07:22:17.909208</t>
         </is>
       </c>
     </row>
@@ -6084,7 +6080,7 @@
         <v>3</v>
       </c>
       <c r="D64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
         <v>7</v>
@@ -6094,68 +6090,72 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H64" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L64" t="n">
         <v>0.5916727785823274</v>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J64" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0.8631205685666311</v>
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O64" t="b">
         <v>1</v>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>[139, 97, 17, 71, 132, 124, 143]</t>
+          <t>[4, 7, 106, 13, 26, 10, 24]</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>[0.28504446148872375, 0.2907591462135315, 0.3098526895046234, 0.4762324094772339, 0.6092221736907959, 0.6391661763191223, 0.6743265986442566]</t>
+          <t>[2.2449488639831543, 2.499774217605591, 2.65439772605896, 2.7235493659973145, 2.7459723949432373, 2.779331922531128, 2.7971994876861572]</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>[139, 143, 9, 58, 7, 121, 153]</t>
+          <t>[7, 149, 167, 67, 58, 121, 84]</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>[0.28504446148872375, 0.6743265986442566, 0.8478673100471497, 1.0150388479232788, 1.2241731882095337, 1.3018968105316162, 1.6027143001556396]</t>
+          <t>[2.499774217605591, 3.8632924556732178, 3.8859522342681885, 4.109841346740723, 4.511235237121582, 4.521251678466797, 4.567921161651611]</t>
         </is>
       </c>
       <c r="U64" t="n">
         <v>5</v>
       </c>
       <c r="V64" t="n">
-        <v>0.6241941382035605</v>
+        <v>2.762652143724926</v>
       </c>
       <c r="W64" t="n">
-        <v>0</v>
-      </c>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0.5045465658763988</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>106</v>
+      </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.961209</t>
+          <t>2025-11-12T07:22:17.909208</t>
         </is>
       </c>
     </row>
@@ -6182,7 +6182,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H65" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -6190,13 +6190,13 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K65" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L65" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="b">
@@ -6207,47 +6207,47 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>[7, 120, 150, 31, 6, 55, 145]</t>
+          <t>[58, 120, 146, 136, 70, 149, 55]</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>[0.3686896860599518, 0.5519679188728333, 0.735078752040863, 0.7528611421585083, 0.8294775485992432, 0.8319898843765259, 0.972034752368927]</t>
+          <t>[0.4039050042629242, 0.6728370189666748, 0.8290613293647766, 0.8649263978004456, 0.9035753011703491, 0.9486286044120789, 0.9756906628608704]</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>[7, 45, 9, 139, 102, 143, 58]</t>
+          <t>[58, 149, 165, 142, 15, 9, 84]</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>[0.3686896860599518, 1.0153549909591675, 1.0848945379257202, 1.1840670108795166, 1.3018968105316162, 1.4751609563827515, 1.486830234527588]</t>
+          <t>[0.4039050042629242, 0.9486286044120789, 1.1881738901138306, 1.2466304302215576, 1.3683058023452759, 1.5920535326004028, 1.6791744232177734]</t>
         </is>
       </c>
       <c r="U65" t="n">
         <v>5</v>
       </c>
       <c r="V65" t="n">
-        <v>0.8307337454311088</v>
+        <v>0.9261019669092363</v>
       </c>
       <c r="W65" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="X65" t="n">
-        <v>0.5135400655639983</v>
+        <v>0.5122486851695403</v>
       </c>
       <c r="Y65" t="n">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.961209</t>
+          <t>2025-11-12T07:22:17.910207</t>
         </is>
       </c>
     </row>
@@ -6258,7 +6258,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C66" t="n">
         <v>3</v>
@@ -6274,7 +6274,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H66" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>[102, 97, 132, 17, 124, 119, 76]</t>
+          <t>[15, 131, 97, 17, 75, 40, 65]</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
@@ -6309,37 +6309,37 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>[0.28504446148872375, 0.36131569743156433, 0.36825448274612427, 0.38687416911125183, 0.5670149326324463, 0.5760982632637024, 0.5833657383918762]</t>
+          <t>[0.3143204152584076, 0.4444928765296936, 0.4464878439903259, 0.4768991470336914, 0.560705304145813, 0.5978885889053345, 0.6031650900840759]</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>[102, 143, 9, 58, 7, 121, 153]</t>
+          <t>[15, 9, 165, 121, 159, 84, 58]</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>[0.28504446148872375, 0.6349484324455261, 0.7289791107177734, 1.0873119831085205, 1.126319169998169, 1.1840670108795166, 1.4750926494598389]</t>
+          <t>[0.3143204152584076, 0.6595668792724609, 0.7963255643844604, 1.2466304302215576, 1.3087053298950195, 1.3194403648376465, 1.3966552019119263]</t>
         </is>
       </c>
       <c r="U66" t="n">
         <v>5</v>
       </c>
       <c r="V66" t="n">
-        <v>0.5715566000590809</v>
+        <v>0.5792969649110224</v>
       </c>
       <c r="W66" t="n">
         <v>4</v>
       </c>
       <c r="X66" t="n">
-        <v>0.5389569866079409</v>
+        <v>0.5742921180375435</v>
       </c>
       <c r="Y66" t="n">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.962209</t>
+          <t>2025-11-12T07:22:17.910207</t>
         </is>
       </c>
     </row>
@@ -6350,7 +6350,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C67" t="n">
         <v>3</v>
@@ -6366,7 +6366,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H67" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -6374,13 +6374,13 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K67" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="b">
@@ -6391,47 +6391,47 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>[63, 76, 110, 147, 111, 97, 16]</t>
+          <t>[121, 58, 103, 62, 72, 120, 73]</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>[0.3796297311782837, 0.39794325828552246, 0.4668952524662018, 0.5109684467315674, 0.533180832862854, 0.5471352934837341, 0.5629119277000427]</t>
+          <t>[0.9486286044120789, 1.0060019493103027, 1.0349825620651245, 1.043994426727295, 1.1175799369812012, 1.198166012763977, 1.2710840702056885]</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>[139, 9, 102, 153, 58, 121, 7]</t>
+          <t>[121, 58, 67, 165, 142, 15, 9]</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>[0.6349484324455261, 0.639224112033844, 0.6743265986442566, 1.1125237941741943, 1.158658742904663, 1.4751609563827515, 1.557084560394287]</t>
+          <t>[0.9486286044120789, 1.0060019493103027, 1.36075758934021, 1.661763310432434, 1.7279688119888306, 1.8581569194793701, 2.0275418758392334]</t>
         </is>
       </c>
       <c r="U67" t="n">
         <v>5</v>
       </c>
       <c r="V67" t="n">
-        <v>0.5401580622085429</v>
+        <v>1.157872966904788</v>
       </c>
       <c r="W67" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="X67" t="n">
-        <v>0.5122486851695403</v>
+        <v>0.487867300373154</v>
       </c>
       <c r="Y67" t="n">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.962209</t>
+          <t>2025-11-12T07:22:17.910207</t>
         </is>
       </c>
     </row>
@@ -6442,7 +6442,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C68" t="n">
         <v>3</v>
@@ -6458,21 +6458,21 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H68" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L68" t="n">
         <v>0.5916727785823274</v>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J68" t="n">
-        <v>1</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0</v>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="b">
@@ -6483,47 +6483,47 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>[160, 74, 16, 111, 128, 63, 85]</t>
+          <t>[156, 16, 74, 63, 111, 40, 165]</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>[0.7418535351753235, 0.8169267773628235, 0.8513126373291016, 0.9142948985099792, 0.9250989556312561, 0.9332956671714783, 0.9378286004066467]</t>
+          <t>[0.7479844689369202, 0.8024157881736755, 0.8204770088195801, 0.8479322791099548, 0.8673714399337769, 0.8892582058906555, 0.9107834696769714]</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>[9, 143, 139, 102, 121, 58, 7]</t>
+          <t>[165, 9, 142, 15, 58, 121, 84]</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>[0.9712804555892944, 1.1125237941741943, 1.4750926494598389, 1.6027143001556396, 1.913097858428955, 2.070220708847046, 2.0944221019744873]</t>
+          <t>[0.9107834696769714, 0.9870123863220215, 1.3087053298950195, 1.4321900606155396, 1.8709691762924194, 1.9660354852676392, 2.004002094268799]</t>
         </is>
       </c>
       <c r="U68" t="n">
         <v>5</v>
       </c>
       <c r="V68" t="n">
-        <v>0.9291972901307302</v>
+        <v>0.8783148328236311</v>
       </c>
       <c r="W68" t="n">
         <v>4</v>
       </c>
       <c r="X68" t="n">
-        <v>0.5742921180375435</v>
+        <v>0.5852601757026697</v>
       </c>
       <c r="Y68" t="n">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.962209</t>
+          <t>2025-11-12T07:22:17.911396</t>
         </is>
       </c>
     </row>
@@ -6534,7 +6534,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C69" t="n">
         <v>3</v>
@@ -6550,7 +6550,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H69" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -6575,47 +6575,47 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>[4, 15, 106, 115, 151, 13, 26]</t>
+          <t>[16, 40, 37, 74, 111, 9, 110]</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>[1.961000919342041, 2.4762635231018066, 2.548816442489624, 2.642822742462158, 2.7597248554229736, 2.781341075897217, 2.8036293983459473]</t>
+          <t>[0.31967228651046753, 0.34488022327423096, 0.5955296754837036, 0.5984890460968018, 0.6478413939476013, 0.6770656108856201, 0.6976949572563171]</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>[15, 45, 169, 21, 168, 7, 121]</t>
+          <t>[9, 142, 15, 159, 58, 121, 84]</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>[2.4762635231018066, 3.7356345653533936, 3.849271774291992, 3.852335214614868, 3.940241575241089, 4.46036958694458, 4.488486289978027]</t>
+          <t>[0.6770656108856201, 0.7963255643844604, 0.8948940634727478, 0.9107834696769714, 1.1279429197311401, 1.1881738901138306, 1.4698435068130493]</t>
         </is>
       </c>
       <c r="U69" t="n">
         <v>5</v>
       </c>
       <c r="V69" t="n">
-        <v>2.770533035325413</v>
+        <v>0.6624534722103811</v>
       </c>
       <c r="W69" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X69" t="n">
-        <v>0.487867300373154</v>
+        <v>0.4373140117772072</v>
       </c>
       <c r="Y69" t="n">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.962209</t>
+          <t>2025-11-12T07:22:17.911396</t>
         </is>
       </c>
     </row>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C70" t="n">
         <v>3</v>
@@ -6642,7 +6642,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H70" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -6650,13 +6650,13 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="K70" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L70" t="n">
-        <v>0.5916727785823274</v>
+        <v>0</v>
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="b">
@@ -6667,47 +6667,47 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>[123, 1, 21, 167, 161, 3, 32]</t>
+          <t>[1, 122, 163, 157, 3, 32, 53]</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>[0.4420248568058014, 0.4420248568058014, 0.7553806304931641, 0.8172926902770996, 1.0266729593276978, 1.2000261545181274, 1.2284033298492432]</t>
+          <t>[0.48484399914741516, 0.48484399914741516, 0.8827974796295166, 1.1573588848114014, 1.1785125732421875, 1.2328144311904907, 1.366477608680725]</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>[21, 58, 7, 121, 45, 102, 9]</t>
+          <t>[84, 58, 7, 121, 165, 149, 15]</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>[0.7553806304931641, 2.204462766647339, 2.5074117183685303, 2.5194039344787598, 2.7999069690704346, 2.8101322650909424, 2.880220651626587]</t>
+          <t>[2.5333683490753174, 2.8875086307525635, 2.9328017234802246, 2.9491524696350098, 3.1867213249206543, 3.2210705280303955, 3.310270309448242]</t>
         </is>
       </c>
       <c r="U70" t="n">
         <v>5</v>
       </c>
       <c r="V70" t="n">
-        <v>1.113349525776166</v>
+        <v>1.205663557172873</v>
       </c>
       <c r="W70" t="n">
         <v>5</v>
       </c>
       <c r="X70" t="n">
-        <v>0.4457596330983245</v>
+        <v>0.5389569866079409</v>
       </c>
       <c r="Y70" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.962209</t>
+          <t>2025-11-12T07:22:17.911944</t>
         </is>
       </c>
     </row>
@@ -6718,10 +6718,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="b">
         <v>1</v>
@@ -6734,21 +6734,21 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H71" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L71" t="n">
         <v>0.5916727785823274</v>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J71" t="n">
-        <v>1</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0</v>
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="b">
@@ -6759,47 +6759,47 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>[75, 36, 29, 69, 73, 77, 126]</t>
+          <t>[94, 23, 87, 164, 60, 81, 109]</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>[0.8769850134849548, 0.9809556007385254, 0.998561441898346, 1.1135129928588867, 1.1277869939804077, 1.2100275754928589, 1.2619000673294067]</t>
+          <t>[1.2203000783920288, 1.6926363706588745, 1.8774335384368896, 2.0870163440704346, 2.117780923843384, 2.381152868270874, 2.4321563243865967]</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>[45, 139, 121, 7, 9, 102, 143]</t>
+          <t>[94, 87, 164, 60, 81, 109, 25]</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>[1.3090776205062866, 1.981188416481018, 1.9998292922973633, 2.0157172679901123, 2.030216693878174, 2.1122682094573975, 2.1427667140960693]</t>
+          <t>[1.2203000783920288, 1.8774335384368896, 2.0870163440704346, 2.117780923843384, 2.381152868270874, 2.4321563243865967, 2.8773860931396484]</t>
         </is>
       </c>
       <c r="U71" t="n">
         <v>5</v>
       </c>
       <c r="V71" t="n">
-        <v>1.168907214591322</v>
+        <v>2.249466830893394</v>
       </c>
       <c r="W71" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X71" t="n">
-        <v>0.4373140117772072</v>
+        <v>0.5924894589884222</v>
       </c>
       <c r="Y71" t="n">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:42.962209</t>
+          <t>2025-11-12T07:22:18.738244</t>
         </is>
       </c>
     </row>
@@ -6810,10 +6810,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C72" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D72" t="b">
         <v>1</v>
@@ -6826,7 +6826,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K72" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="b">
@@ -6851,43 +6851,47 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>[156, 60, 82, 66, 152, 128, 138]</t>
+          <t>[109, 94, 14, 164, 87, 60, 108]</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>[3.682757616043091, 4.706303119659424, 4.783636569976807, 4.804975509643555, 4.842347145080566, 4.873950958251953, 4.920726776123047]</t>
+          <t>[1.0071320533752441, 2.3148419857025146, 2.8773860931396484, 2.8954005241394043, 3.425870418548584, 3.482402801513672, 3.556636095046997]</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>[98, 8, 12, 92, 34, 28, 146]</t>
+          <t>[109, 94, 14, 164, 87, 60, 81]</t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>[5.954493045806885, 6.087997913360596, 6.298218250274658, 6.413732051849365, 6.417726039886475, 6.466785430908203, 6.529043197631836]</t>
+          <t>[1.0071320533752441, 2.3148419857025146, 2.8773860931396484, 2.8954005241394043, 3.425870418548584, 3.482402801513672, 3.5626161098480225]</t>
         </is>
       </c>
       <c r="U72" t="n">
         <v>5</v>
       </c>
       <c r="V72" t="n">
-        <v>4.858149226426791</v>
+        <v>3.454136595739305</v>
       </c>
       <c r="W72" t="n">
-        <v>0</v>
-      </c>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0.5173502331327696</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>87</v>
+      </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:43.262406</t>
+          <t>2025-11-12T07:22:18.739246</t>
         </is>
       </c>
     </row>
@@ -6898,10 +6902,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="C73" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D73" t="b">
         <v>1</v>
@@ -6914,7 +6918,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -6922,13 +6926,13 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K73" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="b">
@@ -6939,47 +6943,47 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>[46, 150, 32, 120, 53, 3, 130]</t>
+          <t>[87, 14, 107, 148, 94, 23, 109]</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 1, 0, 1]</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>[0.8132038116455078, 1.4415215253829956, 1.4857956171035767, 1.5090693235397339, 1.586868405342102, 1.5875941514968872, 1.6002230644226074]</t>
+          <t>[1.3464914560317993, 2.117780923843384, 2.2423603534698486, 2.3751816749572754, 2.7694647312164307, 2.8419857025146484, 2.8423948287963867]</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>[98, 38, 28, 116, 14, 88, 148]</t>
+          <t>[87, 14, 94, 109, 164, 25, 81]</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>[3.489682912826538, 3.809053421020508, 4.527222156524658, 4.752734184265137, 4.85034704208374, 4.89711856842041, 4.981241226196289]</t>
+          <t>[1.3464914560317993, 2.117780923843384, 2.7694647312164307, 2.8423948287963867, 3.47521710395813, 3.482402801513672, 4.422701358795166]</t>
         </is>
       </c>
       <c r="U73" t="n">
         <v>5</v>
       </c>
       <c r="V73" t="n">
-        <v>1.587231284874157</v>
+        <v>2.805725195773698</v>
       </c>
       <c r="W73" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="X73" t="n">
-        <v>0.5135400655639983</v>
+        <v>0.4834822006297558</v>
       </c>
       <c r="Y73" t="n">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:43.262406</t>
+          <t>2025-11-12T07:22:18.739246</t>
         </is>
       </c>
     </row>
@@ -6990,10 +6994,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="C74" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D74" t="b">
         <v>1</v>
@@ -7006,7 +7010,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -7014,13 +7018,13 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K74" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="b">
@@ -7031,47 +7035,47 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>[92, 166, 88, 28, 34, 116, 134]</t>
+          <t>[94, 14, 164, 108, 138, 23, 115]</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>[0.6938520073890686, 0.7095147371292114, 1.1889803409576416, 1.2714117765426636, 1.3206110000610352, 1.4472988843917847, 1.5296647548675537]</t>
+          <t>[2.3045825958251953, 2.381152868270874, 2.386029005050659, 2.74284029006958, 3.0021142959594727, 3.1583945751190186, 3.191826343536377]</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>[92, 166, 88, 28, 34, 116, 134]</t>
+          <t>[94, 14, 164, 109, 25, 87, 60]</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>[0.6938520073890686, 0.7095147371292114, 1.1889803409576416, 1.2714117765426636, 1.3206110000610352, 1.4472988843917847, 1.5296647548675537]</t>
+          <t>[2.3045825958251953, 2.381152868270874, 2.386029005050659, 3.544670820236206, 3.5626161098480225, 4.017862319946289, 4.422701358795166]</t>
         </is>
       </c>
       <c r="U74" t="n">
         <v>5</v>
       </c>
       <c r="V74" t="n">
-        <v>1.383955013689414</v>
+        <v>3.080254324668591</v>
       </c>
       <c r="W74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X74" t="n">
-        <v>0.5443459042329746</v>
+        <v>0.4648690042010548</v>
       </c>
       <c r="Y74" t="n">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:43.262406</t>
+          <t>2025-11-12T07:22:18.740244</t>
         </is>
       </c>
     </row>
@@ -7082,10 +7086,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="C75" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D75" t="b">
         <v>1</v>
@@ -7098,7 +7102,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -7106,13 +7110,13 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K75" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="b">
@@ -7123,47 +7127,47 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>[105, 146, 125, 165, 127, 148, 28]</t>
+          <t>[60, 14, 107, 94, 23, 109, 148]</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 0, 1, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>[1.1962192058563232, 1.4052584171295166, 1.5090450048446655, 1.5114425420761108, 1.5793581008911133, 1.7265819311141968, 2.42822527885437]</t>
+          <t>[1.3464914560317993, 1.8774335384368896, 2.213010549545288, 2.4451022148132324, 2.7326161861419678, 2.85517954826355, 2.9604532718658447]</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>[105, 146, 125, 165, 127, 148, 28]</t>
+          <t>[60, 14, 94, 109, 164, 25, 81]</t>
         </is>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>[1.1962192058563232, 1.4052584171295166, 1.5090450048446655, 1.5114425420761108, 1.5793581008911133, 1.7265819311141968, 2.42822527885437]</t>
+          <t>[1.3464914560317993, 1.8774335384368896, 2.4451022148132324, 2.85517954826355, 3.3579046726226807, 3.425870418548584, 4.017862319946289]</t>
         </is>
       </c>
       <c r="U75" t="n">
         <v>5</v>
       </c>
       <c r="V75" t="n">
-        <v>1.652970040188325</v>
+        <v>2.793897844989489</v>
       </c>
       <c r="W75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X75" t="n">
-        <v>0.5325044568707964</v>
+        <v>0.4239730734667366</v>
       </c>
       <c r="Y75" t="n">
-        <v>146</v>
+        <v>60</v>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:43.262406</t>
+          <t>2025-11-12T07:22:18.741245</t>
         </is>
       </c>
     </row>
@@ -7174,10 +7178,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="C76" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D76" t="b">
         <v>1</v>
@@ -7190,7 +7194,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -7198,13 +7202,13 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K76" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="b">
@@ -7215,47 +7219,47 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>[116, 166, 34, 88, 67, 12, 92]</t>
+          <t>[14, 109, 81, 25, 87, 23, 164]</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 0, 1]</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>[0.5247544646263123, 1.026412844657898, 1.0364985466003418, 1.042699933052063, 1.0627883672714233, 1.2714117765426636, 1.5825912952423096]</t>
+          <t>[1.2203000783920288, 2.2812395095825195, 2.3045825958251953, 2.3148419857025146, 2.4451022148132324, 2.552834987640381, 2.5834226608276367]</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>[116, 166, 34, 88, 67, 12, 92]</t>
+          <t>[14, 109, 81, 25, 87, 164, 60]</t>
         </is>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>[0.5247544646263123, 1.026412844657898, 1.0364985466003418, 1.042699933052063, 1.0627883672714233, 1.2714117765426636, 1.5825912952423096]</t>
+          <t>[1.2203000783920288, 2.2812395095825195, 2.3045825958251953, 2.3148419857025146, 2.4451022148132324, 2.5834226608276367, 2.7694647312164307]</t>
         </is>
       </c>
       <c r="U76" t="n">
         <v>5</v>
       </c>
       <c r="V76" t="n">
-        <v>1.16710008127658</v>
+        <v>2.498968644573256</v>
       </c>
       <c r="W76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X76" t="n">
-        <v>0.4716931457088545</v>
+        <v>0.5135400655639983</v>
       </c>
       <c r="Y76" t="n">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:43.262406</t>
+          <t>2025-11-12T07:22:18.742248</t>
         </is>
       </c>
     </row>
@@ -7266,10 +7270,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="C77" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D77" t="b">
         <v>1</v>
@@ -7282,7 +7286,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -7290,13 +7294,13 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K77" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="b">
@@ -7307,43 +7311,47 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>[67, 116, 28, 88, 166, 12, 92]</t>
+          <t>[25, 94, 164, 14, 60, 87, 108]</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>[0.5955532789230347, 0.7853057980537415, 1.0364985466003418, 1.1688058376312256, 1.215668797492981, 1.3206110000610352, 1.6141602993011475]</t>
+          <t>[1.0071320533752441, 2.2812395095825195, 2.285822629928589, 2.4321563243865967, 2.8423948287963867, 2.85517954826355, 3.148904323577881]</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>[67, 116, 28, 88, 166, 12, 92]</t>
+          <t>[25, 94, 164, 14, 60, 87, 81]</t>
         </is>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>[0.5955532789230347, 0.7853057980537415, 1.0364985466003418, 1.1688058376312256, 1.215668797492981, 1.3206110000610352, 1.6141602993011475]</t>
+          <t>[1.0071320533752441, 2.2812395095825195, 2.285822629928589, 2.4321563243865967, 2.8423948287963867, 2.85517954826355, 3.544670820236206]</t>
         </is>
       </c>
       <c r="U77" t="n">
         <v>5</v>
       </c>
       <c r="V77" t="n">
-        <v>1.268139936715896</v>
+        <v>2.848787136167361</v>
       </c>
       <c r="W77" t="n">
-        <v>0</v>
-      </c>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0.471259567615395</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>14</v>
+      </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:43.262406</t>
+          <t>2025-11-12T07:22:18.742248</t>
         </is>
       </c>
     </row>
@@ -7354,10 +7362,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="C78" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D78" t="b">
         <v>1</v>
@@ -7370,7 +7378,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -7395,7 +7403,7 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>[72, 161, 137, 142, 27, 167, 170]</t>
+          <t>[51, 38, 41, 31, 161, 22, 98]</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
@@ -7405,37 +7413,37 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>[2.8743762969970703, 3.2135634422302246, 3.228022813796997, 3.4249022006988525, 3.450652837753296, 3.454488515853882, 3.4555227756500244]</t>
+          <t>[3.7599010467529297, 6.031514644622803, 6.2064971923828125, 6.269556522369385, 6.6227216720581055, 6.694086074829102, 6.834046840667725]</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>[8, 112, 98, 122, 28, 134, 116]</t>
+          <t>[164, 81, 14, 109, 94, 60, 87]</t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>[3.809053421020508, 4.054708003997803, 4.90034294128418, 4.931705474853516, 4.936753273010254, 5.014385223388672, 5.105235576629639]</t>
+          <t>[7.9577317237854, 8.746208190917969, 9.343550682067871, 9.818655967712402, 10.141305923461914, 10.25412368774414, 10.327604293823242]</t>
         </is>
       </c>
       <c r="U78" t="n">
         <v>5</v>
       </c>
       <c r="V78" t="n">
-        <v>3.452570618033049</v>
+        <v>6.658403778111246</v>
       </c>
       <c r="W78" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="X78" t="n">
-        <v>0.4990353820222541</v>
+        <v>0.4807672342116082</v>
       </c>
       <c r="Y78" t="n">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:43.262406</t>
+          <t>2025-11-12T07:22:18.743250</t>
         </is>
       </c>
     </row>
@@ -7446,10 +7454,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="C79" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D79" t="b">
         <v>1</v>
@@ -7462,7 +7470,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -7470,13 +7478,13 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K79" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="b">
@@ -7487,47 +7495,47 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>[116, 34, 28, 88, 166, 12, 148]</t>
+          <t>[108, 30, 115, 58, 14, 151, 44]</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[0, 0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>[0.5768178105354309, 0.5955532789230347, 1.0627883672714233, 1.151566743850708, 1.4561500549316406, 1.6920398473739624, 1.856772780418396]</t>
+          <t>[1.5264652967453003, 1.9698083400726318, 1.996938943862915, 2.0467700958251953, 2.0870163440704346, 2.1222028732299805, 2.254150152206421]</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>[116, 34, 28, 88, 166, 12, 148]</t>
+          <t>[14, 109, 81, 94, 25, 87, 60]</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>[0.5768178105354309, 0.5955532789230347, 1.0627883672714233, 1.151566743850708, 1.4561500549316406, 1.6920398473739624, 1.856772780418396]</t>
+          <t>[2.0870163440704346, 2.285822629928589, 2.386029005050659, 2.5834226608276367, 2.8954005241394043, 3.3579046726226807, 3.47521710395813]</t>
         </is>
       </c>
       <c r="U79" t="n">
         <v>5</v>
       </c>
       <c r="V79" t="n">
-        <v>1.574094967428715</v>
+        <v>2.10460961722997</v>
       </c>
       <c r="W79" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X79" t="n">
-        <v>0.5122486851695403</v>
+        <v>0.4705137712668338</v>
       </c>
       <c r="Y79" t="n">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:43.262406</t>
+          <t>2025-11-12T07:22:18.744244</t>
         </is>
       </c>
     </row>
@@ -7538,7 +7546,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
         <v>7</v>
@@ -7562,7 +7570,7 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" t="n">
         <v>0.7142857142857143</v>
@@ -7579,47 +7587,43 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>[116, 28, 67, 34, 12, 92, 166]</t>
+          <t>[81, 108, 82, 59, 127, 137, 11]</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>[0.963847815990448, 1.042699933052063, 1.151566743850708, 1.1688058376312256, 1.1889803409576416, 1.2844855785369873, 1.2921749353408813]</t>
+          <t>[4.532670497894287, 5.591374397277832, 5.633857727050781, 5.699139595031738, 5.705412864685059, 5.764636993408203, 5.771308898925781]</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>[116, 28, 67, 34, 12, 92, 166]</t>
+          <t>[38, 105, 166, 126, 138, 124, 28]</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>[0.963847815990448, 1.042699933052063, 1.151566743850708, 1.1688058376312256, 1.1889803409576416, 1.2844855785369873, 1.2921749353408813]</t>
+          <t>[6.412941932678223, 6.837788105010986, 6.840055465698242, 6.89823055267334, 7.014590740203857, 7.047330856323242, 7.254067897796631]</t>
         </is>
       </c>
       <c r="U80" t="n">
         <v>5</v>
       </c>
       <c r="V80" t="n">
-        <v>1.236732984053846</v>
+        <v>5.735024788399936</v>
       </c>
       <c r="W80" t="n">
-        <v>2</v>
-      </c>
-      <c r="X80" t="n">
-        <v>0.5726206851751187</v>
-      </c>
-      <c r="Y80" t="n">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:43.262406</t>
+          <t>2025-11-12T07:22:19.304352</t>
         </is>
       </c>
     </row>
@@ -7630,7 +7634,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="C81" t="n">
         <v>7</v>
@@ -7671,7 +7675,7 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>[12, 166, 88, 28, 34, 116, 134]</t>
+          <t>[21, 114, 162, 88, 92, 45, 128]</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
@@ -7681,37 +7685,37 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>[0.6938520073890686, 1.2321480512619019, 1.2844855785369873, 1.5825912952423096, 1.6141602993011475, 1.7865649461746216, 1.9720324277877808]</t>
+          <t>[0.5870625972747803, 0.7748442888259888, 1.0567131042480469, 1.1411694288253784, 1.1992429494857788, 1.227867841720581, 1.3072718381881714]</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>[12, 166, 88, 28, 34, 116, 134]</t>
+          <t>[21, 114, 162, 88, 92, 45, 128]</t>
         </is>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>[0.6938520073890686, 1.2321480512619019, 1.2844855785369873, 1.5825912952423096, 1.6141602993011475, 1.7865649461746216, 1.9720324277877808]</t>
+          <t>[0.5870625972747803, 0.7748442888259888, 1.0567131042480469, 1.1411694288253784, 1.1992429494857788, 1.227867841720581, 1.3072718381881714]</t>
         </is>
       </c>
       <c r="U81" t="n">
         <v>5</v>
       </c>
       <c r="V81" t="n">
-        <v>1.700362617842271</v>
+        <v>1.213555402028599</v>
       </c>
       <c r="W81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X81" t="n">
-        <v>0.519579995762217</v>
+        <v>0.5135400655639983</v>
       </c>
       <c r="Y81" t="n">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:43.262406</t>
+          <t>2025-11-12T07:22:19.304352</t>
         </is>
       </c>
     </row>
@@ -7722,13 +7726,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="C82" t="n">
         <v>7</v>
       </c>
       <c r="D82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
         <v>7</v>
@@ -7746,60 +7750,64 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="K82" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L82" t="n">
-        <v>0.8631205685666311</v>
+        <v>0</v>
       </c>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O82" t="b">
         <v>1</v>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>[28, 116, 170, 148, 149, 146, 166]</t>
+          <t>[133, 112, 126, 124, 21, 8, 45]</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 1, 0, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>[2.0094025135040283, 2.0699026584625244, 2.1498682498931885, 2.195941925048828, 2.232712984085083, 2.265591859817505, 2.2751543521881104]</t>
+          <t>[0.44071146845817566, 0.5359434485435486, 1.1137019395828247, 1.1221325397491455, 1.5196572542190552, 1.6390318870544434, 1.7952213287353516]</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>[28, 116, 148, 146, 166, 67, 88]</t>
+          <t>[133, 112, 126, 124, 21, 8, 45]</t>
         </is>
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>[2.0094025135040283, 2.0699026584625244, 2.195941925048828, 2.265591859817505, 2.2751543521881104, 2.3073177337646484, 2.3077964782714844]</t>
+          <t>[0.44071146845817566, 0.5359434485435486, 1.1137019395828247, 1.1221325397491455, 1.5196572542190552, 1.6390318870544434, 1.7952213287353516]</t>
         </is>
       </c>
       <c r="U82" t="n">
         <v>5</v>
       </c>
       <c r="V82" t="n">
-        <v>2.249152495282717</v>
+        <v>1.579344523255808</v>
       </c>
       <c r="W82" t="n">
-        <v>0</v>
-      </c>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0.5443459042329746</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>133</v>
+      </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:43.262406</t>
+          <t>2025-11-12T07:22:19.304352</t>
         </is>
       </c>
     </row>
@@ -7810,7 +7818,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="C83" t="n">
         <v>7</v>
@@ -7851,7 +7859,7 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>[146, 125, 127, 165, 14, 148, 28]</t>
+          <t>[8, 45, 114, 92, 162, 133, 88]</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
@@ -7861,37 +7869,37 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>[0.5542061924934387, 0.9788116216659546, 1.1553232669830322, 1.1788504123687744, 1.1962192058563232, 1.1968179941177368, 2.1950740814208984]</t>
+          <t>[0.5870625972747803, 0.675281822681427, 0.6800628304481506, 0.8477917909622192, 0.9451277852058411, 1.193338394165039, 1.2345385551452637]</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>[146, 125, 127, 165, 14, 148, 28]</t>
+          <t>[8, 45, 114, 92, 162, 133, 88]</t>
         </is>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>[0.5542061924934387, 0.9788116216659546, 1.1553232669830322, 1.1788504123687744, 1.1962192058563232, 1.1968179941177368, 2.1950740814208984]</t>
+          <t>[0.5870625972747803, 0.675281822681427, 0.6800628304481506, 0.8477917909622192, 0.9451277852058411, 1.193338394165039, 1.2345385551452637]</t>
         </is>
       </c>
       <c r="U83" t="n">
         <v>5</v>
       </c>
       <c r="V83" t="n">
-        <v>1.196518611438734</v>
+        <v>1.069233099607821</v>
       </c>
       <c r="W83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X83" t="n">
-        <v>0.5413714687695235</v>
+        <v>0.5325044568707964</v>
       </c>
       <c r="Y83" t="n">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:43.262406</t>
+          <t>2025-11-12T07:22:19.305351</t>
         </is>
       </c>
     </row>
@@ -7902,13 +7910,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="C84" t="n">
         <v>7</v>
       </c>
       <c r="D84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="n">
         <v>7</v>
@@ -7926,60 +7934,64 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>0.5714285714285714</v>
+        <v>0</v>
       </c>
       <c r="K84" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L84" t="n">
-        <v>0.9852281360342515</v>
+        <v>0</v>
       </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O84" t="b">
         <v>1</v>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>[38, 122, 161, 165, 21, 167, 72]</t>
+          <t>[34, 88, 138, 128, 162, 114, 8]</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 1, 0, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>[4.054708003997803, 4.337198257446289, 4.3814287185668945, 4.3913702964782715, 4.5682549476623535, 4.5694379806518555, 4.61110258102417]</t>
+          <t>[0.6142321228981018, 0.6859554648399353, 0.7660395503044128, 1.076946496963501, 1.1934551000595093, 1.2661679983139038, 1.3309775590896606]</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>[38, 122, 165, 125, 127, 148, 14]</t>
+          <t>[34, 88, 138, 128, 162, 114, 8]</t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>[4.054708003997803, 4.337198257446289, 4.3913702964782715, 4.639427185058594, 4.678295612335205, 4.715940475463867, 4.788558006286621]</t>
+          <t>[0.6142321228981018, 0.6859554648399353, 0.7660395503044128, 1.076946496963501, 1.1934551000595093, 1.2661679983139038, 1.3309775590896606]</t>
         </is>
       </c>
       <c r="U84" t="n">
         <v>5</v>
       </c>
       <c r="V84" t="n">
-        <v>4.568846539554245</v>
+        <v>1.229811545913382</v>
       </c>
       <c r="W84" t="n">
-        <v>0</v>
-      </c>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0.4716931457088545</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>88</v>
+      </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:43.262406</t>
+          <t>2025-11-12T07:22:19.305351</t>
         </is>
       </c>
     </row>
@@ -7990,7 +8002,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="C85" t="n">
         <v>7</v>
@@ -8031,7 +8043,7 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>[105, 125, 14, 127, 165, 146, 122]</t>
+          <t>[28, 88, 162, 138, 128, 114, 8]</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
@@ -8041,37 +8053,33 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>[3.718254804611206, 3.7610156536102295, 3.762176036834717, 3.840088129043579, 3.842573881149292, 3.8764913082122803, 4.087904453277588]</t>
+          <t>[0.6142321228981018, 1.1568273305892944, 1.2616711854934692, 1.2750091552734375, 1.3105312585830688, 1.5270161628723145, 1.569430947303772]</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>[105, 125, 14, 127, 165, 146, 122]</t>
+          <t>[28, 88, 162, 138, 128, 114, 8]</t>
         </is>
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>[3.718254804611206, 3.7610156536102295, 3.762176036834717, 3.840088129043579, 3.842573881149292, 3.8764913082122803, 4.087904453277588]</t>
+          <t>[0.6142321228981018, 1.1568273305892944, 1.2616711854934692, 1.2750091552734375, 1.3105312585830688, 1.5270161628723145, 1.569430947303772]</t>
         </is>
       </c>
       <c r="U85" t="n">
         <v>5</v>
       </c>
       <c r="V85" t="n">
-        <v>3.859532529641975</v>
+        <v>1.418773694365125</v>
       </c>
       <c r="W85" t="n">
-        <v>2</v>
-      </c>
-      <c r="X85" t="n">
-        <v>0.4582458280396084</v>
-      </c>
-      <c r="Y85" t="n">
-        <v>105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:43.262406</t>
+          <t>2025-11-12T07:22:19.305351</t>
         </is>
       </c>
     </row>
@@ -8082,7 +8090,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="C86" t="n">
         <v>7</v>
@@ -8123,7 +8131,7 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>[28, 67, 34, 88, 166, 12, 148]</t>
+          <t>[51, 112, 12, 124, 126, 133, 166]</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
@@ -8133,37 +8141,37 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>[0.5247544646263123, 0.5768178105354309, 0.7853057980537415, 0.963847815990448, 1.1512864828109741, 1.4472988843917847, 1.6623544692993164]</t>
+          <t>[3.5910539627075195, 3.9328527450561523, 4.035305500030518, 4.064088344573975, 4.06761360168457, 4.18534517288208, 4.640810489654541]</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>[28, 67, 34, 88, 166, 12, 148]</t>
+          <t>[51, 112, 12, 124, 126, 133, 166]</t>
         </is>
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>[0.5247544646263123, 0.5768178105354309, 0.7853057980537415, 0.963847815990448, 1.1512864828109741, 1.4472988843917847, 1.6623544692993164]</t>
+          <t>[3.5910539627075195, 3.9328527450561523, 4.035305500030518, 4.064088344573975, 4.06761360168457, 4.18534517288208, 4.640810489654541]</t>
         </is>
       </c>
       <c r="U86" t="n">
         <v>5</v>
       </c>
       <c r="V86" t="n">
-        <v>1.2992927055172</v>
+        <v>4.126479395729262</v>
       </c>
       <c r="W86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X86" t="n">
-        <v>0.4031272813482388</v>
+        <v>0.5901428612819832</v>
       </c>
       <c r="Y86" t="n">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:43.262406</t>
+          <t>2025-11-12T07:22:19.305351</t>
         </is>
       </c>
     </row>
@@ -8174,13 +8182,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="C87" t="n">
         <v>7</v>
       </c>
       <c r="D87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
         <v>7</v>
@@ -8198,60 +8206,64 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>0.5714285714285714</v>
+        <v>0</v>
       </c>
       <c r="K87" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L87" t="n">
-        <v>0.9852281360342515</v>
+        <v>0</v>
       </c>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O87" t="b">
         <v>1</v>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>[25, 114, 112, 95, 125, 137, 142]</t>
+          <t>[92, 21, 114, 162, 8, 133, 112]</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>[0, 1, 1, 0, 1, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>[3.548219919204712, 4.087904453277588, 4.337198257446289, 4.459561824798584, 4.477699279785156, 4.484893798828125, 4.487624645233154]</t>
+          <t>[0.5880113840103149, 0.675281822681427, 1.0867221355438232, 1.1942555904388428, 1.227867841720581, 1.4277935028076172, 1.4588985443115234]</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>[114, 112, 125, 127, 98, 165, 148]</t>
+          <t>[92, 21, 114, 162, 8, 133, 112]</t>
         </is>
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>[4.087904453277588, 4.337198257446289, 4.477699279785156, 4.522115707397461, 4.53907585144043, 4.543074607849121, 4.669898509979248]</t>
+          <t>[0.5880113840103149, 0.675281822681427, 1.0867221355438232, 1.1942555904388428, 1.227867841720581, 1.4277935028076172, 1.4588985443115234]</t>
         </is>
       </c>
       <c r="U87" t="n">
         <v>5</v>
       </c>
       <c r="V87" t="n">
-        <v>4.481296362135646</v>
+        <v>1.327830632468163</v>
       </c>
       <c r="W87" t="n">
-        <v>0</v>
-      </c>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0.5122486851695403</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>114</v>
+      </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:43.262406</t>
+          <t>2025-11-12T07:22:19.305351</t>
         </is>
       </c>
     </row>
@@ -8262,13 +8274,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="C88" t="n">
         <v>7</v>
       </c>
       <c r="D88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
         <v>7</v>
@@ -8286,64 +8298,60 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K88" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O88" t="b">
         <v>1</v>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>[165, 148, 127, 105, 146, 14, 116]</t>
+          <t>[38, 41, 118, 154, 31, 139, 95]</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>[0.4555348753929138, 0.5437226295471191, 0.8630491495132446, 0.9788116216659546, 0.9866169691085815, 1.5090450048446655, 1.987839698791504]</t>
+          <t>[3.5910539627075195, 3.6791536808013916, 3.7599010467529297, 4.191283226013184, 4.204868793487549, 4.221368312835693, 4.2424726486206055]</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>[165, 148, 127, 105, 146, 14, 116]</t>
+          <t>[38, 105, 166, 98, 112, 12, 124]</t>
         </is>
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>[0.4555348753929138, 0.5437226295471191, 0.8630491495132446, 0.9788116216659546, 0.9866169691085815, 1.5090450048446655, 1.987839698791504]</t>
+          <t>[3.5910539627075195, 5.339532375335693, 5.3561553955078125, 5.378329277038574, 5.421195030212402, 5.555976867675781, 5.668609619140625]</t>
         </is>
       </c>
       <c r="U88" t="n">
         <v>5</v>
       </c>
       <c r="V88" t="n">
-        <v>1.247830959579245</v>
+        <v>4.213118498638085</v>
       </c>
       <c r="W88" t="n">
-        <v>2</v>
-      </c>
-      <c r="X88" t="n">
-        <v>0.5045465658763988</v>
-      </c>
-      <c r="Y88" t="n">
-        <v>127</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:43.262406</t>
+          <t>2025-11-12T07:22:19.305351</t>
         </is>
       </c>
     </row>
@@ -8354,7 +8362,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="C89" t="n">
         <v>7</v>
@@ -8395,7 +8403,7 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>[125, 165, 148, 105, 146, 14, 88]</t>
+          <t>[28, 128, 138, 114, 161, 8, 34]</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
@@ -8405,37 +8413,37 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>[0.8630491495132446, 0.9548653364181519, 1.0304895639419556, 1.1553232669830322, 1.2386415004730225, 1.5793581008911133, 2.136317014694214]</t>
+          <t>[0.6859554648399353, 0.7036965489387512, 0.7900530695915222, 0.8683827519416809, 1.022574543952942, 1.1411694288253784, 1.1568273305892944]</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>[125, 165, 148, 105, 146, 14, 88]</t>
+          <t>[28, 128, 138, 114, 161, 8, 34]</t>
         </is>
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>[0.8630491495132446, 0.9548653364181519, 1.0304895639419556, 1.1553232669830322, 1.2386415004730225, 1.5793581008911133, 2.136317014694214]</t>
+          <t>[0.6859554648399353, 0.7036965489387512, 0.7900530695915222, 0.8683827519416809, 1.022574543952942, 1.1411694288253784, 1.1568273305892944]</t>
         </is>
       </c>
       <c r="U89" t="n">
         <v>5</v>
       </c>
       <c r="V89" t="n">
-        <v>1.408999775936314</v>
+        <v>1.081871941985927</v>
       </c>
       <c r="W89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X89" t="n">
-        <v>0.405083825348819</v>
+        <v>0.5726206851751187</v>
       </c>
       <c r="Y89" t="n">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:43.262406</t>
+          <t>2025-11-12T07:22:19.306350</t>
         </is>
       </c>
     </row>
@@ -8446,7 +8454,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="C90" t="n">
         <v>7</v>
@@ -8487,7 +8495,7 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>[166, 12, 28, 92, 116, 88, 34]</t>
+          <t>[45, 21, 114, 162, 8, 88, 28]</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
@@ -8497,37 +8505,37 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>[1.225460410118103, 1.5296647548675537, 1.7913583517074585, 1.9720324277877808, 2.007189989089966, 2.0494744777679443, 2.268449068069458]</t>
+          <t>[0.5880113840103149, 0.8477917909622192, 1.0984092950820923, 1.1958069801330566, 1.1992429494857788, 1.3408164978027344, 1.403456687927246]</t>
         </is>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>[166, 12, 28, 92, 116, 88, 34]</t>
+          <t>[45, 21, 114, 162, 8, 88, 28]</t>
         </is>
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>[1.225460410118103, 1.5296647548675537, 1.7913583517074585, 1.9720324277877808, 2.007189989089966, 2.0494744777679443, 2.268449068069458]</t>
+          <t>[0.5880113840103149, 0.8477917909622192, 1.0984092950820923, 1.1958069801330566, 1.1992429494857788, 1.3408164978027344, 1.403456687927246]</t>
         </is>
       </c>
       <c r="U90" t="n">
         <v>5</v>
       </c>
       <c r="V90" t="n">
-        <v>2.028332337518482</v>
+        <v>1.270029759013842</v>
       </c>
       <c r="W90" t="n">
         <v>2</v>
       </c>
       <c r="X90" t="n">
-        <v>0.5459212356676129</v>
+        <v>0.519579995762217</v>
       </c>
       <c r="Y90" t="n">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:43.262406</t>
+          <t>2025-11-12T07:22:19.306350</t>
         </is>
       </c>
     </row>
@@ -8538,7 +8546,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="C91" t="n">
         <v>7</v>
@@ -8562,7 +8570,7 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91" t="n">
         <v>0.7142857142857143</v>
@@ -8579,43 +8587,47 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>[105, 125, 148, 165, 127, 14, 116]</t>
+          <t>[119, 144, 136, 66, 44, 157, 120]</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>[0.5542061924934387, 0.9866169691085815, 1.0372637510299683, 1.1374363899230957, 1.2386415004730225, 1.4052584171295166, 2.102363109588623]</t>
+          <t>[3.2598142623901367, 3.373856782913208, 3.471684217453003, 3.4778761863708496, 3.5623979568481445, 3.6124210357666016, 3.6232526302337646]</t>
         </is>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>[105, 125, 148, 165, 127, 14, 116]</t>
+          <t>[105, 128, 161, 166, 12, 8, 114]</t>
         </is>
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>[0.5542061924934387, 0.9866169691085815, 1.0372637510299683, 1.1374363899230957, 1.2386415004730225, 1.4052584171295166, 2.102363109588623]</t>
+          <t>[3.9275851249694824, 4.9806342124938965, 5.017333507537842, 5.052260398864746, 5.078725337982178, 5.0977606773376465, 5.115533828735352]</t>
         </is>
       </c>
       <c r="U91" t="n">
         <v>5</v>
       </c>
       <c r="V91" t="n">
-        <v>1.321949954095157</v>
+        <v>3.587409598103194</v>
       </c>
       <c r="W91" t="n">
-        <v>0</v>
-      </c>
-      <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0.5413714687695235</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>136</v>
+      </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:43.262406</t>
+          <t>2025-11-12T07:22:19.306350</t>
         </is>
       </c>
     </row>
@@ -8626,7 +8638,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="C92" t="n">
         <v>7</v>
@@ -8650,7 +8662,7 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" t="n">
         <v>0.7142857142857143</v>
@@ -8667,47 +8679,47 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>[165, 125, 127, 146, 105, 116, 14]</t>
+          <t>[145, 146, 120, 32, 136, 141, 129]</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>[0.49568384885787964, 0.5437226295471191, 1.0304895639419556, 1.0372637510299683, 1.1968179941177368, 1.6623544692993164, 1.7265819311141968]</t>
+          <t>[0.8948200941085815, 1.6508108377456665, 1.721904993057251, 1.7791153192520142, 1.8169045448303223, 1.8297165632247925, 1.8299530744552612]</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>[165, 125, 127, 146, 105, 116, 14]</t>
+          <t>[166, 98, 12, 133, 124, 112, 8]</t>
         </is>
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>[0.49568384885787964, 0.5437226295471191, 1.0304895639419556, 1.0372637510299683, 1.1968179941177368, 1.6623544692993164, 1.7265819311141968]</t>
+          <t>[3.6561107635498047, 3.9275851249694824, 4.441835880279541, 4.634947299957275, 4.655632972717285, 4.715849876403809, 4.748517990112305]</t>
         </is>
       </c>
       <c r="U92" t="n">
         <v>5</v>
       </c>
       <c r="V92" t="n">
-        <v>1.429586236805264</v>
+        <v>1.823310568988212</v>
       </c>
       <c r="W92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X92" t="n">
-        <v>0.5173502331327696</v>
+        <v>0.4582458280396084</v>
       </c>
       <c r="Y92" t="n">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:43.262406</t>
+          <t>2025-11-12T07:22:19.306350</t>
         </is>
       </c>
     </row>
@@ -8718,7 +8730,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="C93" t="n">
         <v>7</v>
@@ -8759,7 +8771,7 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>[125, 148, 127, 146, 105, 14, 116]</t>
+          <t>[133, 12, 124, 126, 21, 8, 45]</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
@@ -8769,37 +8781,37 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>[0.4555348753929138, 0.49568384885787964, 0.9548653364181519, 1.1374363899230957, 1.1788504123687744, 1.5114425420761108, 2.0850367546081543]</t>
+          <t>[0.486105740070343, 0.5359434485435486, 0.9021843671798706, 0.9391539096832275, 1.2420012950897217, 1.4284123182296753, 1.4588985443115234]</t>
         </is>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>[125, 148, 127, 146, 105, 14, 116]</t>
+          <t>[133, 12, 124, 126, 21, 8, 45]</t>
         </is>
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>[0.4555348753929138, 0.49568384885787964, 0.9548653364181519, 1.1374363899230957, 1.1788504123687744, 1.5114425420761108, 2.0850367546081543]</t>
+          <t>[0.486105740070343, 0.5359434485435486, 0.9021843671798706, 0.9391539096832275, 1.2420012950897217, 1.4284123182296753, 1.4588985443115234]</t>
         </is>
       </c>
       <c r="U93" t="n">
         <v>5</v>
       </c>
       <c r="V93" t="n">
-        <v>1.345146454353908</v>
+        <v>1.335206826312749</v>
       </c>
       <c r="W93" t="n">
         <v>2</v>
       </c>
       <c r="X93" t="n">
-        <v>0.4900998503939086</v>
+        <v>0.4031272813482388</v>
       </c>
       <c r="Y93" t="n">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-11-05T15:33:43.262406</t>
+          <t>2025-11-12T07:22:19.306350</t>
         </is>
       </c>
     </row>
@@ -8810,7 +8822,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="C94" t="n">
         <v>7</v>
@@ -8851,7 +8863,7 @@
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>[12, 28, 116, 34, 134, 92, 88]</t>
+          <t>[21, 8, 88, 162, 45, 92, 128]</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
@@ -8861,42 +8873,770 @@
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>[0.7095147371292114, 1.026412844657898, 1.1512864828109741, 1.215668797492981, 1.225460410118103, 1.2321480512619019, 1.2921749353408813]</t>
+          <t>[0.6800628304481506, 0.7748442888259888, 0.8683827519416809, 1.0233161449432373, 1.0867221355438232, 1.0984092950820923, 1.1421607732772827]</t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>[12, 28, 116, 34, 134, 92, 88]</t>
+          <t>[21, 8, 88, 162, 45, 92, 128]</t>
         </is>
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>[0.7095147371292114, 1.026412844657898, 1.1512864828109741, 1.215668797492981, 1.225460410118103, 1.2321480512619019, 1.2921749353408813]</t>
+          <t>[0.6800628304481506, 0.7748442888259888, 0.8683827519416809, 1.0233161449432373, 1.0867221355438232, 1.0984092950820923, 1.1421607732772827]</t>
         </is>
       </c>
       <c r="U94" t="n">
         <v>5</v>
       </c>
       <c r="V94" t="n">
-        <v>1.228804292730413</v>
+        <v>1.092565705546201</v>
       </c>
       <c r="W94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X94" t="n">
+        <v>0.5045465658763988</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>88</v>
+      </c>
+      <c r="Z94" t="inlineStr">
+        <is>
+          <t>2025-11-12T07:22:19.306350</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>124</v>
+      </c>
+      <c r="C95" t="n">
+        <v>7</v>
+      </c>
+      <c r="D95" t="b">
+        <v>1</v>
+      </c>
+      <c r="E95" t="n">
+        <v>7</v>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="b">
+        <v>1</v>
+      </c>
+      <c r="O95" t="b">
+        <v>1</v>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>[126, 112, 133, 12, 8, 21, 45]</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>[0.5666053891181946, 0.9021843671798706, 1.0324256420135498, 1.1221325397491455, 1.332693338394165, 1.3888181447982788, 1.7125574350357056]</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>[126, 112, 133, 12, 8, 21, 45]</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>[0.5666053891181946, 0.9021843671798706, 1.0324256420135498, 1.1221325397491455, 1.332693338394165, 1.3888181447982788, 1.7125574350357056]</t>
+        </is>
+      </c>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>1.360755687805173</v>
+      </c>
+      <c r="W95" t="n">
+        <v>2</v>
+      </c>
+      <c r="X95" t="n">
+        <v>0.4244076469689558</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z95" t="inlineStr">
+        <is>
+          <t>2025-11-12T07:22:19.307350</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>126</v>
+      </c>
+      <c r="C96" t="n">
+        <v>7</v>
+      </c>
+      <c r="D96" t="b">
+        <v>1</v>
+      </c>
+      <c r="E96" t="n">
+        <v>7</v>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="b">
+        <v>1</v>
+      </c>
+      <c r="O96" t="b">
+        <v>1</v>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>[124, 112, 133, 12, 21, 8, 45]</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>[0.5666053891181946, 0.9391539096832275, 0.941537082195282, 1.1137019395828247, 1.4142194986343384, 1.525015950202942, 1.553313970565796]</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>[124, 112, 133, 12, 21, 8, 45]</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>[0.5666053891181946, 0.9391539096832275, 0.941537082195282, 1.1137019395828247, 1.4142194986343384, 1.525015950202942, 1.553313970565796]</t>
+        </is>
+      </c>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>1.469617710326463</v>
+      </c>
+      <c r="W96" t="n">
+        <v>2</v>
+      </c>
+      <c r="X96" t="n">
+        <v>0.5459212356676129</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z96" t="inlineStr">
+        <is>
+          <t>2025-11-12T07:22:19.307350</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>128</v>
+      </c>
+      <c r="C97" t="n">
+        <v>7</v>
+      </c>
+      <c r="D97" t="b">
+        <v>1</v>
+      </c>
+      <c r="E97" t="n">
+        <v>7</v>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="b">
+        <v>1</v>
+      </c>
+      <c r="O97" t="b">
+        <v>1</v>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>[88, 161, 138, 28, 114, 8, 34]</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>[0.7036965489387512, 0.8069113492965698, 1.0061010122299194, 1.076946496963501, 1.1421607732772827, 1.3072718381881714, 1.3105312585830688]</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>[88, 161, 138, 28, 114, 8, 34]</t>
+        </is>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>[0.7036965489387512, 0.8069113492965698, 1.0061010122299194, 1.076946496963501, 1.1421607732772827, 1.3072718381881714, 1.3105312585830688]</t>
+        </is>
+      </c>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>1.224716337726744</v>
+      </c>
+      <c r="W97" t="n">
+        <v>0</v>
+      </c>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
+      <c r="Z97" t="inlineStr">
+        <is>
+          <t>2025-11-12T07:22:19.307350</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>133</v>
+      </c>
+      <c r="C98" t="n">
+        <v>7</v>
+      </c>
+      <c r="D98" t="b">
+        <v>1</v>
+      </c>
+      <c r="E98" t="n">
+        <v>7</v>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="b">
+        <v>1</v>
+      </c>
+      <c r="O98" t="b">
+        <v>1</v>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>[12, 112, 126, 124, 21, 8, 45]</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>[0.44071146845817566, 0.486105740070343, 0.941537082195282, 1.0324256420135498, 1.193338394165039, 1.4118801355361938, 1.4277935028076172]</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>[12, 112, 126, 124, 21, 8, 45]</t>
+        </is>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>[0.44071146845817566, 0.486105740070343, 0.941537082195282, 1.0324256420135498, 1.193338394165039, 1.4118801355361938, 1.4277935028076172]</t>
+        </is>
+      </c>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>1.302609265714979</v>
+      </c>
+      <c r="W98" t="n">
+        <v>3</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0.5173502331327696</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z98" t="inlineStr">
+        <is>
+          <t>2025-11-12T07:22:19.307350</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>138</v>
+      </c>
+      <c r="C99" t="n">
+        <v>7</v>
+      </c>
+      <c r="D99" t="b">
+        <v>1</v>
+      </c>
+      <c r="E99" t="n">
+        <v>7</v>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="b">
+        <v>1</v>
+      </c>
+      <c r="O99" t="b">
+        <v>1</v>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>[28, 88, 128, 161, 34, 8, 114]</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>[0.7660395503044128, 0.7900530695915222, 1.0061010122299194, 1.2489888668060303, 1.2750091552734375, 1.3425850868225098, 1.454689860343933]</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>[28, 88, 128, 161, 34, 8, 114]</t>
+        </is>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>[0.7660395503044128, 0.7900530695915222, 1.0061010122299194, 1.2489888668060303, 1.2750091552734375, 1.3425850868225098, 1.454689860343933]</t>
+        </is>
+      </c>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>1.30879706619595</v>
+      </c>
+      <c r="W99" t="n">
+        <v>2</v>
+      </c>
+      <c r="X99" t="n">
+        <v>0.4900998503939086</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z99" t="inlineStr">
+        <is>
+          <t>2025-11-12T07:22:19.307350</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>161</v>
+      </c>
+      <c r="C100" t="n">
+        <v>7</v>
+      </c>
+      <c r="D100" t="b">
+        <v>1</v>
+      </c>
+      <c r="E100" t="n">
+        <v>7</v>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="b">
+        <v>1</v>
+      </c>
+      <c r="O100" t="b">
+        <v>1</v>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>[128, 88, 138, 28, 114, 34, 8]</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>[0.8069113492965698, 1.022574543952942, 1.2489888668060303, 1.3392586708068848, 1.53340482711792, 1.5942357778549194, 1.7510337829589844]</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>[128, 88, 138, 28, 114, 34, 8]</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>[0.8069113492965698, 1.022574543952942, 1.2489888668060303, 1.3392586708068848, 1.53340482711792, 1.5942357778549194, 1.7510337829589844]</t>
+        </is>
+      </c>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>1.563820307840243</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1</v>
+      </c>
+      <c r="X100" t="n">
         <v>0.4092900825439996</v>
       </c>
-      <c r="Y94" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z94" t="inlineStr">
-        <is>
-          <t>2025-11-05T15:33:43.262406</t>
+      <c r="Y100" t="n">
+        <v>128</v>
+      </c>
+      <c r="Z100" t="inlineStr">
+        <is>
+          <t>2025-11-12T07:22:19.307350</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>162</v>
+      </c>
+      <c r="C101" t="n">
+        <v>7</v>
+      </c>
+      <c r="D101" t="b">
+        <v>1</v>
+      </c>
+      <c r="E101" t="n">
+        <v>7</v>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="b">
+        <v>1</v>
+      </c>
+      <c r="O101" t="b">
+        <v>1</v>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>[21, 114, 8, 28, 45, 92, 34]</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>[0.9451277852058411, 1.0233161449432373, 1.0567131042480469, 1.1934551000595093, 1.1942555904388428, 1.1958069801330566, 1.2616711854934692]</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>[21, 114, 8, 28, 45, 92, 34]</t>
+        </is>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>[0.9451277852058411, 1.0233161449432373, 1.0567131042480469, 1.1934551000595093, 1.1942555904388428, 1.1958069801330566, 1.2616711854934692]</t>
+        </is>
+      </c>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>1.195031309560613</v>
+      </c>
+      <c r="W101" t="n">
+        <v>3</v>
+      </c>
+      <c r="X101" t="n">
+        <v>0.5368466053024313</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>114</v>
+      </c>
+      <c r="Z101" t="inlineStr">
+        <is>
+          <t>2025-11-12T07:22:19.308350</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>166</v>
+      </c>
+      <c r="C102" t="n">
+        <v>7</v>
+      </c>
+      <c r="D102" t="b">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>7</v>
+      </c>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J102" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="b">
+        <v>0</v>
+      </c>
+      <c r="O102" t="b">
+        <v>1</v>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>[116, 126, 124, 133, 12, 112, 151]</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>[0, 1, 1, 1, 1, 1, 0]</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>[1.7895429134368896, 1.793355107307434, 1.8226051330566406, 1.835853934288025, 1.9539294242858887, 1.988913893699646, 2.0472967624664307]</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>[126, 124, 133, 12, 112, 21, 8]</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>[1.793355107307434, 1.8226051330566406, 1.835853934288025, 1.9539294242858887, 1.988913893699646, 2.063173770904541, 2.0901830196380615]</t>
+        </is>
+      </c>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>1.971421684506391</v>
+      </c>
+      <c r="W102" t="n">
+        <v>0</v>
+      </c>
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr">
+        <is>
+          <t>2025-11-12T07:22:19.308350</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:Z94">
+  <conditionalFormatting sqref="A2:Z102">
     <cfRule type="expression" priority="1" dxfId="0">
       <formula>=$D2=FALSE</formula>
     </cfRule>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D25_R50_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D25_R50_Pentropia.xlsx
@@ -598,7 +598,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="b">
@@ -659,7 +659,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.180142</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="b">
@@ -747,7 +747,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.181150</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="b">
@@ -835,7 +835,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.181150</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -862,7 +862,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="b">
@@ -923,7 +923,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.182154</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -950,7 +950,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -964,11 +964,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="b">
         <v>1</v>
@@ -1011,7 +1011,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.182154</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="b">
@@ -1099,7 +1099,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.182154</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="b">
@@ -1187,7 +1187,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.183145</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1214,7 +1214,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -1228,11 +1228,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="b">
         <v>1</v>
@@ -1275,7 +1275,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.183145</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="b">
@@ -1363,7 +1363,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.184145</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -1390,7 +1390,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="b">
@@ -1451,7 +1451,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.184145</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -1478,7 +1478,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="b">
@@ -1539,7 +1539,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.184145</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="b">
@@ -1627,7 +1627,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.185146</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L14" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="b">
@@ -1715,7 +1715,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.185146</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L15" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="b">
@@ -1803,7 +1803,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.186140</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="b">
@@ -1891,7 +1891,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.186140</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L17" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="b">
@@ -1979,7 +1979,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.186140</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="b">
@@ -2067,7 +2067,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.187140</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -2094,7 +2094,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L19" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="b">
@@ -2155,7 +2155,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.187140</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -2182,7 +2182,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="L20" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="b">
@@ -2237,13 +2237,17 @@
         <v>1.482965390743993</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.4918497783931735</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>24</v>
+      </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.187140</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2264,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
@@ -2270,7 +2274,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -2284,11 +2288,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L21" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="b">
         <v>1</v>
@@ -2331,7 +2335,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.187903</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -2358,7 +2362,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -2372,7 +2376,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L22" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="b">
@@ -2419,7 +2423,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.188452</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -2446,7 +2450,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -2460,7 +2464,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L23" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="b">
@@ -2501,17 +2505,13 @@
         <v>1.096655438561091</v>
       </c>
       <c r="W23" t="n">
-        <v>1</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0.4918497783931735</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>50</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.188599</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -2538,7 +2538,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L24" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="b">
@@ -2599,7 +2599,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.189132</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -2626,7 +2626,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L25" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="b">
@@ -2687,7 +2687,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.189132</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -2714,7 +2714,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="b">
@@ -2775,7 +2775,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.189132</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -2802,7 +2802,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L27" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="b">
@@ -2863,7 +2863,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.190133</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -2890,7 +2890,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L28" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="b">
@@ -2951,7 +2951,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.190133</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -2978,7 +2978,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="b">
@@ -3039,7 +3039,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.190133</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L30" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="b">
@@ -3127,7 +3127,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.191130</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -3154,7 +3154,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="b">
@@ -3215,7 +3215,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.191130</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -3242,7 +3242,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="b">
@@ -3303,7 +3303,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.191486</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -3320,7 +3320,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>7</v>
@@ -3330,7 +3330,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -3344,11 +3344,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L33" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" t="b">
         <v>1</v>
@@ -3391,7 +3391,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.192130</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -3418,7 +3418,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L34" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="b">
@@ -3479,7 +3479,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.192130</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3496,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
         <v>7</v>
@@ -3506,7 +3506,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H35" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -3520,11 +3520,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L35" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" t="b">
         <v>1</v>
@@ -3567,7 +3567,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.192130</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -3594,7 +3594,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L36" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="b">
@@ -3655,7 +3655,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.193133</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -3682,7 +3682,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="b">
@@ -3743,7 +3743,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.193133</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -3770,7 +3770,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="b">
@@ -3831,7 +3831,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.193133</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -3858,7 +3858,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="b">
@@ -3919,7 +3919,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.194132</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -3946,7 +3946,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H40" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="b">
@@ -4001,13 +4001,17 @@
         <v>0.3518583448021626</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.5901428612819832</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>74</v>
+      </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.194132</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -4034,7 +4038,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H41" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -4048,7 +4052,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="b">
@@ -4095,7 +4099,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.195056</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -4122,7 +4126,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -4136,7 +4140,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="b">
@@ -4177,17 +4181,13 @@
         <v>0.4961108020051864</v>
       </c>
       <c r="W42" t="n">
-        <v>1</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0.4041168988591605</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.195128</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -4204,7 +4204,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
         <v>7</v>
@@ -4214,7 +4214,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -4228,11 +4228,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L43" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" t="b">
         <v>1</v>
@@ -4275,7 +4275,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.197135</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -4302,7 +4302,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H44" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L44" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="b">
@@ -4357,13 +4357,17 @@
         <v>1.455615620282754</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.5193700315892974</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>3</v>
+      </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.198146</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -4380,7 +4384,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
         <v>7</v>
@@ -4390,7 +4394,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -4404,11 +4408,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L45" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" t="b">
         <v>1</v>
@@ -4451,7 +4455,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.199134</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -4468,7 +4472,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
         <v>7</v>
@@ -4478,7 +4482,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -4492,11 +4496,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L46" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" t="b">
         <v>1</v>
@@ -4539,7 +4543,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.200133</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4570,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H47" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -4580,7 +4584,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="b">
@@ -4627,7 +4631,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.200543</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -4654,7 +4658,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H48" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -4668,7 +4672,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="b">
@@ -4709,17 +4713,13 @@
         <v>1.622646245406396</v>
       </c>
       <c r="W48" t="n">
-        <v>1</v>
-      </c>
-      <c r="X48" t="n">
-        <v>0.5901428612819832</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>136</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.201147</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -4736,7 +4736,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>7</v>
@@ -4746,7 +4746,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -4760,11 +4760,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L49" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" t="b">
         <v>1</v>
@@ -4807,7 +4807,7 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.201695</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -4824,7 +4824,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
         <v>7</v>
@@ -4834,7 +4834,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H50" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -4848,11 +4848,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L50" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" t="b">
         <v>1</v>
@@ -4895,7 +4895,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.201695</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -4922,7 +4922,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H51" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="b">
@@ -4983,7 +4983,7 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.201695</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -5000,7 +5000,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
         <v>7</v>
@@ -5010,7 +5010,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H52" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -5024,11 +5024,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L52" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52" t="b">
         <v>1</v>
@@ -5071,7 +5071,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.202688</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -5098,7 +5098,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H53" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L53" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="b">
@@ -5159,7 +5159,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.203017</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -5176,7 +5176,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
         <v>7</v>
@@ -5186,7 +5186,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H54" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -5200,11 +5200,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L54" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54" t="b">
         <v>1</v>
@@ -5241,13 +5241,17 @@
         <v>0.8922292285550151</v>
       </c>
       <c r="W54" t="n">
-        <v>0</v>
-      </c>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.4285733635843882</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>121</v>
+      </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.203017</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -5274,7 +5278,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H55" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -5288,7 +5292,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="b">
@@ -5335,7 +5339,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.203607</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -5362,7 +5366,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H56" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -5376,7 +5380,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L56" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="b">
@@ -5417,17 +5421,13 @@
         <v>1.419895926803763</v>
       </c>
       <c r="W56" t="n">
-        <v>1</v>
-      </c>
-      <c r="X56" t="n">
-        <v>0.5193700315892974</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>129</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.204183</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -5454,7 +5454,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H57" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L57" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="b">
@@ -5515,7 +5515,7 @@
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.204765</t>
+          <t>2025-11-13T06:52:06.110952</t>
         </is>
       </c>
     </row>
@@ -5542,7 +5542,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H58" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="b">
@@ -5603,7 +5603,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.907211</t>
+          <t>2025-11-13T06:52:06.539916</t>
         </is>
       </c>
     </row>
@@ -5630,7 +5630,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H59" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="b">
@@ -5695,7 +5695,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.908213</t>
+          <t>2025-11-13T06:52:06.539916</t>
         </is>
       </c>
     </row>
@@ -5722,7 +5722,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H60" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L60" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="b">
@@ -5787,7 +5787,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.908213</t>
+          <t>2025-11-13T06:52:06.539916</t>
         </is>
       </c>
     </row>
@@ -5814,7 +5814,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L61" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="b">
@@ -5879,7 +5879,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.908213</t>
+          <t>2025-11-13T06:52:06.539916</t>
         </is>
       </c>
     </row>
@@ -5906,7 +5906,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H62" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="b">
@@ -5971,7 +5971,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.909208</t>
+          <t>2025-11-13T06:52:06.539916</t>
         </is>
       </c>
     </row>
@@ -5998,7 +5998,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H63" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="b">
@@ -6063,7 +6063,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.909208</t>
+          <t>2025-11-13T06:52:06.540917</t>
         </is>
       </c>
     </row>
@@ -6090,7 +6090,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H64" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L64" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="b">
@@ -6155,7 +6155,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.909208</t>
+          <t>2025-11-13T06:52:06.540917</t>
         </is>
       </c>
     </row>
@@ -6182,7 +6182,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H65" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -6196,7 +6196,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L65" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="b">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.910207</t>
+          <t>2025-11-13T06:52:06.540917</t>
         </is>
       </c>
     </row>
@@ -6274,7 +6274,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H66" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L66" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="b">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.910207</t>
+          <t>2025-11-13T06:52:06.540917</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6366,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H67" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L67" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="b">
@@ -6431,7 +6431,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.910207</t>
+          <t>2025-11-13T06:52:06.540917</t>
         </is>
       </c>
     </row>
@@ -6458,7 +6458,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H68" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L68" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="b">
@@ -6523,7 +6523,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.911396</t>
+          <t>2025-11-13T06:52:06.540917</t>
         </is>
       </c>
     </row>
@@ -6550,7 +6550,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H69" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L69" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="b">
@@ -6615,7 +6615,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.911396</t>
+          <t>2025-11-13T06:52:06.540917</t>
         </is>
       </c>
     </row>
@@ -6642,7 +6642,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H70" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="b">
@@ -6707,7 +6707,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:17.911944</t>
+          <t>2025-11-13T06:52:06.540917</t>
         </is>
       </c>
     </row>
@@ -6734,7 +6734,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H71" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L71" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="b">
@@ -6789,17 +6789,17 @@
         <v>2.249466830893394</v>
       </c>
       <c r="W71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X71" t="n">
-        <v>0.5924894589884222</v>
+        <v>0.4661796049705298</v>
       </c>
       <c r="Y71" t="n">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:18.738244</t>
+          <t>2025-11-13T06:52:06.806932</t>
         </is>
       </c>
     </row>
@@ -6826,7 +6826,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H72" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -6840,7 +6840,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L72" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="b">
@@ -6881,17 +6881,17 @@
         <v>3.454136595739305</v>
       </c>
       <c r="W72" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="X72" t="n">
-        <v>0.5173502331327696</v>
+        <v>0.5829919351087561</v>
       </c>
       <c r="Y72" t="n">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:18.739246</t>
+          <t>2025-11-13T06:52:06.806932</t>
         </is>
       </c>
     </row>
@@ -6918,7 +6918,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H73" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L73" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="b">
@@ -6973,17 +6973,17 @@
         <v>2.805725195773698</v>
       </c>
       <c r="W73" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X73" t="n">
-        <v>0.4834822006297558</v>
+        <v>0.5443459042329746</v>
       </c>
       <c r="Y73" t="n">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:18.739246</t>
+          <t>2025-11-13T06:52:06.806932</t>
         </is>
       </c>
     </row>
@@ -7010,7 +7010,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H74" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L74" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="b">
@@ -7065,7 +7065,7 @@
         <v>3.080254324668591</v>
       </c>
       <c r="W74" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="X74" t="n">
         <v>0.4648690042010548</v>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:18.740244</t>
+          <t>2025-11-13T06:52:06.806932</t>
         </is>
       </c>
     </row>
@@ -7102,7 +7102,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H75" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L75" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="b">
@@ -7157,17 +7157,17 @@
         <v>2.793897844989489</v>
       </c>
       <c r="W75" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X75" t="n">
-        <v>0.4239730734667366</v>
+        <v>0.5885707141115961</v>
       </c>
       <c r="Y75" t="n">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:18.741245</t>
+          <t>2025-11-13T06:52:06.806932</t>
         </is>
       </c>
     </row>
@@ -7194,7 +7194,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H76" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L76" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="b">
@@ -7252,14 +7252,14 @@
         <v>3</v>
       </c>
       <c r="X76" t="n">
-        <v>0.5135400655639983</v>
+        <v>0.4210988519660541</v>
       </c>
       <c r="Y76" t="n">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:18.742248</t>
+          <t>2025-11-13T06:52:06.806932</t>
         </is>
       </c>
     </row>
@@ -7286,7 +7286,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H77" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L77" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="b">
@@ -7341,7 +7341,7 @@
         <v>2.848787136167361</v>
       </c>
       <c r="W77" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X77" t="n">
         <v>0.471259567615395</v>
@@ -7351,7 +7351,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:18.742248</t>
+          <t>2025-11-13T06:52:06.806932</t>
         </is>
       </c>
     </row>
@@ -7368,7 +7368,7 @@
         <v>5</v>
       </c>
       <c r="D78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
         <v>7</v>
@@ -7378,7 +7378,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H78" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -7392,11 +7392,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O78" t="b">
         <v>1</v>
@@ -7433,17 +7433,13 @@
         <v>6.658403778111246</v>
       </c>
       <c r="W78" t="n">
-        <v>10</v>
-      </c>
-      <c r="X78" t="n">
-        <v>0.4807672342116082</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:18.743250</t>
+          <t>2025-11-13T06:52:06.806932</t>
         </is>
       </c>
     </row>
@@ -7470,7 +7466,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H79" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -7484,7 +7480,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L79" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="b">
@@ -7525,17 +7521,17 @@
         <v>2.10460961722997</v>
       </c>
       <c r="W79" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X79" t="n">
-        <v>0.4705137712668338</v>
+        <v>0.5815132947852186</v>
       </c>
       <c r="Y79" t="n">
         <v>58</v>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:18.744244</t>
+          <t>2025-11-13T06:52:06.806932</t>
         </is>
       </c>
     </row>
@@ -7562,7 +7558,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -7576,7 +7572,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="b">
@@ -7623,7 +7619,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:19.304352</t>
+          <t>2025-11-13T06:52:07.079578</t>
         </is>
       </c>
     </row>
@@ -7650,7 +7646,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -7664,7 +7660,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="b">
@@ -7715,7 +7711,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:19.304352</t>
+          <t>2025-11-13T06:52:07.079578</t>
         </is>
       </c>
     </row>
@@ -7742,7 +7738,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -7756,7 +7752,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="b">
@@ -7807,7 +7803,7 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:19.304352</t>
+          <t>2025-11-13T06:52:07.079578</t>
         </is>
       </c>
     </row>
@@ -7834,7 +7830,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -7848,7 +7844,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="b">
@@ -7899,7 +7895,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:19.305351</t>
+          <t>2025-11-13T06:52:07.079578</t>
         </is>
       </c>
     </row>
@@ -7926,7 +7922,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -7940,7 +7936,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="b">
@@ -7991,7 +7987,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:19.305351</t>
+          <t>2025-11-13T06:52:07.079578</t>
         </is>
       </c>
     </row>
@@ -8018,7 +8014,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -8032,7 +8028,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="b">
@@ -8079,7 +8075,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:19.305351</t>
+          <t>2025-11-13T06:52:07.079578</t>
         </is>
       </c>
     </row>
@@ -8106,7 +8102,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -8120,7 +8116,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="b">
@@ -8171,7 +8167,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:19.305351</t>
+          <t>2025-11-13T06:52:07.079578</t>
         </is>
       </c>
     </row>
@@ -8198,7 +8194,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -8212,7 +8208,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="b">
@@ -8263,7 +8259,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:19.305351</t>
+          <t>2025-11-13T06:52:07.079578</t>
         </is>
       </c>
     </row>
@@ -8280,7 +8276,7 @@
         <v>7</v>
       </c>
       <c r="D88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" t="n">
         <v>7</v>
@@ -8290,7 +8286,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -8304,11 +8300,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L88" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O88" t="b">
         <v>1</v>
@@ -8345,13 +8341,17 @@
         <v>4.213118498638085</v>
       </c>
       <c r="W88" t="n">
-        <v>0</v>
-      </c>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X88" t="n">
+        <v>0.5726206851751187</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>154</v>
+      </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:19.305351</t>
+          <t>2025-11-13T06:52:07.080582</t>
         </is>
       </c>
     </row>
@@ -8378,7 +8378,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="b">
@@ -8436,14 +8436,14 @@
         <v>2</v>
       </c>
       <c r="X89" t="n">
-        <v>0.5726206851751187</v>
+        <v>0.519579995762217</v>
       </c>
       <c r="Y89" t="n">
         <v>114</v>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:19.306350</t>
+          <t>2025-11-13T06:52:07.080582</t>
         </is>
       </c>
     </row>
@@ -8470,7 +8470,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="b">
@@ -8528,14 +8528,14 @@
         <v>2</v>
       </c>
       <c r="X90" t="n">
-        <v>0.519579995762217</v>
+        <v>0.5413714687695235</v>
       </c>
       <c r="Y90" t="n">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:19.306350</t>
+          <t>2025-11-13T06:52:07.080582</t>
         </is>
       </c>
     </row>
@@ -8562,7 +8562,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="b">
@@ -8617,17 +8617,17 @@
         <v>3.587409598103194</v>
       </c>
       <c r="W91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X91" t="n">
-        <v>0.5413714687695235</v>
+        <v>0.4363649934414202</v>
       </c>
       <c r="Y91" t="n">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:19.306350</t>
+          <t>2025-11-13T06:52:07.080582</t>
         </is>
       </c>
     </row>
@@ -8654,7 +8654,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="b">
@@ -8712,14 +8712,14 @@
         <v>2</v>
       </c>
       <c r="X92" t="n">
-        <v>0.4582458280396084</v>
+        <v>0.4031272813482388</v>
       </c>
       <c r="Y92" t="n">
         <v>145</v>
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:19.306350</t>
+          <t>2025-11-13T06:52:07.081056</t>
         </is>
       </c>
     </row>
@@ -8746,7 +8746,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="b">
@@ -8801,17 +8801,17 @@
         <v>1.335206826312749</v>
       </c>
       <c r="W93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X93" t="n">
-        <v>0.4031272813482388</v>
+        <v>0.4770833005079832</v>
       </c>
       <c r="Y93" t="n">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:19.306350</t>
+          <t>2025-11-13T06:52:07.081056</t>
         </is>
       </c>
     </row>
@@ -8838,7 +8838,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="b">
@@ -8896,14 +8896,14 @@
         <v>2</v>
       </c>
       <c r="X94" t="n">
-        <v>0.5045465658763988</v>
+        <v>0.4244076469689558</v>
       </c>
       <c r="Y94" t="n">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:19.306350</t>
+          <t>2025-11-13T06:52:07.081056</t>
         </is>
       </c>
     </row>
@@ -8930,7 +8930,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="b">
@@ -8988,14 +8988,14 @@
         <v>2</v>
       </c>
       <c r="X95" t="n">
-        <v>0.4244076469689558</v>
+        <v>0.5459212356676129</v>
       </c>
       <c r="Y95" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:19.307350</t>
+          <t>2025-11-13T06:52:07.081056</t>
         </is>
       </c>
     </row>
@@ -9022,7 +9022,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="b">
@@ -9077,17 +9077,17 @@
         <v>1.469617710326463</v>
       </c>
       <c r="W96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X96" t="n">
-        <v>0.5459212356676129</v>
+        <v>0.5223705789444759</v>
       </c>
       <c r="Y96" t="n">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:19.307350</t>
+          <t>2025-11-13T06:52:07.081592</t>
         </is>
       </c>
     </row>
@@ -9114,7 +9114,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="b">
@@ -9169,13 +9169,17 @@
         <v>1.224716337726744</v>
       </c>
       <c r="W97" t="n">
-        <v>0</v>
-      </c>
-      <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0.5173502331327696</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>114</v>
+      </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:19.307350</t>
+          <t>2025-11-13T06:52:07.081592</t>
         </is>
       </c>
     </row>
@@ -9202,7 +9206,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -9216,7 +9220,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="b">
@@ -9257,17 +9261,17 @@
         <v>1.302609265714979</v>
       </c>
       <c r="W98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X98" t="n">
-        <v>0.5173502331327696</v>
+        <v>0.4900998503939086</v>
       </c>
       <c r="Y98" t="n">
         <v>21</v>
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:19.307350</t>
+          <t>2025-11-13T06:52:07.081592</t>
         </is>
       </c>
     </row>
@@ -9294,7 +9298,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -9308,7 +9312,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="b">
@@ -9349,17 +9353,17 @@
         <v>1.30879706619595</v>
       </c>
       <c r="W99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X99" t="n">
-        <v>0.4900998503939086</v>
+        <v>0.4092900825439996</v>
       </c>
       <c r="Y99" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:19.307350</t>
+          <t>2025-11-13T06:52:07.081592</t>
         </is>
       </c>
     </row>
@@ -9386,7 +9390,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -9400,7 +9404,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="b">
@@ -9441,17 +9445,17 @@
         <v>1.563820307840243</v>
       </c>
       <c r="W100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X100" t="n">
-        <v>0.4092900825439996</v>
+        <v>0.5368466053024313</v>
       </c>
       <c r="Y100" t="n">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:19.307350</t>
+          <t>2025-11-13T06:52:07.081592</t>
         </is>
       </c>
     </row>
@@ -9478,7 +9482,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -9492,7 +9496,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="b">
@@ -9533,17 +9537,17 @@
         <v>1.195031309560613</v>
       </c>
       <c r="W101" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X101" t="n">
-        <v>0.5368466053024313</v>
+        <v>0.4863890037284231</v>
       </c>
       <c r="Y101" t="n">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:19.308350</t>
+          <t>2025-11-13T06:52:07.081592</t>
         </is>
       </c>
     </row>
@@ -9560,7 +9564,7 @@
         <v>7</v>
       </c>
       <c r="D102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
         <v>7</v>
@@ -9570,7 +9574,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -9584,11 +9588,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L102" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O102" t="b">
         <v>1</v>
@@ -9631,7 +9635,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-11-12T07:22:19.308350</t>
+          <t>2025-11-13T06:52:07.081592</t>
         </is>
       </c>
     </row>
